--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project Ajker Deal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E24EA-EE61-45D7-9EFF-46BF084A0F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB333A-4A91-43C8-8C72-6EFB546706E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>PASS</t>
   </si>
@@ -685,6 +685,28 @@
   </si>
   <si>
     <t>Log In</t>
+  </si>
+  <si>
+    <t>UI Tesing</t>
+  </si>
+  <si>
+    <t>Check alignmet of the login form</t>
+  </si>
+  <si>
+    <t>All element will be properly aligened</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check all elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder text will be present </t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check fields.</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2149,9 +2171,6 @@
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2336,38 +2355,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2376,6 +2455,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2421,107 +2503,44 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2965,9 +2984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2989,10 +3008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="289"/>
+      <c r="B1" s="287"/>
       <c r="C1" t="s">
         <v>158</v>
       </c>
@@ -3005,10 +3024,10 @@
       </c>
       <c r="G1" s="146"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="290" t="s">
+      <c r="I1" s="288" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="291"/>
+      <c r="J1" s="289"/>
       <c r="K1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3028,10 +3047,10 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="289"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="147" t="s">
         <v>36</v>
       </c>
@@ -3049,7 +3068,7 @@
       </c>
       <c r="J2" s="178">
         <f>COUNTIF(L8:L99, "Passed")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2"/>
       <c r="N2" s="3"/>
@@ -3070,10 +3089,10 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="289"/>
+      <c r="B3" s="287"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148" t="s">
         <v>12</v>
@@ -3112,10 +3131,10 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="289"/>
+      <c r="B4" s="287"/>
       <c r="C4" s="147"/>
       <c r="D4" s="148" t="s">
         <v>15</v>
@@ -3152,17 +3171,17 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="301" t="s">
+      <c r="B5" s="285"/>
+      <c r="C5" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
       <c r="H5" s="1"/>
       <c r="I5" s="183" t="s">
         <v>3</v>
@@ -3203,7 +3222,7 @@
       </c>
       <c r="J6" s="186">
         <f>SUM(J2:J5)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" s="3"/>
@@ -3268,11 +3287,11 @@
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="297"/>
-      <c r="C8" s="201" t="s">
+      <c r="B8" s="282"/>
+      <c r="C8" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="294"/>
+      <c r="D8" s="279"/>
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -3315,9 +3334,9 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="298"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="295"/>
+      <c r="B9" s="283"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="280"/>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
@@ -3360,9 +3379,9 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="298"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="295"/>
+      <c r="B10" s="283"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
@@ -3378,7 +3397,7 @@
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="203" t="s">
+      <c r="J10" s="202" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="8"/>
@@ -3403,46 +3422,46 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
     </row>
-    <row r="11" spans="1:29" s="200" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
-      <c r="B11" s="298"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="199"/>
-      <c r="O11" s="199"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="199"/>
-      <c r="R11" s="199"/>
-      <c r="S11" s="199"/>
-      <c r="T11" s="199"/>
-      <c r="U11" s="199"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="199"/>
-      <c r="Y11" s="199"/>
-      <c r="Z11" s="199"/>
-      <c r="AA11" s="199"/>
-      <c r="AB11" s="199"/>
-      <c r="AC11" s="199"/>
+    <row r="11" spans="1:29" s="199" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="192"/>
+      <c r="B11" s="283"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="198"/>
+      <c r="U11" s="198"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
     </row>
     <row r="12" spans="1:29" s="12" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="298"/>
-      <c r="C12" s="292" t="s">
+      <c r="B12" s="283"/>
+      <c r="C12" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="295"/>
+      <c r="D12" s="280"/>
       <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
@@ -3458,7 +3477,7 @@
       <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="203" t="s">
+      <c r="J12" s="202" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="8"/>
@@ -3487,9 +3506,9 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="298"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="295"/>
+      <c r="B13" s="283"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="280"/>
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3505,7 +3524,7 @@
       <c r="I13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="203" t="s">
+      <c r="J13" s="202" t="s">
         <v>70</v>
       </c>
       <c r="K13" s="8"/>
@@ -3534,9 +3553,9 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="299"/>
-      <c r="C14" s="293"/>
-      <c r="D14" s="296"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
@@ -3552,7 +3571,7 @@
       <c r="I14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="203" t="s">
+      <c r="J14" s="202" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="8"/>
@@ -3579,8 +3598,8 @@
     </row>
     <row r="15" spans="1:29" s="158" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="154"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
@@ -3609,16 +3628,16 @@
       <c r="AC15" s="157"/>
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
+      <c r="A16" s="203">
         <v>7</v>
       </c>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="291" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="302" t="s">
+      <c r="C16" s="309" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="212" t="s">
+      <c r="D16" s="211" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3636,7 +3655,7 @@
       <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="203" t="s">
+      <c r="J16" s="202" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="8"/>
@@ -3662,12 +3681,12 @@
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="205">
+      <c r="A17" s="204">
         <v>8</v>
       </c>
-      <c r="B17" s="273"/>
-      <c r="C17" s="303"/>
-      <c r="D17" s="213"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="212"/>
       <c r="E17" s="6" t="s">
         <v>72</v>
       </c>
@@ -3683,7 +3702,7 @@
       <c r="I17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="203" t="s">
+      <c r="J17" s="202" t="s">
         <v>75</v>
       </c>
       <c r="K17" s="16"/>
@@ -3709,12 +3728,12 @@
       <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="205">
+      <c r="A18" s="204">
         <v>9</v>
       </c>
-      <c r="B18" s="273"/>
-      <c r="C18" s="303"/>
-      <c r="D18" s="213"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3756,12 +3775,12 @@
       <c r="AC18" s="19"/>
     </row>
     <row r="19" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="205">
+      <c r="A19" s="204">
         <v>10</v>
       </c>
-      <c r="B19" s="273"/>
-      <c r="C19" s="303"/>
-      <c r="D19" s="213"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
@@ -3777,7 +3796,7 @@
       <c r="I19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="203" t="s">
+      <c r="J19" s="202" t="s">
         <v>83</v>
       </c>
       <c r="K19" s="21"/>
@@ -3803,12 +3822,12 @@
       <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205">
+      <c r="A20" s="204">
         <v>11</v>
       </c>
-      <c r="B20" s="273"/>
-      <c r="C20" s="303"/>
-      <c r="D20" s="213"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="212"/>
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
@@ -3824,7 +3843,7 @@
       <c r="I20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="203"/>
+      <c r="J20" s="202"/>
       <c r="K20" s="21"/>
       <c r="L20" s="17" t="s">
         <v>31</v>
@@ -3848,12 +3867,12 @@
       <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="205">
+      <c r="A21" s="204">
         <v>12</v>
       </c>
-      <c r="B21" s="273"/>
-      <c r="C21" s="303"/>
-      <c r="D21" s="320"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
@@ -3869,7 +3888,7 @@
       <c r="I21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="203"/>
+      <c r="J21" s="202"/>
       <c r="K21" s="21"/>
       <c r="L21" s="17" t="s">
         <v>31</v>
@@ -3893,13 +3912,13 @@
       <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="1:29" s="20" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="205">
+      <c r="A22" s="204">
         <v>13</v>
       </c>
-      <c r="B22" s="273"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="241" t="s">
+      <c r="B22" s="292"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="240" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3914,7 +3933,7 @@
       <c r="I22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="203"/>
+      <c r="J22" s="202"/>
       <c r="K22" s="21"/>
       <c r="L22" s="17" t="s">
         <v>31</v>
@@ -3937,47 +3956,47 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
     </row>
-    <row r="23" spans="1:29" s="250" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="243"/>
-      <c r="B23" s="273"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="320"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="248"/>
-      <c r="N23" s="248"/>
-      <c r="O23" s="248"/>
-      <c r="P23" s="248"/>
-      <c r="Q23" s="248"/>
-      <c r="R23" s="248"/>
-      <c r="S23" s="248"/>
-      <c r="T23" s="248"/>
-      <c r="U23" s="249"/>
-      <c r="V23" s="249"/>
-      <c r="W23" s="249"/>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="249"/>
-      <c r="AA23" s="249"/>
-      <c r="AB23" s="249"/>
-      <c r="AC23" s="249"/>
+    <row r="23" spans="1:29" s="249" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="242"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="245"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="247"/>
+      <c r="N23" s="247"/>
+      <c r="O23" s="247"/>
+      <c r="P23" s="247"/>
+      <c r="Q23" s="247"/>
+      <c r="R23" s="247"/>
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="248"/>
+      <c r="V23" s="248"/>
+      <c r="W23" s="248"/>
+      <c r="X23" s="248"/>
+      <c r="Y23" s="248"/>
+      <c r="Z23" s="248"/>
+      <c r="AA23" s="248"/>
+      <c r="AB23" s="248"/>
+      <c r="AC23" s="248"/>
     </row>
     <row r="24" spans="1:29" s="20" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="205">
+      <c r="A24" s="204">
         <v>14</v>
       </c>
-      <c r="B24" s="273"/>
-      <c r="C24" s="305" t="s">
+      <c r="B24" s="292"/>
+      <c r="C24" s="270" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="320"/>
-      <c r="E24" s="242" t="s">
+      <c r="D24" s="275"/>
+      <c r="E24" s="241" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -3992,7 +4011,7 @@
       <c r="I24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="203" t="s">
+      <c r="J24" s="202" t="s">
         <v>96</v>
       </c>
       <c r="K24" s="21"/>
@@ -4018,12 +4037,12 @@
       <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="205">
+      <c r="A25" s="204">
         <v>15</v>
       </c>
-      <c r="B25" s="273"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="320"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="275"/>
       <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
@@ -4039,7 +4058,7 @@
       <c r="I25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="253"/>
+      <c r="J25" s="252"/>
       <c r="K25" s="21"/>
       <c r="L25" s="17" t="s">
         <v>31</v>
@@ -4063,12 +4082,12 @@
       <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="205">
+      <c r="A26" s="204">
         <v>16</v>
       </c>
-      <c r="B26" s="273"/>
-      <c r="C26" s="303"/>
-      <c r="D26" s="320"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="275"/>
       <c r="E26" s="6" t="s">
         <v>104</v>
       </c>
@@ -4084,7 +4103,7 @@
       <c r="I26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="203" t="s">
+      <c r="J26" s="202" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="21"/>
@@ -4110,12 +4129,12 @@
       <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="205">
+      <c r="A27" s="204">
         <v>17</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="303"/>
-      <c r="D27" s="320"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="275"/>
       <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
@@ -4131,7 +4150,7 @@
       <c r="I27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="203" t="s">
+      <c r="J27" s="202" t="s">
         <v>109</v>
       </c>
       <c r="K27" s="21"/>
@@ -4157,12 +4176,12 @@
       <c r="AC27" s="19"/>
     </row>
     <row r="28" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="205">
+      <c r="A28" s="204">
         <v>18</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="303"/>
-      <c r="D28" s="320"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="271"/>
+      <c r="D28" s="275"/>
       <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
@@ -4204,12 +4223,12 @@
       <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205">
+      <c r="A29" s="204">
         <v>19</v>
       </c>
-      <c r="B29" s="273"/>
-      <c r="C29" s="303"/>
-      <c r="D29" s="320"/>
+      <c r="B29" s="292"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="275"/>
       <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
@@ -4251,12 +4270,12 @@
       <c r="AC29" s="19"/>
     </row>
     <row r="30" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="205">
+      <c r="A30" s="204">
         <v>20</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="303"/>
-      <c r="D30" s="320"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="275"/>
       <c r="E30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4272,7 +4291,7 @@
       <c r="I30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="203"/>
+      <c r="J30" s="202"/>
       <c r="K30" s="21"/>
       <c r="L30" s="17" t="s">
         <v>31</v>
@@ -4296,12 +4315,12 @@
       <c r="AC30" s="19"/>
     </row>
     <row r="31" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="205">
+      <c r="A31" s="204">
         <v>21</v>
       </c>
-      <c r="B31" s="273"/>
-      <c r="C31" s="303"/>
-      <c r="D31" s="320"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="275"/>
       <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
@@ -4317,7 +4336,7 @@
       <c r="I31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="203"/>
+      <c r="J31" s="202"/>
       <c r="K31" s="21"/>
       <c r="L31" s="17" t="s">
         <v>31</v>
@@ -4341,12 +4360,12 @@
       <c r="AC31" s="19"/>
     </row>
     <row r="32" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="205">
+      <c r="A32" s="204">
         <v>22</v>
       </c>
-      <c r="B32" s="273"/>
-      <c r="C32" s="303"/>
-      <c r="D32" s="320"/>
+      <c r="B32" s="292"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="275"/>
       <c r="E32" s="6" t="s">
         <v>122</v>
       </c>
@@ -4388,12 +4407,12 @@
       <c r="AC32" s="19"/>
     </row>
     <row r="33" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="205">
+      <c r="A33" s="204">
         <v>23</v>
       </c>
-      <c r="B33" s="273"/>
-      <c r="C33" s="303"/>
-      <c r="D33" s="320"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="275"/>
       <c r="E33" s="6" t="s">
         <v>124</v>
       </c>
@@ -4409,7 +4428,7 @@
       <c r="I33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="203"/>
+      <c r="J33" s="202"/>
       <c r="K33" s="21"/>
       <c r="L33" s="17" t="s">
         <v>31</v>
@@ -4433,12 +4452,12 @@
       <c r="AC33" s="19"/>
     </row>
     <row r="34" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="205">
+      <c r="A34" s="204">
         <v>24</v>
       </c>
-      <c r="B34" s="273"/>
-      <c r="C34" s="303"/>
-      <c r="D34" s="320"/>
+      <c r="B34" s="292"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="275"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
@@ -4480,12 +4499,12 @@
       <c r="AC34" s="19"/>
     </row>
     <row r="35" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="205">
+      <c r="A35" s="204">
         <v>25</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="303"/>
-      <c r="D35" s="320"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="275"/>
       <c r="E35" s="6" t="s">
         <v>132</v>
       </c>
@@ -4501,7 +4520,7 @@
       <c r="I35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="203"/>
+      <c r="J35" s="202"/>
       <c r="K35" s="21"/>
       <c r="L35" s="17" t="s">
         <v>31</v>
@@ -4525,12 +4544,12 @@
       <c r="AC35" s="19"/>
     </row>
     <row r="36" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="205">
+      <c r="A36" s="204">
         <v>26</v>
       </c>
-      <c r="B36" s="273"/>
-      <c r="C36" s="303"/>
-      <c r="D36" s="320"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="275"/>
       <c r="E36" s="6" t="s">
         <v>135</v>
       </c>
@@ -4572,12 +4591,12 @@
       <c r="AC36" s="19"/>
     </row>
     <row r="37" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="205">
+      <c r="A37" s="204">
         <v>27</v>
       </c>
-      <c r="B37" s="273"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="320"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="275"/>
       <c r="E37" s="6" t="s">
         <v>139</v>
       </c>
@@ -4619,12 +4638,12 @@
       <c r="AC37" s="19"/>
     </row>
     <row r="38" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="205">
+      <c r="A38" s="204">
         <v>28</v>
       </c>
-      <c r="B38" s="273"/>
-      <c r="C38" s="303"/>
-      <c r="D38" s="320"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="271"/>
+      <c r="D38" s="275"/>
       <c r="E38" s="6" t="s">
         <v>151</v>
       </c>
@@ -4640,7 +4659,7 @@
       <c r="I38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="203"/>
+      <c r="J38" s="202"/>
       <c r="K38" s="21"/>
       <c r="L38" s="17" t="s">
         <v>31</v>
@@ -4664,12 +4683,12 @@
       <c r="AC38" s="19"/>
     </row>
     <row r="39" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="205">
+      <c r="A39" s="204">
         <v>29</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="320"/>
+      <c r="B39" s="292"/>
+      <c r="C39" s="271"/>
+      <c r="D39" s="275"/>
       <c r="E39" s="6" t="s">
         <v>154</v>
       </c>
@@ -4711,12 +4730,12 @@
       <c r="AC39" s="19"/>
     </row>
     <row r="40" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="205">
+      <c r="A40" s="204">
         <v>30</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="320"/>
+      <c r="B40" s="292"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="275"/>
       <c r="E40" s="6" t="s">
         <v>142</v>
       </c>
@@ -4732,7 +4751,7 @@
       <c r="I40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="203"/>
+      <c r="J40" s="202"/>
       <c r="K40" s="21"/>
       <c r="L40" s="17" t="s">
         <v>31</v>
@@ -4756,12 +4775,12 @@
       <c r="AC40" s="19"/>
     </row>
     <row r="41" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="205">
+      <c r="A41" s="204">
         <v>31</v>
       </c>
-      <c r="B41" s="273"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="320"/>
+      <c r="B41" s="292"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="275"/>
       <c r="E41" s="6" t="s">
         <v>148</v>
       </c>
@@ -4777,7 +4796,7 @@
       <c r="I41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="203"/>
+      <c r="J41" s="202"/>
       <c r="K41" s="21"/>
       <c r="L41" s="17" t="s">
         <v>31</v>
@@ -4801,12 +4820,12 @@
       <c r="AC41" s="19"/>
     </row>
     <row r="42" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="205">
+      <c r="A42" s="204">
         <v>32</v>
       </c>
-      <c r="B42" s="273"/>
-      <c r="C42" s="303"/>
-      <c r="D42" s="320"/>
+      <c r="B42" s="292"/>
+      <c r="C42" s="271"/>
+      <c r="D42" s="275"/>
       <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
@@ -4822,7 +4841,7 @@
       <c r="I42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="203"/>
+      <c r="J42" s="202"/>
       <c r="K42" s="21"/>
       <c r="L42" s="17" t="s">
         <v>31</v>
@@ -4846,12 +4865,12 @@
       <c r="AC42" s="19"/>
     </row>
     <row r="43" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="205">
+      <c r="A43" s="204">
         <v>33</v>
       </c>
-      <c r="B43" s="273"/>
-      <c r="C43" s="303"/>
-      <c r="D43" s="320"/>
+      <c r="B43" s="292"/>
+      <c r="C43" s="271"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="6" t="s">
         <v>165</v>
       </c>
@@ -4867,7 +4886,7 @@
       <c r="I43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="203"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="21"/>
       <c r="L43" s="17" t="s">
         <v>31</v>
@@ -4891,16 +4910,16 @@
       <c r="AC43" s="19"/>
     </row>
     <row r="44" spans="1:29" s="165" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="273"/>
-      <c r="C44" s="313"/>
-      <c r="D44" s="320"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="292"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
       <c r="G44" s="159"/>
       <c r="H44" s="159"/>
       <c r="I44" s="160"/>
-      <c r="J44" s="254"/>
+      <c r="J44" s="253"/>
       <c r="K44" s="161"/>
       <c r="L44" s="162"/>
       <c r="M44" s="163"/>
@@ -4922,14 +4941,14 @@
       <c r="AC44" s="164"/>
     </row>
     <row r="45" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="207">
+      <c r="A45" s="206">
         <v>34</v>
       </c>
-      <c r="B45" s="312"/>
-      <c r="C45" s="317" t="s">
+      <c r="B45" s="293"/>
+      <c r="C45" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="320"/>
+      <c r="D45" s="275"/>
       <c r="E45" s="24" t="s">
         <v>168</v>
       </c>
@@ -4945,7 +4964,7 @@
       <c r="I45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J45" s="255"/>
+      <c r="J45" s="254"/>
       <c r="K45" s="27"/>
       <c r="L45" s="9" t="s">
         <v>31</v>
@@ -4969,12 +4988,12 @@
       <c r="AC45" s="29"/>
     </row>
     <row r="46" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="207">
+      <c r="A46" s="206">
         <v>35</v>
       </c>
-      <c r="B46" s="312"/>
-      <c r="C46" s="318"/>
-      <c r="D46" s="320"/>
+      <c r="B46" s="293"/>
+      <c r="C46" s="273"/>
+      <c r="D46" s="275"/>
       <c r="E46" s="24" t="s">
         <v>172</v>
       </c>
@@ -5014,12 +5033,12 @@
       <c r="AC46" s="29"/>
     </row>
     <row r="47" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="207">
+      <c r="A47" s="206">
         <v>36</v>
       </c>
-      <c r="B47" s="312"/>
-      <c r="C47" s="318"/>
-      <c r="D47" s="320"/>
+      <c r="B47" s="293"/>
+      <c r="C47" s="273"/>
+      <c r="D47" s="275"/>
       <c r="E47" s="24" t="s">
         <v>176</v>
       </c>
@@ -5035,7 +5054,7 @@
       <c r="I47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="203"/>
+      <c r="J47" s="202"/>
       <c r="K47" s="27"/>
       <c r="L47" s="9" t="s">
         <v>31</v>
@@ -5059,12 +5078,12 @@
       <c r="AC47" s="29"/>
     </row>
     <row r="48" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="207">
+      <c r="A48" s="206">
         <v>37</v>
       </c>
-      <c r="B48" s="312"/>
-      <c r="C48" s="319"/>
-      <c r="D48" s="321"/>
+      <c r="B48" s="293"/>
+      <c r="C48" s="274"/>
+      <c r="D48" s="276"/>
       <c r="E48" s="32" t="s">
         <v>180</v>
       </c>
@@ -5080,7 +5099,7 @@
       <c r="I48" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J48" s="256"/>
+      <c r="J48" s="255"/>
       <c r="K48" s="27"/>
       <c r="L48" s="9" t="s">
         <v>31</v>
@@ -5104,19 +5123,19 @@
       <c r="AC48" s="29"/>
     </row>
     <row r="49" spans="1:29" s="174" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="209"/>
-      <c r="B49" s="312"/>
-      <c r="C49" s="322"/>
-      <c r="D49" s="306"/>
-      <c r="E49" s="307"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="309"/>
-      <c r="K49" s="310"/>
-      <c r="L49" s="197"/>
-      <c r="M49" s="311"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="293"/>
+      <c r="C49" s="269"/>
+      <c r="D49" s="259"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="261"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="262"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="264"/>
       <c r="N49" s="172"/>
       <c r="O49" s="172"/>
       <c r="P49" s="172"/>
@@ -5135,22 +5154,36 @@
       <c r="AC49" s="173"/>
     </row>
     <row r="50" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="207">
-        <v>18</v>
-      </c>
-      <c r="B50" s="312"/>
-      <c r="C50" s="315"/>
-      <c r="D50" s="214" t="s">
+      <c r="A50" s="206">
+        <v>38</v>
+      </c>
+      <c r="B50" s="293"/>
+      <c r="C50" s="267" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="213" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="257"/>
+      <c r="E50" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="256"/>
       <c r="K50" s="27"/>
-      <c r="L50" s="9"/>
+      <c r="L50" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M50" s="31"/>
       <c r="N50" s="28"/>
       <c r="O50" s="28"/>
@@ -5170,20 +5203,32 @@
       <c r="AC50" s="29"/>
     </row>
     <row r="51" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="207">
+      <c r="A51" s="206">
         <v>19</v>
       </c>
-      <c r="B51" s="312"/>
-      <c r="C51" s="315"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="258"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="9"/>
+      <c r="B51" s="293"/>
+      <c r="C51" s="267"/>
+      <c r="D51" s="213"/>
+      <c r="E51" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="257"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M51" s="31"/>
       <c r="N51" s="28"/>
       <c r="O51" s="28"/>
@@ -5203,18 +5248,18 @@
       <c r="AC51" s="29"/>
     </row>
     <row r="52" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="207">
+      <c r="A52" s="206">
         <v>20</v>
       </c>
-      <c r="B52" s="312"/>
-      <c r="C52" s="315"/>
-      <c r="D52" s="214"/>
+      <c r="B52" s="293"/>
+      <c r="C52" s="267"/>
+      <c r="D52" s="213"/>
       <c r="E52" s="24"/>
       <c r="F52" s="6"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="255"/>
+      <c r="J52" s="254"/>
       <c r="K52" s="27"/>
       <c r="L52" s="9"/>
       <c r="M52" s="31"/>
@@ -5236,18 +5281,18 @@
       <c r="AC52" s="29"/>
     </row>
     <row r="53" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="207">
+      <c r="A53" s="206">
         <v>21</v>
       </c>
-      <c r="B53" s="312"/>
-      <c r="C53" s="315"/>
-      <c r="D53" s="214"/>
+      <c r="B53" s="293"/>
+      <c r="C53" s="267"/>
+      <c r="D53" s="213"/>
       <c r="E53" s="24"/>
       <c r="F53" s="6"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="259"/>
+      <c r="J53" s="258"/>
       <c r="K53" s="27"/>
       <c r="L53" s="9"/>
       <c r="M53" s="31"/>
@@ -5269,18 +5314,18 @@
       <c r="AC53" s="29"/>
     </row>
     <row r="54" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="207">
+      <c r="A54" s="206">
         <v>22</v>
       </c>
-      <c r="B54" s="312"/>
-      <c r="C54" s="315"/>
-      <c r="D54" s="214"/>
+      <c r="B54" s="293"/>
+      <c r="C54" s="267"/>
+      <c r="D54" s="213"/>
       <c r="E54" s="24"/>
       <c r="F54" s="6"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="259"/>
+      <c r="J54" s="258"/>
       <c r="K54" s="27"/>
       <c r="L54" s="9"/>
       <c r="M54" s="31"/>
@@ -5302,12 +5347,12 @@
       <c r="AC54" s="29"/>
     </row>
     <row r="55" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="207">
+      <c r="A55" s="206">
         <v>23</v>
       </c>
-      <c r="B55" s="312"/>
-      <c r="C55" s="315"/>
-      <c r="D55" s="214"/>
+      <c r="B55" s="293"/>
+      <c r="C55" s="267"/>
+      <c r="D55" s="213"/>
       <c r="E55" s="24"/>
       <c r="F55" s="6"/>
       <c r="G55" s="25"/>
@@ -5335,12 +5380,12 @@
       <c r="AC55" s="29"/>
     </row>
     <row r="56" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="207">
+      <c r="A56" s="206">
         <v>24</v>
       </c>
-      <c r="B56" s="312"/>
-      <c r="C56" s="315"/>
-      <c r="D56" s="214"/>
+      <c r="B56" s="293"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="24"/>
       <c r="F56" s="6"/>
       <c r="G56" s="25"/>
@@ -5368,18 +5413,18 @@
       <c r="AC56" s="29"/>
     </row>
     <row r="57" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="207">
+      <c r="A57" s="206">
         <v>25</v>
       </c>
-      <c r="B57" s="312"/>
-      <c r="C57" s="315"/>
-      <c r="D57" s="214"/>
+      <c r="B57" s="293"/>
+      <c r="C57" s="267"/>
+      <c r="D57" s="213"/>
       <c r="E57" s="24"/>
       <c r="F57" s="6"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="259"/>
+      <c r="J57" s="258"/>
       <c r="K57" s="27"/>
       <c r="L57" s="9"/>
       <c r="M57" s="31"/>
@@ -5401,12 +5446,12 @@
       <c r="AC57" s="29"/>
     </row>
     <row r="58" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="207">
+      <c r="A58" s="206">
         <v>26</v>
       </c>
-      <c r="B58" s="312"/>
-      <c r="C58" s="315"/>
-      <c r="D58" s="214"/>
+      <c r="B58" s="293"/>
+      <c r="C58" s="267"/>
+      <c r="D58" s="213"/>
       <c r="E58" s="24"/>
       <c r="F58" s="187"/>
       <c r="G58" s="25"/>
@@ -5434,12 +5479,12 @@
       <c r="AC58" s="29"/>
     </row>
     <row r="59" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="207">
+      <c r="A59" s="206">
         <v>27</v>
       </c>
-      <c r="B59" s="312"/>
-      <c r="C59" s="315"/>
-      <c r="D59" s="214"/>
+      <c r="B59" s="293"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="213"/>
       <c r="E59" s="24"/>
       <c r="F59" s="6"/>
       <c r="G59" s="25"/>
@@ -5467,18 +5512,18 @@
       <c r="AC59" s="29"/>
     </row>
     <row r="60" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="207">
+      <c r="A60" s="206">
         <v>28</v>
       </c>
-      <c r="B60" s="312"/>
-      <c r="C60" s="315"/>
-      <c r="D60" s="214"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="267"/>
+      <c r="D60" s="213"/>
       <c r="E60" s="24"/>
       <c r="F60" s="6"/>
       <c r="G60" s="25"/>
       <c r="H60" s="33"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="203"/>
+      <c r="J60" s="202"/>
       <c r="K60" s="25"/>
       <c r="L60" s="9"/>
       <c r="M60" s="31"/>
@@ -5500,12 +5545,12 @@
       <c r="AC60" s="29"/>
     </row>
     <row r="61" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="207">
+      <c r="A61" s="206">
         <v>29</v>
       </c>
-      <c r="B61" s="312"/>
-      <c r="C61" s="315"/>
-      <c r="D61" s="214"/>
+      <c r="B61" s="293"/>
+      <c r="C61" s="267"/>
+      <c r="D61" s="213"/>
       <c r="E61" s="32"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
@@ -5533,18 +5578,18 @@
       <c r="AC61" s="29"/>
     </row>
     <row r="62" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="207">
+      <c r="A62" s="206">
         <v>30</v>
       </c>
-      <c r="B62" s="312"/>
-      <c r="C62" s="315"/>
-      <c r="D62" s="214"/>
+      <c r="B62" s="293"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="213"/>
       <c r="E62" s="32"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="33"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="203"/>
+      <c r="J62" s="202"/>
       <c r="K62" s="25"/>
       <c r="L62" s="9"/>
       <c r="M62" s="31"/>
@@ -5566,12 +5611,12 @@
       <c r="AC62" s="29"/>
     </row>
     <row r="63" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="207">
+      <c r="A63" s="206">
         <v>31</v>
       </c>
-      <c r="B63" s="312"/>
-      <c r="C63" s="315"/>
-      <c r="D63" s="214"/>
+      <c r="B63" s="293"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="213"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="25"/>
@@ -5599,12 +5644,12 @@
       <c r="AC63" s="29"/>
     </row>
     <row r="64" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="207">
+      <c r="A64" s="206">
         <v>32</v>
       </c>
-      <c r="B64" s="312"/>
-      <c r="C64" s="315"/>
-      <c r="D64" s="214"/>
+      <c r="B64" s="293"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="213"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="25"/>
@@ -5632,12 +5677,12 @@
       <c r="AC64" s="29"/>
     </row>
     <row r="65" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="207">
+      <c r="A65" s="206">
         <v>33</v>
       </c>
-      <c r="B65" s="312"/>
-      <c r="C65" s="315"/>
-      <c r="D65" s="214"/>
+      <c r="B65" s="293"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="213"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="25"/>
@@ -5665,12 +5710,12 @@
       <c r="AC65" s="29"/>
     </row>
     <row r="66" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="207">
+      <c r="A66" s="206">
         <v>34</v>
       </c>
-      <c r="B66" s="312"/>
-      <c r="C66" s="315"/>
-      <c r="D66" s="214"/>
+      <c r="B66" s="293"/>
+      <c r="C66" s="267"/>
+      <c r="D66" s="213"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="25"/>
@@ -5698,12 +5743,12 @@
       <c r="AC66" s="29"/>
     </row>
     <row r="67" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="207">
+      <c r="A67" s="206">
         <v>35</v>
       </c>
-      <c r="B67" s="312"/>
-      <c r="C67" s="316"/>
-      <c r="D67" s="214"/>
+      <c r="B67" s="293"/>
+      <c r="C67" s="268"/>
+      <c r="D67" s="213"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="25"/>
@@ -5731,10 +5776,10 @@
       <c r="AC67" s="29"/>
     </row>
     <row r="68" spans="1:29" s="168" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="208"/>
-      <c r="B68" s="273"/>
-      <c r="C68" s="314"/>
-      <c r="D68" s="214"/>
+      <c r="A68" s="207"/>
+      <c r="B68" s="292"/>
+      <c r="C68" s="266"/>
+      <c r="D68" s="213"/>
       <c r="E68" s="166"/>
       <c r="F68" s="159"/>
       <c r="G68" s="159"/>
@@ -5762,12 +5807,12 @@
       <c r="AC68" s="157"/>
     </row>
     <row r="69" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="207">
+      <c r="A69" s="206">
         <v>36</v>
       </c>
-      <c r="B69" s="273"/>
-      <c r="C69" s="275"/>
-      <c r="D69" s="214"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="295"/>
+      <c r="D69" s="213"/>
       <c r="E69" s="32"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
@@ -5795,12 +5840,12 @@
       <c r="AC69" s="29"/>
     </row>
     <row r="70" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="207">
+      <c r="A70" s="206">
         <v>37</v>
       </c>
-      <c r="B70" s="273"/>
-      <c r="C70" s="275"/>
-      <c r="D70" s="214"/>
+      <c r="B70" s="292"/>
+      <c r="C70" s="295"/>
+      <c r="D70" s="213"/>
       <c r="E70" s="36"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
@@ -5828,12 +5873,12 @@
       <c r="AC70" s="29"/>
     </row>
     <row r="71" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="207">
+      <c r="A71" s="206">
         <v>38</v>
       </c>
-      <c r="B71" s="273"/>
-      <c r="C71" s="275"/>
-      <c r="D71" s="214"/>
+      <c r="B71" s="292"/>
+      <c r="C71" s="295"/>
+      <c r="D71" s="213"/>
       <c r="E71" s="36"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -5861,10 +5906,10 @@
       <c r="AC71" s="29"/>
     </row>
     <row r="72" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="209"/>
-      <c r="B72" s="273"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="215"/>
+      <c r="A72" s="208"/>
+      <c r="B72" s="292"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="214"/>
       <c r="E72" s="169"/>
       <c r="F72" s="170"/>
       <c r="G72" s="170"/>
@@ -5892,12 +5937,12 @@
       <c r="AC72" s="173"/>
     </row>
     <row r="73" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="207">
+      <c r="A73" s="206">
         <v>39</v>
       </c>
-      <c r="B73" s="273"/>
-      <c r="C73" s="276"/>
-      <c r="D73" s="279"/>
+      <c r="B73" s="292"/>
+      <c r="C73" s="296"/>
+      <c r="D73" s="299"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -5925,12 +5970,12 @@
       <c r="AC73" s="29"/>
     </row>
     <row r="74" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="207">
+      <c r="A74" s="206">
         <v>40</v>
       </c>
-      <c r="B74" s="273"/>
-      <c r="C74" s="277"/>
-      <c r="D74" s="280"/>
+      <c r="B74" s="292"/>
+      <c r="C74" s="297"/>
+      <c r="D74" s="300"/>
       <c r="E74" s="32"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -5958,12 +6003,12 @@
       <c r="AC74" s="29"/>
     </row>
     <row r="75" spans="1:29" s="37" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="207">
+      <c r="A75" s="206">
         <v>41</v>
       </c>
-      <c r="B75" s="273"/>
-      <c r="C75" s="277"/>
-      <c r="D75" s="280"/>
+      <c r="B75" s="292"/>
+      <c r="C75" s="297"/>
+      <c r="D75" s="300"/>
       <c r="E75" s="32"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -5982,12 +6027,12 @@
       <c r="T75" s="28"/>
     </row>
     <row r="76" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="207">
+      <c r="A76" s="206">
         <v>42</v>
       </c>
-      <c r="B76" s="273"/>
-      <c r="C76" s="277"/>
-      <c r="D76" s="280"/>
+      <c r="B76" s="292"/>
+      <c r="C76" s="297"/>
+      <c r="D76" s="300"/>
       <c r="E76" s="32"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -6015,12 +6060,12 @@
       <c r="AC76" s="29"/>
     </row>
     <row r="77" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="207">
+      <c r="A77" s="206">
         <v>43</v>
       </c>
-      <c r="B77" s="273"/>
-      <c r="C77" s="277"/>
-      <c r="D77" s="280"/>
+      <c r="B77" s="292"/>
+      <c r="C77" s="297"/>
+      <c r="D77" s="300"/>
       <c r="E77" s="32"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
@@ -6048,12 +6093,12 @@
       <c r="AC77" s="29"/>
     </row>
     <row r="78" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="207">
+      <c r="A78" s="206">
         <v>44</v>
       </c>
-      <c r="B78" s="273"/>
-      <c r="C78" s="277"/>
-      <c r="D78" s="280"/>
+      <c r="B78" s="292"/>
+      <c r="C78" s="297"/>
+      <c r="D78" s="300"/>
       <c r="E78" s="17"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
@@ -6081,12 +6126,12 @@
       <c r="AC78" s="29"/>
     </row>
     <row r="79" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="207">
+      <c r="A79" s="206">
         <v>45</v>
       </c>
-      <c r="B79" s="273"/>
-      <c r="C79" s="277"/>
-      <c r="D79" s="280"/>
+      <c r="B79" s="292"/>
+      <c r="C79" s="297"/>
+      <c r="D79" s="300"/>
       <c r="E79" s="32"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
@@ -6114,12 +6159,12 @@
       <c r="AC79" s="29"/>
     </row>
     <row r="80" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="207">
+      <c r="A80" s="206">
         <v>46</v>
       </c>
-      <c r="B80" s="273"/>
-      <c r="C80" s="277"/>
-      <c r="D80" s="280"/>
+      <c r="B80" s="292"/>
+      <c r="C80" s="297"/>
+      <c r="D80" s="300"/>
       <c r="E80" s="32"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -6147,12 +6192,12 @@
       <c r="AC80" s="29"/>
     </row>
     <row r="81" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="207">
+      <c r="A81" s="206">
         <v>47</v>
       </c>
-      <c r="B81" s="273"/>
-      <c r="C81" s="277"/>
-      <c r="D81" s="280"/>
+      <c r="B81" s="292"/>
+      <c r="C81" s="297"/>
+      <c r="D81" s="300"/>
       <c r="E81" s="32"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
@@ -6180,12 +6225,12 @@
       <c r="AC81" s="29"/>
     </row>
     <row r="82" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="207">
+      <c r="A82" s="206">
         <v>48</v>
       </c>
-      <c r="B82" s="273"/>
-      <c r="C82" s="277"/>
-      <c r="D82" s="280"/>
+      <c r="B82" s="292"/>
+      <c r="C82" s="297"/>
+      <c r="D82" s="300"/>
       <c r="E82" s="32"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
@@ -6213,12 +6258,12 @@
       <c r="AC82" s="29"/>
     </row>
     <row r="83" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="207">
+      <c r="A83" s="206">
         <v>49</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="280"/>
+      <c r="B83" s="292"/>
+      <c r="C83" s="297"/>
+      <c r="D83" s="300"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
@@ -6246,12 +6291,12 @@
       <c r="AC83" s="29"/>
     </row>
     <row r="84" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="207">
+      <c r="A84" s="206">
         <v>50</v>
       </c>
-      <c r="B84" s="273"/>
-      <c r="C84" s="277"/>
-      <c r="D84" s="280"/>
+      <c r="B84" s="292"/>
+      <c r="C84" s="297"/>
+      <c r="D84" s="300"/>
       <c r="E84" s="32"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -6279,12 +6324,12 @@
       <c r="AC84" s="29"/>
     </row>
     <row r="85" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="207">
+      <c r="A85" s="206">
         <v>51</v>
       </c>
-      <c r="B85" s="273"/>
-      <c r="C85" s="277"/>
-      <c r="D85" s="280"/>
+      <c r="B85" s="292"/>
+      <c r="C85" s="297"/>
+      <c r="D85" s="300"/>
       <c r="E85" s="32"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -6312,12 +6357,12 @@
       <c r="AC85" s="29"/>
     </row>
     <row r="86" spans="1:29" s="30" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="207">
+      <c r="A86" s="206">
         <v>52</v>
       </c>
-      <c r="B86" s="273"/>
-      <c r="C86" s="277"/>
-      <c r="D86" s="280"/>
+      <c r="B86" s="292"/>
+      <c r="C86" s="297"/>
+      <c r="D86" s="300"/>
       <c r="E86" s="32"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -6345,12 +6390,12 @@
       <c r="AC86" s="29"/>
     </row>
     <row r="87" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="207">
+      <c r="A87" s="206">
         <v>53</v>
       </c>
-      <c r="B87" s="273"/>
-      <c r="C87" s="277"/>
-      <c r="D87" s="280"/>
+      <c r="B87" s="292"/>
+      <c r="C87" s="297"/>
+      <c r="D87" s="300"/>
       <c r="E87" s="32"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
@@ -6378,12 +6423,12 @@
       <c r="AC87" s="29"/>
     </row>
     <row r="88" spans="1:29" s="30" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="207">
+      <c r="A88" s="206">
         <v>54</v>
       </c>
-      <c r="B88" s="273"/>
-      <c r="C88" s="277"/>
-      <c r="D88" s="280"/>
+      <c r="B88" s="292"/>
+      <c r="C88" s="297"/>
+      <c r="D88" s="300"/>
       <c r="E88" s="32"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
@@ -6411,12 +6456,12 @@
       <c r="AC88" s="29"/>
     </row>
     <row r="89" spans="1:29" s="30" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="207">
+      <c r="A89" s="206">
         <v>55</v>
       </c>
-      <c r="B89" s="273"/>
-      <c r="C89" s="277"/>
-      <c r="D89" s="280"/>
+      <c r="B89" s="292"/>
+      <c r="C89" s="297"/>
+      <c r="D89" s="300"/>
       <c r="E89" s="32"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
@@ -6444,12 +6489,12 @@
       <c r="AC89" s="29"/>
     </row>
     <row r="90" spans="1:29" s="30" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="207">
+      <c r="A90" s="206">
         <v>56</v>
       </c>
-      <c r="B90" s="273"/>
-      <c r="C90" s="277"/>
-      <c r="D90" s="280"/>
+      <c r="B90" s="292"/>
+      <c r="C90" s="297"/>
+      <c r="D90" s="300"/>
       <c r="E90" s="32"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -6477,12 +6522,12 @@
       <c r="AC90" s="29"/>
     </row>
     <row r="91" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="207">
+      <c r="A91" s="206">
         <v>57</v>
       </c>
-      <c r="B91" s="273"/>
-      <c r="C91" s="277"/>
-      <c r="D91" s="280"/>
+      <c r="B91" s="292"/>
+      <c r="C91" s="297"/>
+      <c r="D91" s="300"/>
       <c r="E91" s="32"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -6510,12 +6555,12 @@
       <c r="AC91" s="29"/>
     </row>
     <row r="92" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="207">
+      <c r="A92" s="206">
         <v>58</v>
       </c>
-      <c r="B92" s="273"/>
-      <c r="C92" s="277"/>
-      <c r="D92" s="280"/>
+      <c r="B92" s="292"/>
+      <c r="C92" s="297"/>
+      <c r="D92" s="300"/>
       <c r="E92" s="32"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -6543,10 +6588,10 @@
       <c r="AC92" s="29"/>
     </row>
     <row r="93" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="207"/>
-      <c r="B93" s="273"/>
-      <c r="C93" s="277"/>
-      <c r="D93" s="280"/>
+      <c r="A93" s="206"/>
+      <c r="B93" s="292"/>
+      <c r="C93" s="297"/>
+      <c r="D93" s="300"/>
       <c r="E93" s="32"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
@@ -6574,10 +6619,10 @@
       <c r="AC93" s="29"/>
     </row>
     <row r="94" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="207"/>
-      <c r="B94" s="273"/>
-      <c r="C94" s="277"/>
-      <c r="D94" s="280"/>
+      <c r="A94" s="206"/>
+      <c r="B94" s="292"/>
+      <c r="C94" s="297"/>
+      <c r="D94" s="300"/>
       <c r="E94" s="32"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -6605,10 +6650,10 @@
       <c r="AC94" s="29"/>
     </row>
     <row r="95" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="207"/>
-      <c r="B95" s="273"/>
-      <c r="C95" s="277"/>
-      <c r="D95" s="280"/>
+      <c r="A95" s="206"/>
+      <c r="B95" s="292"/>
+      <c r="C95" s="297"/>
+      <c r="D95" s="300"/>
       <c r="E95" s="32"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -6636,10 +6681,10 @@
       <c r="AC95" s="29"/>
     </row>
     <row r="96" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="207"/>
-      <c r="B96" s="273"/>
-      <c r="C96" s="277"/>
-      <c r="D96" s="280"/>
+      <c r="A96" s="206"/>
+      <c r="B96" s="292"/>
+      <c r="C96" s="297"/>
+      <c r="D96" s="300"/>
       <c r="E96" s="32"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -6667,10 +6712,10 @@
       <c r="AC96" s="29"/>
     </row>
     <row r="97" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="207"/>
-      <c r="B97" s="273"/>
-      <c r="C97" s="277"/>
-      <c r="D97" s="280"/>
+      <c r="A97" s="206"/>
+      <c r="B97" s="292"/>
+      <c r="C97" s="297"/>
+      <c r="D97" s="300"/>
       <c r="E97" s="32"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -6698,10 +6743,10 @@
       <c r="AC97" s="29"/>
     </row>
     <row r="98" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="207"/>
-      <c r="B98" s="273"/>
-      <c r="C98" s="278"/>
-      <c r="D98" s="281"/>
+      <c r="A98" s="206"/>
+      <c r="B98" s="292"/>
+      <c r="C98" s="298"/>
+      <c r="D98" s="301"/>
       <c r="E98" s="32"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -6729,10 +6774,10 @@
       <c r="AC98" s="29"/>
     </row>
     <row r="99" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="210"/>
-      <c r="B99" s="273"/>
-      <c r="C99" s="235"/>
-      <c r="D99" s="216"/>
+      <c r="A99" s="209"/>
+      <c r="B99" s="292"/>
+      <c r="C99" s="234"/>
+      <c r="D99" s="215"/>
       <c r="E99" s="40"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -6760,10 +6805,10 @@
       <c r="AC99" s="14"/>
     </row>
     <row r="100" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="207"/>
-      <c r="B100" s="273"/>
-      <c r="C100" s="282"/>
-      <c r="D100" s="283"/>
+      <c r="A100" s="206"/>
+      <c r="B100" s="292"/>
+      <c r="C100" s="302"/>
+      <c r="D100" s="303"/>
       <c r="E100" s="32"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
@@ -6791,10 +6836,10 @@
       <c r="AC100" s="29"/>
     </row>
     <row r="101" spans="1:29" s="30" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="207"/>
-      <c r="B101" s="273"/>
-      <c r="C101" s="282"/>
-      <c r="D101" s="283"/>
+      <c r="A101" s="206"/>
+      <c r="B101" s="292"/>
+      <c r="C101" s="302"/>
+      <c r="D101" s="303"/>
       <c r="E101" s="32"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -6822,10 +6867,10 @@
       <c r="AC101" s="29"/>
     </row>
     <row r="102" spans="1:29" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="207"/>
-      <c r="B102" s="273"/>
-      <c r="C102" s="282"/>
-      <c r="D102" s="283"/>
+      <c r="A102" s="206"/>
+      <c r="B102" s="292"/>
+      <c r="C102" s="302"/>
+      <c r="D102" s="303"/>
       <c r="E102" s="25"/>
       <c r="F102" s="15"/>
       <c r="G102" s="25"/>
@@ -6853,10 +6898,10 @@
       <c r="AC102" s="29"/>
     </row>
     <row r="103" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="207"/>
-      <c r="B103" s="273"/>
-      <c r="C103" s="282"/>
-      <c r="D103" s="283"/>
+      <c r="A103" s="206"/>
+      <c r="B103" s="292"/>
+      <c r="C103" s="302"/>
+      <c r="D103" s="303"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -6884,10 +6929,10 @@
       <c r="AC103" s="29"/>
     </row>
     <row r="104" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="207"/>
-      <c r="B104" s="273"/>
-      <c r="C104" s="282"/>
-      <c r="D104" s="217"/>
+      <c r="A104" s="206"/>
+      <c r="B104" s="292"/>
+      <c r="C104" s="302"/>
+      <c r="D104" s="216"/>
       <c r="E104" s="42"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -6915,10 +6960,10 @@
       <c r="AC104" s="29"/>
     </row>
     <row r="105" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="211"/>
-      <c r="B105" s="273"/>
-      <c r="C105" s="236"/>
-      <c r="D105" s="217"/>
+      <c r="A105" s="210"/>
+      <c r="B105" s="292"/>
+      <c r="C105" s="235"/>
+      <c r="D105" s="216"/>
       <c r="E105" s="42"/>
       <c r="F105" s="15"/>
       <c r="G105" s="25"/>
@@ -6946,10 +6991,10 @@
       <c r="AC105" s="29"/>
     </row>
     <row r="106" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="211"/>
-      <c r="B106" s="273"/>
-      <c r="C106" s="236"/>
-      <c r="D106" s="217"/>
+      <c r="A106" s="210"/>
+      <c r="B106" s="292"/>
+      <c r="C106" s="235"/>
+      <c r="D106" s="216"/>
       <c r="E106" s="43"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
@@ -6977,10 +7022,10 @@
       <c r="AC106" s="29"/>
     </row>
     <row r="107" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="211"/>
-      <c r="B107" s="273"/>
-      <c r="C107" s="236"/>
-      <c r="D107" s="217"/>
+      <c r="A107" s="210"/>
+      <c r="B107" s="292"/>
+      <c r="C107" s="235"/>
+      <c r="D107" s="216"/>
       <c r="E107" s="43"/>
       <c r="F107" s="15"/>
       <c r="G107" s="25"/>
@@ -7008,10 +7053,10 @@
       <c r="AC107" s="29"/>
     </row>
     <row r="108" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="211"/>
-      <c r="B108" s="273"/>
-      <c r="C108" s="236"/>
-      <c r="D108" s="217"/>
+      <c r="A108" s="210"/>
+      <c r="B108" s="292"/>
+      <c r="C108" s="235"/>
+      <c r="D108" s="216"/>
       <c r="E108" s="43"/>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
@@ -7039,10 +7084,10 @@
       <c r="AC108" s="29"/>
     </row>
     <row r="109" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="211"/>
-      <c r="B109" s="273"/>
-      <c r="C109" s="236"/>
-      <c r="D109" s="217"/>
+      <c r="A109" s="210"/>
+      <c r="B109" s="292"/>
+      <c r="C109" s="235"/>
+      <c r="D109" s="216"/>
       <c r="E109" s="43"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
@@ -7070,10 +7115,10 @@
       <c r="AC109" s="29"/>
     </row>
     <row r="110" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="211"/>
-      <c r="B110" s="273"/>
-      <c r="C110" s="236"/>
-      <c r="D110" s="218"/>
+      <c r="A110" s="210"/>
+      <c r="B110" s="292"/>
+      <c r="C110" s="235"/>
+      <c r="D110" s="217"/>
       <c r="E110" s="43"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
@@ -7101,10 +7146,10 @@
       <c r="AC110" s="29"/>
     </row>
     <row r="111" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="211"/>
-      <c r="B111" s="273"/>
-      <c r="C111" s="236"/>
-      <c r="D111" s="284"/>
+      <c r="A111" s="210"/>
+      <c r="B111" s="292"/>
+      <c r="C111" s="235"/>
+      <c r="D111" s="304"/>
       <c r="E111" s="43"/>
       <c r="F111" s="15"/>
       <c r="G111" s="25"/>
@@ -7132,10 +7177,10 @@
       <c r="AC111" s="29"/>
     </row>
     <row r="112" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="211"/>
-      <c r="B112" s="273"/>
-      <c r="C112" s="236"/>
-      <c r="D112" s="284"/>
+      <c r="A112" s="210"/>
+      <c r="B112" s="292"/>
+      <c r="C112" s="235"/>
+      <c r="D112" s="304"/>
       <c r="E112" s="43"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
@@ -7163,10 +7208,10 @@
       <c r="AC112" s="29"/>
     </row>
     <row r="113" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="211"/>
-      <c r="B113" s="273"/>
-      <c r="C113" s="236"/>
-      <c r="D113" s="284"/>
+      <c r="A113" s="210"/>
+      <c r="B113" s="292"/>
+      <c r="C113" s="235"/>
+      <c r="D113" s="304"/>
       <c r="E113" s="44"/>
       <c r="F113" s="6"/>
       <c r="G113" s="25"/>
@@ -7194,10 +7239,10 @@
       <c r="AC113" s="29"/>
     </row>
     <row r="114" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="211"/>
-      <c r="B114" s="273"/>
-      <c r="C114" s="236"/>
-      <c r="D114" s="284"/>
+      <c r="A114" s="210"/>
+      <c r="B114" s="292"/>
+      <c r="C114" s="235"/>
+      <c r="D114" s="304"/>
       <c r="E114" s="44"/>
       <c r="F114" s="6"/>
       <c r="G114" s="25"/>
@@ -7225,10 +7270,10 @@
       <c r="AC114" s="29"/>
     </row>
     <row r="115" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="211"/>
-      <c r="B115" s="273"/>
-      <c r="C115" s="236"/>
-      <c r="D115" s="284"/>
+      <c r="A115" s="210"/>
+      <c r="B115" s="292"/>
+      <c r="C115" s="235"/>
+      <c r="D115" s="304"/>
       <c r="E115" s="44"/>
       <c r="F115" s="6"/>
       <c r="G115" s="25"/>
@@ -7256,10 +7301,10 @@
       <c r="AC115" s="29"/>
     </row>
     <row r="116" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="211"/>
-      <c r="B116" s="273"/>
-      <c r="C116" s="236"/>
-      <c r="D116" s="219"/>
+      <c r="A116" s="210"/>
+      <c r="B116" s="292"/>
+      <c r="C116" s="235"/>
+      <c r="D116" s="218"/>
       <c r="E116" s="45"/>
       <c r="F116" s="31"/>
       <c r="G116" s="31"/>
@@ -7287,10 +7332,10 @@
       <c r="AC116" s="29"/>
     </row>
     <row r="117" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="211"/>
-      <c r="B117" s="273"/>
-      <c r="C117" s="236"/>
-      <c r="D117" s="284"/>
+      <c r="A117" s="210"/>
+      <c r="B117" s="292"/>
+      <c r="C117" s="235"/>
+      <c r="D117" s="304"/>
       <c r="E117" s="42"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
@@ -7318,10 +7363,10 @@
       <c r="AC117" s="29"/>
     </row>
     <row r="118" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="211"/>
-      <c r="B118" s="273"/>
-      <c r="C118" s="236"/>
-      <c r="D118" s="284"/>
+      <c r="A118" s="210"/>
+      <c r="B118" s="292"/>
+      <c r="C118" s="235"/>
+      <c r="D118" s="304"/>
       <c r="E118" s="42"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
@@ -7349,10 +7394,10 @@
       <c r="AC118" s="29"/>
     </row>
     <row r="119" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="211"/>
-      <c r="B119" s="273"/>
-      <c r="C119" s="236"/>
-      <c r="D119" s="220"/>
+      <c r="A119" s="210"/>
+      <c r="B119" s="292"/>
+      <c r="C119" s="235"/>
+      <c r="D119" s="219"/>
       <c r="E119" s="43"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
@@ -7380,10 +7425,10 @@
       <c r="AC119" s="29"/>
     </row>
     <row r="120" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="211"/>
-      <c r="B120" s="273"/>
-      <c r="C120" s="236"/>
-      <c r="D120" s="285"/>
+      <c r="A120" s="210"/>
+      <c r="B120" s="292"/>
+      <c r="C120" s="235"/>
+      <c r="D120" s="305"/>
       <c r="E120" s="43"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
@@ -7411,10 +7456,10 @@
       <c r="AC120" s="29"/>
     </row>
     <row r="121" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="211"/>
-      <c r="B121" s="273"/>
-      <c r="C121" s="236"/>
-      <c r="D121" s="285"/>
+      <c r="A121" s="210"/>
+      <c r="B121" s="292"/>
+      <c r="C121" s="235"/>
+      <c r="D121" s="305"/>
       <c r="E121" s="43"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
@@ -7442,10 +7487,10 @@
       <c r="AC121" s="29"/>
     </row>
     <row r="122" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="211"/>
-      <c r="B122" s="273"/>
-      <c r="C122" s="236"/>
-      <c r="D122" s="285"/>
+      <c r="A122" s="210"/>
+      <c r="B122" s="292"/>
+      <c r="C122" s="235"/>
+      <c r="D122" s="305"/>
       <c r="E122" s="44"/>
       <c r="F122" s="6"/>
       <c r="G122" s="25"/>
@@ -7473,10 +7518,10 @@
       <c r="AC122" s="29"/>
     </row>
     <row r="123" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="211"/>
-      <c r="B123" s="273"/>
-      <c r="C123" s="236"/>
-      <c r="D123" s="285"/>
+      <c r="A123" s="210"/>
+      <c r="B123" s="292"/>
+      <c r="C123" s="235"/>
+      <c r="D123" s="305"/>
       <c r="E123" s="42"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
@@ -7504,10 +7549,10 @@
       <c r="AC123" s="29"/>
     </row>
     <row r="124" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="211"/>
-      <c r="B124" s="273"/>
-      <c r="C124" s="236"/>
-      <c r="D124" s="285"/>
+      <c r="A124" s="210"/>
+      <c r="B124" s="292"/>
+      <c r="C124" s="235"/>
+      <c r="D124" s="305"/>
       <c r="E124" s="42"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
@@ -7535,10 +7580,10 @@
       <c r="AC124" s="29"/>
     </row>
     <row r="125" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="211"/>
-      <c r="B125" s="273"/>
-      <c r="C125" s="236"/>
-      <c r="D125" s="285"/>
+      <c r="A125" s="210"/>
+      <c r="B125" s="292"/>
+      <c r="C125" s="235"/>
+      <c r="D125" s="305"/>
       <c r="E125" s="43"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
@@ -7566,10 +7611,10 @@
       <c r="AC125" s="29"/>
     </row>
     <row r="126" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="211"/>
-      <c r="B126" s="273"/>
-      <c r="C126" s="236"/>
-      <c r="D126" s="285"/>
+      <c r="A126" s="210"/>
+      <c r="B126" s="292"/>
+      <c r="C126" s="235"/>
+      <c r="D126" s="305"/>
       <c r="E126" s="43"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
@@ -7597,10 +7642,10 @@
       <c r="AC126" s="29"/>
     </row>
     <row r="127" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="211"/>
-      <c r="B127" s="273"/>
-      <c r="C127" s="236"/>
-      <c r="D127" s="285"/>
+      <c r="A127" s="210"/>
+      <c r="B127" s="292"/>
+      <c r="C127" s="235"/>
+      <c r="D127" s="305"/>
       <c r="E127" s="43"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
@@ -7628,10 +7673,10 @@
       <c r="AC127" s="29"/>
     </row>
     <row r="128" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="211"/>
-      <c r="B128" s="273"/>
-      <c r="C128" s="236"/>
-      <c r="D128" s="285"/>
+      <c r="A128" s="210"/>
+      <c r="B128" s="292"/>
+      <c r="C128" s="235"/>
+      <c r="D128" s="305"/>
       <c r="E128" s="44"/>
       <c r="F128" s="6"/>
       <c r="G128" s="25"/>
@@ -7659,10 +7704,10 @@
       <c r="AC128" s="29"/>
     </row>
     <row r="129" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="211"/>
-      <c r="B129" s="273"/>
-      <c r="C129" s="236"/>
-      <c r="D129" s="285"/>
+      <c r="A129" s="210"/>
+      <c r="B129" s="292"/>
+      <c r="C129" s="235"/>
+      <c r="D129" s="305"/>
       <c r="E129" s="45"/>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
@@ -7690,10 +7735,10 @@
       <c r="AC129" s="29"/>
     </row>
     <row r="130" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="211"/>
-      <c r="B130" s="273"/>
-      <c r="C130" s="236"/>
-      <c r="D130" s="285"/>
+      <c r="A130" s="210"/>
+      <c r="B130" s="292"/>
+      <c r="C130" s="235"/>
+      <c r="D130" s="305"/>
       <c r="E130" s="42"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
@@ -7721,10 +7766,10 @@
       <c r="AC130" s="29"/>
     </row>
     <row r="131" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="211"/>
-      <c r="B131" s="273"/>
-      <c r="C131" s="236"/>
-      <c r="D131" s="220"/>
+      <c r="A131" s="210"/>
+      <c r="B131" s="292"/>
+      <c r="C131" s="235"/>
+      <c r="D131" s="219"/>
       <c r="E131" s="42"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
@@ -7752,10 +7797,10 @@
       <c r="AC131" s="29"/>
     </row>
     <row r="132" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="211"/>
-      <c r="B132" s="273"/>
-      <c r="C132" s="236"/>
-      <c r="D132" s="286"/>
+      <c r="A132" s="210"/>
+      <c r="B132" s="292"/>
+      <c r="C132" s="235"/>
+      <c r="D132" s="306"/>
       <c r="E132" s="43"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
@@ -7783,10 +7828,10 @@
       <c r="AC132" s="29"/>
     </row>
     <row r="133" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="211"/>
-      <c r="B133" s="273"/>
-      <c r="C133" s="236"/>
-      <c r="D133" s="286"/>
+      <c r="A133" s="210"/>
+      <c r="B133" s="292"/>
+      <c r="C133" s="235"/>
+      <c r="D133" s="306"/>
       <c r="E133" s="43"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
@@ -7814,10 +7859,10 @@
       <c r="AC133" s="29"/>
     </row>
     <row r="134" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="211"/>
-      <c r="B134" s="273"/>
-      <c r="C134" s="236"/>
-      <c r="D134" s="286"/>
+      <c r="A134" s="210"/>
+      <c r="B134" s="292"/>
+      <c r="C134" s="235"/>
+      <c r="D134" s="306"/>
       <c r="E134" s="43"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
@@ -7845,10 +7890,10 @@
       <c r="AC134" s="29"/>
     </row>
     <row r="135" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="211"/>
-      <c r="B135" s="273"/>
-      <c r="C135" s="236"/>
-      <c r="D135" s="286"/>
+      <c r="A135" s="210"/>
+      <c r="B135" s="292"/>
+      <c r="C135" s="235"/>
+      <c r="D135" s="306"/>
       <c r="E135" s="44"/>
       <c r="F135" s="6"/>
       <c r="G135" s="25"/>
@@ -7877,9 +7922,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
-      <c r="B136" s="273"/>
-      <c r="C136" s="237"/>
-      <c r="D136" s="286"/>
+      <c r="B136" s="292"/>
+      <c r="C136" s="236"/>
+      <c r="D136" s="306"/>
       <c r="E136" s="48"/>
       <c r="F136" s="49"/>
       <c r="G136" s="49"/>
@@ -7908,9 +7953,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="52"/>
-      <c r="B137" s="273"/>
-      <c r="C137" s="237"/>
-      <c r="D137" s="286"/>
+      <c r="B137" s="292"/>
+      <c r="C137" s="236"/>
+      <c r="D137" s="306"/>
       <c r="E137" s="53"/>
       <c r="F137" s="54"/>
       <c r="G137" s="55"/>
@@ -7939,9 +7984,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="52"/>
-      <c r="B138" s="273"/>
-      <c r="C138" s="237"/>
-      <c r="D138" s="286"/>
+      <c r="B138" s="292"/>
+      <c r="C138" s="236"/>
+      <c r="D138" s="306"/>
       <c r="E138" s="59"/>
       <c r="F138" s="60"/>
       <c r="G138" s="60"/>
@@ -7970,9 +8015,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="52"/>
-      <c r="B139" s="273"/>
-      <c r="C139" s="237"/>
-      <c r="D139" s="286"/>
+      <c r="B139" s="292"/>
+      <c r="C139" s="236"/>
+      <c r="D139" s="306"/>
       <c r="E139" s="59"/>
       <c r="F139" s="60"/>
       <c r="G139" s="60"/>
@@ -8001,9 +8046,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
-      <c r="B140" s="273"/>
-      <c r="C140" s="237"/>
-      <c r="D140" s="286"/>
+      <c r="B140" s="292"/>
+      <c r="C140" s="236"/>
+      <c r="D140" s="306"/>
       <c r="E140" s="63"/>
       <c r="F140" s="60"/>
       <c r="G140" s="60"/>
@@ -8032,9 +8077,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="52"/>
-      <c r="B141" s="273"/>
-      <c r="C141" s="237"/>
-      <c r="D141" s="286"/>
+      <c r="B141" s="292"/>
+      <c r="C141" s="236"/>
+      <c r="D141" s="306"/>
       <c r="E141" s="64"/>
       <c r="F141" s="54"/>
       <c r="G141" s="55"/>
@@ -8063,9 +8108,9 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="52"/>
-      <c r="B142" s="273"/>
-      <c r="C142" s="237"/>
-      <c r="D142" s="221"/>
+      <c r="B142" s="292"/>
+      <c r="C142" s="236"/>
+      <c r="D142" s="220"/>
       <c r="E142" s="53"/>
       <c r="F142" s="60"/>
       <c r="G142" s="60"/>
@@ -8094,9 +8139,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="52"/>
-      <c r="B143" s="273"/>
-      <c r="C143" s="237"/>
-      <c r="D143" s="287"/>
+      <c r="B143" s="292"/>
+      <c r="C143" s="236"/>
+      <c r="D143" s="307"/>
       <c r="E143" s="65"/>
       <c r="F143" s="54"/>
       <c r="G143" s="55"/>
@@ -8125,9 +8170,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="52"/>
-      <c r="B144" s="273"/>
-      <c r="C144" s="237"/>
-      <c r="D144" s="287"/>
+      <c r="B144" s="292"/>
+      <c r="C144" s="236"/>
+      <c r="D144" s="307"/>
       <c r="E144" s="67"/>
       <c r="F144" s="60"/>
       <c r="G144" s="60"/>
@@ -8156,9 +8201,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="52"/>
-      <c r="B145" s="273"/>
-      <c r="C145" s="237"/>
-      <c r="D145" s="222"/>
+      <c r="B145" s="292"/>
+      <c r="C145" s="236"/>
+      <c r="D145" s="221"/>
       <c r="E145" s="68"/>
       <c r="F145" s="54"/>
       <c r="G145" s="55"/>
@@ -8187,9 +8232,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="52"/>
-      <c r="B146" s="273"/>
-      <c r="C146" s="237"/>
-      <c r="D146" s="288"/>
+      <c r="B146" s="292"/>
+      <c r="C146" s="236"/>
+      <c r="D146" s="308"/>
       <c r="E146" s="67"/>
       <c r="F146" s="60"/>
       <c r="G146" s="60"/>
@@ -8218,9 +8263,9 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
-      <c r="B147" s="273"/>
-      <c r="C147" s="237"/>
-      <c r="D147" s="288"/>
+      <c r="B147" s="292"/>
+      <c r="C147" s="236"/>
+      <c r="D147" s="308"/>
       <c r="E147" s="65"/>
       <c r="F147" s="60"/>
       <c r="G147" s="60"/>
@@ -8249,9 +8294,9 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
-      <c r="B148" s="273"/>
-      <c r="C148" s="237"/>
-      <c r="D148" s="288"/>
+      <c r="B148" s="292"/>
+      <c r="C148" s="236"/>
+      <c r="D148" s="308"/>
       <c r="E148" s="67"/>
       <c r="F148" s="60"/>
       <c r="G148" s="60"/>
@@ -8280,9 +8325,9 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
-      <c r="B149" s="273"/>
-      <c r="C149" s="237"/>
-      <c r="D149" s="288"/>
+      <c r="B149" s="292"/>
+      <c r="C149" s="236"/>
+      <c r="D149" s="308"/>
       <c r="E149" s="65"/>
       <c r="F149" s="54"/>
       <c r="G149" s="55"/>
@@ -8311,9 +8356,9 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
-      <c r="B150" s="273"/>
-      <c r="C150" s="237"/>
-      <c r="D150" s="288"/>
+      <c r="B150" s="292"/>
+      <c r="C150" s="236"/>
+      <c r="D150" s="308"/>
       <c r="E150" s="69"/>
       <c r="F150" s="70"/>
       <c r="G150" s="62"/>
@@ -8342,9 +8387,9 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
-      <c r="B151" s="273"/>
-      <c r="C151" s="237"/>
-      <c r="D151" s="288"/>
+      <c r="B151" s="292"/>
+      <c r="C151" s="236"/>
+      <c r="D151" s="308"/>
       <c r="E151" s="65"/>
       <c r="F151" s="71"/>
       <c r="G151" s="55"/>
@@ -8373,9 +8418,9 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
-      <c r="B152" s="273"/>
-      <c r="C152" s="237"/>
-      <c r="D152" s="288"/>
+      <c r="B152" s="292"/>
+      <c r="C152" s="236"/>
+      <c r="D152" s="308"/>
       <c r="E152" s="69"/>
       <c r="F152" s="72"/>
       <c r="G152" s="62"/>
@@ -8404,9 +8449,9 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
-      <c r="B153" s="273"/>
-      <c r="C153" s="237"/>
-      <c r="D153" s="223"/>
+      <c r="B153" s="292"/>
+      <c r="C153" s="236"/>
+      <c r="D153" s="222"/>
       <c r="E153" s="69"/>
       <c r="F153" s="54"/>
       <c r="G153" s="55"/>
@@ -8435,9 +8480,9 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
-      <c r="B154" s="273"/>
-      <c r="C154" s="237"/>
-      <c r="D154" s="271"/>
+      <c r="B154" s="292"/>
+      <c r="C154" s="236"/>
+      <c r="D154" s="290"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
       <c r="G154" s="62"/>
@@ -8466,9 +8511,9 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
-      <c r="B155" s="273"/>
-      <c r="C155" s="237"/>
-      <c r="D155" s="271"/>
+      <c r="B155" s="292"/>
+      <c r="C155" s="236"/>
+      <c r="D155" s="290"/>
       <c r="E155" s="69"/>
       <c r="F155" s="74"/>
       <c r="G155" s="62"/>
@@ -8497,9 +8542,9 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
-      <c r="B156" s="273"/>
-      <c r="C156" s="237"/>
-      <c r="D156" s="271"/>
+      <c r="B156" s="292"/>
+      <c r="C156" s="236"/>
+      <c r="D156" s="290"/>
       <c r="E156" s="75"/>
       <c r="F156" s="66"/>
       <c r="G156" s="66"/>
@@ -8528,9 +8573,9 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
-      <c r="B157" s="273"/>
-      <c r="C157" s="237"/>
-      <c r="D157" s="271"/>
+      <c r="B157" s="292"/>
+      <c r="C157" s="236"/>
+      <c r="D157" s="290"/>
       <c r="E157" s="75"/>
       <c r="F157" s="66"/>
       <c r="G157" s="66"/>
@@ -8559,9 +8604,9 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
-      <c r="B158" s="273"/>
-      <c r="C158" s="237"/>
-      <c r="D158" s="271"/>
+      <c r="B158" s="292"/>
+      <c r="C158" s="236"/>
+      <c r="D158" s="290"/>
       <c r="E158" s="75"/>
       <c r="F158" s="66"/>
       <c r="G158" s="66"/>
@@ -8590,9 +8635,9 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
-      <c r="B159" s="273"/>
-      <c r="C159" s="237"/>
-      <c r="D159" s="271"/>
+      <c r="B159" s="292"/>
+      <c r="C159" s="236"/>
+      <c r="D159" s="290"/>
       <c r="E159" s="75"/>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
@@ -8621,9 +8666,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
-      <c r="B160" s="273"/>
-      <c r="C160" s="237"/>
-      <c r="D160" s="271"/>
+      <c r="B160" s="292"/>
+      <c r="C160" s="236"/>
+      <c r="D160" s="290"/>
       <c r="E160" s="75"/>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
@@ -8652,9 +8697,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
-      <c r="B161" s="273"/>
-      <c r="C161" s="237"/>
-      <c r="D161" s="271"/>
+      <c r="B161" s="292"/>
+      <c r="C161" s="236"/>
+      <c r="D161" s="290"/>
       <c r="E161" s="75"/>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
@@ -8683,9 +8728,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
-      <c r="B162" s="273"/>
-      <c r="C162" s="237"/>
-      <c r="D162" s="271"/>
+      <c r="B162" s="292"/>
+      <c r="C162" s="236"/>
+      <c r="D162" s="290"/>
       <c r="E162" s="75"/>
       <c r="F162" s="66"/>
       <c r="G162" s="66"/>
@@ -8714,9 +8759,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
-      <c r="B163" s="273"/>
-      <c r="C163" s="238"/>
-      <c r="D163" s="224"/>
+      <c r="B163" s="292"/>
+      <c r="C163" s="237"/>
+      <c r="D163" s="223"/>
       <c r="E163" s="75"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
@@ -8745,9 +8790,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
-      <c r="B164" s="273"/>
-      <c r="C164" s="239"/>
-      <c r="D164" s="224"/>
+      <c r="B164" s="292"/>
+      <c r="C164" s="238"/>
+      <c r="D164" s="223"/>
       <c r="E164" s="75"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
@@ -8776,9 +8821,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
-      <c r="B165" s="273"/>
-      <c r="C165" s="239"/>
-      <c r="D165" s="225"/>
+      <c r="B165" s="292"/>
+      <c r="C165" s="238"/>
+      <c r="D165" s="224"/>
       <c r="E165" s="75"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
@@ -8807,9 +8852,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
-      <c r="B166" s="273"/>
-      <c r="C166" s="239"/>
-      <c r="D166" s="265"/>
+      <c r="B166" s="292"/>
+      <c r="C166" s="238"/>
+      <c r="D166" s="313"/>
       <c r="E166" s="76"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
@@ -8838,9 +8883,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
-      <c r="B167" s="273"/>
-      <c r="C167" s="239"/>
-      <c r="D167" s="265"/>
+      <c r="B167" s="292"/>
+      <c r="C167" s="238"/>
+      <c r="D167" s="313"/>
       <c r="E167" s="76"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
@@ -8869,9 +8914,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
-      <c r="B168" s="273"/>
-      <c r="C168" s="239"/>
-      <c r="D168" s="226"/>
+      <c r="B168" s="292"/>
+      <c r="C168" s="238"/>
+      <c r="D168" s="225"/>
       <c r="E168" s="75"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
@@ -8900,9 +8945,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
-      <c r="B169" s="273"/>
-      <c r="C169" s="239"/>
-      <c r="D169" s="227"/>
+      <c r="B169" s="292"/>
+      <c r="C169" s="238"/>
+      <c r="D169" s="226"/>
       <c r="E169" s="75"/>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
@@ -8931,9 +8976,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
-      <c r="B170" s="273"/>
-      <c r="C170" s="239"/>
-      <c r="D170" s="227"/>
+      <c r="B170" s="292"/>
+      <c r="C170" s="238"/>
+      <c r="D170" s="226"/>
       <c r="E170" s="78"/>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
@@ -8962,9 +9007,9 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
-      <c r="B171" s="273"/>
-      <c r="C171" s="239"/>
-      <c r="D171" s="227"/>
+      <c r="B171" s="292"/>
+      <c r="C171" s="238"/>
+      <c r="D171" s="226"/>
       <c r="E171" s="75"/>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
@@ -8993,9 +9038,9 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
-      <c r="B172" s="273"/>
-      <c r="C172" s="239"/>
-      <c r="D172" s="227"/>
+      <c r="B172" s="292"/>
+      <c r="C172" s="238"/>
+      <c r="D172" s="226"/>
       <c r="E172" s="75"/>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
@@ -9024,9 +9069,9 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
-      <c r="B173" s="273"/>
-      <c r="C173" s="239"/>
-      <c r="D173" s="227"/>
+      <c r="B173" s="292"/>
+      <c r="C173" s="238"/>
+      <c r="D173" s="226"/>
       <c r="E173" s="75"/>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
@@ -9055,9 +9100,9 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
-      <c r="B174" s="273"/>
-      <c r="C174" s="239"/>
-      <c r="D174" s="227"/>
+      <c r="B174" s="292"/>
+      <c r="C174" s="238"/>
+      <c r="D174" s="226"/>
       <c r="E174" s="75"/>
       <c r="F174" s="66"/>
       <c r="G174" s="66"/>
@@ -9086,9 +9131,9 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
-      <c r="B175" s="273"/>
-      <c r="C175" s="239"/>
-      <c r="D175" s="227"/>
+      <c r="B175" s="292"/>
+      <c r="C175" s="238"/>
+      <c r="D175" s="226"/>
       <c r="E175" s="78"/>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
@@ -9117,9 +9162,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
-      <c r="B176" s="273"/>
-      <c r="C176" s="239"/>
-      <c r="D176" s="227"/>
+      <c r="B176" s="292"/>
+      <c r="C176" s="238"/>
+      <c r="D176" s="226"/>
       <c r="E176" s="78"/>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
@@ -9148,9 +9193,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
-      <c r="B177" s="273"/>
-      <c r="C177" s="239"/>
-      <c r="D177" s="227"/>
+      <c r="B177" s="292"/>
+      <c r="C177" s="238"/>
+      <c r="D177" s="226"/>
       <c r="E177" s="78"/>
       <c r="F177" s="66"/>
       <c r="G177" s="81"/>
@@ -9179,9 +9224,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
-      <c r="B178" s="273"/>
-      <c r="C178" s="239"/>
-      <c r="D178" s="227"/>
+      <c r="B178" s="292"/>
+      <c r="C178" s="238"/>
+      <c r="D178" s="226"/>
       <c r="E178" s="75"/>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
@@ -9210,9 +9255,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
-      <c r="B179" s="273"/>
-      <c r="C179" s="239"/>
-      <c r="D179" s="227"/>
+      <c r="B179" s="292"/>
+      <c r="C179" s="238"/>
+      <c r="D179" s="226"/>
       <c r="E179" s="75"/>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
@@ -9241,9 +9286,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
-      <c r="B180" s="273"/>
-      <c r="C180" s="239"/>
-      <c r="D180" s="227"/>
+      <c r="B180" s="292"/>
+      <c r="C180" s="238"/>
+      <c r="D180" s="226"/>
       <c r="E180" s="75"/>
       <c r="F180" s="66"/>
       <c r="G180" s="66"/>
@@ -9272,9 +9317,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
-      <c r="B181" s="273"/>
-      <c r="C181" s="239"/>
-      <c r="D181" s="227"/>
+      <c r="B181" s="292"/>
+      <c r="C181" s="238"/>
+      <c r="D181" s="226"/>
       <c r="E181" s="75"/>
       <c r="F181" s="66"/>
       <c r="G181" s="82"/>
@@ -9303,9 +9348,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
-      <c r="B182" s="273"/>
-      <c r="C182" s="239"/>
-      <c r="D182" s="227"/>
+      <c r="B182" s="292"/>
+      <c r="C182" s="238"/>
+      <c r="D182" s="226"/>
       <c r="E182" s="75"/>
       <c r="F182" s="66"/>
       <c r="G182" s="82"/>
@@ -9334,9 +9379,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
-      <c r="B183" s="273"/>
-      <c r="C183" s="239"/>
-      <c r="D183" s="227"/>
+      <c r="B183" s="292"/>
+      <c r="C183" s="238"/>
+      <c r="D183" s="226"/>
       <c r="E183" s="75"/>
       <c r="F183" s="66"/>
       <c r="G183" s="82"/>
@@ -9365,8 +9410,8 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="83"/>
-      <c r="B184" s="273"/>
-      <c r="C184" s="239"/>
+      <c r="B184" s="292"/>
+      <c r="C184" s="238"/>
       <c r="D184" s="84"/>
       <c r="E184" s="85"/>
       <c r="F184" s="66"/>
@@ -9396,9 +9441,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="83"/>
-      <c r="B185" s="273"/>
-      <c r="C185" s="239"/>
-      <c r="D185" s="228"/>
+      <c r="B185" s="292"/>
+      <c r="C185" s="238"/>
+      <c r="D185" s="227"/>
       <c r="E185" s="75"/>
       <c r="F185" s="66"/>
       <c r="G185" s="66"/>
@@ -9427,9 +9472,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="83"/>
-      <c r="B186" s="273"/>
-      <c r="C186" s="239"/>
-      <c r="D186" s="228"/>
+      <c r="B186" s="292"/>
+      <c r="C186" s="238"/>
+      <c r="D186" s="227"/>
       <c r="E186" s="75"/>
       <c r="F186" s="66"/>
       <c r="G186" s="66"/>
@@ -9458,9 +9503,9 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="83"/>
-      <c r="B187" s="273"/>
-      <c r="C187" s="239"/>
-      <c r="D187" s="228"/>
+      <c r="B187" s="292"/>
+      <c r="C187" s="238"/>
+      <c r="D187" s="227"/>
       <c r="E187" s="87"/>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
@@ -9489,9 +9534,9 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
-      <c r="B188" s="273"/>
-      <c r="C188" s="239"/>
-      <c r="D188" s="228"/>
+      <c r="B188" s="292"/>
+      <c r="C188" s="238"/>
+      <c r="D188" s="227"/>
       <c r="E188" s="88"/>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
@@ -9520,9 +9565,9 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="83"/>
-      <c r="B189" s="273"/>
-      <c r="C189" s="239"/>
-      <c r="D189" s="228"/>
+      <c r="B189" s="292"/>
+      <c r="C189" s="238"/>
+      <c r="D189" s="227"/>
       <c r="E189" s="88"/>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
@@ -9551,9 +9596,9 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="83"/>
-      <c r="B190" s="273"/>
-      <c r="C190" s="239"/>
-      <c r="D190" s="228"/>
+      <c r="B190" s="292"/>
+      <c r="C190" s="238"/>
+      <c r="D190" s="227"/>
       <c r="E190" s="88"/>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
@@ -9582,9 +9627,9 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="83"/>
-      <c r="B191" s="273"/>
-      <c r="C191" s="239"/>
-      <c r="D191" s="228"/>
+      <c r="B191" s="292"/>
+      <c r="C191" s="238"/>
+      <c r="D191" s="227"/>
       <c r="E191" s="88"/>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
@@ -9613,9 +9658,9 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="83"/>
-      <c r="B192" s="273"/>
-      <c r="C192" s="239"/>
-      <c r="D192" s="228"/>
+      <c r="B192" s="292"/>
+      <c r="C192" s="238"/>
+      <c r="D192" s="227"/>
       <c r="E192" s="75"/>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
@@ -9644,9 +9689,9 @@
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="83"/>
-      <c r="B193" s="273"/>
-      <c r="C193" s="239"/>
-      <c r="D193" s="228"/>
+      <c r="B193" s="292"/>
+      <c r="C193" s="238"/>
+      <c r="D193" s="227"/>
       <c r="E193" s="75"/>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
@@ -9675,9 +9720,9 @@
     </row>
     <row r="194" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
-      <c r="B194" s="273"/>
-      <c r="C194" s="239"/>
-      <c r="D194" s="228"/>
+      <c r="B194" s="292"/>
+      <c r="C194" s="238"/>
+      <c r="D194" s="227"/>
       <c r="E194" s="75"/>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
@@ -9706,9 +9751,9 @@
     </row>
     <row r="195" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="83"/>
-      <c r="B195" s="273"/>
-      <c r="C195" s="239"/>
-      <c r="D195" s="228"/>
+      <c r="B195" s="292"/>
+      <c r="C195" s="238"/>
+      <c r="D195" s="227"/>
       <c r="E195" s="75"/>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
@@ -9737,9 +9782,9 @@
     </row>
     <row r="196" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="83"/>
-      <c r="B196" s="273"/>
-      <c r="C196" s="239"/>
-      <c r="D196" s="228"/>
+      <c r="B196" s="292"/>
+      <c r="C196" s="238"/>
+      <c r="D196" s="227"/>
       <c r="E196" s="85"/>
       <c r="F196" s="66"/>
       <c r="G196" s="66"/>
@@ -9768,9 +9813,9 @@
     </row>
     <row r="197" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="83"/>
-      <c r="B197" s="273"/>
-      <c r="C197" s="239"/>
-      <c r="D197" s="229"/>
+      <c r="B197" s="292"/>
+      <c r="C197" s="238"/>
+      <c r="D197" s="228"/>
       <c r="E197" s="89"/>
       <c r="F197" s="66"/>
       <c r="G197" s="66"/>
@@ -9799,9 +9844,9 @@
     </row>
     <row r="198" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="83"/>
-      <c r="B198" s="273"/>
-      <c r="C198" s="239"/>
-      <c r="D198" s="230"/>
+      <c r="B198" s="292"/>
+      <c r="C198" s="238"/>
+      <c r="D198" s="229"/>
       <c r="E198" s="85"/>
       <c r="F198" s="66"/>
       <c r="G198" s="66"/>
@@ -9830,9 +9875,9 @@
     </row>
     <row r="199" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="83"/>
-      <c r="B199" s="273"/>
-      <c r="C199" s="239"/>
-      <c r="D199" s="266"/>
+      <c r="B199" s="292"/>
+      <c r="C199" s="238"/>
+      <c r="D199" s="314"/>
       <c r="E199" s="75"/>
       <c r="F199" s="66"/>
       <c r="G199" s="66"/>
@@ -9841,7 +9886,7 @@
       <c r="J199" s="66"/>
       <c r="K199" s="66"/>
       <c r="L199" s="58"/>
-      <c r="M199" s="267"/>
+      <c r="M199" s="315"/>
       <c r="N199" s="51"/>
       <c r="O199" s="51"/>
       <c r="P199" s="51"/>
@@ -9861,9 +9906,9 @@
     </row>
     <row r="200" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="52"/>
-      <c r="B200" s="273"/>
-      <c r="C200" s="239"/>
-      <c r="D200" s="266"/>
+      <c r="B200" s="292"/>
+      <c r="C200" s="238"/>
+      <c r="D200" s="314"/>
       <c r="E200" s="75"/>
       <c r="F200" s="66"/>
       <c r="G200" s="66"/>
@@ -9872,7 +9917,7 @@
       <c r="J200" s="66"/>
       <c r="K200" s="66"/>
       <c r="L200" s="58"/>
-      <c r="M200" s="267"/>
+      <c r="M200" s="315"/>
       <c r="N200" s="51"/>
       <c r="O200" s="51"/>
       <c r="P200" s="51"/>
@@ -9892,9 +9937,9 @@
     </row>
     <row r="201" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="52"/>
-      <c r="B201" s="273"/>
-      <c r="C201" s="239"/>
-      <c r="D201" s="266"/>
+      <c r="B201" s="292"/>
+      <c r="C201" s="238"/>
+      <c r="D201" s="314"/>
       <c r="E201" s="87"/>
       <c r="F201" s="66"/>
       <c r="G201" s="66"/>
@@ -9903,7 +9948,7 @@
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="58"/>
-      <c r="M201" s="267"/>
+      <c r="M201" s="315"/>
       <c r="N201" s="51"/>
       <c r="O201" s="51"/>
       <c r="P201" s="51"/>
@@ -9923,9 +9968,9 @@
     </row>
     <row r="202" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="52"/>
-      <c r="B202" s="273"/>
-      <c r="C202" s="239"/>
-      <c r="D202" s="266"/>
+      <c r="B202" s="292"/>
+      <c r="C202" s="238"/>
+      <c r="D202" s="314"/>
       <c r="E202" s="88"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
@@ -9934,7 +9979,7 @@
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="58"/>
-      <c r="M202" s="267"/>
+      <c r="M202" s="315"/>
       <c r="N202" s="51"/>
       <c r="O202" s="51"/>
       <c r="P202" s="51"/>
@@ -9954,9 +9999,9 @@
     </row>
     <row r="203" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
-      <c r="B203" s="273"/>
-      <c r="C203" s="239"/>
-      <c r="D203" s="266"/>
+      <c r="B203" s="292"/>
+      <c r="C203" s="238"/>
+      <c r="D203" s="314"/>
       <c r="E203" s="88"/>
       <c r="F203" s="66"/>
       <c r="G203" s="66"/>
@@ -9965,7 +10010,7 @@
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="58"/>
-      <c r="M203" s="267"/>
+      <c r="M203" s="315"/>
       <c r="N203" s="51"/>
       <c r="O203" s="51"/>
       <c r="P203" s="51"/>
@@ -9985,9 +10030,9 @@
     </row>
     <row r="204" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
-      <c r="B204" s="273"/>
-      <c r="C204" s="239"/>
-      <c r="D204" s="266"/>
+      <c r="B204" s="292"/>
+      <c r="C204" s="238"/>
+      <c r="D204" s="314"/>
       <c r="E204" s="88"/>
       <c r="F204" s="66"/>
       <c r="G204" s="66"/>
@@ -9996,7 +10041,7 @@
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="58"/>
-      <c r="M204" s="267"/>
+      <c r="M204" s="315"/>
       <c r="N204" s="51"/>
       <c r="O204" s="51"/>
       <c r="P204" s="51"/>
@@ -10016,9 +10061,9 @@
     </row>
     <row r="205" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
-      <c r="B205" s="273"/>
-      <c r="C205" s="239"/>
-      <c r="D205" s="266"/>
+      <c r="B205" s="292"/>
+      <c r="C205" s="238"/>
+      <c r="D205" s="314"/>
       <c r="E205" s="88"/>
       <c r="F205" s="66"/>
       <c r="G205" s="66"/>
@@ -10027,7 +10072,7 @@
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="58"/>
-      <c r="M205" s="267"/>
+      <c r="M205" s="315"/>
       <c r="N205" s="51"/>
       <c r="O205" s="51"/>
       <c r="P205" s="51"/>
@@ -10047,9 +10092,9 @@
     </row>
     <row r="206" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
-      <c r="B206" s="273"/>
-      <c r="C206" s="239"/>
-      <c r="D206" s="266"/>
+      <c r="B206" s="292"/>
+      <c r="C206" s="238"/>
+      <c r="D206" s="314"/>
       <c r="E206" s="75"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
@@ -10058,7 +10103,7 @@
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="58"/>
-      <c r="M206" s="267"/>
+      <c r="M206" s="315"/>
       <c r="N206" s="51"/>
       <c r="O206" s="51"/>
       <c r="P206" s="51"/>
@@ -10078,9 +10123,9 @@
     </row>
     <row r="207" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
-      <c r="B207" s="273"/>
-      <c r="C207" s="239"/>
-      <c r="D207" s="266"/>
+      <c r="B207" s="292"/>
+      <c r="C207" s="238"/>
+      <c r="D207" s="314"/>
       <c r="E207" s="75"/>
       <c r="F207" s="66"/>
       <c r="G207" s="66"/>
@@ -10109,9 +10154,9 @@
     </row>
     <row r="208" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
-      <c r="B208" s="273"/>
-      <c r="C208" s="239"/>
-      <c r="D208" s="266"/>
+      <c r="B208" s="292"/>
+      <c r="C208" s="238"/>
+      <c r="D208" s="314"/>
       <c r="E208" s="75"/>
       <c r="F208" s="66"/>
       <c r="G208" s="66"/>
@@ -10140,9 +10185,9 @@
     </row>
     <row r="209" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
-      <c r="B209" s="274"/>
-      <c r="C209" s="240"/>
-      <c r="D209" s="266"/>
+      <c r="B209" s="294"/>
+      <c r="C209" s="239"/>
+      <c r="D209" s="314"/>
       <c r="E209" s="75"/>
       <c r="F209" s="66"/>
       <c r="G209" s="66"/>
@@ -10172,7 +10217,7 @@
     <row r="210" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="91"/>
       <c r="B210" s="92"/>
-      <c r="C210" s="233"/>
+      <c r="C210" s="232"/>
       <c r="D210" s="86"/>
       <c r="E210" s="85"/>
       <c r="F210" s="66"/>
@@ -10204,7 +10249,7 @@
       <c r="A211" s="91"/>
       <c r="B211" s="94"/>
       <c r="C211" s="93"/>
-      <c r="D211" s="268"/>
+      <c r="D211" s="316"/>
       <c r="E211" s="75"/>
       <c r="F211" s="66"/>
       <c r="G211" s="82"/>
@@ -10235,7 +10280,7 @@
       <c r="A212" s="91"/>
       <c r="B212" s="90"/>
       <c r="C212" s="95"/>
-      <c r="D212" s="268"/>
+      <c r="D212" s="316"/>
       <c r="E212" s="75"/>
       <c r="F212" s="66"/>
       <c r="G212" s="82"/>
@@ -10266,7 +10311,7 @@
       <c r="A213" s="91"/>
       <c r="B213" s="90"/>
       <c r="C213" s="95"/>
-      <c r="D213" s="268"/>
+      <c r="D213" s="316"/>
       <c r="E213" s="75"/>
       <c r="F213" s="66"/>
       <c r="G213" s="82"/>
@@ -10297,7 +10342,7 @@
       <c r="A214" s="91"/>
       <c r="B214" s="90"/>
       <c r="C214" s="90"/>
-      <c r="D214" s="268"/>
+      <c r="D214" s="316"/>
       <c r="E214" s="78"/>
       <c r="F214" s="66"/>
       <c r="G214" s="82"/>
@@ -10328,7 +10373,7 @@
       <c r="A215" s="91"/>
       <c r="B215" s="94"/>
       <c r="C215" s="90"/>
-      <c r="D215" s="268"/>
+      <c r="D215" s="316"/>
       <c r="E215" s="78"/>
       <c r="F215" s="66"/>
       <c r="G215" s="82"/>
@@ -10359,7 +10404,7 @@
       <c r="A216" s="91"/>
       <c r="B216" s="94"/>
       <c r="C216" s="90"/>
-      <c r="D216" s="268"/>
+      <c r="D216" s="316"/>
       <c r="E216" s="78"/>
       <c r="F216" s="66"/>
       <c r="G216" s="82"/>
@@ -10390,7 +10435,7 @@
       <c r="A217" s="91"/>
       <c r="B217" s="94"/>
       <c r="C217" s="90"/>
-      <c r="D217" s="268"/>
+      <c r="D217" s="316"/>
       <c r="E217" s="75"/>
       <c r="F217" s="66"/>
       <c r="G217" s="82"/>
@@ -10421,7 +10466,7 @@
       <c r="A218" s="91"/>
       <c r="B218" s="94"/>
       <c r="C218" s="90"/>
-      <c r="D218" s="268"/>
+      <c r="D218" s="316"/>
       <c r="E218" s="75"/>
       <c r="F218" s="66"/>
       <c r="G218" s="82"/>
@@ -10452,7 +10497,7 @@
       <c r="A219" s="91"/>
       <c r="B219" s="94"/>
       <c r="C219" s="94"/>
-      <c r="D219" s="268"/>
+      <c r="D219" s="316"/>
       <c r="E219" s="75"/>
       <c r="F219" s="66"/>
       <c r="G219" s="82"/>
@@ -11792,8 +11837,8 @@
       <c r="H262" s="115"/>
       <c r="I262" s="115"/>
       <c r="J262" s="115"/>
-      <c r="K262" s="264"/>
-      <c r="L262" s="267"/>
+      <c r="K262" s="312"/>
+      <c r="L262" s="315"/>
       <c r="M262" s="110"/>
       <c r="N262" s="51"/>
       <c r="O262" s="51"/>
@@ -11823,8 +11868,8 @@
       <c r="H263" s="116"/>
       <c r="I263" s="116"/>
       <c r="J263" s="116"/>
-      <c r="K263" s="264"/>
-      <c r="L263" s="267"/>
+      <c r="K263" s="312"/>
+      <c r="L263" s="315"/>
       <c r="M263" s="110"/>
       <c r="N263" s="51"/>
       <c r="O263" s="51"/>
@@ -11854,8 +11899,8 @@
       <c r="H264" s="49"/>
       <c r="I264" s="49"/>
       <c r="J264" s="49"/>
-      <c r="K264" s="264"/>
-      <c r="L264" s="267"/>
+      <c r="K264" s="312"/>
+      <c r="L264" s="315"/>
       <c r="M264" s="110"/>
       <c r="N264" s="51"/>
       <c r="O264" s="51"/>
@@ -12063,9 +12108,9 @@
     <row r="271" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="91"/>
       <c r="B271" s="102"/>
-      <c r="C271" s="260"/>
+      <c r="C271" s="317"/>
       <c r="D271" s="90"/>
-      <c r="E271" s="269"/>
+      <c r="E271" s="318"/>
       <c r="F271" s="60"/>
       <c r="G271" s="60"/>
       <c r="H271" s="60"/>
@@ -12094,9 +12139,9 @@
     <row r="272" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="91"/>
       <c r="B272" s="102"/>
-      <c r="C272" s="260"/>
+      <c r="C272" s="317"/>
       <c r="D272" s="90"/>
-      <c r="E272" s="269"/>
+      <c r="E272" s="318"/>
       <c r="F272" s="60"/>
       <c r="G272" s="60"/>
       <c r="H272" s="60"/>
@@ -12125,9 +12170,9 @@
     <row r="273" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="91"/>
       <c r="B273" s="102"/>
-      <c r="C273" s="260"/>
+      <c r="C273" s="317"/>
       <c r="D273" s="90"/>
-      <c r="E273" s="269"/>
+      <c r="E273" s="318"/>
       <c r="F273" s="60"/>
       <c r="G273" s="60"/>
       <c r="H273" s="60"/>
@@ -12156,7 +12201,7 @@
     <row r="274" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="91"/>
       <c r="B274" s="102"/>
-      <c r="C274" s="260"/>
+      <c r="C274" s="317"/>
       <c r="D274" s="90"/>
       <c r="E274" s="67"/>
       <c r="F274" s="60"/>
@@ -12187,7 +12232,7 @@
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="91"/>
       <c r="B275" s="102"/>
-      <c r="C275" s="260"/>
+      <c r="C275" s="317"/>
       <c r="D275" s="90"/>
       <c r="E275" s="67"/>
       <c r="F275" s="60"/>
@@ -12218,7 +12263,7 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="91"/>
       <c r="B276" s="102"/>
-      <c r="C276" s="260"/>
+      <c r="C276" s="317"/>
       <c r="D276" s="90"/>
       <c r="E276" s="67"/>
       <c r="F276" s="113"/>
@@ -12249,7 +12294,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="91"/>
       <c r="B277" s="102"/>
-      <c r="C277" s="260"/>
+      <c r="C277" s="317"/>
       <c r="D277" s="90"/>
       <c r="E277" s="67"/>
       <c r="F277" s="60"/>
@@ -12280,7 +12325,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="91"/>
       <c r="B278" s="102"/>
-      <c r="C278" s="261"/>
+      <c r="C278" s="311"/>
       <c r="D278" s="100"/>
       <c r="E278" s="67"/>
       <c r="F278" s="113"/>
@@ -12311,7 +12356,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="91"/>
       <c r="B279" s="102"/>
-      <c r="C279" s="261"/>
+      <c r="C279" s="311"/>
       <c r="D279" s="121"/>
       <c r="E279" s="67"/>
       <c r="F279" s="113"/>
@@ -12373,7 +12418,7 @@
     <row r="281" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="91"/>
       <c r="B281" s="102"/>
-      <c r="C281" s="261"/>
+      <c r="C281" s="311"/>
       <c r="D281" s="100"/>
       <c r="E281" s="67"/>
       <c r="F281" s="60"/>
@@ -12404,7 +12449,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="91"/>
       <c r="B282" s="102"/>
-      <c r="C282" s="261"/>
+      <c r="C282" s="311"/>
       <c r="D282" s="101"/>
       <c r="E282" s="67"/>
       <c r="F282" s="60"/>
@@ -12435,7 +12480,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="91"/>
       <c r="B283" s="102"/>
-      <c r="C283" s="261"/>
+      <c r="C283" s="311"/>
       <c r="D283" s="101"/>
       <c r="E283" s="67"/>
       <c r="F283" s="60"/>
@@ -12466,7 +12511,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="91"/>
       <c r="B284" s="102"/>
-      <c r="C284" s="261"/>
+      <c r="C284" s="311"/>
       <c r="D284" s="101"/>
       <c r="E284" s="67"/>
       <c r="F284" s="113"/>
@@ -12497,7 +12542,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="91"/>
       <c r="B285" s="102"/>
-      <c r="C285" s="261"/>
+      <c r="C285" s="311"/>
       <c r="D285" s="101"/>
       <c r="E285" s="123"/>
       <c r="F285" s="60"/>
@@ -12877,7 +12922,7 @@
       <c r="H297" s="113"/>
       <c r="I297" s="113"/>
       <c r="J297" s="113"/>
-      <c r="K297" s="270"/>
+      <c r="K297" s="319"/>
       <c r="L297" s="58"/>
       <c r="M297" s="80"/>
       <c r="N297" s="51"/>
@@ -12908,7 +12953,7 @@
       <c r="H298" s="113"/>
       <c r="I298" s="113"/>
       <c r="J298" s="113"/>
-      <c r="K298" s="270"/>
+      <c r="K298" s="319"/>
       <c r="L298" s="58"/>
       <c r="M298" s="80"/>
       <c r="N298" s="51"/>
@@ -12993,7 +13038,7 @@
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="91"/>
       <c r="B301" s="102"/>
-      <c r="C301" s="261"/>
+      <c r="C301" s="311"/>
       <c r="D301" s="100"/>
       <c r="E301" s="67"/>
       <c r="F301" s="113"/>
@@ -13001,7 +13046,7 @@
       <c r="H301" s="113"/>
       <c r="I301" s="113"/>
       <c r="J301" s="113"/>
-      <c r="K301" s="264"/>
+      <c r="K301" s="312"/>
       <c r="L301" s="58"/>
       <c r="M301" s="80"/>
       <c r="N301" s="51"/>
@@ -13024,7 +13069,7 @@
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="91"/>
       <c r="B302" s="102"/>
-      <c r="C302" s="261"/>
+      <c r="C302" s="311"/>
       <c r="D302" s="121"/>
       <c r="E302" s="67"/>
       <c r="F302" s="113"/>
@@ -13032,7 +13077,7 @@
       <c r="H302" s="113"/>
       <c r="I302" s="113"/>
       <c r="J302" s="113"/>
-      <c r="K302" s="264"/>
+      <c r="K302" s="312"/>
       <c r="L302" s="58"/>
       <c r="M302" s="80"/>
       <c r="N302" s="51"/>
@@ -13055,7 +13100,7 @@
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="91"/>
       <c r="B303" s="102"/>
-      <c r="C303" s="260"/>
+      <c r="C303" s="317"/>
       <c r="D303" s="114"/>
       <c r="E303" s="78"/>
       <c r="F303" s="66"/>
@@ -13086,7 +13131,7 @@
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="91"/>
       <c r="B304" s="102"/>
-      <c r="C304" s="260"/>
+      <c r="C304" s="317"/>
       <c r="D304" s="77"/>
       <c r="E304" s="78"/>
       <c r="F304" s="66"/>
@@ -13148,7 +13193,7 @@
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="91"/>
       <c r="B306" s="102"/>
-      <c r="C306" s="261"/>
+      <c r="C306" s="311"/>
       <c r="D306" s="100"/>
       <c r="E306" s="78"/>
       <c r="F306" s="66"/>
@@ -13179,7 +13224,7 @@
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="91"/>
       <c r="B307" s="102"/>
-      <c r="C307" s="261"/>
+      <c r="C307" s="311"/>
       <c r="D307" s="101"/>
       <c r="E307" s="78"/>
       <c r="F307" s="66"/>
@@ -13210,7 +13255,7 @@
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="91"/>
       <c r="B308" s="102"/>
-      <c r="C308" s="261"/>
+      <c r="C308" s="311"/>
       <c r="D308" s="121"/>
       <c r="E308" s="78"/>
       <c r="F308" s="66"/>
@@ -13395,10 +13440,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="97"/>
-      <c r="B314" s="262"/>
-      <c r="C314" s="260"/>
+      <c r="B314" s="320"/>
+      <c r="C314" s="317"/>
       <c r="D314" s="90"/>
-      <c r="E314" s="260"/>
+      <c r="E314" s="317"/>
       <c r="F314" s="60"/>
       <c r="G314" s="60"/>
       <c r="H314" s="60"/>
@@ -13426,10 +13471,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="97"/>
-      <c r="B315" s="262"/>
-      <c r="C315" s="262"/>
+      <c r="B315" s="320"/>
+      <c r="C315" s="320"/>
       <c r="D315" s="90"/>
-      <c r="E315" s="260"/>
+      <c r="E315" s="317"/>
       <c r="F315" s="60"/>
       <c r="G315" s="60"/>
       <c r="H315" s="60"/>
@@ -13457,10 +13502,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="97"/>
-      <c r="B316" s="262"/>
-      <c r="C316" s="262"/>
+      <c r="B316" s="320"/>
+      <c r="C316" s="320"/>
       <c r="D316" s="90"/>
-      <c r="E316" s="260"/>
+      <c r="E316" s="317"/>
       <c r="F316" s="60"/>
       <c r="G316" s="60"/>
       <c r="H316" s="60"/>
@@ -13488,10 +13533,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="97"/>
-      <c r="B317" s="262"/>
-      <c r="C317" s="262"/>
+      <c r="B317" s="320"/>
+      <c r="C317" s="320"/>
       <c r="D317" s="90"/>
-      <c r="E317" s="260"/>
+      <c r="E317" s="317"/>
       <c r="F317" s="60"/>
       <c r="G317" s="60"/>
       <c r="H317" s="60"/>
@@ -13519,10 +13564,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="97"/>
-      <c r="B318" s="262"/>
-      <c r="C318" s="262"/>
+      <c r="B318" s="320"/>
+      <c r="C318" s="320"/>
       <c r="D318" s="90"/>
-      <c r="E318" s="260"/>
+      <c r="E318" s="317"/>
       <c r="F318" s="60"/>
       <c r="G318" s="60"/>
       <c r="H318" s="60"/>
@@ -13550,10 +13595,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="97"/>
-      <c r="B319" s="262"/>
-      <c r="C319" s="262"/>
+      <c r="B319" s="320"/>
+      <c r="C319" s="320"/>
       <c r="D319" s="90"/>
-      <c r="E319" s="260"/>
+      <c r="E319" s="317"/>
       <c r="F319" s="113"/>
       <c r="G319" s="113"/>
       <c r="H319" s="113"/>
@@ -13581,10 +13626,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="97"/>
-      <c r="B320" s="262"/>
-      <c r="C320" s="262"/>
+      <c r="B320" s="320"/>
+      <c r="C320" s="320"/>
       <c r="D320" s="90"/>
-      <c r="E320" s="260"/>
+      <c r="E320" s="317"/>
       <c r="F320" s="60"/>
       <c r="G320" s="60"/>
       <c r="H320" s="60"/>
@@ -13612,10 +13657,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="97"/>
-      <c r="B321" s="262"/>
-      <c r="C321" s="262"/>
+      <c r="B321" s="320"/>
+      <c r="C321" s="320"/>
       <c r="D321" s="90"/>
-      <c r="E321" s="260"/>
+      <c r="E321" s="317"/>
       <c r="F321" s="60"/>
       <c r="G321" s="60"/>
       <c r="H321" s="60"/>
@@ -13643,8 +13688,8 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="97"/>
-      <c r="B322" s="262"/>
-      <c r="C322" s="262"/>
+      <c r="B322" s="320"/>
+      <c r="C322" s="320"/>
       <c r="D322" s="90"/>
       <c r="E322" s="94"/>
       <c r="F322" s="57"/>
@@ -13674,8 +13719,8 @@
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="97"/>
-      <c r="B323" s="262"/>
-      <c r="C323" s="262"/>
+      <c r="B323" s="320"/>
+      <c r="C323" s="320"/>
       <c r="D323" s="90"/>
       <c r="E323" s="94"/>
       <c r="F323" s="58"/>
@@ -13705,10 +13750,10 @@
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="97"/>
-      <c r="B324" s="262"/>
-      <c r="C324" s="262"/>
+      <c r="B324" s="320"/>
+      <c r="C324" s="320"/>
       <c r="D324" s="114"/>
-      <c r="E324" s="260"/>
+      <c r="E324" s="317"/>
       <c r="F324" s="66"/>
       <c r="G324" s="66"/>
       <c r="H324" s="66"/>
@@ -13736,10 +13781,10 @@
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="97"/>
-      <c r="B325" s="262"/>
-      <c r="C325" s="262"/>
+      <c r="B325" s="320"/>
+      <c r="C325" s="320"/>
       <c r="D325" s="135"/>
-      <c r="E325" s="260"/>
+      <c r="E325" s="317"/>
       <c r="F325" s="58"/>
       <c r="G325" s="58"/>
       <c r="H325" s="58"/>
@@ -13767,10 +13812,10 @@
     </row>
     <row r="326" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="97"/>
-      <c r="B326" s="262"/>
-      <c r="C326" s="262"/>
+      <c r="B326" s="320"/>
+      <c r="C326" s="320"/>
       <c r="D326" s="135"/>
-      <c r="E326" s="260"/>
+      <c r="E326" s="317"/>
       <c r="F326" s="58"/>
       <c r="G326" s="58"/>
       <c r="H326" s="58"/>
@@ -13798,10 +13843,10 @@
     </row>
     <row r="327" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="97"/>
-      <c r="B327" s="262"/>
-      <c r="C327" s="260"/>
+      <c r="B327" s="320"/>
+      <c r="C327" s="317"/>
       <c r="D327" s="77"/>
-      <c r="E327" s="260"/>
+      <c r="E327" s="317"/>
       <c r="F327" s="58"/>
       <c r="G327" s="58"/>
       <c r="H327" s="58"/>
@@ -13829,7 +13874,7 @@
     </row>
     <row r="328" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="97"/>
-      <c r="B328" s="262"/>
+      <c r="B328" s="320"/>
       <c r="C328" s="90"/>
       <c r="D328" s="135"/>
       <c r="E328" s="135"/>
@@ -13860,10 +13905,10 @@
     </row>
     <row r="329" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="97"/>
-      <c r="B329" s="262"/>
-      <c r="C329" s="260"/>
+      <c r="B329" s="320"/>
+      <c r="C329" s="317"/>
       <c r="D329" s="114"/>
-      <c r="E329" s="263"/>
+      <c r="E329" s="321"/>
       <c r="F329" s="66"/>
       <c r="G329" s="66"/>
       <c r="H329" s="66"/>
@@ -13891,10 +13936,10 @@
     </row>
     <row r="330" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="97"/>
-      <c r="B330" s="262"/>
-      <c r="C330" s="262"/>
+      <c r="B330" s="320"/>
+      <c r="C330" s="320"/>
       <c r="D330" s="77"/>
-      <c r="E330" s="263"/>
+      <c r="E330" s="321"/>
       <c r="F330" s="66"/>
       <c r="G330" s="66"/>
       <c r="H330" s="66"/>
@@ -13922,8 +13967,8 @@
     </row>
     <row r="331" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="97"/>
-      <c r="B331" s="262"/>
-      <c r="C331" s="260"/>
+      <c r="B331" s="320"/>
+      <c r="C331" s="317"/>
       <c r="D331" s="90"/>
       <c r="E331" s="91"/>
       <c r="F331" s="66"/>
@@ -13953,7 +13998,7 @@
     </row>
     <row r="332" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="97"/>
-      <c r="B332" s="262"/>
+      <c r="B332" s="320"/>
       <c r="C332" s="94"/>
       <c r="D332" s="94"/>
       <c r="E332" s="97"/>
@@ -13984,10 +14029,10 @@
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="97"/>
-      <c r="B333" s="262"/>
-      <c r="C333" s="260"/>
+      <c r="B333" s="320"/>
+      <c r="C333" s="317"/>
       <c r="D333" s="114"/>
-      <c r="E333" s="260"/>
+      <c r="E333" s="317"/>
       <c r="F333" s="66"/>
       <c r="G333" s="66"/>
       <c r="H333" s="66"/>
@@ -14015,10 +14060,10 @@
     </row>
     <row r="334" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="97"/>
-      <c r="B334" s="262"/>
-      <c r="C334" s="262"/>
+      <c r="B334" s="320"/>
+      <c r="C334" s="320"/>
       <c r="D334" s="135"/>
-      <c r="E334" s="260"/>
+      <c r="E334" s="317"/>
       <c r="F334" s="66"/>
       <c r="G334" s="66"/>
       <c r="H334" s="66"/>
@@ -14046,10 +14091,10 @@
     </row>
     <row r="335" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="97"/>
-      <c r="B335" s="262"/>
-      <c r="C335" s="262"/>
+      <c r="B335" s="320"/>
+      <c r="C335" s="320"/>
       <c r="D335" s="135"/>
-      <c r="E335" s="260"/>
+      <c r="E335" s="317"/>
       <c r="F335" s="66"/>
       <c r="G335" s="66"/>
       <c r="H335" s="66"/>
@@ -14077,10 +14122,10 @@
     </row>
     <row r="336" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="97"/>
-      <c r="B336" s="262"/>
-      <c r="C336" s="262"/>
+      <c r="B336" s="320"/>
+      <c r="C336" s="320"/>
       <c r="D336" s="135"/>
-      <c r="E336" s="260"/>
+      <c r="E336" s="317"/>
       <c r="F336" s="66"/>
       <c r="G336" s="66"/>
       <c r="H336" s="66"/>
@@ -14108,10 +14153,10 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="97"/>
-      <c r="B337" s="262"/>
-      <c r="C337" s="262"/>
+      <c r="B337" s="320"/>
+      <c r="C337" s="320"/>
       <c r="D337" s="135"/>
-      <c r="E337" s="260"/>
+      <c r="E337" s="317"/>
       <c r="F337" s="60"/>
       <c r="G337" s="60"/>
       <c r="H337" s="60"/>
@@ -14139,10 +14184,10 @@
     </row>
     <row r="338" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="97"/>
-      <c r="B338" s="262"/>
-      <c r="C338" s="262"/>
+      <c r="B338" s="320"/>
+      <c r="C338" s="320"/>
       <c r="D338" s="77"/>
-      <c r="E338" s="260"/>
+      <c r="E338" s="317"/>
       <c r="F338" s="60"/>
       <c r="G338" s="60"/>
       <c r="H338" s="60"/>
@@ -14170,10 +14215,10 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="97"/>
-      <c r="B339" s="262"/>
-      <c r="C339" s="262"/>
+      <c r="B339" s="320"/>
+      <c r="C339" s="320"/>
       <c r="D339" s="114"/>
-      <c r="E339" s="260"/>
+      <c r="E339" s="317"/>
       <c r="F339" s="66"/>
       <c r="G339" s="66"/>
       <c r="H339" s="66"/>
@@ -14201,10 +14246,10 @@
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="97"/>
-      <c r="B340" s="262"/>
-      <c r="C340" s="262"/>
+      <c r="B340" s="320"/>
+      <c r="C340" s="320"/>
       <c r="D340" s="135"/>
-      <c r="E340" s="260"/>
+      <c r="E340" s="317"/>
       <c r="F340" s="58"/>
       <c r="G340" s="58"/>
       <c r="H340" s="58"/>
@@ -14232,10 +14277,10 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="97"/>
-      <c r="B341" s="262"/>
-      <c r="C341" s="262"/>
+      <c r="B341" s="320"/>
+      <c r="C341" s="320"/>
       <c r="D341" s="135"/>
-      <c r="E341" s="260"/>
+      <c r="E341" s="317"/>
       <c r="F341" s="58"/>
       <c r="G341" s="58"/>
       <c r="H341" s="58"/>
@@ -14263,10 +14308,10 @@
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="97"/>
-      <c r="B342" s="262"/>
-      <c r="C342" s="262"/>
+      <c r="B342" s="320"/>
+      <c r="C342" s="320"/>
       <c r="D342" s="77"/>
-      <c r="E342" s="260"/>
+      <c r="E342" s="317"/>
       <c r="F342" s="58"/>
       <c r="G342" s="58"/>
       <c r="H342" s="58"/>
@@ -16402,19 +16447,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C24:C43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D21:D48"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E333:E338"/>
+    <mergeCell ref="E339:E342"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="B314:B342"/>
+    <mergeCell ref="C314:C327"/>
+    <mergeCell ref="E314:E321"/>
+    <mergeCell ref="E324:E327"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="C333:C342"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="K301:K302"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="D199:D209"/>
+    <mergeCell ref="M199:M206"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="K262:K264"/>
+    <mergeCell ref="L262:L264"/>
+    <mergeCell ref="C271:C277"/>
+    <mergeCell ref="E271:E273"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C281:C285"/>
+    <mergeCell ref="K297:K298"/>
     <mergeCell ref="D154:D162"/>
     <mergeCell ref="B16:B209"/>
     <mergeCell ref="C69:C71"/>
@@ -16429,32 +16485,21 @@
     <mergeCell ref="D143:D144"/>
     <mergeCell ref="D146:D152"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="K301:K302"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D199:D209"/>
-    <mergeCell ref="M199:M206"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="K262:K264"/>
-    <mergeCell ref="L262:L264"/>
-    <mergeCell ref="C271:C277"/>
-    <mergeCell ref="E271:E273"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C281:C285"/>
-    <mergeCell ref="K297:K298"/>
-    <mergeCell ref="E333:E338"/>
-    <mergeCell ref="E339:E342"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="B314:B342"/>
-    <mergeCell ref="C314:C327"/>
-    <mergeCell ref="E314:E321"/>
-    <mergeCell ref="E324:E327"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="C333:C342"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C24:C43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D21:D48"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D8:D14"/>
   </mergeCells>
-  <conditionalFormatting sqref="L8:L14 L73:L118 L154:L410 L16:L71">
+  <conditionalFormatting sqref="L8:L14 L16:L71 L73:L118 L154:L410">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project Ajker Deal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB333A-4A91-43C8-8C72-6EFB546706E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5AA63-E8B6-45DE-B235-466A5ED143DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="233">
   <si>
     <t>PASS</t>
   </si>
@@ -707,6 +707,165 @@
     <t>1. Go to ajkerdeal.com
 2. Click on login.
 3. Check fields.</t>
+  </si>
+  <si>
+    <t>Check the aligment of login text in login button</t>
+  </si>
+  <si>
+    <t>login text will be in center of the butoon</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check login button.</t>
+  </si>
+  <si>
+    <t>text not in center</t>
+  </si>
+  <si>
+    <t>Verify the hover effect on login button</t>
+  </si>
+  <si>
+    <t>Hover effect will be present</t>
+  </si>
+  <si>
+    <t>It is visible with proper alignment</t>
+  </si>
+  <si>
+    <t>Verify the "forgot password" visibility  and alignment</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check forgot password.</t>
+  </si>
+  <si>
+    <t>There will be no space between a last word and question mark</t>
+  </si>
+  <si>
+    <t>Verify unwanted space btween last word of a sentence 
+and question mark</t>
+  </si>
+  <si>
+    <t>unwanted space</t>
+  </si>
+  <si>
+    <t>Check proper grammar and capitalization of texts</t>
+  </si>
+  <si>
+    <t>There will be no grammartical or capitalization problem</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check "How To Place Order".</t>
+  </si>
+  <si>
+    <t>grammatical problem</t>
+  </si>
+  <si>
+    <t>Keep fields empty</t>
+  </si>
+  <si>
+    <t>User will not be allow to log in and there will be a appropriate error message</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Keep all field empty.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Verify with valid credentials</t>
+  </si>
+  <si>
+    <t>It will allow user to log in</t>
+  </si>
+  <si>
+    <t>email: tawfiqul.abid@fmail.com
+password:***</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Give input.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>Check with invalid credentials</t>
+  </si>
+  <si>
+    <t>it will not allow user to register &amp; give an error message.</t>
+  </si>
+  <si>
+    <t>email: .abid@fmail.com
+password:***</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Give invalid input.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>Check with mobile number and password</t>
+  </si>
+  <si>
+    <t>mobile: 01784813242
+password:****</t>
+  </si>
+  <si>
+    <t>not allowed</t>
+  </si>
+  <si>
+    <t>Verify log in with only username</t>
+  </si>
+  <si>
+    <t>It will not allow user to log in</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Give valid input.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>email: tawfiqul.abid@fmail.com</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Give only username input.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>Verify log in with only password</t>
+  </si>
+  <si>
+    <t>It will not allow user to log in &amp; give an error message</t>
+  </si>
+  <si>
+    <t>password:****</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Input password only.
+4. Click on Login.</t>
+  </si>
+  <si>
+    <t>Verify forgot password?</t>
+  </si>
+  <si>
+    <t>User is redirected to the password recovery page</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Click on forgot password?.</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1164,21 +1323,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1644,12 +1788,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1769,25 +1989,25 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1817,7 +2037,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1834,7 +2054,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,16 +2090,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,13 +2139,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,10 +2154,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,40 +2166,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,41 +2211,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2069,10 +2289,10 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,44 +2347,41 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2175,66 +2392,66 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,13 +2475,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,36 +2499,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2328,7 +2545,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2346,10 +2563,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2373,174 +2587,202 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2984,9 +3226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3008,11 +3250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="329" t="s">
         <v>158</v>
       </c>
       <c r="D1" s="143" t="s">
@@ -3024,10 +3266,10 @@
       </c>
       <c r="G1" s="146"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="288" t="s">
+      <c r="I1" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="289"/>
+      <c r="J1" s="327"/>
       <c r="K1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3047,10 +3289,10 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="287"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="147" t="s">
         <v>36</v>
       </c>
@@ -3068,7 +3310,7 @@
       </c>
       <c r="J2" s="178">
         <f>COUNTIF(L8:L99, "Passed")</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2"/>
       <c r="N2" s="3"/>
@@ -3089,10 +3331,10 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="306" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="287"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148" t="s">
         <v>12</v>
@@ -3110,7 +3352,7 @@
       </c>
       <c r="J3" s="180">
         <f>COUNTIF(L8:L524, "Failed")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2"/>
       <c r="N3" s="3"/>
@@ -3131,10 +3373,10 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="287"/>
+      <c r="B4" s="306"/>
       <c r="C4" s="147"/>
       <c r="D4" s="148" t="s">
         <v>15</v>
@@ -3171,17 +3413,17 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="304" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="285"/>
-      <c r="C5" s="286" t="s">
+      <c r="B5" s="304"/>
+      <c r="C5" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="305"/>
       <c r="H5" s="1"/>
       <c r="I5" s="183" t="s">
         <v>3</v>
@@ -3222,7 +3464,7 @@
       </c>
       <c r="J6" s="186">
         <f>SUM(J2:J5)</f>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" s="3"/>
@@ -3287,11 +3529,11 @@
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="282"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="301"/>
+      <c r="C8" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="279"/>
+      <c r="D8" s="315"/>
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -3334,9 +3576,9 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="283"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="280"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="316"/>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
@@ -3379,9 +3621,9 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="283"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="280"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="316"/>
       <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
@@ -3397,7 +3639,7 @@
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="202" t="s">
+      <c r="J10" s="201" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="8"/>
@@ -3422,46 +3664,46 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
     </row>
-    <row r="11" spans="1:29" s="199" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="283"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
+    <row r="11" spans="1:29" s="198" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="191"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="316"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
     </row>
     <row r="12" spans="1:29" s="12" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="277" t="s">
+      <c r="B12" s="302"/>
+      <c r="C12" s="313" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="280"/>
+      <c r="D12" s="316"/>
       <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
@@ -3477,7 +3719,7 @@
       <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="202" t="s">
+      <c r="J12" s="201" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="8"/>
@@ -3506,9 +3748,9 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="283"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="280"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3524,7 +3766,7 @@
       <c r="I13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="202" t="s">
+      <c r="J13" s="201" t="s">
         <v>70</v>
       </c>
       <c r="K13" s="8"/>
@@ -3553,9 +3795,9 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="284"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="281"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="317"/>
       <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
@@ -3571,7 +3813,7 @@
       <c r="I14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="202" t="s">
+      <c r="J14" s="201" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="8"/>
@@ -3598,8 +3840,8 @@
     </row>
     <row r="15" spans="1:29" s="158" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="230"/>
       <c r="D15" s="154"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
@@ -3628,16 +3870,16 @@
       <c r="AC15" s="157"/>
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203">
+      <c r="A16" s="202">
         <v>7</v>
       </c>
-      <c r="B16" s="291" t="s">
+      <c r="B16" s="280" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="309" t="s">
+      <c r="C16" s="298" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="D16" s="210" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3655,7 +3897,7 @@
       <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="202" t="s">
+      <c r="J16" s="201" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="8"/>
@@ -3681,12 +3923,12 @@
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204">
+      <c r="A17" s="203">
         <v>8</v>
       </c>
-      <c r="B17" s="292"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="212"/>
+      <c r="B17" s="281"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="211"/>
       <c r="E17" s="6" t="s">
         <v>72</v>
       </c>
@@ -3702,7 +3944,7 @@
       <c r="I17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="202" t="s">
+      <c r="J17" s="201" t="s">
         <v>75</v>
       </c>
       <c r="K17" s="16"/>
@@ -3728,12 +3970,12 @@
       <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="204">
+      <c r="A18" s="203">
         <v>9</v>
       </c>
-      <c r="B18" s="292"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="212"/>
+      <c r="B18" s="281"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3775,12 +4017,12 @@
       <c r="AC18" s="19"/>
     </row>
     <row r="19" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="204">
+      <c r="A19" s="203">
         <v>10</v>
       </c>
-      <c r="B19" s="292"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="212"/>
+      <c r="B19" s="281"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
@@ -3796,7 +4038,7 @@
       <c r="I19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="202" t="s">
+      <c r="J19" s="201" t="s">
         <v>83</v>
       </c>
       <c r="K19" s="21"/>
@@ -3822,12 +4064,12 @@
       <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="204">
+      <c r="A20" s="203">
         <v>11</v>
       </c>
-      <c r="B20" s="292"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="212"/>
+      <c r="B20" s="281"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
@@ -3843,7 +4085,7 @@
       <c r="I20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="202"/>
+      <c r="J20" s="201"/>
       <c r="K20" s="21"/>
       <c r="L20" s="17" t="s">
         <v>31</v>
@@ -3867,12 +4109,12 @@
       <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="204">
+      <c r="A21" s="203">
         <v>12</v>
       </c>
-      <c r="B21" s="292"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="275"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="311"/>
       <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
@@ -3888,7 +4130,7 @@
       <c r="I21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="202"/>
+      <c r="J21" s="201"/>
       <c r="K21" s="21"/>
       <c r="L21" s="17" t="s">
         <v>31</v>
@@ -3912,13 +4154,13 @@
       <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="1:29" s="20" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="204">
+      <c r="A22" s="203">
         <v>13</v>
       </c>
-      <c r="B22" s="292"/>
-      <c r="C22" s="310"/>
-      <c r="D22" s="275"/>
-      <c r="E22" s="240" t="s">
+      <c r="B22" s="281"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="239" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3933,7 +4175,7 @@
       <c r="I22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="202"/>
+      <c r="J22" s="201"/>
       <c r="K22" s="21"/>
       <c r="L22" s="17" t="s">
         <v>31</v>
@@ -3956,47 +4198,47 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
     </row>
-    <row r="23" spans="1:29" s="249" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="242"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="247"/>
-      <c r="O23" s="247"/>
-      <c r="P23" s="247"/>
-      <c r="Q23" s="247"/>
-      <c r="R23" s="247"/>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="248"/>
-      <c r="V23" s="248"/>
-      <c r="W23" s="248"/>
-      <c r="X23" s="248"/>
-      <c r="Y23" s="248"/>
-      <c r="Z23" s="248"/>
-      <c r="AA23" s="248"/>
-      <c r="AB23" s="248"/>
-      <c r="AC23" s="248"/>
+    <row r="23" spans="1:29" s="248" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="241"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="247"/>
+      <c r="V23" s="247"/>
+      <c r="W23" s="247"/>
+      <c r="X23" s="247"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="247"/>
+      <c r="AA23" s="247"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="247"/>
     </row>
     <row r="24" spans="1:29" s="20" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
+      <c r="A24" s="203">
         <v>14</v>
       </c>
-      <c r="B24" s="292"/>
-      <c r="C24" s="270" t="s">
+      <c r="B24" s="281"/>
+      <c r="C24" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="275"/>
-      <c r="E24" s="241" t="s">
+      <c r="D24" s="311"/>
+      <c r="E24" s="240" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -4011,7 +4253,7 @@
       <c r="I24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="202" t="s">
+      <c r="J24" s="201" t="s">
         <v>96</v>
       </c>
       <c r="K24" s="21"/>
@@ -4037,12 +4279,12 @@
       <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="204">
+      <c r="A25" s="203">
         <v>15</v>
       </c>
-      <c r="B25" s="292"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="275"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="311"/>
       <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
@@ -4058,7 +4300,7 @@
       <c r="I25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="252"/>
+      <c r="J25" s="251"/>
       <c r="K25" s="21"/>
       <c r="L25" s="17" t="s">
         <v>31</v>
@@ -4082,12 +4324,12 @@
       <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204">
+      <c r="A26" s="203">
         <v>16</v>
       </c>
-      <c r="B26" s="292"/>
-      <c r="C26" s="271"/>
-      <c r="D26" s="275"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="6" t="s">
         <v>104</v>
       </c>
@@ -4103,7 +4345,7 @@
       <c r="I26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="202" t="s">
+      <c r="J26" s="201" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="21"/>
@@ -4129,12 +4371,12 @@
       <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="204">
+      <c r="A27" s="203">
         <v>17</v>
       </c>
-      <c r="B27" s="292"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="275"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
@@ -4150,7 +4392,7 @@
       <c r="I27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="202" t="s">
+      <c r="J27" s="201" t="s">
         <v>109</v>
       </c>
       <c r="K27" s="21"/>
@@ -4176,12 +4418,12 @@
       <c r="AC27" s="19"/>
     </row>
     <row r="28" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="204">
+      <c r="A28" s="203">
         <v>18</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="275"/>
+      <c r="B28" s="281"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
@@ -4223,12 +4465,12 @@
       <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="204">
+      <c r="A29" s="203">
         <v>19</v>
       </c>
-      <c r="B29" s="292"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="275"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
@@ -4270,12 +4512,12 @@
       <c r="AC29" s="19"/>
     </row>
     <row r="30" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204">
+      <c r="A30" s="203">
         <v>20</v>
       </c>
-      <c r="B30" s="292"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="275"/>
+      <c r="B30" s="281"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4291,7 +4533,7 @@
       <c r="I30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="202"/>
+      <c r="J30" s="201"/>
       <c r="K30" s="21"/>
       <c r="L30" s="17" t="s">
         <v>31</v>
@@ -4315,12 +4557,12 @@
       <c r="AC30" s="19"/>
     </row>
     <row r="31" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="204">
+      <c r="A31" s="203">
         <v>21</v>
       </c>
-      <c r="B31" s="292"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="275"/>
+      <c r="B31" s="281"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
@@ -4336,7 +4578,7 @@
       <c r="I31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="202"/>
+      <c r="J31" s="201"/>
       <c r="K31" s="21"/>
       <c r="L31" s="17" t="s">
         <v>31</v>
@@ -4360,12 +4602,12 @@
       <c r="AC31" s="19"/>
     </row>
     <row r="32" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204">
+      <c r="A32" s="203">
         <v>22</v>
       </c>
-      <c r="B32" s="292"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="275"/>
+      <c r="B32" s="281"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="6" t="s">
         <v>122</v>
       </c>
@@ -4407,12 +4649,12 @@
       <c r="AC32" s="19"/>
     </row>
     <row r="33" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="204">
+      <c r="A33" s="203">
         <v>23</v>
       </c>
-      <c r="B33" s="292"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="275"/>
+      <c r="B33" s="281"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="6" t="s">
         <v>124</v>
       </c>
@@ -4428,7 +4670,7 @@
       <c r="I33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="202"/>
+      <c r="J33" s="201"/>
       <c r="K33" s="21"/>
       <c r="L33" s="17" t="s">
         <v>31</v>
@@ -4452,12 +4694,12 @@
       <c r="AC33" s="19"/>
     </row>
     <row r="34" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="204">
+      <c r="A34" s="203">
         <v>24</v>
       </c>
-      <c r="B34" s="292"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="275"/>
+      <c r="B34" s="281"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
@@ -4499,12 +4741,12 @@
       <c r="AC34" s="19"/>
     </row>
     <row r="35" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="204">
+      <c r="A35" s="203">
         <v>25</v>
       </c>
-      <c r="B35" s="292"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="275"/>
+      <c r="B35" s="281"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="311"/>
       <c r="E35" s="6" t="s">
         <v>132</v>
       </c>
@@ -4520,7 +4762,7 @@
       <c r="I35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="202"/>
+      <c r="J35" s="201"/>
       <c r="K35" s="21"/>
       <c r="L35" s="17" t="s">
         <v>31</v>
@@ -4544,12 +4786,12 @@
       <c r="AC35" s="19"/>
     </row>
     <row r="36" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="204">
+      <c r="A36" s="203">
         <v>26</v>
       </c>
-      <c r="B36" s="292"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="275"/>
+      <c r="B36" s="281"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="311"/>
       <c r="E36" s="6" t="s">
         <v>135</v>
       </c>
@@ -4591,12 +4833,12 @@
       <c r="AC36" s="19"/>
     </row>
     <row r="37" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="204">
+      <c r="A37" s="203">
         <v>27</v>
       </c>
-      <c r="B37" s="292"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="275"/>
+      <c r="B37" s="281"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="6" t="s">
         <v>139</v>
       </c>
@@ -4638,12 +4880,12 @@
       <c r="AC37" s="19"/>
     </row>
     <row r="38" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="204">
+      <c r="A38" s="203">
         <v>28</v>
       </c>
-      <c r="B38" s="292"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="275"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="6" t="s">
         <v>151</v>
       </c>
@@ -4659,7 +4901,7 @@
       <c r="I38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="202"/>
+      <c r="J38" s="201"/>
       <c r="K38" s="21"/>
       <c r="L38" s="17" t="s">
         <v>31</v>
@@ -4683,12 +4925,12 @@
       <c r="AC38" s="19"/>
     </row>
     <row r="39" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="204">
+      <c r="A39" s="203">
         <v>29</v>
       </c>
-      <c r="B39" s="292"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="275"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="6" t="s">
         <v>154</v>
       </c>
@@ -4730,12 +4972,12 @@
       <c r="AC39" s="19"/>
     </row>
     <row r="40" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204">
+      <c r="A40" s="203">
         <v>30</v>
       </c>
-      <c r="B40" s="292"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="275"/>
+      <c r="B40" s="281"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="6" t="s">
         <v>142</v>
       </c>
@@ -4751,7 +4993,7 @@
       <c r="I40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="202"/>
+      <c r="J40" s="201"/>
       <c r="K40" s="21"/>
       <c r="L40" s="17" t="s">
         <v>31</v>
@@ -4775,12 +5017,12 @@
       <c r="AC40" s="19"/>
     </row>
     <row r="41" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204">
+      <c r="A41" s="203">
         <v>31</v>
       </c>
-      <c r="B41" s="292"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="275"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="6" t="s">
         <v>148</v>
       </c>
@@ -4796,7 +5038,7 @@
       <c r="I41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="202"/>
+      <c r="J41" s="201"/>
       <c r="K41" s="21"/>
       <c r="L41" s="17" t="s">
         <v>31</v>
@@ -4820,12 +5062,12 @@
       <c r="AC41" s="19"/>
     </row>
     <row r="42" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204">
+      <c r="A42" s="203">
         <v>32</v>
       </c>
-      <c r="B42" s="292"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="275"/>
+      <c r="B42" s="281"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
@@ -4841,7 +5083,7 @@
       <c r="I42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="202"/>
+      <c r="J42" s="201"/>
       <c r="K42" s="21"/>
       <c r="L42" s="17" t="s">
         <v>31</v>
@@ -4865,12 +5107,12 @@
       <c r="AC42" s="19"/>
     </row>
     <row r="43" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204">
+      <c r="A43" s="203">
         <v>33</v>
       </c>
-      <c r="B43" s="292"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="281"/>
+      <c r="C43" s="299"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="6" t="s">
         <v>165</v>
       </c>
@@ -4886,7 +5128,7 @@
       <c r="I43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="202"/>
+      <c r="J43" s="201"/>
       <c r="K43" s="21"/>
       <c r="L43" s="17" t="s">
         <v>31</v>
@@ -4910,16 +5152,16 @@
       <c r="AC43" s="19"/>
     </row>
     <row r="44" spans="1:29" s="165" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="265"/>
-      <c r="D44" s="275"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="281"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
       <c r="G44" s="159"/>
       <c r="H44" s="159"/>
       <c r="I44" s="160"/>
-      <c r="J44" s="253"/>
+      <c r="J44" s="252"/>
       <c r="K44" s="161"/>
       <c r="L44" s="162"/>
       <c r="M44" s="163"/>
@@ -4941,14 +5183,14 @@
       <c r="AC44" s="164"/>
     </row>
     <row r="45" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="206">
+      <c r="A45" s="205">
         <v>34</v>
       </c>
-      <c r="B45" s="293"/>
-      <c r="C45" s="272" t="s">
+      <c r="B45" s="282"/>
+      <c r="C45" s="308" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="275"/>
+      <c r="D45" s="311"/>
       <c r="E45" s="24" t="s">
         <v>168</v>
       </c>
@@ -4964,7 +5206,7 @@
       <c r="I45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J45" s="254"/>
+      <c r="J45" s="253"/>
       <c r="K45" s="27"/>
       <c r="L45" s="9" t="s">
         <v>31</v>
@@ -4988,12 +5230,12 @@
       <c r="AC45" s="29"/>
     </row>
     <row r="46" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="206">
+      <c r="A46" s="205">
         <v>35</v>
       </c>
-      <c r="B46" s="293"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="275"/>
+      <c r="B46" s="282"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="311"/>
       <c r="E46" s="24" t="s">
         <v>172</v>
       </c>
@@ -5033,12 +5275,12 @@
       <c r="AC46" s="29"/>
     </row>
     <row r="47" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="206">
+      <c r="A47" s="205">
         <v>36</v>
       </c>
-      <c r="B47" s="293"/>
-      <c r="C47" s="273"/>
-      <c r="D47" s="275"/>
+      <c r="B47" s="282"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="311"/>
       <c r="E47" s="24" t="s">
         <v>176</v>
       </c>
@@ -5054,7 +5296,7 @@
       <c r="I47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="202"/>
+      <c r="J47" s="201"/>
       <c r="K47" s="27"/>
       <c r="L47" s="9" t="s">
         <v>31</v>
@@ -5078,12 +5320,12 @@
       <c r="AC47" s="29"/>
     </row>
     <row r="48" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="206">
+      <c r="A48" s="205">
         <v>37</v>
       </c>
-      <c r="B48" s="293"/>
-      <c r="C48" s="274"/>
-      <c r="D48" s="276"/>
+      <c r="B48" s="282"/>
+      <c r="C48" s="310"/>
+      <c r="D48" s="312"/>
       <c r="E48" s="32" t="s">
         <v>180</v>
       </c>
@@ -5099,7 +5341,7 @@
       <c r="I48" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J48" s="255"/>
+      <c r="J48" s="254"/>
       <c r="K48" s="27"/>
       <c r="L48" s="9" t="s">
         <v>31</v>
@@ -5123,19 +5365,19 @@
       <c r="AC48" s="29"/>
     </row>
     <row r="49" spans="1:29" s="174" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="208"/>
-      <c r="B49" s="293"/>
-      <c r="C49" s="269"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="260"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="261"/>
-      <c r="H49" s="261"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="262"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="264"/>
+      <c r="A49" s="207"/>
+      <c r="B49" s="282"/>
+      <c r="C49" s="267"/>
+      <c r="D49" s="257"/>
+      <c r="E49" s="258"/>
+      <c r="F49" s="192"/>
+      <c r="G49" s="259"/>
+      <c r="H49" s="259"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="261"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="262"/>
       <c r="N49" s="172"/>
       <c r="O49" s="172"/>
       <c r="P49" s="172"/>
@@ -5154,14 +5396,14 @@
       <c r="AC49" s="173"/>
     </row>
     <row r="50" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="206">
+      <c r="A50" s="205">
         <v>38</v>
       </c>
-      <c r="B50" s="293"/>
-      <c r="C50" s="267" t="s">
+      <c r="B50" s="282"/>
+      <c r="C50" s="322" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="213" t="s">
+      <c r="D50" s="323" t="s">
         <v>183</v>
       </c>
       <c r="E50" s="32" t="s">
@@ -5179,7 +5421,7 @@
       <c r="I50" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="256"/>
+      <c r="J50" s="255"/>
       <c r="K50" s="27"/>
       <c r="L50" s="9" t="s">
         <v>31</v>
@@ -5203,12 +5445,12 @@
       <c r="AC50" s="29"/>
     </row>
     <row r="51" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="206">
-        <v>19</v>
-      </c>
-      <c r="B51" s="293"/>
-      <c r="C51" s="267"/>
-      <c r="D51" s="213"/>
+      <c r="A51" s="205">
+        <v>39</v>
+      </c>
+      <c r="B51" s="282"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="324"/>
       <c r="E51" s="24" t="s">
         <v>80</v>
       </c>
@@ -5216,7 +5458,7 @@
         <v>188</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>32</v>
@@ -5224,10 +5466,12 @@
       <c r="I51" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J51" s="257"/>
-      <c r="K51" s="190"/>
+      <c r="J51" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="189"/>
       <c r="L51" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="28"/>
@@ -5248,20 +5492,34 @@
       <c r="AC51" s="29"/>
     </row>
     <row r="52" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="206">
-        <v>20</v>
-      </c>
-      <c r="B52" s="293"/>
-      <c r="C52" s="267"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="254"/>
+      <c r="A52" s="205">
+        <v>40</v>
+      </c>
+      <c r="B52" s="282"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="324"/>
+      <c r="E52" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J52" s="318" t="s">
+        <v>193</v>
+      </c>
       <c r="K52" s="27"/>
-      <c r="L52" s="9"/>
+      <c r="L52" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M52" s="31"/>
       <c r="N52" s="28"/>
       <c r="O52" s="28"/>
@@ -5281,20 +5539,32 @@
       <c r="AC52" s="29"/>
     </row>
     <row r="53" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="206">
-        <v>21</v>
-      </c>
-      <c r="B53" s="293"/>
-      <c r="C53" s="267"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="258"/>
+      <c r="A53" s="205">
+        <v>41</v>
+      </c>
+      <c r="B53" s="282"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="324"/>
+      <c r="E53" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J53" s="256"/>
       <c r="K53" s="27"/>
-      <c r="L53" s="9"/>
+      <c r="L53" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M53" s="31"/>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
@@ -5314,20 +5584,32 @@
       <c r="AC53" s="29"/>
     </row>
     <row r="54" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="206">
-        <v>22</v>
-      </c>
-      <c r="B54" s="293"/>
-      <c r="C54" s="267"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="258"/>
+      <c r="A54" s="205">
+        <v>42</v>
+      </c>
+      <c r="B54" s="282"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="324"/>
+      <c r="E54" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J54" s="256"/>
       <c r="K54" s="27"/>
-      <c r="L54" s="9"/>
+      <c r="L54" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M54" s="31"/>
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
@@ -5346,21 +5628,35 @@
       <c r="AB54" s="29"/>
       <c r="AC54" s="29"/>
     </row>
-    <row r="55" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="206">
-        <v>23</v>
-      </c>
-      <c r="B55" s="293"/>
-      <c r="C55" s="267"/>
-      <c r="D55" s="213"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="26"/>
+    <row r="55" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="205">
+        <v>43</v>
+      </c>
+      <c r="B55" s="282"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="324"/>
+      <c r="E55" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" s="141" t="s">
+        <v>201</v>
+      </c>
       <c r="K55" s="27"/>
-      <c r="L55" s="9"/>
+      <c r="L55" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M55" s="31"/>
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
@@ -5380,20 +5676,34 @@
       <c r="AC55" s="29"/>
     </row>
     <row r="56" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="206">
-        <v>24</v>
-      </c>
-      <c r="B56" s="293"/>
-      <c r="C56" s="267"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="26"/>
+      <c r="A56" s="205">
+        <v>44</v>
+      </c>
+      <c r="B56" s="282"/>
+      <c r="C56" s="310"/>
+      <c r="D56" s="324"/>
+      <c r="E56" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="141" t="s">
+        <v>205</v>
+      </c>
       <c r="K56" s="27"/>
-      <c r="L56" s="9"/>
+      <c r="L56" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M56" s="31"/>
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
@@ -5412,54 +5722,66 @@
       <c r="AB56" s="29"/>
       <c r="AC56" s="29"/>
     </row>
-    <row r="57" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="206">
-        <v>25</v>
-      </c>
-      <c r="B57" s="293"/>
+    <row r="57" spans="1:29" s="174" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="207"/>
+      <c r="B57" s="282"/>
       <c r="C57" s="267"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
+      <c r="D57" s="324"/>
+      <c r="E57" s="319"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="259"/>
+      <c r="H57" s="259"/>
+      <c r="I57" s="193"/>
+      <c r="J57" s="320"/>
+      <c r="K57" s="321"/>
+      <c r="L57" s="195"/>
+      <c r="M57" s="262"/>
+      <c r="N57" s="172"/>
+      <c r="O57" s="172"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="172"/>
+      <c r="R57" s="172"/>
+      <c r="S57" s="172"/>
+      <c r="T57" s="172"/>
+      <c r="U57" s="173"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="173"/>
+      <c r="X57" s="173"/>
+      <c r="Y57" s="173"/>
+      <c r="Z57" s="173"/>
+      <c r="AA57" s="173"/>
+      <c r="AB57" s="173"/>
+      <c r="AC57" s="173"/>
     </row>
     <row r="58" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="206">
-        <v>26</v>
-      </c>
-      <c r="B58" s="293"/>
-      <c r="C58" s="267"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="7"/>
+      <c r="A58" s="205">
+        <v>45</v>
+      </c>
+      <c r="B58" s="282"/>
+      <c r="C58" s="265" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="324"/>
+      <c r="E58" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="328" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="J58" s="26"/>
       <c r="K58" s="27"/>
-      <c r="L58" s="9"/>
+      <c r="L58" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M58" s="31"/>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
@@ -5479,20 +5801,32 @@
       <c r="AC58" s="29"/>
     </row>
     <row r="59" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="206">
-        <v>27</v>
-      </c>
-      <c r="B59" s="293"/>
-      <c r="C59" s="267"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="7"/>
+      <c r="A59" s="205">
+        <v>46</v>
+      </c>
+      <c r="B59" s="282"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="324"/>
+      <c r="E59" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="J59" s="26"/>
       <c r="K59" s="27"/>
-      <c r="L59" s="9"/>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M59" s="31"/>
       <c r="N59" s="28"/>
       <c r="O59" s="28"/>
@@ -5512,20 +5846,32 @@
       <c r="AC59" s="29"/>
     </row>
     <row r="60" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="206">
-        <v>28</v>
-      </c>
-      <c r="B60" s="293"/>
-      <c r="C60" s="267"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="202"/>
+      <c r="A60" s="205">
+        <v>47</v>
+      </c>
+      <c r="B60" s="282"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="324"/>
+      <c r="E60" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J60" s="201"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="9"/>
+      <c r="L60" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M60" s="31"/>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
@@ -5545,20 +5891,34 @@
       <c r="AC60" s="29"/>
     </row>
     <row r="61" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="206">
-        <v>29</v>
-      </c>
-      <c r="B61" s="293"/>
-      <c r="C61" s="267"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="26"/>
+      <c r="A61" s="205">
+        <v>48</v>
+      </c>
+      <c r="B61" s="282"/>
+      <c r="C61" s="265"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J61" s="141" t="s">
+        <v>220</v>
+      </c>
       <c r="K61" s="25"/>
-      <c r="L61" s="9"/>
+      <c r="L61" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M61" s="31"/>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
@@ -5578,20 +5938,32 @@
       <c r="AC61" s="29"/>
     </row>
     <row r="62" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="206">
-        <v>30</v>
-      </c>
-      <c r="B62" s="293"/>
-      <c r="C62" s="267"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="202"/>
+      <c r="A62" s="205">
+        <v>49</v>
+      </c>
+      <c r="B62" s="282"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" s="201"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="9"/>
+      <c r="L62" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M62" s="31"/>
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
@@ -5611,20 +5983,32 @@
       <c r="AC62" s="29"/>
     </row>
     <row r="63" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="206">
-        <v>31</v>
-      </c>
-      <c r="B63" s="293"/>
-      <c r="C63" s="267"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="7"/>
+      <c r="A63" s="205">
+        <v>50</v>
+      </c>
+      <c r="B63" s="282"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="J63" s="26"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="9"/>
+      <c r="L63" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M63" s="9"/>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
@@ -5644,20 +6028,32 @@
       <c r="AC63" s="29"/>
     </row>
     <row r="64" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="206">
+      <c r="A64" s="205">
+        <v>511</v>
+      </c>
+      <c r="B64" s="282"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="293"/>
-      <c r="C64" s="267"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="J64" s="26"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="9"/>
+      <c r="L64" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="28"/>
       <c r="O64" s="28"/>
@@ -5677,12 +6073,12 @@
       <c r="AC64" s="29"/>
     </row>
     <row r="65" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="206">
-        <v>33</v>
-      </c>
-      <c r="B65" s="293"/>
-      <c r="C65" s="267"/>
-      <c r="D65" s="213"/>
+      <c r="A65" s="205">
+        <v>52</v>
+      </c>
+      <c r="B65" s="282"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="212"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="25"/>
@@ -5710,12 +6106,12 @@
       <c r="AC65" s="29"/>
     </row>
     <row r="66" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="206">
-        <v>34</v>
-      </c>
-      <c r="B66" s="293"/>
-      <c r="C66" s="267"/>
-      <c r="D66" s="213"/>
+      <c r="A66" s="205">
+        <v>53</v>
+      </c>
+      <c r="B66" s="282"/>
+      <c r="C66" s="265"/>
+      <c r="D66" s="212"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="25"/>
@@ -5743,12 +6139,12 @@
       <c r="AC66" s="29"/>
     </row>
     <row r="67" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="206">
+      <c r="A67" s="205">
         <v>35</v>
       </c>
-      <c r="B67" s="293"/>
-      <c r="C67" s="268"/>
-      <c r="D67" s="213"/>
+      <c r="B67" s="282"/>
+      <c r="C67" s="266"/>
+      <c r="D67" s="212"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="25"/>
@@ -5776,10 +6172,10 @@
       <c r="AC67" s="29"/>
     </row>
     <row r="68" spans="1:29" s="168" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="207"/>
-      <c r="B68" s="292"/>
-      <c r="C68" s="266"/>
-      <c r="D68" s="213"/>
+      <c r="A68" s="206"/>
+      <c r="B68" s="281"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="212"/>
       <c r="E68" s="166"/>
       <c r="F68" s="159"/>
       <c r="G68" s="159"/>
@@ -5807,12 +6203,12 @@
       <c r="AC68" s="157"/>
     </row>
     <row r="69" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="206">
+      <c r="A69" s="205">
         <v>36</v>
       </c>
-      <c r="B69" s="292"/>
-      <c r="C69" s="295"/>
-      <c r="D69" s="213"/>
+      <c r="B69" s="281"/>
+      <c r="C69" s="284"/>
+      <c r="D69" s="212"/>
       <c r="E69" s="32"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
@@ -5840,12 +6236,12 @@
       <c r="AC69" s="29"/>
     </row>
     <row r="70" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="206">
+      <c r="A70" s="205">
         <v>37</v>
       </c>
-      <c r="B70" s="292"/>
-      <c r="C70" s="295"/>
-      <c r="D70" s="213"/>
+      <c r="B70" s="281"/>
+      <c r="C70" s="284"/>
+      <c r="D70" s="212"/>
       <c r="E70" s="36"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
@@ -5873,12 +6269,12 @@
       <c r="AC70" s="29"/>
     </row>
     <row r="71" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="206">
+      <c r="A71" s="205">
         <v>38</v>
       </c>
-      <c r="B71" s="292"/>
-      <c r="C71" s="295"/>
-      <c r="D71" s="213"/>
+      <c r="B71" s="281"/>
+      <c r="C71" s="284"/>
+      <c r="D71" s="212"/>
       <c r="E71" s="36"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -5906,10 +6302,10 @@
       <c r="AC71" s="29"/>
     </row>
     <row r="72" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="208"/>
-      <c r="B72" s="292"/>
-      <c r="C72" s="233"/>
-      <c r="D72" s="214"/>
+      <c r="A72" s="207"/>
+      <c r="B72" s="281"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="213"/>
       <c r="E72" s="169"/>
       <c r="F72" s="170"/>
       <c r="G72" s="170"/>
@@ -5937,12 +6333,12 @@
       <c r="AC72" s="173"/>
     </row>
     <row r="73" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="206">
+      <c r="A73" s="205">
         <v>39</v>
       </c>
-      <c r="B73" s="292"/>
-      <c r="C73" s="296"/>
-      <c r="D73" s="299"/>
+      <c r="B73" s="281"/>
+      <c r="C73" s="285"/>
+      <c r="D73" s="288"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -5970,12 +6366,12 @@
       <c r="AC73" s="29"/>
     </row>
     <row r="74" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="206">
+      <c r="A74" s="205">
         <v>40</v>
       </c>
-      <c r="B74" s="292"/>
-      <c r="C74" s="297"/>
-      <c r="D74" s="300"/>
+      <c r="B74" s="281"/>
+      <c r="C74" s="286"/>
+      <c r="D74" s="289"/>
       <c r="E74" s="32"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -6003,16 +6399,16 @@
       <c r="AC74" s="29"/>
     </row>
     <row r="75" spans="1:29" s="37" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="206">
+      <c r="A75" s="205">
         <v>41</v>
       </c>
-      <c r="B75" s="292"/>
-      <c r="C75" s="297"/>
-      <c r="D75" s="300"/>
+      <c r="B75" s="281"/>
+      <c r="C75" s="286"/>
+      <c r="D75" s="289"/>
       <c r="E75" s="32"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
-      <c r="H75" s="189"/>
+      <c r="H75" s="188"/>
       <c r="I75" s="7"/>
       <c r="J75" s="142"/>
       <c r="K75" s="25"/>
@@ -6027,12 +6423,12 @@
       <c r="T75" s="28"/>
     </row>
     <row r="76" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="206">
+      <c r="A76" s="205">
         <v>42</v>
       </c>
-      <c r="B76" s="292"/>
-      <c r="C76" s="297"/>
-      <c r="D76" s="300"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="286"/>
+      <c r="D76" s="289"/>
       <c r="E76" s="32"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -6060,12 +6456,12 @@
       <c r="AC76" s="29"/>
     </row>
     <row r="77" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="206">
+      <c r="A77" s="205">
         <v>43</v>
       </c>
-      <c r="B77" s="292"/>
-      <c r="C77" s="297"/>
-      <c r="D77" s="300"/>
+      <c r="B77" s="281"/>
+      <c r="C77" s="286"/>
+      <c r="D77" s="289"/>
       <c r="E77" s="32"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
@@ -6093,12 +6489,12 @@
       <c r="AC77" s="29"/>
     </row>
     <row r="78" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="206">
+      <c r="A78" s="205">
         <v>44</v>
       </c>
-      <c r="B78" s="292"/>
-      <c r="C78" s="297"/>
-      <c r="D78" s="300"/>
+      <c r="B78" s="281"/>
+      <c r="C78" s="286"/>
+      <c r="D78" s="289"/>
       <c r="E78" s="17"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
@@ -6126,12 +6522,12 @@
       <c r="AC78" s="29"/>
     </row>
     <row r="79" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="206">
+      <c r="A79" s="205">
         <v>45</v>
       </c>
-      <c r="B79" s="292"/>
-      <c r="C79" s="297"/>
-      <c r="D79" s="300"/>
+      <c r="B79" s="281"/>
+      <c r="C79" s="286"/>
+      <c r="D79" s="289"/>
       <c r="E79" s="32"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
@@ -6159,19 +6555,19 @@
       <c r="AC79" s="29"/>
     </row>
     <row r="80" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="206">
+      <c r="A80" s="205">
         <v>46</v>
       </c>
-      <c r="B80" s="292"/>
-      <c r="C80" s="297"/>
-      <c r="D80" s="300"/>
+      <c r="B80" s="281"/>
+      <c r="C80" s="286"/>
+      <c r="D80" s="289"/>
       <c r="E80" s="32"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="7"/>
       <c r="J80" s="25"/>
-      <c r="K80" s="188"/>
+      <c r="K80" s="187"/>
       <c r="L80" s="9"/>
       <c r="M80" s="31"/>
       <c r="N80" s="28"/>
@@ -6192,12 +6588,12 @@
       <c r="AC80" s="29"/>
     </row>
     <row r="81" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="206">
+      <c r="A81" s="205">
         <v>47</v>
       </c>
-      <c r="B81" s="292"/>
-      <c r="C81" s="297"/>
-      <c r="D81" s="300"/>
+      <c r="B81" s="281"/>
+      <c r="C81" s="286"/>
+      <c r="D81" s="289"/>
       <c r="E81" s="32"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
@@ -6225,12 +6621,12 @@
       <c r="AC81" s="29"/>
     </row>
     <row r="82" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="206">
+      <c r="A82" s="205">
         <v>48</v>
       </c>
-      <c r="B82" s="292"/>
-      <c r="C82" s="297"/>
-      <c r="D82" s="300"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="286"/>
+      <c r="D82" s="289"/>
       <c r="E82" s="32"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
@@ -6258,12 +6654,12 @@
       <c r="AC82" s="29"/>
     </row>
     <row r="83" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="206">
+      <c r="A83" s="205">
         <v>49</v>
       </c>
-      <c r="B83" s="292"/>
-      <c r="C83" s="297"/>
-      <c r="D83" s="300"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="286"/>
+      <c r="D83" s="289"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
@@ -6291,12 +6687,12 @@
       <c r="AC83" s="29"/>
     </row>
     <row r="84" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="206">
+      <c r="A84" s="205">
         <v>50</v>
       </c>
-      <c r="B84" s="292"/>
-      <c r="C84" s="297"/>
-      <c r="D84" s="300"/>
+      <c r="B84" s="281"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="289"/>
       <c r="E84" s="32"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -6324,12 +6720,12 @@
       <c r="AC84" s="29"/>
     </row>
     <row r="85" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="206">
+      <c r="A85" s="205">
         <v>51</v>
       </c>
-      <c r="B85" s="292"/>
-      <c r="C85" s="297"/>
-      <c r="D85" s="300"/>
+      <c r="B85" s="281"/>
+      <c r="C85" s="286"/>
+      <c r="D85" s="289"/>
       <c r="E85" s="32"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -6357,12 +6753,12 @@
       <c r="AC85" s="29"/>
     </row>
     <row r="86" spans="1:29" s="30" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="206">
+      <c r="A86" s="205">
         <v>52</v>
       </c>
-      <c r="B86" s="292"/>
-      <c r="C86" s="297"/>
-      <c r="D86" s="300"/>
+      <c r="B86" s="281"/>
+      <c r="C86" s="286"/>
+      <c r="D86" s="289"/>
       <c r="E86" s="32"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -6390,12 +6786,12 @@
       <c r="AC86" s="29"/>
     </row>
     <row r="87" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="206">
+      <c r="A87" s="205">
         <v>53</v>
       </c>
-      <c r="B87" s="292"/>
-      <c r="C87" s="297"/>
-      <c r="D87" s="300"/>
+      <c r="B87" s="281"/>
+      <c r="C87" s="286"/>
+      <c r="D87" s="289"/>
       <c r="E87" s="32"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
@@ -6423,12 +6819,12 @@
       <c r="AC87" s="29"/>
     </row>
     <row r="88" spans="1:29" s="30" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="206">
+      <c r="A88" s="205">
         <v>54</v>
       </c>
-      <c r="B88" s="292"/>
-      <c r="C88" s="297"/>
-      <c r="D88" s="300"/>
+      <c r="B88" s="281"/>
+      <c r="C88" s="286"/>
+      <c r="D88" s="289"/>
       <c r="E88" s="32"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
@@ -6456,12 +6852,12 @@
       <c r="AC88" s="29"/>
     </row>
     <row r="89" spans="1:29" s="30" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="206">
+      <c r="A89" s="205">
         <v>55</v>
       </c>
-      <c r="B89" s="292"/>
-      <c r="C89" s="297"/>
-      <c r="D89" s="300"/>
+      <c r="B89" s="281"/>
+      <c r="C89" s="286"/>
+      <c r="D89" s="289"/>
       <c r="E89" s="32"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
@@ -6489,12 +6885,12 @@
       <c r="AC89" s="29"/>
     </row>
     <row r="90" spans="1:29" s="30" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="206">
+      <c r="A90" s="205">
         <v>56</v>
       </c>
-      <c r="B90" s="292"/>
-      <c r="C90" s="297"/>
-      <c r="D90" s="300"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="286"/>
+      <c r="D90" s="289"/>
       <c r="E90" s="32"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -6522,12 +6918,12 @@
       <c r="AC90" s="29"/>
     </row>
     <row r="91" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="206">
+      <c r="A91" s="205">
         <v>57</v>
       </c>
-      <c r="B91" s="292"/>
-      <c r="C91" s="297"/>
-      <c r="D91" s="300"/>
+      <c r="B91" s="281"/>
+      <c r="C91" s="286"/>
+      <c r="D91" s="289"/>
       <c r="E91" s="32"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -6555,12 +6951,12 @@
       <c r="AC91" s="29"/>
     </row>
     <row r="92" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="206">
+      <c r="A92" s="205">
         <v>58</v>
       </c>
-      <c r="B92" s="292"/>
-      <c r="C92" s="297"/>
-      <c r="D92" s="300"/>
+      <c r="B92" s="281"/>
+      <c r="C92" s="286"/>
+      <c r="D92" s="289"/>
       <c r="E92" s="32"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -6588,10 +6984,10 @@
       <c r="AC92" s="29"/>
     </row>
     <row r="93" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="206"/>
-      <c r="B93" s="292"/>
-      <c r="C93" s="297"/>
-      <c r="D93" s="300"/>
+      <c r="A93" s="205"/>
+      <c r="B93" s="281"/>
+      <c r="C93" s="286"/>
+      <c r="D93" s="289"/>
       <c r="E93" s="32"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
@@ -6619,10 +7015,10 @@
       <c r="AC93" s="29"/>
     </row>
     <row r="94" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="206"/>
-      <c r="B94" s="292"/>
-      <c r="C94" s="297"/>
-      <c r="D94" s="300"/>
+      <c r="A94" s="205"/>
+      <c r="B94" s="281"/>
+      <c r="C94" s="286"/>
+      <c r="D94" s="289"/>
       <c r="E94" s="32"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -6650,10 +7046,10 @@
       <c r="AC94" s="29"/>
     </row>
     <row r="95" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="206"/>
-      <c r="B95" s="292"/>
-      <c r="C95" s="297"/>
-      <c r="D95" s="300"/>
+      <c r="A95" s="205"/>
+      <c r="B95" s="281"/>
+      <c r="C95" s="286"/>
+      <c r="D95" s="289"/>
       <c r="E95" s="32"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -6681,10 +7077,10 @@
       <c r="AC95" s="29"/>
     </row>
     <row r="96" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="206"/>
-      <c r="B96" s="292"/>
-      <c r="C96" s="297"/>
-      <c r="D96" s="300"/>
+      <c r="A96" s="205"/>
+      <c r="B96" s="281"/>
+      <c r="C96" s="286"/>
+      <c r="D96" s="289"/>
       <c r="E96" s="32"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -6712,10 +7108,10 @@
       <c r="AC96" s="29"/>
     </row>
     <row r="97" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="206"/>
-      <c r="B97" s="292"/>
-      <c r="C97" s="297"/>
-      <c r="D97" s="300"/>
+      <c r="A97" s="205"/>
+      <c r="B97" s="281"/>
+      <c r="C97" s="286"/>
+      <c r="D97" s="289"/>
       <c r="E97" s="32"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -6743,10 +7139,10 @@
       <c r="AC97" s="29"/>
     </row>
     <row r="98" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="206"/>
-      <c r="B98" s="292"/>
-      <c r="C98" s="298"/>
-      <c r="D98" s="301"/>
+      <c r="A98" s="205"/>
+      <c r="B98" s="281"/>
+      <c r="C98" s="287"/>
+      <c r="D98" s="290"/>
       <c r="E98" s="32"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -6774,10 +7170,10 @@
       <c r="AC98" s="29"/>
     </row>
     <row r="99" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="209"/>
-      <c r="B99" s="292"/>
-      <c r="C99" s="234"/>
-      <c r="D99" s="215"/>
+      <c r="A99" s="208"/>
+      <c r="B99" s="281"/>
+      <c r="C99" s="233"/>
+      <c r="D99" s="214"/>
       <c r="E99" s="40"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -6805,10 +7201,10 @@
       <c r="AC99" s="14"/>
     </row>
     <row r="100" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="206"/>
-      <c r="B100" s="292"/>
-      <c r="C100" s="302"/>
-      <c r="D100" s="303"/>
+      <c r="A100" s="205"/>
+      <c r="B100" s="281"/>
+      <c r="C100" s="291"/>
+      <c r="D100" s="292"/>
       <c r="E100" s="32"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
@@ -6836,10 +7232,10 @@
       <c r="AC100" s="29"/>
     </row>
     <row r="101" spans="1:29" s="30" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="206"/>
-      <c r="B101" s="292"/>
-      <c r="C101" s="302"/>
-      <c r="D101" s="303"/>
+      <c r="A101" s="205"/>
+      <c r="B101" s="281"/>
+      <c r="C101" s="291"/>
+      <c r="D101" s="292"/>
       <c r="E101" s="32"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -6867,10 +7263,10 @@
       <c r="AC101" s="29"/>
     </row>
     <row r="102" spans="1:29" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="206"/>
-      <c r="B102" s="292"/>
-      <c r="C102" s="302"/>
-      <c r="D102" s="303"/>
+      <c r="A102" s="205"/>
+      <c r="B102" s="281"/>
+      <c r="C102" s="291"/>
+      <c r="D102" s="292"/>
       <c r="E102" s="25"/>
       <c r="F102" s="15"/>
       <c r="G102" s="25"/>
@@ -6898,10 +7294,10 @@
       <c r="AC102" s="29"/>
     </row>
     <row r="103" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="206"/>
-      <c r="B103" s="292"/>
-      <c r="C103" s="302"/>
-      <c r="D103" s="303"/>
+      <c r="A103" s="205"/>
+      <c r="B103" s="281"/>
+      <c r="C103" s="291"/>
+      <c r="D103" s="292"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -6929,10 +7325,10 @@
       <c r="AC103" s="29"/>
     </row>
     <row r="104" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="206"/>
-      <c r="B104" s="292"/>
-      <c r="C104" s="302"/>
-      <c r="D104" s="216"/>
+      <c r="A104" s="205"/>
+      <c r="B104" s="281"/>
+      <c r="C104" s="291"/>
+      <c r="D104" s="215"/>
       <c r="E104" s="42"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -6960,10 +7356,10 @@
       <c r="AC104" s="29"/>
     </row>
     <row r="105" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="210"/>
-      <c r="B105" s="292"/>
-      <c r="C105" s="235"/>
-      <c r="D105" s="216"/>
+      <c r="A105" s="209"/>
+      <c r="B105" s="281"/>
+      <c r="C105" s="234"/>
+      <c r="D105" s="215"/>
       <c r="E105" s="42"/>
       <c r="F105" s="15"/>
       <c r="G105" s="25"/>
@@ -6991,10 +7387,10 @@
       <c r="AC105" s="29"/>
     </row>
     <row r="106" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="210"/>
-      <c r="B106" s="292"/>
-      <c r="C106" s="235"/>
-      <c r="D106" s="216"/>
+      <c r="A106" s="209"/>
+      <c r="B106" s="281"/>
+      <c r="C106" s="234"/>
+      <c r="D106" s="215"/>
       <c r="E106" s="43"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
@@ -7022,10 +7418,10 @@
       <c r="AC106" s="29"/>
     </row>
     <row r="107" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="210"/>
-      <c r="B107" s="292"/>
-      <c r="C107" s="235"/>
-      <c r="D107" s="216"/>
+      <c r="A107" s="209"/>
+      <c r="B107" s="281"/>
+      <c r="C107" s="234"/>
+      <c r="D107" s="215"/>
       <c r="E107" s="43"/>
       <c r="F107" s="15"/>
       <c r="G107" s="25"/>
@@ -7053,10 +7449,10 @@
       <c r="AC107" s="29"/>
     </row>
     <row r="108" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="210"/>
-      <c r="B108" s="292"/>
-      <c r="C108" s="235"/>
-      <c r="D108" s="216"/>
+      <c r="A108" s="209"/>
+      <c r="B108" s="281"/>
+      <c r="C108" s="234"/>
+      <c r="D108" s="215"/>
       <c r="E108" s="43"/>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
@@ -7084,10 +7480,10 @@
       <c r="AC108" s="29"/>
     </row>
     <row r="109" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="210"/>
-      <c r="B109" s="292"/>
-      <c r="C109" s="235"/>
-      <c r="D109" s="216"/>
+      <c r="A109" s="209"/>
+      <c r="B109" s="281"/>
+      <c r="C109" s="234"/>
+      <c r="D109" s="215"/>
       <c r="E109" s="43"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
@@ -7115,10 +7511,10 @@
       <c r="AC109" s="29"/>
     </row>
     <row r="110" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="210"/>
-      <c r="B110" s="292"/>
-      <c r="C110" s="235"/>
-      <c r="D110" s="217"/>
+      <c r="A110" s="209"/>
+      <c r="B110" s="281"/>
+      <c r="C110" s="234"/>
+      <c r="D110" s="216"/>
       <c r="E110" s="43"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
@@ -7146,10 +7542,10 @@
       <c r="AC110" s="29"/>
     </row>
     <row r="111" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="210"/>
-      <c r="B111" s="292"/>
-      <c r="C111" s="235"/>
-      <c r="D111" s="304"/>
+      <c r="A111" s="209"/>
+      <c r="B111" s="281"/>
+      <c r="C111" s="234"/>
+      <c r="D111" s="293"/>
       <c r="E111" s="43"/>
       <c r="F111" s="15"/>
       <c r="G111" s="25"/>
@@ -7177,10 +7573,10 @@
       <c r="AC111" s="29"/>
     </row>
     <row r="112" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="210"/>
-      <c r="B112" s="292"/>
-      <c r="C112" s="235"/>
-      <c r="D112" s="304"/>
+      <c r="A112" s="209"/>
+      <c r="B112" s="281"/>
+      <c r="C112" s="234"/>
+      <c r="D112" s="293"/>
       <c r="E112" s="43"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
@@ -7208,10 +7604,10 @@
       <c r="AC112" s="29"/>
     </row>
     <row r="113" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="210"/>
-      <c r="B113" s="292"/>
-      <c r="C113" s="235"/>
-      <c r="D113" s="304"/>
+      <c r="A113" s="209"/>
+      <c r="B113" s="281"/>
+      <c r="C113" s="234"/>
+      <c r="D113" s="293"/>
       <c r="E113" s="44"/>
       <c r="F113" s="6"/>
       <c r="G113" s="25"/>
@@ -7239,10 +7635,10 @@
       <c r="AC113" s="29"/>
     </row>
     <row r="114" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="210"/>
-      <c r="B114" s="292"/>
-      <c r="C114" s="235"/>
-      <c r="D114" s="304"/>
+      <c r="A114" s="209"/>
+      <c r="B114" s="281"/>
+      <c r="C114" s="234"/>
+      <c r="D114" s="293"/>
       <c r="E114" s="44"/>
       <c r="F114" s="6"/>
       <c r="G114" s="25"/>
@@ -7270,10 +7666,10 @@
       <c r="AC114" s="29"/>
     </row>
     <row r="115" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="210"/>
-      <c r="B115" s="292"/>
-      <c r="C115" s="235"/>
-      <c r="D115" s="304"/>
+      <c r="A115" s="209"/>
+      <c r="B115" s="281"/>
+      <c r="C115" s="234"/>
+      <c r="D115" s="293"/>
       <c r="E115" s="44"/>
       <c r="F115" s="6"/>
       <c r="G115" s="25"/>
@@ -7301,10 +7697,10 @@
       <c r="AC115" s="29"/>
     </row>
     <row r="116" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="210"/>
-      <c r="B116" s="292"/>
-      <c r="C116" s="235"/>
-      <c r="D116" s="218"/>
+      <c r="A116" s="209"/>
+      <c r="B116" s="281"/>
+      <c r="C116" s="234"/>
+      <c r="D116" s="217"/>
       <c r="E116" s="45"/>
       <c r="F116" s="31"/>
       <c r="G116" s="31"/>
@@ -7332,10 +7728,10 @@
       <c r="AC116" s="29"/>
     </row>
     <row r="117" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="210"/>
-      <c r="B117" s="292"/>
-      <c r="C117" s="235"/>
-      <c r="D117" s="304"/>
+      <c r="A117" s="209"/>
+      <c r="B117" s="281"/>
+      <c r="C117" s="234"/>
+      <c r="D117" s="293"/>
       <c r="E117" s="42"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
@@ -7363,10 +7759,10 @@
       <c r="AC117" s="29"/>
     </row>
     <row r="118" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="210"/>
-      <c r="B118" s="292"/>
-      <c r="C118" s="235"/>
-      <c r="D118" s="304"/>
+      <c r="A118" s="209"/>
+      <c r="B118" s="281"/>
+      <c r="C118" s="234"/>
+      <c r="D118" s="293"/>
       <c r="E118" s="42"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
@@ -7394,10 +7790,10 @@
       <c r="AC118" s="29"/>
     </row>
     <row r="119" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="210"/>
-      <c r="B119" s="292"/>
-      <c r="C119" s="235"/>
-      <c r="D119" s="219"/>
+      <c r="A119" s="209"/>
+      <c r="B119" s="281"/>
+      <c r="C119" s="234"/>
+      <c r="D119" s="218"/>
       <c r="E119" s="43"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
@@ -7425,10 +7821,10 @@
       <c r="AC119" s="29"/>
     </row>
     <row r="120" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="210"/>
-      <c r="B120" s="292"/>
-      <c r="C120" s="235"/>
-      <c r="D120" s="305"/>
+      <c r="A120" s="209"/>
+      <c r="B120" s="281"/>
+      <c r="C120" s="234"/>
+      <c r="D120" s="294"/>
       <c r="E120" s="43"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
@@ -7456,10 +7852,10 @@
       <c r="AC120" s="29"/>
     </row>
     <row r="121" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="210"/>
-      <c r="B121" s="292"/>
-      <c r="C121" s="235"/>
-      <c r="D121" s="305"/>
+      <c r="A121" s="209"/>
+      <c r="B121" s="281"/>
+      <c r="C121" s="234"/>
+      <c r="D121" s="294"/>
       <c r="E121" s="43"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
@@ -7487,10 +7883,10 @@
       <c r="AC121" s="29"/>
     </row>
     <row r="122" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="210"/>
-      <c r="B122" s="292"/>
-      <c r="C122" s="235"/>
-      <c r="D122" s="305"/>
+      <c r="A122" s="209"/>
+      <c r="B122" s="281"/>
+      <c r="C122" s="234"/>
+      <c r="D122" s="294"/>
       <c r="E122" s="44"/>
       <c r="F122" s="6"/>
       <c r="G122" s="25"/>
@@ -7518,10 +7914,10 @@
       <c r="AC122" s="29"/>
     </row>
     <row r="123" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="210"/>
-      <c r="B123" s="292"/>
-      <c r="C123" s="235"/>
-      <c r="D123" s="305"/>
+      <c r="A123" s="209"/>
+      <c r="B123" s="281"/>
+      <c r="C123" s="234"/>
+      <c r="D123" s="294"/>
       <c r="E123" s="42"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
@@ -7549,10 +7945,10 @@
       <c r="AC123" s="29"/>
     </row>
     <row r="124" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="210"/>
-      <c r="B124" s="292"/>
-      <c r="C124" s="235"/>
-      <c r="D124" s="305"/>
+      <c r="A124" s="209"/>
+      <c r="B124" s="281"/>
+      <c r="C124" s="234"/>
+      <c r="D124" s="294"/>
       <c r="E124" s="42"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
@@ -7580,10 +7976,10 @@
       <c r="AC124" s="29"/>
     </row>
     <row r="125" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="210"/>
-      <c r="B125" s="292"/>
-      <c r="C125" s="235"/>
-      <c r="D125" s="305"/>
+      <c r="A125" s="209"/>
+      <c r="B125" s="281"/>
+      <c r="C125" s="234"/>
+      <c r="D125" s="294"/>
       <c r="E125" s="43"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
@@ -7611,10 +8007,10 @@
       <c r="AC125" s="29"/>
     </row>
     <row r="126" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="210"/>
-      <c r="B126" s="292"/>
-      <c r="C126" s="235"/>
-      <c r="D126" s="305"/>
+      <c r="A126" s="209"/>
+      <c r="B126" s="281"/>
+      <c r="C126" s="234"/>
+      <c r="D126" s="294"/>
       <c r="E126" s="43"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
@@ -7642,10 +8038,10 @@
       <c r="AC126" s="29"/>
     </row>
     <row r="127" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="210"/>
-      <c r="B127" s="292"/>
-      <c r="C127" s="235"/>
-      <c r="D127" s="305"/>
+      <c r="A127" s="209"/>
+      <c r="B127" s="281"/>
+      <c r="C127" s="234"/>
+      <c r="D127" s="294"/>
       <c r="E127" s="43"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
@@ -7673,10 +8069,10 @@
       <c r="AC127" s="29"/>
     </row>
     <row r="128" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="210"/>
-      <c r="B128" s="292"/>
-      <c r="C128" s="235"/>
-      <c r="D128" s="305"/>
+      <c r="A128" s="209"/>
+      <c r="B128" s="281"/>
+      <c r="C128" s="234"/>
+      <c r="D128" s="294"/>
       <c r="E128" s="44"/>
       <c r="F128" s="6"/>
       <c r="G128" s="25"/>
@@ -7704,10 +8100,10 @@
       <c r="AC128" s="29"/>
     </row>
     <row r="129" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="210"/>
-      <c r="B129" s="292"/>
-      <c r="C129" s="235"/>
-      <c r="D129" s="305"/>
+      <c r="A129" s="209"/>
+      <c r="B129" s="281"/>
+      <c r="C129" s="234"/>
+      <c r="D129" s="294"/>
       <c r="E129" s="45"/>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
@@ -7735,10 +8131,10 @@
       <c r="AC129" s="29"/>
     </row>
     <row r="130" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="210"/>
-      <c r="B130" s="292"/>
-      <c r="C130" s="235"/>
-      <c r="D130" s="305"/>
+      <c r="A130" s="209"/>
+      <c r="B130" s="281"/>
+      <c r="C130" s="234"/>
+      <c r="D130" s="294"/>
       <c r="E130" s="42"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
@@ -7766,10 +8162,10 @@
       <c r="AC130" s="29"/>
     </row>
     <row r="131" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="210"/>
-      <c r="B131" s="292"/>
-      <c r="C131" s="235"/>
-      <c r="D131" s="219"/>
+      <c r="A131" s="209"/>
+      <c r="B131" s="281"/>
+      <c r="C131" s="234"/>
+      <c r="D131" s="218"/>
       <c r="E131" s="42"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
@@ -7797,10 +8193,10 @@
       <c r="AC131" s="29"/>
     </row>
     <row r="132" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="210"/>
-      <c r="B132" s="292"/>
-      <c r="C132" s="235"/>
-      <c r="D132" s="306"/>
+      <c r="A132" s="209"/>
+      <c r="B132" s="281"/>
+      <c r="C132" s="234"/>
+      <c r="D132" s="295"/>
       <c r="E132" s="43"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
@@ -7828,10 +8224,10 @@
       <c r="AC132" s="29"/>
     </row>
     <row r="133" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="210"/>
-      <c r="B133" s="292"/>
-      <c r="C133" s="235"/>
-      <c r="D133" s="306"/>
+      <c r="A133" s="209"/>
+      <c r="B133" s="281"/>
+      <c r="C133" s="234"/>
+      <c r="D133" s="295"/>
       <c r="E133" s="43"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
@@ -7859,10 +8255,10 @@
       <c r="AC133" s="29"/>
     </row>
     <row r="134" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="210"/>
-      <c r="B134" s="292"/>
-      <c r="C134" s="235"/>
-      <c r="D134" s="306"/>
+      <c r="A134" s="209"/>
+      <c r="B134" s="281"/>
+      <c r="C134" s="234"/>
+      <c r="D134" s="295"/>
       <c r="E134" s="43"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
@@ -7890,10 +8286,10 @@
       <c r="AC134" s="29"/>
     </row>
     <row r="135" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="210"/>
-      <c r="B135" s="292"/>
-      <c r="C135" s="235"/>
-      <c r="D135" s="306"/>
+      <c r="A135" s="209"/>
+      <c r="B135" s="281"/>
+      <c r="C135" s="234"/>
+      <c r="D135" s="295"/>
       <c r="E135" s="44"/>
       <c r="F135" s="6"/>
       <c r="G135" s="25"/>
@@ -7922,9 +8318,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
-      <c r="B136" s="292"/>
-      <c r="C136" s="236"/>
-      <c r="D136" s="306"/>
+      <c r="B136" s="281"/>
+      <c r="C136" s="235"/>
+      <c r="D136" s="295"/>
       <c r="E136" s="48"/>
       <c r="F136" s="49"/>
       <c r="G136" s="49"/>
@@ -7953,9 +8349,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="52"/>
-      <c r="B137" s="292"/>
-      <c r="C137" s="236"/>
-      <c r="D137" s="306"/>
+      <c r="B137" s="281"/>
+      <c r="C137" s="235"/>
+      <c r="D137" s="295"/>
       <c r="E137" s="53"/>
       <c r="F137" s="54"/>
       <c r="G137" s="55"/>
@@ -7984,9 +8380,9 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="52"/>
-      <c r="B138" s="292"/>
-      <c r="C138" s="236"/>
-      <c r="D138" s="306"/>
+      <c r="B138" s="281"/>
+      <c r="C138" s="235"/>
+      <c r="D138" s="295"/>
       <c r="E138" s="59"/>
       <c r="F138" s="60"/>
       <c r="G138" s="60"/>
@@ -8015,9 +8411,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="52"/>
-      <c r="B139" s="292"/>
-      <c r="C139" s="236"/>
-      <c r="D139" s="306"/>
+      <c r="B139" s="281"/>
+      <c r="C139" s="235"/>
+      <c r="D139" s="295"/>
       <c r="E139" s="59"/>
       <c r="F139" s="60"/>
       <c r="G139" s="60"/>
@@ -8046,9 +8442,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
-      <c r="B140" s="292"/>
-      <c r="C140" s="236"/>
-      <c r="D140" s="306"/>
+      <c r="B140" s="281"/>
+      <c r="C140" s="235"/>
+      <c r="D140" s="295"/>
       <c r="E140" s="63"/>
       <c r="F140" s="60"/>
       <c r="G140" s="60"/>
@@ -8077,9 +8473,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="52"/>
-      <c r="B141" s="292"/>
-      <c r="C141" s="236"/>
-      <c r="D141" s="306"/>
+      <c r="B141" s="281"/>
+      <c r="C141" s="235"/>
+      <c r="D141" s="295"/>
       <c r="E141" s="64"/>
       <c r="F141" s="54"/>
       <c r="G141" s="55"/>
@@ -8108,9 +8504,9 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="52"/>
-      <c r="B142" s="292"/>
-      <c r="C142" s="236"/>
-      <c r="D142" s="220"/>
+      <c r="B142" s="281"/>
+      <c r="C142" s="235"/>
+      <c r="D142" s="219"/>
       <c r="E142" s="53"/>
       <c r="F142" s="60"/>
       <c r="G142" s="60"/>
@@ -8139,9 +8535,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="52"/>
-      <c r="B143" s="292"/>
-      <c r="C143" s="236"/>
-      <c r="D143" s="307"/>
+      <c r="B143" s="281"/>
+      <c r="C143" s="235"/>
+      <c r="D143" s="296"/>
       <c r="E143" s="65"/>
       <c r="F143" s="54"/>
       <c r="G143" s="55"/>
@@ -8170,9 +8566,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="52"/>
-      <c r="B144" s="292"/>
-      <c r="C144" s="236"/>
-      <c r="D144" s="307"/>
+      <c r="B144" s="281"/>
+      <c r="C144" s="235"/>
+      <c r="D144" s="296"/>
       <c r="E144" s="67"/>
       <c r="F144" s="60"/>
       <c r="G144" s="60"/>
@@ -8201,9 +8597,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="52"/>
-      <c r="B145" s="292"/>
-      <c r="C145" s="236"/>
-      <c r="D145" s="221"/>
+      <c r="B145" s="281"/>
+      <c r="C145" s="235"/>
+      <c r="D145" s="220"/>
       <c r="E145" s="68"/>
       <c r="F145" s="54"/>
       <c r="G145" s="55"/>
@@ -8232,9 +8628,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="52"/>
-      <c r="B146" s="292"/>
-      <c r="C146" s="236"/>
-      <c r="D146" s="308"/>
+      <c r="B146" s="281"/>
+      <c r="C146" s="235"/>
+      <c r="D146" s="297"/>
       <c r="E146" s="67"/>
       <c r="F146" s="60"/>
       <c r="G146" s="60"/>
@@ -8263,9 +8659,9 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
-      <c r="B147" s="292"/>
-      <c r="C147" s="236"/>
-      <c r="D147" s="308"/>
+      <c r="B147" s="281"/>
+      <c r="C147" s="235"/>
+      <c r="D147" s="297"/>
       <c r="E147" s="65"/>
       <c r="F147" s="60"/>
       <c r="G147" s="60"/>
@@ -8294,9 +8690,9 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
-      <c r="B148" s="292"/>
-      <c r="C148" s="236"/>
-      <c r="D148" s="308"/>
+      <c r="B148" s="281"/>
+      <c r="C148" s="235"/>
+      <c r="D148" s="297"/>
       <c r="E148" s="67"/>
       <c r="F148" s="60"/>
       <c r="G148" s="60"/>
@@ -8325,9 +8721,9 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
-      <c r="B149" s="292"/>
-      <c r="C149" s="236"/>
-      <c r="D149" s="308"/>
+      <c r="B149" s="281"/>
+      <c r="C149" s="235"/>
+      <c r="D149" s="297"/>
       <c r="E149" s="65"/>
       <c r="F149" s="54"/>
       <c r="G149" s="55"/>
@@ -8356,9 +8752,9 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
-      <c r="B150" s="292"/>
-      <c r="C150" s="236"/>
-      <c r="D150" s="308"/>
+      <c r="B150" s="281"/>
+      <c r="C150" s="235"/>
+      <c r="D150" s="297"/>
       <c r="E150" s="69"/>
       <c r="F150" s="70"/>
       <c r="G150" s="62"/>
@@ -8387,9 +8783,9 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
-      <c r="B151" s="292"/>
-      <c r="C151" s="236"/>
-      <c r="D151" s="308"/>
+      <c r="B151" s="281"/>
+      <c r="C151" s="235"/>
+      <c r="D151" s="297"/>
       <c r="E151" s="65"/>
       <c r="F151" s="71"/>
       <c r="G151" s="55"/>
@@ -8418,9 +8814,9 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
-      <c r="B152" s="292"/>
-      <c r="C152" s="236"/>
-      <c r="D152" s="308"/>
+      <c r="B152" s="281"/>
+      <c r="C152" s="235"/>
+      <c r="D152" s="297"/>
       <c r="E152" s="69"/>
       <c r="F152" s="72"/>
       <c r="G152" s="62"/>
@@ -8449,9 +8845,9 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
-      <c r="B153" s="292"/>
-      <c r="C153" s="236"/>
-      <c r="D153" s="222"/>
+      <c r="B153" s="281"/>
+      <c r="C153" s="235"/>
+      <c r="D153" s="221"/>
       <c r="E153" s="69"/>
       <c r="F153" s="54"/>
       <c r="G153" s="55"/>
@@ -8480,9 +8876,9 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
-      <c r="B154" s="292"/>
-      <c r="C154" s="236"/>
-      <c r="D154" s="290"/>
+      <c r="B154" s="281"/>
+      <c r="C154" s="235"/>
+      <c r="D154" s="279"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
       <c r="G154" s="62"/>
@@ -8511,9 +8907,9 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
-      <c r="B155" s="292"/>
-      <c r="C155" s="236"/>
-      <c r="D155" s="290"/>
+      <c r="B155" s="281"/>
+      <c r="C155" s="235"/>
+      <c r="D155" s="279"/>
       <c r="E155" s="69"/>
       <c r="F155" s="74"/>
       <c r="G155" s="62"/>
@@ -8542,9 +8938,9 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
-      <c r="B156" s="292"/>
-      <c r="C156" s="236"/>
-      <c r="D156" s="290"/>
+      <c r="B156" s="281"/>
+      <c r="C156" s="235"/>
+      <c r="D156" s="279"/>
       <c r="E156" s="75"/>
       <c r="F156" s="66"/>
       <c r="G156" s="66"/>
@@ -8573,9 +8969,9 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
-      <c r="B157" s="292"/>
-      <c r="C157" s="236"/>
-      <c r="D157" s="290"/>
+      <c r="B157" s="281"/>
+      <c r="C157" s="235"/>
+      <c r="D157" s="279"/>
       <c r="E157" s="75"/>
       <c r="F157" s="66"/>
       <c r="G157" s="66"/>
@@ -8604,9 +9000,9 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
-      <c r="B158" s="292"/>
-      <c r="C158" s="236"/>
-      <c r="D158" s="290"/>
+      <c r="B158" s="281"/>
+      <c r="C158" s="235"/>
+      <c r="D158" s="279"/>
       <c r="E158" s="75"/>
       <c r="F158" s="66"/>
       <c r="G158" s="66"/>
@@ -8635,9 +9031,9 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
-      <c r="B159" s="292"/>
-      <c r="C159" s="236"/>
-      <c r="D159" s="290"/>
+      <c r="B159" s="281"/>
+      <c r="C159" s="235"/>
+      <c r="D159" s="279"/>
       <c r="E159" s="75"/>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
@@ -8666,9 +9062,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
-      <c r="B160" s="292"/>
-      <c r="C160" s="236"/>
-      <c r="D160" s="290"/>
+      <c r="B160" s="281"/>
+      <c r="C160" s="235"/>
+      <c r="D160" s="279"/>
       <c r="E160" s="75"/>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
@@ -8697,9 +9093,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
-      <c r="B161" s="292"/>
-      <c r="C161" s="236"/>
-      <c r="D161" s="290"/>
+      <c r="B161" s="281"/>
+      <c r="C161" s="235"/>
+      <c r="D161" s="279"/>
       <c r="E161" s="75"/>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
@@ -8728,9 +9124,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
-      <c r="B162" s="292"/>
-      <c r="C162" s="236"/>
-      <c r="D162" s="290"/>
+      <c r="B162" s="281"/>
+      <c r="C162" s="235"/>
+      <c r="D162" s="279"/>
       <c r="E162" s="75"/>
       <c r="F162" s="66"/>
       <c r="G162" s="66"/>
@@ -8759,9 +9155,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
-      <c r="B163" s="292"/>
-      <c r="C163" s="237"/>
-      <c r="D163" s="223"/>
+      <c r="B163" s="281"/>
+      <c r="C163" s="236"/>
+      <c r="D163" s="222"/>
       <c r="E163" s="75"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
@@ -8790,9 +9186,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
-      <c r="B164" s="292"/>
-      <c r="C164" s="238"/>
-      <c r="D164" s="223"/>
+      <c r="B164" s="281"/>
+      <c r="C164" s="237"/>
+      <c r="D164" s="222"/>
       <c r="E164" s="75"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
@@ -8821,9 +9217,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
-      <c r="B165" s="292"/>
-      <c r="C165" s="238"/>
-      <c r="D165" s="224"/>
+      <c r="B165" s="281"/>
+      <c r="C165" s="237"/>
+      <c r="D165" s="223"/>
       <c r="E165" s="75"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
@@ -8852,9 +9248,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
-      <c r="B166" s="292"/>
-      <c r="C166" s="238"/>
-      <c r="D166" s="313"/>
+      <c r="B166" s="281"/>
+      <c r="C166" s="237"/>
+      <c r="D166" s="273"/>
       <c r="E166" s="76"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
@@ -8883,9 +9279,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
-      <c r="B167" s="292"/>
-      <c r="C167" s="238"/>
-      <c r="D167" s="313"/>
+      <c r="B167" s="281"/>
+      <c r="C167" s="237"/>
+      <c r="D167" s="273"/>
       <c r="E167" s="76"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
@@ -8914,9 +9310,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
-      <c r="B168" s="292"/>
-      <c r="C168" s="238"/>
-      <c r="D168" s="225"/>
+      <c r="B168" s="281"/>
+      <c r="C168" s="237"/>
+      <c r="D168" s="224"/>
       <c r="E168" s="75"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
@@ -8945,9 +9341,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
-      <c r="B169" s="292"/>
-      <c r="C169" s="238"/>
-      <c r="D169" s="226"/>
+      <c r="B169" s="281"/>
+      <c r="C169" s="237"/>
+      <c r="D169" s="225"/>
       <c r="E169" s="75"/>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
@@ -8976,9 +9372,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
-      <c r="B170" s="292"/>
-      <c r="C170" s="238"/>
-      <c r="D170" s="226"/>
+      <c r="B170" s="281"/>
+      <c r="C170" s="237"/>
+      <c r="D170" s="225"/>
       <c r="E170" s="78"/>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
@@ -9007,9 +9403,9 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
-      <c r="B171" s="292"/>
-      <c r="C171" s="238"/>
-      <c r="D171" s="226"/>
+      <c r="B171" s="281"/>
+      <c r="C171" s="237"/>
+      <c r="D171" s="225"/>
       <c r="E171" s="75"/>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
@@ -9038,9 +9434,9 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
-      <c r="B172" s="292"/>
-      <c r="C172" s="238"/>
-      <c r="D172" s="226"/>
+      <c r="B172" s="281"/>
+      <c r="C172" s="237"/>
+      <c r="D172" s="225"/>
       <c r="E172" s="75"/>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
@@ -9069,9 +9465,9 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
-      <c r="B173" s="292"/>
-      <c r="C173" s="238"/>
-      <c r="D173" s="226"/>
+      <c r="B173" s="281"/>
+      <c r="C173" s="237"/>
+      <c r="D173" s="225"/>
       <c r="E173" s="75"/>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
@@ -9100,9 +9496,9 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
-      <c r="B174" s="292"/>
-      <c r="C174" s="238"/>
-      <c r="D174" s="226"/>
+      <c r="B174" s="281"/>
+      <c r="C174" s="237"/>
+      <c r="D174" s="225"/>
       <c r="E174" s="75"/>
       <c r="F174" s="66"/>
       <c r="G174" s="66"/>
@@ -9131,9 +9527,9 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
-      <c r="B175" s="292"/>
-      <c r="C175" s="238"/>
-      <c r="D175" s="226"/>
+      <c r="B175" s="281"/>
+      <c r="C175" s="237"/>
+      <c r="D175" s="225"/>
       <c r="E175" s="78"/>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
@@ -9162,9 +9558,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
-      <c r="B176" s="292"/>
-      <c r="C176" s="238"/>
-      <c r="D176" s="226"/>
+      <c r="B176" s="281"/>
+      <c r="C176" s="237"/>
+      <c r="D176" s="225"/>
       <c r="E176" s="78"/>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
@@ -9193,9 +9589,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
-      <c r="B177" s="292"/>
-      <c r="C177" s="238"/>
-      <c r="D177" s="226"/>
+      <c r="B177" s="281"/>
+      <c r="C177" s="237"/>
+      <c r="D177" s="225"/>
       <c r="E177" s="78"/>
       <c r="F177" s="66"/>
       <c r="G177" s="81"/>
@@ -9224,9 +9620,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
-      <c r="B178" s="292"/>
-      <c r="C178" s="238"/>
-      <c r="D178" s="226"/>
+      <c r="B178" s="281"/>
+      <c r="C178" s="237"/>
+      <c r="D178" s="225"/>
       <c r="E178" s="75"/>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
@@ -9255,9 +9651,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
-      <c r="B179" s="292"/>
-      <c r="C179" s="238"/>
-      <c r="D179" s="226"/>
+      <c r="B179" s="281"/>
+      <c r="C179" s="237"/>
+      <c r="D179" s="225"/>
       <c r="E179" s="75"/>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
@@ -9286,9 +9682,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
-      <c r="B180" s="292"/>
-      <c r="C180" s="238"/>
-      <c r="D180" s="226"/>
+      <c r="B180" s="281"/>
+      <c r="C180" s="237"/>
+      <c r="D180" s="225"/>
       <c r="E180" s="75"/>
       <c r="F180" s="66"/>
       <c r="G180" s="66"/>
@@ -9317,9 +9713,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
-      <c r="B181" s="292"/>
-      <c r="C181" s="238"/>
-      <c r="D181" s="226"/>
+      <c r="B181" s="281"/>
+      <c r="C181" s="237"/>
+      <c r="D181" s="225"/>
       <c r="E181" s="75"/>
       <c r="F181" s="66"/>
       <c r="G181" s="82"/>
@@ -9348,9 +9744,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
-      <c r="B182" s="292"/>
-      <c r="C182" s="238"/>
-      <c r="D182" s="226"/>
+      <c r="B182" s="281"/>
+      <c r="C182" s="237"/>
+      <c r="D182" s="225"/>
       <c r="E182" s="75"/>
       <c r="F182" s="66"/>
       <c r="G182" s="82"/>
@@ -9379,9 +9775,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
-      <c r="B183" s="292"/>
-      <c r="C183" s="238"/>
-      <c r="D183" s="226"/>
+      <c r="B183" s="281"/>
+      <c r="C183" s="237"/>
+      <c r="D183" s="225"/>
       <c r="E183" s="75"/>
       <c r="F183" s="66"/>
       <c r="G183" s="82"/>
@@ -9410,8 +9806,8 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="83"/>
-      <c r="B184" s="292"/>
-      <c r="C184" s="238"/>
+      <c r="B184" s="281"/>
+      <c r="C184" s="237"/>
       <c r="D184" s="84"/>
       <c r="E184" s="85"/>
       <c r="F184" s="66"/>
@@ -9441,9 +9837,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="83"/>
-      <c r="B185" s="292"/>
-      <c r="C185" s="238"/>
-      <c r="D185" s="227"/>
+      <c r="B185" s="281"/>
+      <c r="C185" s="237"/>
+      <c r="D185" s="226"/>
       <c r="E185" s="75"/>
       <c r="F185" s="66"/>
       <c r="G185" s="66"/>
@@ -9472,9 +9868,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="83"/>
-      <c r="B186" s="292"/>
-      <c r="C186" s="238"/>
-      <c r="D186" s="227"/>
+      <c r="B186" s="281"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="226"/>
       <c r="E186" s="75"/>
       <c r="F186" s="66"/>
       <c r="G186" s="66"/>
@@ -9503,9 +9899,9 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="83"/>
-      <c r="B187" s="292"/>
-      <c r="C187" s="238"/>
-      <c r="D187" s="227"/>
+      <c r="B187" s="281"/>
+      <c r="C187" s="237"/>
+      <c r="D187" s="226"/>
       <c r="E187" s="87"/>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
@@ -9534,9 +9930,9 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
-      <c r="B188" s="292"/>
-      <c r="C188" s="238"/>
-      <c r="D188" s="227"/>
+      <c r="B188" s="281"/>
+      <c r="C188" s="237"/>
+      <c r="D188" s="226"/>
       <c r="E188" s="88"/>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
@@ -9565,9 +9961,9 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="83"/>
-      <c r="B189" s="292"/>
-      <c r="C189" s="238"/>
-      <c r="D189" s="227"/>
+      <c r="B189" s="281"/>
+      <c r="C189" s="237"/>
+      <c r="D189" s="226"/>
       <c r="E189" s="88"/>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
@@ -9596,9 +9992,9 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="83"/>
-      <c r="B190" s="292"/>
-      <c r="C190" s="238"/>
-      <c r="D190" s="227"/>
+      <c r="B190" s="281"/>
+      <c r="C190" s="237"/>
+      <c r="D190" s="226"/>
       <c r="E190" s="88"/>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
@@ -9627,9 +10023,9 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="83"/>
-      <c r="B191" s="292"/>
-      <c r="C191" s="238"/>
-      <c r="D191" s="227"/>
+      <c r="B191" s="281"/>
+      <c r="C191" s="237"/>
+      <c r="D191" s="226"/>
       <c r="E191" s="88"/>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
@@ -9658,9 +10054,9 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="83"/>
-      <c r="B192" s="292"/>
-      <c r="C192" s="238"/>
-      <c r="D192" s="227"/>
+      <c r="B192" s="281"/>
+      <c r="C192" s="237"/>
+      <c r="D192" s="226"/>
       <c r="E192" s="75"/>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
@@ -9689,9 +10085,9 @@
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="83"/>
-      <c r="B193" s="292"/>
-      <c r="C193" s="238"/>
-      <c r="D193" s="227"/>
+      <c r="B193" s="281"/>
+      <c r="C193" s="237"/>
+      <c r="D193" s="226"/>
       <c r="E193" s="75"/>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
@@ -9720,9 +10116,9 @@
     </row>
     <row r="194" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
-      <c r="B194" s="292"/>
-      <c r="C194" s="238"/>
-      <c r="D194" s="227"/>
+      <c r="B194" s="281"/>
+      <c r="C194" s="237"/>
+      <c r="D194" s="226"/>
       <c r="E194" s="75"/>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
@@ -9751,9 +10147,9 @@
     </row>
     <row r="195" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="83"/>
-      <c r="B195" s="292"/>
-      <c r="C195" s="238"/>
-      <c r="D195" s="227"/>
+      <c r="B195" s="281"/>
+      <c r="C195" s="237"/>
+      <c r="D195" s="226"/>
       <c r="E195" s="75"/>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
@@ -9782,9 +10178,9 @@
     </row>
     <row r="196" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="83"/>
-      <c r="B196" s="292"/>
-      <c r="C196" s="238"/>
-      <c r="D196" s="227"/>
+      <c r="B196" s="281"/>
+      <c r="C196" s="237"/>
+      <c r="D196" s="226"/>
       <c r="E196" s="85"/>
       <c r="F196" s="66"/>
       <c r="G196" s="66"/>
@@ -9813,9 +10209,9 @@
     </row>
     <row r="197" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="83"/>
-      <c r="B197" s="292"/>
-      <c r="C197" s="238"/>
-      <c r="D197" s="228"/>
+      <c r="B197" s="281"/>
+      <c r="C197" s="237"/>
+      <c r="D197" s="227"/>
       <c r="E197" s="89"/>
       <c r="F197" s="66"/>
       <c r="G197" s="66"/>
@@ -9844,9 +10240,9 @@
     </row>
     <row r="198" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="83"/>
-      <c r="B198" s="292"/>
-      <c r="C198" s="238"/>
-      <c r="D198" s="229"/>
+      <c r="B198" s="281"/>
+      <c r="C198" s="237"/>
+      <c r="D198" s="228"/>
       <c r="E198" s="85"/>
       <c r="F198" s="66"/>
       <c r="G198" s="66"/>
@@ -9875,9 +10271,9 @@
     </row>
     <row r="199" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="83"/>
-      <c r="B199" s="292"/>
-      <c r="C199" s="238"/>
-      <c r="D199" s="314"/>
+      <c r="B199" s="281"/>
+      <c r="C199" s="237"/>
+      <c r="D199" s="274"/>
       <c r="E199" s="75"/>
       <c r="F199" s="66"/>
       <c r="G199" s="66"/>
@@ -9886,7 +10282,7 @@
       <c r="J199" s="66"/>
       <c r="K199" s="66"/>
       <c r="L199" s="58"/>
-      <c r="M199" s="315"/>
+      <c r="M199" s="275"/>
       <c r="N199" s="51"/>
       <c r="O199" s="51"/>
       <c r="P199" s="51"/>
@@ -9906,9 +10302,9 @@
     </row>
     <row r="200" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="52"/>
-      <c r="B200" s="292"/>
-      <c r="C200" s="238"/>
-      <c r="D200" s="314"/>
+      <c r="B200" s="281"/>
+      <c r="C200" s="237"/>
+      <c r="D200" s="274"/>
       <c r="E200" s="75"/>
       <c r="F200" s="66"/>
       <c r="G200" s="66"/>
@@ -9917,7 +10313,7 @@
       <c r="J200" s="66"/>
       <c r="K200" s="66"/>
       <c r="L200" s="58"/>
-      <c r="M200" s="315"/>
+      <c r="M200" s="275"/>
       <c r="N200" s="51"/>
       <c r="O200" s="51"/>
       <c r="P200" s="51"/>
@@ -9937,9 +10333,9 @@
     </row>
     <row r="201" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="52"/>
-      <c r="B201" s="292"/>
-      <c r="C201" s="238"/>
-      <c r="D201" s="314"/>
+      <c r="B201" s="281"/>
+      <c r="C201" s="237"/>
+      <c r="D201" s="274"/>
       <c r="E201" s="87"/>
       <c r="F201" s="66"/>
       <c r="G201" s="66"/>
@@ -9948,7 +10344,7 @@
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="58"/>
-      <c r="M201" s="315"/>
+      <c r="M201" s="275"/>
       <c r="N201" s="51"/>
       <c r="O201" s="51"/>
       <c r="P201" s="51"/>
@@ -9968,9 +10364,9 @@
     </row>
     <row r="202" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="52"/>
-      <c r="B202" s="292"/>
-      <c r="C202" s="238"/>
-      <c r="D202" s="314"/>
+      <c r="B202" s="281"/>
+      <c r="C202" s="237"/>
+      <c r="D202" s="274"/>
       <c r="E202" s="88"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
@@ -9979,7 +10375,7 @@
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="58"/>
-      <c r="M202" s="315"/>
+      <c r="M202" s="275"/>
       <c r="N202" s="51"/>
       <c r="O202" s="51"/>
       <c r="P202" s="51"/>
@@ -9999,9 +10395,9 @@
     </row>
     <row r="203" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
-      <c r="B203" s="292"/>
-      <c r="C203" s="238"/>
-      <c r="D203" s="314"/>
+      <c r="B203" s="281"/>
+      <c r="C203" s="237"/>
+      <c r="D203" s="274"/>
       <c r="E203" s="88"/>
       <c r="F203" s="66"/>
       <c r="G203" s="66"/>
@@ -10010,7 +10406,7 @@
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="58"/>
-      <c r="M203" s="315"/>
+      <c r="M203" s="275"/>
       <c r="N203" s="51"/>
       <c r="O203" s="51"/>
       <c r="P203" s="51"/>
@@ -10030,9 +10426,9 @@
     </row>
     <row r="204" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
-      <c r="B204" s="292"/>
-      <c r="C204" s="238"/>
-      <c r="D204" s="314"/>
+      <c r="B204" s="281"/>
+      <c r="C204" s="237"/>
+      <c r="D204" s="274"/>
       <c r="E204" s="88"/>
       <c r="F204" s="66"/>
       <c r="G204" s="66"/>
@@ -10041,7 +10437,7 @@
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="58"/>
-      <c r="M204" s="315"/>
+      <c r="M204" s="275"/>
       <c r="N204" s="51"/>
       <c r="O204" s="51"/>
       <c r="P204" s="51"/>
@@ -10061,9 +10457,9 @@
     </row>
     <row r="205" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
-      <c r="B205" s="292"/>
-      <c r="C205" s="238"/>
-      <c r="D205" s="314"/>
+      <c r="B205" s="281"/>
+      <c r="C205" s="237"/>
+      <c r="D205" s="274"/>
       <c r="E205" s="88"/>
       <c r="F205" s="66"/>
       <c r="G205" s="66"/>
@@ -10072,7 +10468,7 @@
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="58"/>
-      <c r="M205" s="315"/>
+      <c r="M205" s="275"/>
       <c r="N205" s="51"/>
       <c r="O205" s="51"/>
       <c r="P205" s="51"/>
@@ -10092,9 +10488,9 @@
     </row>
     <row r="206" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
-      <c r="B206" s="292"/>
-      <c r="C206" s="238"/>
-      <c r="D206" s="314"/>
+      <c r="B206" s="281"/>
+      <c r="C206" s="237"/>
+      <c r="D206" s="274"/>
       <c r="E206" s="75"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
@@ -10103,7 +10499,7 @@
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="58"/>
-      <c r="M206" s="315"/>
+      <c r="M206" s="275"/>
       <c r="N206" s="51"/>
       <c r="O206" s="51"/>
       <c r="P206" s="51"/>
@@ -10123,9 +10519,9 @@
     </row>
     <row r="207" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
-      <c r="B207" s="292"/>
-      <c r="C207" s="238"/>
-      <c r="D207" s="314"/>
+      <c r="B207" s="281"/>
+      <c r="C207" s="237"/>
+      <c r="D207" s="274"/>
       <c r="E207" s="75"/>
       <c r="F207" s="66"/>
       <c r="G207" s="66"/>
@@ -10154,9 +10550,9 @@
     </row>
     <row r="208" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
-      <c r="B208" s="292"/>
-      <c r="C208" s="238"/>
-      <c r="D208" s="314"/>
+      <c r="B208" s="281"/>
+      <c r="C208" s="237"/>
+      <c r="D208" s="274"/>
       <c r="E208" s="75"/>
       <c r="F208" s="66"/>
       <c r="G208" s="66"/>
@@ -10185,9 +10581,9 @@
     </row>
     <row r="209" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
-      <c r="B209" s="294"/>
-      <c r="C209" s="239"/>
-      <c r="D209" s="314"/>
+      <c r="B209" s="283"/>
+      <c r="C209" s="238"/>
+      <c r="D209" s="274"/>
       <c r="E209" s="75"/>
       <c r="F209" s="66"/>
       <c r="G209" s="66"/>
@@ -10217,7 +10613,7 @@
     <row r="210" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="91"/>
       <c r="B210" s="92"/>
-      <c r="C210" s="232"/>
+      <c r="C210" s="231"/>
       <c r="D210" s="86"/>
       <c r="E210" s="85"/>
       <c r="F210" s="66"/>
@@ -10249,7 +10645,7 @@
       <c r="A211" s="91"/>
       <c r="B211" s="94"/>
       <c r="C211" s="93"/>
-      <c r="D211" s="316"/>
+      <c r="D211" s="276"/>
       <c r="E211" s="75"/>
       <c r="F211" s="66"/>
       <c r="G211" s="82"/>
@@ -10280,7 +10676,7 @@
       <c r="A212" s="91"/>
       <c r="B212" s="90"/>
       <c r="C212" s="95"/>
-      <c r="D212" s="316"/>
+      <c r="D212" s="276"/>
       <c r="E212" s="75"/>
       <c r="F212" s="66"/>
       <c r="G212" s="82"/>
@@ -10311,7 +10707,7 @@
       <c r="A213" s="91"/>
       <c r="B213" s="90"/>
       <c r="C213" s="95"/>
-      <c r="D213" s="316"/>
+      <c r="D213" s="276"/>
       <c r="E213" s="75"/>
       <c r="F213" s="66"/>
       <c r="G213" s="82"/>
@@ -10342,7 +10738,7 @@
       <c r="A214" s="91"/>
       <c r="B214" s="90"/>
       <c r="C214" s="90"/>
-      <c r="D214" s="316"/>
+      <c r="D214" s="276"/>
       <c r="E214" s="78"/>
       <c r="F214" s="66"/>
       <c r="G214" s="82"/>
@@ -10373,7 +10769,7 @@
       <c r="A215" s="91"/>
       <c r="B215" s="94"/>
       <c r="C215" s="90"/>
-      <c r="D215" s="316"/>
+      <c r="D215" s="276"/>
       <c r="E215" s="78"/>
       <c r="F215" s="66"/>
       <c r="G215" s="82"/>
@@ -10404,7 +10800,7 @@
       <c r="A216" s="91"/>
       <c r="B216" s="94"/>
       <c r="C216" s="90"/>
-      <c r="D216" s="316"/>
+      <c r="D216" s="276"/>
       <c r="E216" s="78"/>
       <c r="F216" s="66"/>
       <c r="G216" s="82"/>
@@ -10435,7 +10831,7 @@
       <c r="A217" s="91"/>
       <c r="B217" s="94"/>
       <c r="C217" s="90"/>
-      <c r="D217" s="316"/>
+      <c r="D217" s="276"/>
       <c r="E217" s="75"/>
       <c r="F217" s="66"/>
       <c r="G217" s="82"/>
@@ -10466,7 +10862,7 @@
       <c r="A218" s="91"/>
       <c r="B218" s="94"/>
       <c r="C218" s="90"/>
-      <c r="D218" s="316"/>
+      <c r="D218" s="276"/>
       <c r="E218" s="75"/>
       <c r="F218" s="66"/>
       <c r="G218" s="82"/>
@@ -10497,7 +10893,7 @@
       <c r="A219" s="91"/>
       <c r="B219" s="94"/>
       <c r="C219" s="94"/>
-      <c r="D219" s="316"/>
+      <c r="D219" s="276"/>
       <c r="E219" s="75"/>
       <c r="F219" s="66"/>
       <c r="G219" s="82"/>
@@ -11837,8 +12233,8 @@
       <c r="H262" s="115"/>
       <c r="I262" s="115"/>
       <c r="J262" s="115"/>
-      <c r="K262" s="312"/>
-      <c r="L262" s="315"/>
+      <c r="K262" s="272"/>
+      <c r="L262" s="275"/>
       <c r="M262" s="110"/>
       <c r="N262" s="51"/>
       <c r="O262" s="51"/>
@@ -11868,8 +12264,8 @@
       <c r="H263" s="116"/>
       <c r="I263" s="116"/>
       <c r="J263" s="116"/>
-      <c r="K263" s="312"/>
-      <c r="L263" s="315"/>
+      <c r="K263" s="272"/>
+      <c r="L263" s="275"/>
       <c r="M263" s="110"/>
       <c r="N263" s="51"/>
       <c r="O263" s="51"/>
@@ -11899,8 +12295,8 @@
       <c r="H264" s="49"/>
       <c r="I264" s="49"/>
       <c r="J264" s="49"/>
-      <c r="K264" s="312"/>
-      <c r="L264" s="315"/>
+      <c r="K264" s="272"/>
+      <c r="L264" s="275"/>
       <c r="M264" s="110"/>
       <c r="N264" s="51"/>
       <c r="O264" s="51"/>
@@ -12108,9 +12504,9 @@
     <row r="271" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="91"/>
       <c r="B271" s="102"/>
-      <c r="C271" s="317"/>
+      <c r="C271" s="268"/>
       <c r="D271" s="90"/>
-      <c r="E271" s="318"/>
+      <c r="E271" s="277"/>
       <c r="F271" s="60"/>
       <c r="G271" s="60"/>
       <c r="H271" s="60"/>
@@ -12139,9 +12535,9 @@
     <row r="272" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="91"/>
       <c r="B272" s="102"/>
-      <c r="C272" s="317"/>
+      <c r="C272" s="268"/>
       <c r="D272" s="90"/>
-      <c r="E272" s="318"/>
+      <c r="E272" s="277"/>
       <c r="F272" s="60"/>
       <c r="G272" s="60"/>
       <c r="H272" s="60"/>
@@ -12170,9 +12566,9 @@
     <row r="273" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="91"/>
       <c r="B273" s="102"/>
-      <c r="C273" s="317"/>
+      <c r="C273" s="268"/>
       <c r="D273" s="90"/>
-      <c r="E273" s="318"/>
+      <c r="E273" s="277"/>
       <c r="F273" s="60"/>
       <c r="G273" s="60"/>
       <c r="H273" s="60"/>
@@ -12201,7 +12597,7 @@
     <row r="274" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="91"/>
       <c r="B274" s="102"/>
-      <c r="C274" s="317"/>
+      <c r="C274" s="268"/>
       <c r="D274" s="90"/>
       <c r="E274" s="67"/>
       <c r="F274" s="60"/>
@@ -12232,7 +12628,7 @@
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="91"/>
       <c r="B275" s="102"/>
-      <c r="C275" s="317"/>
+      <c r="C275" s="268"/>
       <c r="D275" s="90"/>
       <c r="E275" s="67"/>
       <c r="F275" s="60"/>
@@ -12263,7 +12659,7 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="91"/>
       <c r="B276" s="102"/>
-      <c r="C276" s="317"/>
+      <c r="C276" s="268"/>
       <c r="D276" s="90"/>
       <c r="E276" s="67"/>
       <c r="F276" s="113"/>
@@ -12294,7 +12690,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="91"/>
       <c r="B277" s="102"/>
-      <c r="C277" s="317"/>
+      <c r="C277" s="268"/>
       <c r="D277" s="90"/>
       <c r="E277" s="67"/>
       <c r="F277" s="60"/>
@@ -12325,7 +12721,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="91"/>
       <c r="B278" s="102"/>
-      <c r="C278" s="311"/>
+      <c r="C278" s="269"/>
       <c r="D278" s="100"/>
       <c r="E278" s="67"/>
       <c r="F278" s="113"/>
@@ -12356,7 +12752,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="91"/>
       <c r="B279" s="102"/>
-      <c r="C279" s="311"/>
+      <c r="C279" s="269"/>
       <c r="D279" s="121"/>
       <c r="E279" s="67"/>
       <c r="F279" s="113"/>
@@ -12418,7 +12814,7 @@
     <row r="281" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="91"/>
       <c r="B281" s="102"/>
-      <c r="C281" s="311"/>
+      <c r="C281" s="269"/>
       <c r="D281" s="100"/>
       <c r="E281" s="67"/>
       <c r="F281" s="60"/>
@@ -12449,7 +12845,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="91"/>
       <c r="B282" s="102"/>
-      <c r="C282" s="311"/>
+      <c r="C282" s="269"/>
       <c r="D282" s="101"/>
       <c r="E282" s="67"/>
       <c r="F282" s="60"/>
@@ -12480,7 +12876,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="91"/>
       <c r="B283" s="102"/>
-      <c r="C283" s="311"/>
+      <c r="C283" s="269"/>
       <c r="D283" s="101"/>
       <c r="E283" s="67"/>
       <c r="F283" s="60"/>
@@ -12511,7 +12907,7 @@
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="91"/>
       <c r="B284" s="102"/>
-      <c r="C284" s="311"/>
+      <c r="C284" s="269"/>
       <c r="D284" s="101"/>
       <c r="E284" s="67"/>
       <c r="F284" s="113"/>
@@ -12542,7 +12938,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="91"/>
       <c r="B285" s="102"/>
-      <c r="C285" s="311"/>
+      <c r="C285" s="269"/>
       <c r="D285" s="101"/>
       <c r="E285" s="123"/>
       <c r="F285" s="60"/>
@@ -12922,7 +13318,7 @@
       <c r="H297" s="113"/>
       <c r="I297" s="113"/>
       <c r="J297" s="113"/>
-      <c r="K297" s="319"/>
+      <c r="K297" s="278"/>
       <c r="L297" s="58"/>
       <c r="M297" s="80"/>
       <c r="N297" s="51"/>
@@ -12953,7 +13349,7 @@
       <c r="H298" s="113"/>
       <c r="I298" s="113"/>
       <c r="J298" s="113"/>
-      <c r="K298" s="319"/>
+      <c r="K298" s="278"/>
       <c r="L298" s="58"/>
       <c r="M298" s="80"/>
       <c r="N298" s="51"/>
@@ -13038,7 +13434,7 @@
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="91"/>
       <c r="B301" s="102"/>
-      <c r="C301" s="311"/>
+      <c r="C301" s="269"/>
       <c r="D301" s="100"/>
       <c r="E301" s="67"/>
       <c r="F301" s="113"/>
@@ -13046,7 +13442,7 @@
       <c r="H301" s="113"/>
       <c r="I301" s="113"/>
       <c r="J301" s="113"/>
-      <c r="K301" s="312"/>
+      <c r="K301" s="272"/>
       <c r="L301" s="58"/>
       <c r="M301" s="80"/>
       <c r="N301" s="51"/>
@@ -13069,7 +13465,7 @@
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="91"/>
       <c r="B302" s="102"/>
-      <c r="C302" s="311"/>
+      <c r="C302" s="269"/>
       <c r="D302" s="121"/>
       <c r="E302" s="67"/>
       <c r="F302" s="113"/>
@@ -13077,7 +13473,7 @@
       <c r="H302" s="113"/>
       <c r="I302" s="113"/>
       <c r="J302" s="113"/>
-      <c r="K302" s="312"/>
+      <c r="K302" s="272"/>
       <c r="L302" s="58"/>
       <c r="M302" s="80"/>
       <c r="N302" s="51"/>
@@ -13100,7 +13496,7 @@
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="91"/>
       <c r="B303" s="102"/>
-      <c r="C303" s="317"/>
+      <c r="C303" s="268"/>
       <c r="D303" s="114"/>
       <c r="E303" s="78"/>
       <c r="F303" s="66"/>
@@ -13131,7 +13527,7 @@
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="91"/>
       <c r="B304" s="102"/>
-      <c r="C304" s="317"/>
+      <c r="C304" s="268"/>
       <c r="D304" s="77"/>
       <c r="E304" s="78"/>
       <c r="F304" s="66"/>
@@ -13193,7 +13589,7 @@
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="91"/>
       <c r="B306" s="102"/>
-      <c r="C306" s="311"/>
+      <c r="C306" s="269"/>
       <c r="D306" s="100"/>
       <c r="E306" s="78"/>
       <c r="F306" s="66"/>
@@ -13224,7 +13620,7 @@
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="91"/>
       <c r="B307" s="102"/>
-      <c r="C307" s="311"/>
+      <c r="C307" s="269"/>
       <c r="D307" s="101"/>
       <c r="E307" s="78"/>
       <c r="F307" s="66"/>
@@ -13255,7 +13651,7 @@
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="91"/>
       <c r="B308" s="102"/>
-      <c r="C308" s="311"/>
+      <c r="C308" s="269"/>
       <c r="D308" s="121"/>
       <c r="E308" s="78"/>
       <c r="F308" s="66"/>
@@ -13440,10 +13836,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="97"/>
-      <c r="B314" s="320"/>
-      <c r="C314" s="317"/>
+      <c r="B314" s="270"/>
+      <c r="C314" s="268"/>
       <c r="D314" s="90"/>
-      <c r="E314" s="317"/>
+      <c r="E314" s="268"/>
       <c r="F314" s="60"/>
       <c r="G314" s="60"/>
       <c r="H314" s="60"/>
@@ -13471,10 +13867,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="97"/>
-      <c r="B315" s="320"/>
-      <c r="C315" s="320"/>
+      <c r="B315" s="270"/>
+      <c r="C315" s="270"/>
       <c r="D315" s="90"/>
-      <c r="E315" s="317"/>
+      <c r="E315" s="268"/>
       <c r="F315" s="60"/>
       <c r="G315" s="60"/>
       <c r="H315" s="60"/>
@@ -13502,10 +13898,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="97"/>
-      <c r="B316" s="320"/>
-      <c r="C316" s="320"/>
+      <c r="B316" s="270"/>
+      <c r="C316" s="270"/>
       <c r="D316" s="90"/>
-      <c r="E316" s="317"/>
+      <c r="E316" s="268"/>
       <c r="F316" s="60"/>
       <c r="G316" s="60"/>
       <c r="H316" s="60"/>
@@ -13533,10 +13929,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="97"/>
-      <c r="B317" s="320"/>
-      <c r="C317" s="320"/>
+      <c r="B317" s="270"/>
+      <c r="C317" s="270"/>
       <c r="D317" s="90"/>
-      <c r="E317" s="317"/>
+      <c r="E317" s="268"/>
       <c r="F317" s="60"/>
       <c r="G317" s="60"/>
       <c r="H317" s="60"/>
@@ -13564,10 +13960,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="97"/>
-      <c r="B318" s="320"/>
-      <c r="C318" s="320"/>
+      <c r="B318" s="270"/>
+      <c r="C318" s="270"/>
       <c r="D318" s="90"/>
-      <c r="E318" s="317"/>
+      <c r="E318" s="268"/>
       <c r="F318" s="60"/>
       <c r="G318" s="60"/>
       <c r="H318" s="60"/>
@@ -13595,10 +13991,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="97"/>
-      <c r="B319" s="320"/>
-      <c r="C319" s="320"/>
+      <c r="B319" s="270"/>
+      <c r="C319" s="270"/>
       <c r="D319" s="90"/>
-      <c r="E319" s="317"/>
+      <c r="E319" s="268"/>
       <c r="F319" s="113"/>
       <c r="G319" s="113"/>
       <c r="H319" s="113"/>
@@ -13626,10 +14022,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="97"/>
-      <c r="B320" s="320"/>
-      <c r="C320" s="320"/>
+      <c r="B320" s="270"/>
+      <c r="C320" s="270"/>
       <c r="D320" s="90"/>
-      <c r="E320" s="317"/>
+      <c r="E320" s="268"/>
       <c r="F320" s="60"/>
       <c r="G320" s="60"/>
       <c r="H320" s="60"/>
@@ -13657,10 +14053,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="97"/>
-      <c r="B321" s="320"/>
-      <c r="C321" s="320"/>
+      <c r="B321" s="270"/>
+      <c r="C321" s="270"/>
       <c r="D321" s="90"/>
-      <c r="E321" s="317"/>
+      <c r="E321" s="268"/>
       <c r="F321" s="60"/>
       <c r="G321" s="60"/>
       <c r="H321" s="60"/>
@@ -13688,8 +14084,8 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="97"/>
-      <c r="B322" s="320"/>
-      <c r="C322" s="320"/>
+      <c r="B322" s="270"/>
+      <c r="C322" s="270"/>
       <c r="D322" s="90"/>
       <c r="E322" s="94"/>
       <c r="F322" s="57"/>
@@ -13719,8 +14115,8 @@
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="97"/>
-      <c r="B323" s="320"/>
-      <c r="C323" s="320"/>
+      <c r="B323" s="270"/>
+      <c r="C323" s="270"/>
       <c r="D323" s="90"/>
       <c r="E323" s="94"/>
       <c r="F323" s="58"/>
@@ -13750,10 +14146,10 @@
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="97"/>
-      <c r="B324" s="320"/>
-      <c r="C324" s="320"/>
+      <c r="B324" s="270"/>
+      <c r="C324" s="270"/>
       <c r="D324" s="114"/>
-      <c r="E324" s="317"/>
+      <c r="E324" s="268"/>
       <c r="F324" s="66"/>
       <c r="G324" s="66"/>
       <c r="H324" s="66"/>
@@ -13781,10 +14177,10 @@
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="97"/>
-      <c r="B325" s="320"/>
-      <c r="C325" s="320"/>
+      <c r="B325" s="270"/>
+      <c r="C325" s="270"/>
       <c r="D325" s="135"/>
-      <c r="E325" s="317"/>
+      <c r="E325" s="268"/>
       <c r="F325" s="58"/>
       <c r="G325" s="58"/>
       <c r="H325" s="58"/>
@@ -13812,10 +14208,10 @@
     </row>
     <row r="326" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="97"/>
-      <c r="B326" s="320"/>
-      <c r="C326" s="320"/>
+      <c r="B326" s="270"/>
+      <c r="C326" s="270"/>
       <c r="D326" s="135"/>
-      <c r="E326" s="317"/>
+      <c r="E326" s="268"/>
       <c r="F326" s="58"/>
       <c r="G326" s="58"/>
       <c r="H326" s="58"/>
@@ -13843,10 +14239,10 @@
     </row>
     <row r="327" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="97"/>
-      <c r="B327" s="320"/>
-      <c r="C327" s="317"/>
+      <c r="B327" s="270"/>
+      <c r="C327" s="268"/>
       <c r="D327" s="77"/>
-      <c r="E327" s="317"/>
+      <c r="E327" s="268"/>
       <c r="F327" s="58"/>
       <c r="G327" s="58"/>
       <c r="H327" s="58"/>
@@ -13874,7 +14270,7 @@
     </row>
     <row r="328" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="97"/>
-      <c r="B328" s="320"/>
+      <c r="B328" s="270"/>
       <c r="C328" s="90"/>
       <c r="D328" s="135"/>
       <c r="E328" s="135"/>
@@ -13905,10 +14301,10 @@
     </row>
     <row r="329" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="97"/>
-      <c r="B329" s="320"/>
-      <c r="C329" s="317"/>
+      <c r="B329" s="270"/>
+      <c r="C329" s="268"/>
       <c r="D329" s="114"/>
-      <c r="E329" s="321"/>
+      <c r="E329" s="271"/>
       <c r="F329" s="66"/>
       <c r="G329" s="66"/>
       <c r="H329" s="66"/>
@@ -13936,10 +14332,10 @@
     </row>
     <row r="330" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="97"/>
-      <c r="B330" s="320"/>
-      <c r="C330" s="320"/>
+      <c r="B330" s="270"/>
+      <c r="C330" s="270"/>
       <c r="D330" s="77"/>
-      <c r="E330" s="321"/>
+      <c r="E330" s="271"/>
       <c r="F330" s="66"/>
       <c r="G330" s="66"/>
       <c r="H330" s="66"/>
@@ -13967,8 +14363,8 @@
     </row>
     <row r="331" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="97"/>
-      <c r="B331" s="320"/>
-      <c r="C331" s="317"/>
+      <c r="B331" s="270"/>
+      <c r="C331" s="268"/>
       <c r="D331" s="90"/>
       <c r="E331" s="91"/>
       <c r="F331" s="66"/>
@@ -13998,7 +14394,7 @@
     </row>
     <row r="332" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="97"/>
-      <c r="B332" s="320"/>
+      <c r="B332" s="270"/>
       <c r="C332" s="94"/>
       <c r="D332" s="94"/>
       <c r="E332" s="97"/>
@@ -14029,10 +14425,10 @@
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="97"/>
-      <c r="B333" s="320"/>
-      <c r="C333" s="317"/>
+      <c r="B333" s="270"/>
+      <c r="C333" s="268"/>
       <c r="D333" s="114"/>
-      <c r="E333" s="317"/>
+      <c r="E333" s="268"/>
       <c r="F333" s="66"/>
       <c r="G333" s="66"/>
       <c r="H333" s="66"/>
@@ -14060,10 +14456,10 @@
     </row>
     <row r="334" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="97"/>
-      <c r="B334" s="320"/>
-      <c r="C334" s="320"/>
+      <c r="B334" s="270"/>
+      <c r="C334" s="270"/>
       <c r="D334" s="135"/>
-      <c r="E334" s="317"/>
+      <c r="E334" s="268"/>
       <c r="F334" s="66"/>
       <c r="G334" s="66"/>
       <c r="H334" s="66"/>
@@ -14091,10 +14487,10 @@
     </row>
     <row r="335" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="97"/>
-      <c r="B335" s="320"/>
-      <c r="C335" s="320"/>
+      <c r="B335" s="270"/>
+      <c r="C335" s="270"/>
       <c r="D335" s="135"/>
-      <c r="E335" s="317"/>
+      <c r="E335" s="268"/>
       <c r="F335" s="66"/>
       <c r="G335" s="66"/>
       <c r="H335" s="66"/>
@@ -14122,10 +14518,10 @@
     </row>
     <row r="336" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="97"/>
-      <c r="B336" s="320"/>
-      <c r="C336" s="320"/>
+      <c r="B336" s="270"/>
+      <c r="C336" s="270"/>
       <c r="D336" s="135"/>
-      <c r="E336" s="317"/>
+      <c r="E336" s="268"/>
       <c r="F336" s="66"/>
       <c r="G336" s="66"/>
       <c r="H336" s="66"/>
@@ -14153,10 +14549,10 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="97"/>
-      <c r="B337" s="320"/>
-      <c r="C337" s="320"/>
+      <c r="B337" s="270"/>
+      <c r="C337" s="270"/>
       <c r="D337" s="135"/>
-      <c r="E337" s="317"/>
+      <c r="E337" s="268"/>
       <c r="F337" s="60"/>
       <c r="G337" s="60"/>
       <c r="H337" s="60"/>
@@ -14184,10 +14580,10 @@
     </row>
     <row r="338" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="97"/>
-      <c r="B338" s="320"/>
-      <c r="C338" s="320"/>
+      <c r="B338" s="270"/>
+      <c r="C338" s="270"/>
       <c r="D338" s="77"/>
-      <c r="E338" s="317"/>
+      <c r="E338" s="268"/>
       <c r="F338" s="60"/>
       <c r="G338" s="60"/>
       <c r="H338" s="60"/>
@@ -14215,10 +14611,10 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="97"/>
-      <c r="B339" s="320"/>
-      <c r="C339" s="320"/>
+      <c r="B339" s="270"/>
+      <c r="C339" s="270"/>
       <c r="D339" s="114"/>
-      <c r="E339" s="317"/>
+      <c r="E339" s="268"/>
       <c r="F339" s="66"/>
       <c r="G339" s="66"/>
       <c r="H339" s="66"/>
@@ -14246,10 +14642,10 @@
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="97"/>
-      <c r="B340" s="320"/>
-      <c r="C340" s="320"/>
+      <c r="B340" s="270"/>
+      <c r="C340" s="270"/>
       <c r="D340" s="135"/>
-      <c r="E340" s="317"/>
+      <c r="E340" s="268"/>
       <c r="F340" s="58"/>
       <c r="G340" s="58"/>
       <c r="H340" s="58"/>
@@ -14277,10 +14673,10 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="97"/>
-      <c r="B341" s="320"/>
-      <c r="C341" s="320"/>
+      <c r="B341" s="270"/>
+      <c r="C341" s="270"/>
       <c r="D341" s="135"/>
-      <c r="E341" s="317"/>
+      <c r="E341" s="268"/>
       <c r="F341" s="58"/>
       <c r="G341" s="58"/>
       <c r="H341" s="58"/>
@@ -14308,10 +14704,10 @@
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="97"/>
-      <c r="B342" s="320"/>
-      <c r="C342" s="320"/>
+      <c r="B342" s="270"/>
+      <c r="C342" s="270"/>
       <c r="D342" s="77"/>
-      <c r="E342" s="317"/>
+      <c r="E342" s="268"/>
       <c r="F342" s="58"/>
       <c r="G342" s="58"/>
       <c r="H342" s="58"/>
@@ -16446,31 +16842,20 @@
       <c r="AC410" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="E333:E338"/>
-    <mergeCell ref="E339:E342"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="B314:B342"/>
-    <mergeCell ref="C314:C327"/>
-    <mergeCell ref="E314:E321"/>
-    <mergeCell ref="E324:E327"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="C333:C342"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="K301:K302"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D199:D209"/>
-    <mergeCell ref="M199:M206"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="K262:K264"/>
-    <mergeCell ref="L262:L264"/>
-    <mergeCell ref="C271:C277"/>
-    <mergeCell ref="E271:E273"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C281:C285"/>
-    <mergeCell ref="K297:K298"/>
+  <mergeCells count="53">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D21:D48"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D61"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D154:D162"/>
     <mergeCell ref="B16:B209"/>
     <mergeCell ref="C69:C71"/>
@@ -16485,19 +16870,32 @@
     <mergeCell ref="D143:D144"/>
     <mergeCell ref="D146:D152"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C24:C43"/>
     <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D21:D48"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="K301:K302"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="D199:D209"/>
+    <mergeCell ref="M199:M206"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="K262:K264"/>
+    <mergeCell ref="L262:L264"/>
+    <mergeCell ref="C271:C277"/>
+    <mergeCell ref="E271:E273"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C281:C285"/>
+    <mergeCell ref="K297:K298"/>
+    <mergeCell ref="E333:E338"/>
+    <mergeCell ref="E339:E342"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="B314:B342"/>
+    <mergeCell ref="C314:C327"/>
+    <mergeCell ref="E314:E321"/>
+    <mergeCell ref="E324:E327"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="C333:C342"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L14 L16:L71 L73:L118 L154:L410">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
@@ -16553,8 +16951,14 @@
     <hyperlink ref="J37" r:id="rId17" xr:uid="{B83E0577-A488-474C-8535-38A26196B175}"/>
     <hyperlink ref="J39" r:id="rId18" xr:uid="{A2F1276B-AFB9-4AB2-B0DB-B361EBFE05CE}"/>
     <hyperlink ref="J18" r:id="rId19" xr:uid="{142A033E-F056-4D8D-9FDF-A476BB2DDC46}"/>
+    <hyperlink ref="J52" r:id="rId20" xr:uid="{F3FBF64F-7BE5-4952-ADFE-3697165310C6}"/>
+    <hyperlink ref="J55" r:id="rId21" xr:uid="{54398933-151D-464D-82FC-F7BA468AD8B4}"/>
+    <hyperlink ref="J56" r:id="rId22" xr:uid="{4A2F56BA-7016-419F-866B-92A55974D59E}"/>
+    <hyperlink ref="C1" r:id="rId23" xr:uid="{E562459A-D10D-4CAF-881C-62E7AB91D1F3}"/>
+    <hyperlink ref="J51" r:id="rId24" xr:uid="{05C96C97-50AD-40D4-BFBD-CE7ADA943949}"/>
+    <hyperlink ref="J61" r:id="rId25" xr:uid="{DDC9F41F-78D2-4D65-A399-2B58F69E98B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project Ajker Deal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5AA63-E8B6-45DE-B235-466A5ED143DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89A292-28B1-493E-9231-0EAC94BE9EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="248">
   <si>
     <t>PASS</t>
   </si>
@@ -866,6 +866,59 @@
     <t>1. Go to ajkerdeal.com
 2. Click on login.
 3. Click on forgot password?.</t>
+  </si>
+  <si>
+    <t>Verify Tab key to navigate through the form field</t>
+  </si>
+  <si>
+    <t>User should be able to navigate through fields</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Click on Tab key through keyboard to navigate fields.</t>
+  </si>
+  <si>
+    <t>Verify default focus on the first field of the form</t>
+  </si>
+  <si>
+    <t>By default the cursor should be in the first field</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check username field for the cursor.</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>Check for password visibility toggle</t>
+  </si>
+  <si>
+    <t>There should be a visibility toggle to show/hide the password</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check for visibility toggle.</t>
+  </si>
+  <si>
+    <t>Check for login with google account button</t>
+  </si>
+  <si>
+    <t>It will allow user to log in with their google account</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Check for login with google account button.</t>
+  </si>
+  <si>
+    <t>missing button</t>
+  </si>
+  <si>
+    <t>missing toggle</t>
   </si>
 </sst>
 </file>
@@ -2593,47 +2646,90 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2699,90 +2795,47 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3224,11 +3277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
-  <dimension ref="A1:AC410"/>
+  <dimension ref="A1:AC413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3250,11 +3303,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="329" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="272" t="s">
         <v>158</v>
       </c>
       <c r="D1" s="143" t="s">
@@ -3266,10 +3319,10 @@
       </c>
       <c r="G1" s="146"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="326" t="s">
+      <c r="I1" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="327"/>
+      <c r="J1" s="274"/>
       <c r="K1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3289,10 +3342,10 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="293" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="306"/>
+      <c r="B2" s="293"/>
       <c r="C2" s="147" t="s">
         <v>36</v>
       </c>
@@ -3309,8 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J2" s="178">
-        <f>COUNTIF(L8:L99, "Passed")</f>
-        <v>28</v>
+        <f>COUNTIF(L8:L102, "Passed")</f>
+        <v>29</v>
       </c>
       <c r="K2" s="2"/>
       <c r="N2" s="3"/>
@@ -3331,10 +3384,10 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="293" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="306"/>
+      <c r="B3" s="293"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148" t="s">
         <v>12</v>
@@ -3351,8 +3404,8 @@
         <v>1</v>
       </c>
       <c r="J3" s="180">
-        <f>COUNTIF(L8:L524, "Failed")</f>
-        <v>23</v>
+        <f>COUNTIF(L8:L527, "Failed")</f>
+        <v>26</v>
       </c>
       <c r="K3" s="2"/>
       <c r="N3" s="3"/>
@@ -3373,10 +3426,10 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="306"/>
+      <c r="B4" s="293"/>
       <c r="C4" s="147"/>
       <c r="D4" s="148" t="s">
         <v>15</v>
@@ -3391,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="182">
-        <f>COUNTIF(L7:L524, "Not Executed")</f>
+        <f>COUNTIF(L7:L527, "Not Executed")</f>
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
@@ -3413,23 +3466,23 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="304"/>
-      <c r="C5" s="305" t="s">
+      <c r="B5" s="291"/>
+      <c r="C5" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="305"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
       <c r="H5" s="1"/>
       <c r="I5" s="183" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="184">
-        <f>COUNTIF(L7:L524, "Out of Scope")</f>
+        <f>COUNTIF(L7:L527, "Out of Scope")</f>
         <v>0</v>
       </c>
       <c r="K5" s="2"/>
@@ -3464,7 +3517,7 @@
       </c>
       <c r="J6" s="186">
         <f>SUM(J2:J5)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" s="3"/>
@@ -3529,11 +3582,11 @@
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="301"/>
+      <c r="B8" s="288"/>
       <c r="C8" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="315"/>
+      <c r="D8" s="279"/>
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -3576,9 +3629,9 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="302"/>
+      <c r="B9" s="289"/>
       <c r="C9" s="190"/>
-      <c r="D9" s="316"/>
+      <c r="D9" s="280"/>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
@@ -3621,9 +3674,9 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="302"/>
+      <c r="B10" s="289"/>
       <c r="C10" s="190"/>
-      <c r="D10" s="316"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
@@ -3666,9 +3719,9 @@
     </row>
     <row r="11" spans="1:29" s="198" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="191"/>
-      <c r="B11" s="302"/>
+      <c r="B11" s="289"/>
       <c r="C11" s="200"/>
-      <c r="D11" s="316"/>
+      <c r="D11" s="280"/>
       <c r="E11" s="192"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
@@ -3699,11 +3752,11 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="302"/>
-      <c r="C12" s="313" t="s">
+      <c r="B12" s="289"/>
+      <c r="C12" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="316"/>
+      <c r="D12" s="280"/>
       <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
@@ -3748,9 +3801,9 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="302"/>
-      <c r="C13" s="313"/>
-      <c r="D13" s="316"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="280"/>
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3795,9 +3848,9 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="303"/>
-      <c r="C14" s="314"/>
-      <c r="D14" s="317"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
@@ -3873,10 +3926,10 @@
       <c r="A16" s="202">
         <v>7</v>
       </c>
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="295" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="298" t="s">
+      <c r="C16" s="313" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="210" t="s">
@@ -3926,8 +3979,8 @@
       <c r="A17" s="203">
         <v>8</v>
       </c>
-      <c r="B17" s="281"/>
-      <c r="C17" s="299"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="314"/>
       <c r="D17" s="211"/>
       <c r="E17" s="6" t="s">
         <v>72</v>
@@ -3973,8 +4026,8 @@
       <c r="A18" s="203">
         <v>9</v>
       </c>
-      <c r="B18" s="281"/>
-      <c r="C18" s="299"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="314"/>
       <c r="D18" s="211"/>
       <c r="E18" s="6" t="s">
         <v>76</v>
@@ -4020,8 +4073,8 @@
       <c r="A19" s="203">
         <v>10</v>
       </c>
-      <c r="B19" s="281"/>
-      <c r="C19" s="299"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="314"/>
       <c r="D19" s="211"/>
       <c r="E19" s="6" t="s">
         <v>80</v>
@@ -4067,8 +4120,8 @@
       <c r="A20" s="203">
         <v>11</v>
       </c>
-      <c r="B20" s="281"/>
-      <c r="C20" s="299"/>
+      <c r="B20" s="296"/>
+      <c r="C20" s="314"/>
       <c r="D20" s="211"/>
       <c r="E20" s="6" t="s">
         <v>84</v>
@@ -4112,9 +4165,9 @@
       <c r="A21" s="203">
         <v>12</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="311"/>
+      <c r="B21" s="296"/>
+      <c r="C21" s="314"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
@@ -4157,9 +4210,9 @@
       <c r="A22" s="203">
         <v>13</v>
       </c>
-      <c r="B22" s="281"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="311"/>
+      <c r="B22" s="296"/>
+      <c r="C22" s="315"/>
+      <c r="D22" s="275"/>
       <c r="E22" s="239" t="s">
         <v>91</v>
       </c>
@@ -4200,9 +4253,9 @@
     </row>
     <row r="23" spans="1:29" s="248" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="241"/>
-      <c r="B23" s="281"/>
+      <c r="B23" s="296"/>
       <c r="C23" s="249"/>
-      <c r="D23" s="311"/>
+      <c r="D23" s="275"/>
       <c r="E23" s="242"/>
       <c r="F23" s="243"/>
       <c r="G23" s="192"/>
@@ -4233,11 +4286,11 @@
       <c r="A24" s="203">
         <v>14</v>
       </c>
-      <c r="B24" s="281"/>
-      <c r="C24" s="307" t="s">
+      <c r="B24" s="296"/>
+      <c r="C24" s="316" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="311"/>
+      <c r="D24" s="275"/>
       <c r="E24" s="240" t="s">
         <v>94</v>
       </c>
@@ -4282,9 +4335,9 @@
       <c r="A25" s="203">
         <v>15</v>
       </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="311"/>
+      <c r="B25" s="296"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="275"/>
       <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
@@ -4327,9 +4380,9 @@
       <c r="A26" s="203">
         <v>16</v>
       </c>
-      <c r="B26" s="281"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="311"/>
+      <c r="B26" s="296"/>
+      <c r="C26" s="314"/>
+      <c r="D26" s="275"/>
       <c r="E26" s="6" t="s">
         <v>104</v>
       </c>
@@ -4374,9 +4427,9 @@
       <c r="A27" s="203">
         <v>17</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="311"/>
+      <c r="B27" s="296"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="275"/>
       <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
@@ -4421,9 +4474,9 @@
       <c r="A28" s="203">
         <v>18</v>
       </c>
-      <c r="B28" s="281"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="311"/>
+      <c r="B28" s="296"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="275"/>
       <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
@@ -4468,9 +4521,9 @@
       <c r="A29" s="203">
         <v>19</v>
       </c>
-      <c r="B29" s="281"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="311"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="275"/>
       <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
@@ -4515,9 +4568,9 @@
       <c r="A30" s="203">
         <v>20</v>
       </c>
-      <c r="B30" s="281"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="311"/>
+      <c r="B30" s="296"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="275"/>
       <c r="E30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4560,9 +4613,9 @@
       <c r="A31" s="203">
         <v>21</v>
       </c>
-      <c r="B31" s="281"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="311"/>
+      <c r="B31" s="296"/>
+      <c r="C31" s="314"/>
+      <c r="D31" s="275"/>
       <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
@@ -4605,9 +4658,9 @@
       <c r="A32" s="203">
         <v>22</v>
       </c>
-      <c r="B32" s="281"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="311"/>
+      <c r="B32" s="296"/>
+      <c r="C32" s="314"/>
+      <c r="D32" s="275"/>
       <c r="E32" s="6" t="s">
         <v>122</v>
       </c>
@@ -4652,9 +4705,9 @@
       <c r="A33" s="203">
         <v>23</v>
       </c>
-      <c r="B33" s="281"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="311"/>
+      <c r="B33" s="296"/>
+      <c r="C33" s="314"/>
+      <c r="D33" s="275"/>
       <c r="E33" s="6" t="s">
         <v>124</v>
       </c>
@@ -4697,9 +4750,9 @@
       <c r="A34" s="203">
         <v>24</v>
       </c>
-      <c r="B34" s="281"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="311"/>
+      <c r="B34" s="296"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="275"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
@@ -4744,9 +4797,9 @@
       <c r="A35" s="203">
         <v>25</v>
       </c>
-      <c r="B35" s="281"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="311"/>
+      <c r="B35" s="296"/>
+      <c r="C35" s="314"/>
+      <c r="D35" s="275"/>
       <c r="E35" s="6" t="s">
         <v>132</v>
       </c>
@@ -4789,9 +4842,9 @@
       <c r="A36" s="203">
         <v>26</v>
       </c>
-      <c r="B36" s="281"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="311"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="275"/>
       <c r="E36" s="6" t="s">
         <v>135</v>
       </c>
@@ -4836,9 +4889,9 @@
       <c r="A37" s="203">
         <v>27</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="311"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="314"/>
+      <c r="D37" s="275"/>
       <c r="E37" s="6" t="s">
         <v>139</v>
       </c>
@@ -4883,9 +4936,9 @@
       <c r="A38" s="203">
         <v>28</v>
       </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="311"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="275"/>
       <c r="E38" s="6" t="s">
         <v>151</v>
       </c>
@@ -4928,9 +4981,9 @@
       <c r="A39" s="203">
         <v>29</v>
       </c>
-      <c r="B39" s="281"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="311"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="314"/>
+      <c r="D39" s="275"/>
       <c r="E39" s="6" t="s">
         <v>154</v>
       </c>
@@ -4975,9 +5028,9 @@
       <c r="A40" s="203">
         <v>30</v>
       </c>
-      <c r="B40" s="281"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="311"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="314"/>
+      <c r="D40" s="275"/>
       <c r="E40" s="6" t="s">
         <v>142</v>
       </c>
@@ -5020,9 +5073,9 @@
       <c r="A41" s="203">
         <v>31</v>
       </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="311"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="314"/>
+      <c r="D41" s="275"/>
       <c r="E41" s="6" t="s">
         <v>148</v>
       </c>
@@ -5065,9 +5118,9 @@
       <c r="A42" s="203">
         <v>32</v>
       </c>
-      <c r="B42" s="281"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="311"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="314"/>
+      <c r="D42" s="275"/>
       <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
@@ -5110,9 +5163,9 @@
       <c r="A43" s="203">
         <v>33</v>
       </c>
-      <c r="B43" s="281"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="311"/>
+      <c r="B43" s="296"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="6" t="s">
         <v>165</v>
       </c>
@@ -5153,9 +5206,9 @@
     </row>
     <row r="44" spans="1:29" s="165" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="204"/>
-      <c r="B44" s="281"/>
+      <c r="B44" s="296"/>
       <c r="C44" s="263"/>
-      <c r="D44" s="311"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
       <c r="G44" s="159"/>
@@ -5186,11 +5239,11 @@
       <c r="A45" s="205">
         <v>34</v>
       </c>
-      <c r="B45" s="282"/>
-      <c r="C45" s="308" t="s">
+      <c r="B45" s="297"/>
+      <c r="C45" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="311"/>
+      <c r="D45" s="275"/>
       <c r="E45" s="24" t="s">
         <v>168</v>
       </c>
@@ -5233,9 +5286,9 @@
       <c r="A46" s="205">
         <v>35</v>
       </c>
-      <c r="B46" s="282"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="311"/>
+      <c r="B46" s="297"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="275"/>
       <c r="E46" s="24" t="s">
         <v>172</v>
       </c>
@@ -5278,9 +5331,9 @@
       <c r="A47" s="205">
         <v>36</v>
       </c>
-      <c r="B47" s="282"/>
-      <c r="C47" s="309"/>
-      <c r="D47" s="311"/>
+      <c r="B47" s="297"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="275"/>
       <c r="E47" s="24" t="s">
         <v>176</v>
       </c>
@@ -5323,9 +5376,9 @@
       <c r="A48" s="205">
         <v>37</v>
       </c>
-      <c r="B48" s="282"/>
-      <c r="C48" s="310"/>
-      <c r="D48" s="312"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="276"/>
       <c r="E48" s="32" t="s">
         <v>180</v>
       </c>
@@ -5366,8 +5419,8 @@
     </row>
     <row r="49" spans="1:29" s="174" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="207"/>
-      <c r="B49" s="282"/>
-      <c r="C49" s="267"/>
+      <c r="B49" s="297"/>
+      <c r="C49" s="266"/>
       <c r="D49" s="257"/>
       <c r="E49" s="258"/>
       <c r="F49" s="192"/>
@@ -5399,11 +5452,11 @@
       <c r="A50" s="205">
         <v>38</v>
       </c>
-      <c r="B50" s="282"/>
-      <c r="C50" s="322" t="s">
+      <c r="B50" s="297"/>
+      <c r="C50" s="282" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="323" t="s">
+      <c r="D50" s="285" t="s">
         <v>183</v>
       </c>
       <c r="E50" s="32" t="s">
@@ -5448,9 +5501,9 @@
       <c r="A51" s="205">
         <v>39</v>
       </c>
-      <c r="B51" s="282"/>
-      <c r="C51" s="309"/>
-      <c r="D51" s="324"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="283"/>
+      <c r="D51" s="286"/>
       <c r="E51" s="24" t="s">
         <v>80</v>
       </c>
@@ -5495,9 +5548,9 @@
       <c r="A52" s="205">
         <v>40</v>
       </c>
-      <c r="B52" s="282"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="324"/>
+      <c r="B52" s="297"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="286"/>
       <c r="E52" s="24" t="s">
         <v>190</v>
       </c>
@@ -5513,7 +5566,7 @@
       <c r="I52" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J52" s="318" t="s">
+      <c r="J52" s="267" t="s">
         <v>193</v>
       </c>
       <c r="K52" s="27"/>
@@ -5542,9 +5595,9 @@
       <c r="A53" s="205">
         <v>41</v>
       </c>
-      <c r="B53" s="282"/>
-      <c r="C53" s="309"/>
-      <c r="D53" s="324"/>
+      <c r="B53" s="297"/>
+      <c r="C53" s="283"/>
+      <c r="D53" s="286"/>
       <c r="E53" s="24" t="s">
         <v>194</v>
       </c>
@@ -5587,9 +5640,9 @@
       <c r="A54" s="205">
         <v>42</v>
       </c>
-      <c r="B54" s="282"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="324"/>
+      <c r="B54" s="297"/>
+      <c r="C54" s="283"/>
+      <c r="D54" s="286"/>
       <c r="E54" s="24" t="s">
         <v>197</v>
       </c>
@@ -5632,9 +5685,9 @@
       <c r="A55" s="205">
         <v>43</v>
       </c>
-      <c r="B55" s="282"/>
-      <c r="C55" s="309"/>
-      <c r="D55" s="324"/>
+      <c r="B55" s="297"/>
+      <c r="C55" s="283"/>
+      <c r="D55" s="286"/>
       <c r="E55" s="32" t="s">
         <v>200</v>
       </c>
@@ -5679,9 +5732,9 @@
       <c r="A56" s="205">
         <v>44</v>
       </c>
-      <c r="B56" s="282"/>
-      <c r="C56" s="310"/>
-      <c r="D56" s="324"/>
+      <c r="B56" s="297"/>
+      <c r="C56" s="284"/>
+      <c r="D56" s="286"/>
       <c r="E56" s="24" t="s">
         <v>202</v>
       </c>
@@ -5724,16 +5777,16 @@
     </row>
     <row r="57" spans="1:29" s="174" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="207"/>
-      <c r="B57" s="282"/>
-      <c r="C57" s="267"/>
-      <c r="D57" s="324"/>
-      <c r="E57" s="319"/>
+      <c r="B57" s="297"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="286"/>
+      <c r="E57" s="268"/>
       <c r="F57" s="192"/>
       <c r="G57" s="259"/>
       <c r="H57" s="259"/>
       <c r="I57" s="193"/>
-      <c r="J57" s="320"/>
-      <c r="K57" s="321"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="270"/>
       <c r="L57" s="195"/>
       <c r="M57" s="262"/>
       <c r="N57" s="172"/>
@@ -5757,15 +5810,15 @@
       <c r="A58" s="205">
         <v>45</v>
       </c>
-      <c r="B58" s="282"/>
-      <c r="C58" s="265" t="s">
+      <c r="B58" s="297"/>
+      <c r="C58" s="282" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="324"/>
+      <c r="D58" s="286"/>
       <c r="E58" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="328" t="s">
+      <c r="F58" s="271" t="s">
         <v>207</v>
       </c>
       <c r="G58" s="25" t="s">
@@ -5804,9 +5857,9 @@
       <c r="A59" s="205">
         <v>46</v>
       </c>
-      <c r="B59" s="282"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="324"/>
+      <c r="B59" s="297"/>
+      <c r="C59" s="283"/>
+      <c r="D59" s="286"/>
       <c r="E59" s="24" t="s">
         <v>210</v>
       </c>
@@ -5849,9 +5902,9 @@
       <c r="A60" s="205">
         <v>47</v>
       </c>
-      <c r="B60" s="282"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="324"/>
+      <c r="B60" s="297"/>
+      <c r="C60" s="283"/>
+      <c r="D60" s="286"/>
       <c r="E60" s="24" t="s">
         <v>214</v>
       </c>
@@ -5894,9 +5947,9 @@
       <c r="A61" s="205">
         <v>48</v>
       </c>
-      <c r="B61" s="282"/>
-      <c r="C61" s="265"/>
-      <c r="D61" s="325"/>
+      <c r="B61" s="297"/>
+      <c r="C61" s="283"/>
+      <c r="D61" s="286"/>
       <c r="E61" s="32" t="s">
         <v>218</v>
       </c>
@@ -5941,9 +5994,9 @@
       <c r="A62" s="205">
         <v>49</v>
       </c>
-      <c r="B62" s="282"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="212"/>
+      <c r="B62" s="297"/>
+      <c r="C62" s="283"/>
+      <c r="D62" s="286"/>
       <c r="E62" s="32" t="s">
         <v>221</v>
       </c>
@@ -5986,9 +6039,9 @@
       <c r="A63" s="205">
         <v>50</v>
       </c>
-      <c r="B63" s="282"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="212"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="283"/>
+      <c r="D63" s="286"/>
       <c r="E63" s="32" t="s">
         <v>226</v>
       </c>
@@ -6029,30 +6082,32 @@
     </row>
     <row r="64" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="205">
-        <v>511</v>
-      </c>
-      <c r="B64" s="282"/>
-      <c r="C64" s="265"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>231</v>
+        <v>51</v>
+      </c>
+      <c r="B64" s="297"/>
+      <c r="C64" s="283"/>
+      <c r="D64" s="286"/>
+      <c r="E64" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="J64" s="26"/>
+        <v>245</v>
+      </c>
+      <c r="J64" s="141" t="s">
+        <v>246</v>
+      </c>
       <c r="K64" s="25"/>
       <c r="L64" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="28"/>
@@ -6076,17 +6131,29 @@
       <c r="A65" s="205">
         <v>52</v>
       </c>
-      <c r="B65" s="282"/>
-      <c r="C65" s="265"/>
-      <c r="D65" s="212"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="7"/>
+      <c r="B65" s="297"/>
+      <c r="C65" s="284"/>
+      <c r="D65" s="286"/>
+      <c r="E65" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="J65" s="26"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M65" s="9"/>
       <c r="N65" s="28"/>
       <c r="O65" s="28"/>
@@ -6105,54 +6172,66 @@
       <c r="AB65" s="29"/>
       <c r="AC65" s="29"/>
     </row>
-    <row r="66" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="205">
-        <v>53</v>
-      </c>
-      <c r="B66" s="282"/>
-      <c r="C66" s="265"/>
-      <c r="D66" s="212"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
+    <row r="66" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="207"/>
+      <c r="B66" s="297"/>
+      <c r="C66" s="266"/>
+      <c r="D66" s="286"/>
+      <c r="E66" s="192"/>
+      <c r="F66" s="192"/>
+      <c r="G66" s="259"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="193"/>
+      <c r="J66" s="329"/>
+      <c r="K66" s="259"/>
+      <c r="L66" s="195"/>
+      <c r="M66" s="195"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="172"/>
+      <c r="Q66" s="172"/>
+      <c r="R66" s="172"/>
+      <c r="S66" s="172"/>
+      <c r="T66" s="172"/>
+      <c r="U66" s="173"/>
+      <c r="V66" s="173"/>
+      <c r="W66" s="173"/>
+      <c r="X66" s="173"/>
+      <c r="Y66" s="173"/>
+      <c r="Z66" s="173"/>
+      <c r="AA66" s="173"/>
+      <c r="AB66" s="173"/>
+      <c r="AC66" s="173"/>
     </row>
     <row r="67" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="205">
-        <v>35</v>
-      </c>
-      <c r="B67" s="282"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="297"/>
+      <c r="C67" s="282" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="286"/>
+      <c r="E67" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="J67" s="26"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="9"/>
+      <c r="L67" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
@@ -6171,52 +6250,82 @@
       <c r="AB67" s="29"/>
       <c r="AC67" s="29"/>
     </row>
-    <row r="68" spans="1:29" s="168" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="206"/>
-      <c r="B68" s="281"/>
-      <c r="C68" s="264"/>
-      <c r="D68" s="212"/>
-      <c r="E68" s="166"/>
-      <c r="F68" s="159"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="160"/>
-      <c r="K68" s="159"/>
-      <c r="L68" s="167"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="153"/>
-      <c r="O68" s="153"/>
-      <c r="P68" s="153"/>
-      <c r="Q68" s="153"/>
-      <c r="R68" s="153"/>
-      <c r="S68" s="153"/>
-      <c r="T68" s="153"/>
-      <c r="U68" s="157"/>
-      <c r="V68" s="157"/>
-      <c r="W68" s="157"/>
-      <c r="X68" s="157"/>
-      <c r="Y68" s="157"/>
-      <c r="Z68" s="157"/>
-      <c r="AA68" s="157"/>
-      <c r="AB68" s="157"/>
-      <c r="AC68" s="157"/>
+    <row r="68" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="205">
+        <v>54</v>
+      </c>
+      <c r="B68" s="297"/>
+      <c r="C68" s="283"/>
+      <c r="D68" s="286"/>
+      <c r="E68" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="K68" s="25"/>
+      <c r="L68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
     </row>
     <row r="69" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="205">
-        <v>36</v>
-      </c>
-      <c r="B69" s="281"/>
+        <v>55</v>
+      </c>
+      <c r="B69" s="297"/>
       <c r="C69" s="284"/>
-      <c r="D69" s="212"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="287"/>
+      <c r="E69" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J69" s="141" t="s">
+        <v>247</v>
+      </c>
       <c r="K69" s="25"/>
-      <c r="L69" s="9"/>
+      <c r="L69" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
@@ -6237,13 +6346,13 @@
     </row>
     <row r="70" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="205">
-        <v>37</v>
-      </c>
-      <c r="B70" s="281"/>
-      <c r="C70" s="284"/>
+        <v>35</v>
+      </c>
+      <c r="B70" s="297"/>
+      <c r="C70" s="265"/>
       <c r="D70" s="212"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="7"/>
@@ -6268,83 +6377,83 @@
       <c r="AB70" s="29"/>
       <c r="AC70" s="29"/>
     </row>
-    <row r="71" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="205">
-        <v>38</v>
-      </c>
-      <c r="B71" s="281"/>
-      <c r="C71" s="284"/>
+    <row r="71" spans="1:29" s="168" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="206"/>
+      <c r="B71" s="296"/>
+      <c r="C71" s="264"/>
       <c r="D71" s="212"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="142"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-    </row>
-    <row r="72" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="207"/>
-      <c r="B72" s="281"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="169"/>
-      <c r="F72" s="170"/>
-      <c r="G72" s="170"/>
-      <c r="H72" s="170"/>
-      <c r="I72" s="170"/>
-      <c r="J72" s="170"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="170"/>
-      <c r="M72" s="171"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="172"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="172"/>
-      <c r="S72" s="172"/>
-      <c r="T72" s="172"/>
-      <c r="U72" s="173"/>
-      <c r="V72" s="173"/>
-      <c r="W72" s="173"/>
-      <c r="X72" s="173"/>
-      <c r="Y72" s="173"/>
-      <c r="Z72" s="173"/>
-      <c r="AA72" s="173"/>
-      <c r="AB72" s="173"/>
-      <c r="AC72" s="173"/>
+      <c r="E71" s="166"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="159"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="167"/>
+      <c r="M71" s="167"/>
+      <c r="N71" s="153"/>
+      <c r="O71" s="153"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="153"/>
+      <c r="R71" s="153"/>
+      <c r="S71" s="153"/>
+      <c r="T71" s="153"/>
+      <c r="U71" s="157"/>
+      <c r="V71" s="157"/>
+      <c r="W71" s="157"/>
+      <c r="X71" s="157"/>
+      <c r="Y71" s="157"/>
+      <c r="Z71" s="157"/>
+      <c r="AA71" s="157"/>
+      <c r="AB71" s="157"/>
+      <c r="AC71" s="157"/>
+    </row>
+    <row r="72" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="205">
+        <v>36</v>
+      </c>
+      <c r="B72" s="296"/>
+      <c r="C72" s="299"/>
+      <c r="D72" s="212"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
     </row>
     <row r="73" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="205">
-        <v>39</v>
-      </c>
-      <c r="B73" s="281"/>
-      <c r="C73" s="285"/>
-      <c r="D73" s="288"/>
-      <c r="E73" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="B73" s="296"/>
+      <c r="C73" s="299"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="25"/>
+      <c r="J73" s="26"/>
       <c r="K73" s="25"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -6367,20 +6476,20 @@
     </row>
     <row r="74" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="205">
-        <v>40</v>
-      </c>
-      <c r="B74" s="281"/>
-      <c r="C74" s="286"/>
-      <c r="D74" s="289"/>
-      <c r="E74" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="B74" s="296"/>
+      <c r="C74" s="299"/>
+      <c r="D74" s="212"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="33"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="31"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
@@ -6398,46 +6507,53 @@
       <c r="AB74" s="29"/>
       <c r="AC74" s="29"/>
     </row>
-    <row r="75" spans="1:29" s="37" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="205">
-        <v>41</v>
-      </c>
-      <c r="B75" s="281"/>
-      <c r="C75" s="286"/>
-      <c r="D75" s="289"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="188"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
+    <row r="75" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="207"/>
+      <c r="B75" s="296"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="213"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
+      <c r="J75" s="170"/>
+      <c r="K75" s="170"/>
+      <c r="L75" s="170"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="172"/>
+      <c r="O75" s="172"/>
+      <c r="P75" s="172"/>
+      <c r="Q75" s="172"/>
+      <c r="R75" s="172"/>
+      <c r="S75" s="172"/>
+      <c r="T75" s="172"/>
+      <c r="U75" s="173"/>
+      <c r="V75" s="173"/>
+      <c r="W75" s="173"/>
+      <c r="X75" s="173"/>
+      <c r="Y75" s="173"/>
+      <c r="Z75" s="173"/>
+      <c r="AA75" s="173"/>
+      <c r="AB75" s="173"/>
+      <c r="AC75" s="173"/>
     </row>
     <row r="76" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="205">
-        <v>42</v>
-      </c>
-      <c r="B76" s="281"/>
-      <c r="C76" s="286"/>
-      <c r="D76" s="289"/>
-      <c r="E76" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="B76" s="296"/>
+      <c r="C76" s="300"/>
+      <c r="D76" s="303"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="142"/>
+      <c r="J76" s="25"/>
       <c r="K76" s="25"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="31"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
@@ -6457,18 +6573,18 @@
     </row>
     <row r="77" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="205">
-        <v>43</v>
-      </c>
-      <c r="B77" s="281"/>
-      <c r="C77" s="286"/>
-      <c r="D77" s="289"/>
+        <v>40</v>
+      </c>
+      <c r="B77" s="296"/>
+      <c r="C77" s="301"/>
+      <c r="D77" s="304"/>
       <c r="E77" s="32"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="27"/>
       <c r="L77" s="9"/>
       <c r="M77" s="31"/>
       <c r="N77" s="28"/>
@@ -6488,22 +6604,22 @@
       <c r="AB77" s="29"/>
       <c r="AC77" s="29"/>
     </row>
-    <row r="78" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" s="37" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="205">
-        <v>44</v>
-      </c>
-      <c r="B78" s="281"/>
-      <c r="C78" s="286"/>
-      <c r="D78" s="289"/>
-      <c r="E78" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="B78" s="296"/>
+      <c r="C78" s="301"/>
+      <c r="D78" s="304"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="188"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="25"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="39"/>
+      <c r="M78" s="31"/>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
@@ -6511,29 +6627,20 @@
       <c r="R78" s="28"/>
       <c r="S78" s="28"/>
       <c r="T78" s="28"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
     </row>
     <row r="79" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="205">
-        <v>45</v>
-      </c>
-      <c r="B79" s="281"/>
-      <c r="C79" s="286"/>
-      <c r="D79" s="289"/>
+        <v>42</v>
+      </c>
+      <c r="B79" s="296"/>
+      <c r="C79" s="301"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="32"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="25"/>
+      <c r="J79" s="142"/>
       <c r="K79" s="25"/>
       <c r="L79" s="9"/>
       <c r="M79" s="31"/>
@@ -6556,18 +6663,18 @@
     </row>
     <row r="80" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="205">
-        <v>46</v>
-      </c>
-      <c r="B80" s="281"/>
-      <c r="C80" s="286"/>
-      <c r="D80" s="289"/>
+        <v>43</v>
+      </c>
+      <c r="B80" s="296"/>
+      <c r="C80" s="301"/>
+      <c r="D80" s="304"/>
       <c r="E80" s="32"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="187"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="25"/>
       <c r="L80" s="9"/>
       <c r="M80" s="31"/>
       <c r="N80" s="28"/>
@@ -6589,20 +6696,20 @@
     </row>
     <row r="81" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="205">
-        <v>47</v>
-      </c>
-      <c r="B81" s="281"/>
-      <c r="C81" s="286"/>
-      <c r="D81" s="289"/>
-      <c r="E81" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="B81" s="296"/>
+      <c r="C81" s="301"/>
+      <c r="D81" s="304"/>
+      <c r="E81" s="17"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
-      <c r="H81" s="141"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="31"/>
+      <c r="M81" s="39"/>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
@@ -6622,15 +6729,15 @@
     </row>
     <row r="82" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="205">
-        <v>48</v>
-      </c>
-      <c r="B82" s="281"/>
-      <c r="C82" s="286"/>
-      <c r="D82" s="289"/>
+        <v>45</v>
+      </c>
+      <c r="B82" s="296"/>
+      <c r="C82" s="301"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="32"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="7"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
@@ -6655,18 +6762,18 @@
     </row>
     <row r="83" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="205">
-        <v>49</v>
-      </c>
-      <c r="B83" s="281"/>
-      <c r="C83" s="286"/>
-      <c r="D83" s="289"/>
-      <c r="E83" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="B83" s="296"/>
+      <c r="C83" s="301"/>
+      <c r="D83" s="304"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="7"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="K83" s="187"/>
       <c r="L83" s="9"/>
       <c r="M83" s="31"/>
       <c r="N83" s="28"/>
@@ -6686,17 +6793,17 @@
       <c r="AB83" s="29"/>
       <c r="AC83" s="29"/>
     </row>
-    <row r="84" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="205">
-        <v>50</v>
-      </c>
-      <c r="B84" s="281"/>
-      <c r="C84" s="286"/>
-      <c r="D84" s="289"/>
+        <v>47</v>
+      </c>
+      <c r="B84" s="296"/>
+      <c r="C84" s="301"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="32"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
+      <c r="H84" s="141"/>
       <c r="I84" s="7"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
@@ -6721,15 +6828,15 @@
     </row>
     <row r="85" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="205">
-        <v>51</v>
-      </c>
-      <c r="B85" s="281"/>
-      <c r="C85" s="286"/>
-      <c r="D85" s="289"/>
+        <v>48</v>
+      </c>
+      <c r="B85" s="296"/>
+      <c r="C85" s="301"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="32"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
+      <c r="H85" s="26"/>
       <c r="I85" s="7"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
@@ -6752,17 +6859,17 @@
       <c r="AB85" s="29"/>
       <c r="AC85" s="29"/>
     </row>
-    <row r="86" spans="1:29" s="30" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="205">
-        <v>52</v>
-      </c>
-      <c r="B86" s="281"/>
-      <c r="C86" s="286"/>
-      <c r="D86" s="289"/>
-      <c r="E86" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="B86" s="296"/>
+      <c r="C86" s="301"/>
+      <c r="D86" s="304"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
+      <c r="H86" s="26"/>
       <c r="I86" s="7"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
@@ -6785,19 +6892,19 @@
       <c r="AB86" s="29"/>
       <c r="AC86" s="29"/>
     </row>
-    <row r="87" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="205">
-        <v>53</v>
-      </c>
-      <c r="B87" s="281"/>
-      <c r="C87" s="286"/>
-      <c r="D87" s="289"/>
+        <v>50</v>
+      </c>
+      <c r="B87" s="296"/>
+      <c r="C87" s="301"/>
+      <c r="D87" s="304"/>
       <c r="E87" s="32"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="142"/>
+      <c r="J87" s="25"/>
       <c r="K87" s="25"/>
       <c r="L87" s="9"/>
       <c r="M87" s="31"/>
@@ -6818,13 +6925,13 @@
       <c r="AB87" s="29"/>
       <c r="AC87" s="29"/>
     </row>
-    <row r="88" spans="1:29" s="30" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="205">
-        <v>54</v>
-      </c>
-      <c r="B88" s="281"/>
-      <c r="C88" s="286"/>
-      <c r="D88" s="289"/>
+        <v>51</v>
+      </c>
+      <c r="B88" s="296"/>
+      <c r="C88" s="301"/>
+      <c r="D88" s="304"/>
       <c r="E88" s="32"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
@@ -6851,13 +6958,13 @@
       <c r="AB88" s="29"/>
       <c r="AC88" s="29"/>
     </row>
-    <row r="89" spans="1:29" s="30" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" s="30" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="205">
-        <v>55</v>
-      </c>
-      <c r="B89" s="281"/>
-      <c r="C89" s="286"/>
-      <c r="D89" s="289"/>
+        <v>52</v>
+      </c>
+      <c r="B89" s="296"/>
+      <c r="C89" s="301"/>
+      <c r="D89" s="304"/>
       <c r="E89" s="32"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
@@ -6884,13 +6991,13 @@
       <c r="AB89" s="29"/>
       <c r="AC89" s="29"/>
     </row>
-    <row r="90" spans="1:29" s="30" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="205">
-        <v>56</v>
-      </c>
-      <c r="B90" s="281"/>
-      <c r="C90" s="286"/>
-      <c r="D90" s="289"/>
+        <v>53</v>
+      </c>
+      <c r="B90" s="296"/>
+      <c r="C90" s="301"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="32"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -6917,13 +7024,13 @@
       <c r="AB90" s="29"/>
       <c r="AC90" s="29"/>
     </row>
-    <row r="91" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" s="30" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="205">
-        <v>57</v>
-      </c>
-      <c r="B91" s="281"/>
-      <c r="C91" s="286"/>
-      <c r="D91" s="289"/>
+        <v>54</v>
+      </c>
+      <c r="B91" s="296"/>
+      <c r="C91" s="301"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="32"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -6950,13 +7057,13 @@
       <c r="AB91" s="29"/>
       <c r="AC91" s="29"/>
     </row>
-    <row r="92" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" s="30" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="205">
-        <v>58</v>
-      </c>
-      <c r="B92" s="281"/>
-      <c r="C92" s="286"/>
-      <c r="D92" s="289"/>
+        <v>55</v>
+      </c>
+      <c r="B92" s="296"/>
+      <c r="C92" s="301"/>
+      <c r="D92" s="304"/>
       <c r="E92" s="32"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -6983,17 +7090,19 @@
       <c r="AB92" s="29"/>
       <c r="AC92" s="29"/>
     </row>
-    <row r="93" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="205"/>
-      <c r="B93" s="281"/>
-      <c r="C93" s="286"/>
-      <c r="D93" s="289"/>
+    <row r="93" spans="1:29" s="30" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="205">
+        <v>56</v>
+      </c>
+      <c r="B93" s="296"/>
+      <c r="C93" s="301"/>
+      <c r="D93" s="304"/>
       <c r="E93" s="32"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="7"/>
-      <c r="J93" s="25"/>
+      <c r="J93" s="142"/>
       <c r="K93" s="25"/>
       <c r="L93" s="9"/>
       <c r="M93" s="31"/>
@@ -7014,11 +7123,13 @@
       <c r="AB93" s="29"/>
       <c r="AC93" s="29"/>
     </row>
-    <row r="94" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="205"/>
-      <c r="B94" s="281"/>
-      <c r="C94" s="286"/>
-      <c r="D94" s="289"/>
+    <row r="94" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="205">
+        <v>57</v>
+      </c>
+      <c r="B94" s="296"/>
+      <c r="C94" s="301"/>
+      <c r="D94" s="304"/>
       <c r="E94" s="32"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -7045,11 +7156,13 @@
       <c r="AB94" s="29"/>
       <c r="AC94" s="29"/>
     </row>
-    <row r="95" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="205"/>
-      <c r="B95" s="281"/>
-      <c r="C95" s="286"/>
-      <c r="D95" s="289"/>
+    <row r="95" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="205">
+        <v>58</v>
+      </c>
+      <c r="B95" s="296"/>
+      <c r="C95" s="301"/>
+      <c r="D95" s="304"/>
       <c r="E95" s="32"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -7078,9 +7191,9 @@
     </row>
     <row r="96" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="205"/>
-      <c r="B96" s="281"/>
-      <c r="C96" s="286"/>
-      <c r="D96" s="289"/>
+      <c r="B96" s="296"/>
+      <c r="C96" s="301"/>
+      <c r="D96" s="304"/>
       <c r="E96" s="32"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -7109,9 +7222,9 @@
     </row>
     <row r="97" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="205"/>
-      <c r="B97" s="281"/>
-      <c r="C97" s="286"/>
-      <c r="D97" s="289"/>
+      <c r="B97" s="296"/>
+      <c r="C97" s="301"/>
+      <c r="D97" s="304"/>
       <c r="E97" s="32"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -7140,9 +7253,9 @@
     </row>
     <row r="98" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="205"/>
-      <c r="B98" s="281"/>
-      <c r="C98" s="287"/>
-      <c r="D98" s="290"/>
+      <c r="B98" s="296"/>
+      <c r="C98" s="301"/>
+      <c r="D98" s="304"/>
       <c r="E98" s="32"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -7169,47 +7282,47 @@
       <c r="AB98" s="29"/>
       <c r="AC98" s="29"/>
     </row>
-    <row r="99" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="208"/>
-      <c r="B99" s="281"/>
-      <c r="C99" s="233"/>
-      <c r="D99" s="214"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="14"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="14"/>
-      <c r="Z99" s="14"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="14"/>
-      <c r="AC99" s="14"/>
-    </row>
-    <row r="100" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="205"/>
+      <c r="B99" s="296"/>
+      <c r="C99" s="301"/>
+      <c r="D99" s="304"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+    </row>
+    <row r="100" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="205"/>
-      <c r="B100" s="281"/>
-      <c r="C100" s="291"/>
-      <c r="D100" s="292"/>
+      <c r="B100" s="296"/>
+      <c r="C100" s="301"/>
+      <c r="D100" s="304"/>
       <c r="E100" s="32"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
+      <c r="I100" s="7"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
       <c r="L100" s="9"/>
@@ -7231,16 +7344,16 @@
       <c r="AB100" s="29"/>
       <c r="AC100" s="29"/>
     </row>
-    <row r="101" spans="1:29" s="30" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="205"/>
-      <c r="B101" s="281"/>
-      <c r="C101" s="291"/>
-      <c r="D101" s="292"/>
+      <c r="B101" s="296"/>
+      <c r="C101" s="302"/>
+      <c r="D101" s="305"/>
       <c r="E101" s="32"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
       <c r="L101" s="9"/>
@@ -7262,51 +7375,51 @@
       <c r="AB101" s="29"/>
       <c r="AC101" s="29"/>
     </row>
-    <row r="102" spans="1:29" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="205"/>
-      <c r="B102" s="281"/>
-      <c r="C102" s="291"/>
-      <c r="D102" s="292"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="29"/>
-      <c r="AA102" s="29"/>
-      <c r="AB102" s="29"/>
-      <c r="AC102" s="29"/>
+    <row r="102" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="208"/>
+      <c r="B102" s="296"/>
+      <c r="C102" s="233"/>
+      <c r="D102" s="214"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
+      <c r="AC102" s="14"/>
     </row>
     <row r="103" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="205"/>
-      <c r="B103" s="281"/>
-      <c r="C103" s="291"/>
-      <c r="D103" s="292"/>
-      <c r="E103" s="25"/>
+      <c r="B103" s="296"/>
+      <c r="C103" s="306"/>
+      <c r="D103" s="307"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
-      <c r="K103" s="27"/>
+      <c r="K103" s="25"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
+      <c r="M103" s="31"/>
       <c r="N103" s="28"/>
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
@@ -7324,20 +7437,20 @@
       <c r="AB103" s="29"/>
       <c r="AC103" s="29"/>
     </row>
-    <row r="104" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" s="30" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="205"/>
-      <c r="B104" s="281"/>
-      <c r="C104" s="291"/>
-      <c r="D104" s="215"/>
-      <c r="E104" s="42"/>
+      <c r="B104" s="296"/>
+      <c r="C104" s="306"/>
+      <c r="D104" s="307"/>
+      <c r="E104" s="32"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
-      <c r="K104" s="27"/>
+      <c r="K104" s="25"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
+      <c r="M104" s="31"/>
       <c r="N104" s="28"/>
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
@@ -7355,18 +7468,18 @@
       <c r="AB104" s="29"/>
       <c r="AC104" s="29"/>
     </row>
-    <row r="105" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="209"/>
-      <c r="B105" s="281"/>
-      <c r="C105" s="234"/>
-      <c r="D105" s="215"/>
-      <c r="E105" s="42"/>
+    <row r="105" spans="1:29" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="205"/>
+      <c r="B105" s="296"/>
+      <c r="C105" s="306"/>
+      <c r="D105" s="307"/>
+      <c r="E105" s="25"/>
       <c r="F105" s="15"/>
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
+      <c r="K105" s="27"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="28"/>
@@ -7386,12 +7499,12 @@
       <c r="AB105" s="29"/>
       <c r="AC105" s="29"/>
     </row>
-    <row r="106" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="209"/>
-      <c r="B106" s="281"/>
-      <c r="C106" s="234"/>
-      <c r="D106" s="215"/>
-      <c r="E106" s="43"/>
+    <row r="106" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="205"/>
+      <c r="B106" s="296"/>
+      <c r="C106" s="306"/>
+      <c r="D106" s="307"/>
+      <c r="E106" s="25"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
@@ -7399,7 +7512,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="27"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="31"/>
+      <c r="M106" s="9"/>
       <c r="N106" s="28"/>
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
@@ -7417,20 +7530,20 @@
       <c r="AB106" s="29"/>
       <c r="AC106" s="29"/>
     </row>
-    <row r="107" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="209"/>
-      <c r="B107" s="281"/>
-      <c r="C107" s="234"/>
+    <row r="107" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="205"/>
+      <c r="B107" s="296"/>
+      <c r="C107" s="306"/>
       <c r="D107" s="215"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="15"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
+      <c r="K107" s="27"/>
       <c r="L107" s="9"/>
-      <c r="M107" s="31"/>
+      <c r="M107" s="9"/>
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
@@ -7450,18 +7563,18 @@
     </row>
     <row r="108" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="209"/>
-      <c r="B108" s="281"/>
+      <c r="B108" s="296"/>
       <c r="C108" s="234"/>
       <c r="D108" s="215"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="25"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="15"/>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="31"/>
+      <c r="M108" s="9"/>
       <c r="N108" s="28"/>
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
@@ -7481,7 +7594,7 @@
     </row>
     <row r="109" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="209"/>
-      <c r="B109" s="281"/>
+      <c r="B109" s="296"/>
       <c r="C109" s="234"/>
       <c r="D109" s="215"/>
       <c r="E109" s="43"/>
@@ -7490,7 +7603,7 @@
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
+      <c r="K109" s="27"/>
       <c r="L109" s="9"/>
       <c r="M109" s="31"/>
       <c r="N109" s="28"/>
@@ -7512,11 +7625,11 @@
     </row>
     <row r="110" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="209"/>
-      <c r="B110" s="281"/>
+      <c r="B110" s="296"/>
       <c r="C110" s="234"/>
-      <c r="D110" s="216"/>
+      <c r="D110" s="215"/>
       <c r="E110" s="43"/>
-      <c r="F110" s="25"/>
+      <c r="F110" s="15"/>
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
@@ -7543,11 +7656,11 @@
     </row>
     <row r="111" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="209"/>
-      <c r="B111" s="281"/>
+      <c r="B111" s="296"/>
       <c r="C111" s="234"/>
-      <c r="D111" s="293"/>
+      <c r="D111" s="215"/>
       <c r="E111" s="43"/>
-      <c r="F111" s="15"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
@@ -7574,9 +7687,9 @@
     </row>
     <row r="112" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="209"/>
-      <c r="B112" s="281"/>
+      <c r="B112" s="296"/>
       <c r="C112" s="234"/>
-      <c r="D112" s="293"/>
+      <c r="D112" s="215"/>
       <c r="E112" s="43"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
@@ -7605,18 +7718,18 @@
     </row>
     <row r="113" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="209"/>
-      <c r="B113" s="281"/>
+      <c r="B113" s="296"/>
       <c r="C113" s="234"/>
-      <c r="D113" s="293"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="6"/>
+      <c r="D113" s="216"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
+      <c r="M113" s="31"/>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
@@ -7636,18 +7749,18 @@
     </row>
     <row r="114" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="209"/>
-      <c r="B114" s="281"/>
+      <c r="B114" s="296"/>
       <c r="C114" s="234"/>
-      <c r="D114" s="293"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="6"/>
+      <c r="D114" s="308"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="15"/>
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
+      <c r="M114" s="31"/>
       <c r="N114" s="28"/>
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
@@ -7667,18 +7780,18 @@
     </row>
     <row r="115" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="209"/>
-      <c r="B115" s="281"/>
+      <c r="B115" s="296"/>
       <c r="C115" s="234"/>
-      <c r="D115" s="293"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="6"/>
+      <c r="D115" s="308"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
+      <c r="M115" s="31"/>
       <c r="N115" s="28"/>
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
@@ -7698,16 +7811,16 @@
     </row>
     <row r="116" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="209"/>
-      <c r="B116" s="281"/>
+      <c r="B116" s="296"/>
       <c r="C116" s="234"/>
-      <c r="D116" s="217"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
+      <c r="D116" s="308"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="28"/>
@@ -7729,16 +7842,16 @@
     </row>
     <row r="117" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="209"/>
-      <c r="B117" s="281"/>
+      <c r="B117" s="296"/>
       <c r="C117" s="234"/>
-      <c r="D117" s="293"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="25"/>
+      <c r="D117" s="308"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
-      <c r="K117" s="27"/>
+      <c r="K117" s="25"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="28"/>
@@ -7760,11 +7873,11 @@
     </row>
     <row r="118" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="209"/>
-      <c r="B118" s="281"/>
+      <c r="B118" s="296"/>
       <c r="C118" s="234"/>
-      <c r="D118" s="293"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="25"/>
+      <c r="D118" s="308"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="6"/>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
@@ -7791,18 +7904,18 @@
     </row>
     <row r="119" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="209"/>
-      <c r="B119" s="281"/>
+      <c r="B119" s="296"/>
       <c r="C119" s="234"/>
-      <c r="D119" s="218"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="31"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
       <c r="N119" s="28"/>
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
@@ -7822,18 +7935,18 @@
     </row>
     <row r="120" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="209"/>
-      <c r="B120" s="281"/>
+      <c r="B120" s="296"/>
       <c r="C120" s="234"/>
-      <c r="D120" s="294"/>
-      <c r="E120" s="43"/>
+      <c r="D120" s="308"/>
+      <c r="E120" s="42"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
+      <c r="K120" s="27"/>
       <c r="L120" s="9"/>
-      <c r="M120" s="31"/>
+      <c r="M120" s="9"/>
       <c r="N120" s="28"/>
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
@@ -7853,10 +7966,10 @@
     </row>
     <row r="121" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="209"/>
-      <c r="B121" s="281"/>
+      <c r="B121" s="296"/>
       <c r="C121" s="234"/>
-      <c r="D121" s="294"/>
-      <c r="E121" s="43"/>
+      <c r="D121" s="308"/>
+      <c r="E121" s="42"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
@@ -7864,7 +7977,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="31"/>
+      <c r="M121" s="9"/>
       <c r="N121" s="28"/>
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
@@ -7884,18 +7997,18 @@
     </row>
     <row r="122" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="209"/>
-      <c r="B122" s="281"/>
+      <c r="B122" s="296"/>
       <c r="C122" s="234"/>
-      <c r="D122" s="294"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="6"/>
+      <c r="D122" s="218"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="31"/>
       <c r="N122" s="28"/>
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
@@ -7915,18 +8028,18 @@
     </row>
     <row r="123" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="209"/>
-      <c r="B123" s="281"/>
+      <c r="B123" s="296"/>
       <c r="C123" s="234"/>
-      <c r="D123" s="294"/>
-      <c r="E123" s="42"/>
+      <c r="D123" s="309"/>
+      <c r="E123" s="43"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
-      <c r="K123" s="27"/>
+      <c r="K123" s="25"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
+      <c r="M123" s="31"/>
       <c r="N123" s="28"/>
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
@@ -7946,10 +8059,10 @@
     </row>
     <row r="124" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="209"/>
-      <c r="B124" s="281"/>
+      <c r="B124" s="296"/>
       <c r="C124" s="234"/>
-      <c r="D124" s="294"/>
-      <c r="E124" s="42"/>
+      <c r="D124" s="309"/>
+      <c r="E124" s="43"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
@@ -7957,7 +8070,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
+      <c r="M124" s="31"/>
       <c r="N124" s="28"/>
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
@@ -7977,18 +8090,18 @@
     </row>
     <row r="125" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="209"/>
-      <c r="B125" s="281"/>
+      <c r="B125" s="296"/>
       <c r="C125" s="234"/>
-      <c r="D125" s="294"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="25"/>
+      <c r="D125" s="309"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="6"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
-      <c r="K125" s="27"/>
+      <c r="K125" s="25"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="31"/>
+      <c r="M125" s="9"/>
       <c r="N125" s="28"/>
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
@@ -8008,18 +8121,18 @@
     </row>
     <row r="126" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="209"/>
-      <c r="B126" s="281"/>
+      <c r="B126" s="296"/>
       <c r="C126" s="234"/>
-      <c r="D126" s="294"/>
-      <c r="E126" s="43"/>
+      <c r="D126" s="309"/>
+      <c r="E126" s="42"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
+      <c r="K126" s="27"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="31"/>
+      <c r="M126" s="9"/>
       <c r="N126" s="28"/>
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
@@ -8039,10 +8152,10 @@
     </row>
     <row r="127" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="209"/>
-      <c r="B127" s="281"/>
+      <c r="B127" s="296"/>
       <c r="C127" s="234"/>
-      <c r="D127" s="294"/>
-      <c r="E127" s="43"/>
+      <c r="D127" s="309"/>
+      <c r="E127" s="42"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
@@ -8050,7 +8163,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
       <c r="L127" s="9"/>
-      <c r="M127" s="31"/>
+      <c r="M127" s="9"/>
       <c r="N127" s="28"/>
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
@@ -8070,18 +8183,18 @@
     </row>
     <row r="128" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="209"/>
-      <c r="B128" s="281"/>
+      <c r="B128" s="296"/>
       <c r="C128" s="234"/>
-      <c r="D128" s="294"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="6"/>
+      <c r="D128" s="309"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
+      <c r="K128" s="27"/>
       <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
+      <c r="M128" s="31"/>
       <c r="N128" s="28"/>
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
@@ -8101,18 +8214,18 @@
     </row>
     <row r="129" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="209"/>
-      <c r="B129" s="281"/>
+      <c r="B129" s="296"/>
       <c r="C129" s="234"/>
-      <c r="D129" s="294"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="31"/>
+      <c r="D129" s="309"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
       <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
+      <c r="M129" s="31"/>
       <c r="N129" s="28"/>
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
@@ -8132,18 +8245,18 @@
     </row>
     <row r="130" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="209"/>
-      <c r="B130" s="281"/>
+      <c r="B130" s="296"/>
       <c r="C130" s="234"/>
-      <c r="D130" s="294"/>
-      <c r="E130" s="42"/>
+      <c r="D130" s="309"/>
+      <c r="E130" s="43"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
-      <c r="K130" s="27"/>
+      <c r="K130" s="25"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
+      <c r="M130" s="31"/>
       <c r="N130" s="28"/>
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
@@ -8163,17 +8276,17 @@
     </row>
     <row r="131" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="209"/>
-      <c r="B131" s="281"/>
+      <c r="B131" s="296"/>
       <c r="C131" s="234"/>
-      <c r="D131" s="218"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="25"/>
+      <c r="D131" s="309"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="6"/>
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
+      <c r="L131" s="9"/>
       <c r="M131" s="9"/>
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
@@ -8194,18 +8307,18 @@
     </row>
     <row r="132" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="209"/>
-      <c r="B132" s="281"/>
+      <c r="B132" s="296"/>
       <c r="C132" s="234"/>
-      <c r="D132" s="295"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="27"/>
+      <c r="D132" s="309"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="31"/>
+      <c r="M132" s="9"/>
       <c r="N132" s="28"/>
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
@@ -8225,18 +8338,18 @@
     </row>
     <row r="133" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="209"/>
-      <c r="B133" s="281"/>
+      <c r="B133" s="296"/>
       <c r="C133" s="234"/>
-      <c r="D133" s="295"/>
-      <c r="E133" s="43"/>
+      <c r="D133" s="309"/>
+      <c r="E133" s="42"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
+      <c r="K133" s="27"/>
       <c r="L133" s="9"/>
-      <c r="M133" s="31"/>
+      <c r="M133" s="9"/>
       <c r="N133" s="28"/>
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
@@ -8256,18 +8369,18 @@
     </row>
     <row r="134" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="209"/>
-      <c r="B134" s="281"/>
+      <c r="B134" s="296"/>
       <c r="C134" s="234"/>
-      <c r="D134" s="295"/>
-      <c r="E134" s="43"/>
+      <c r="D134" s="218"/>
+      <c r="E134" s="42"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="31"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="9"/>
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
@@ -8287,19 +8400,19 @@
     </row>
     <row r="135" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="209"/>
-      <c r="B135" s="281"/>
+      <c r="B135" s="296"/>
       <c r="C135" s="234"/>
-      <c r="D135" s="295"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="6"/>
+      <c r="D135" s="310"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="25"/>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
+      <c r="K135" s="27"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="46"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
       <c r="Q135" s="28"/>
@@ -8316,113 +8429,113 @@
       <c r="AB135" s="29"/>
       <c r="AC135" s="29"/>
     </row>
-    <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="281"/>
-      <c r="C136" s="235"/>
-      <c r="D136" s="295"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
-      <c r="K136" s="49"/>
-      <c r="L136" s="49"/>
-      <c r="M136" s="50"/>
-      <c r="N136" s="51"/>
-      <c r="O136" s="51"/>
-      <c r="P136" s="51"/>
-      <c r="Q136" s="51"/>
-      <c r="R136" s="51"/>
-      <c r="S136" s="51"/>
-      <c r="T136" s="51"/>
-      <c r="U136" s="3"/>
-      <c r="V136" s="3"/>
-      <c r="W136" s="3"/>
-      <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-      <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="3"/>
-    </row>
-    <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="281"/>
-      <c r="C137" s="235"/>
-      <c r="D137" s="295"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="49"/>
-      <c r="K137" s="56"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="51"/>
-      <c r="O137" s="51"/>
-      <c r="P137" s="51"/>
-      <c r="Q137" s="51"/>
-      <c r="R137" s="51"/>
-      <c r="S137" s="51"/>
-      <c r="T137" s="51"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-      <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="3"/>
-    </row>
-    <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="281"/>
-      <c r="C138" s="235"/>
-      <c r="D138" s="295"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="60"/>
-      <c r="I138" s="60"/>
-      <c r="J138" s="60"/>
-      <c r="K138" s="61"/>
-      <c r="L138" s="58"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="51"/>
-      <c r="O138" s="51"/>
-      <c r="P138" s="51"/>
-      <c r="Q138" s="51"/>
-      <c r="R138" s="51"/>
-      <c r="S138" s="51"/>
-      <c r="T138" s="51"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-      <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="3"/>
+    <row r="136" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="209"/>
+      <c r="B136" s="296"/>
+      <c r="C136" s="234"/>
+      <c r="D136" s="310"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="31"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="28"/>
+      <c r="P136" s="28"/>
+      <c r="Q136" s="28"/>
+      <c r="R136" s="28"/>
+      <c r="S136" s="28"/>
+      <c r="T136" s="28"/>
+      <c r="U136" s="29"/>
+      <c r="V136" s="29"/>
+      <c r="W136" s="29"/>
+      <c r="X136" s="29"/>
+      <c r="Y136" s="29"/>
+      <c r="Z136" s="29"/>
+      <c r="AA136" s="29"/>
+      <c r="AB136" s="29"/>
+      <c r="AC136" s="29"/>
+    </row>
+    <row r="137" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="209"/>
+      <c r="B137" s="296"/>
+      <c r="C137" s="234"/>
+      <c r="D137" s="310"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="31"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="28"/>
+      <c r="P137" s="28"/>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="28"/>
+      <c r="S137" s="28"/>
+      <c r="T137" s="28"/>
+      <c r="U137" s="29"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
+      <c r="X137" s="29"/>
+      <c r="Y137" s="29"/>
+      <c r="Z137" s="29"/>
+      <c r="AA137" s="29"/>
+      <c r="AB137" s="29"/>
+      <c r="AC137" s="29"/>
+    </row>
+    <row r="138" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="209"/>
+      <c r="B138" s="296"/>
+      <c r="C138" s="234"/>
+      <c r="D138" s="310"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="28"/>
+      <c r="P138" s="28"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
+      <c r="S138" s="28"/>
+      <c r="T138" s="28"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="29"/>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="29"/>
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="281"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="296"/>
       <c r="C139" s="235"/>
-      <c r="D139" s="295"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="60"/>
-      <c r="I139" s="60"/>
-      <c r="J139" s="60"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="58"/>
-      <c r="M139" s="58"/>
+      <c r="D139" s="310"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="49"/>
+      <c r="K139" s="49"/>
+      <c r="L139" s="49"/>
+      <c r="M139" s="50"/>
       <c r="N139" s="51"/>
       <c r="O139" s="51"/>
       <c r="P139" s="51"/>
@@ -8442,17 +8555,17 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
-      <c r="B140" s="281"/>
+      <c r="B140" s="296"/>
       <c r="C140" s="235"/>
-      <c r="D140" s="295"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="62"/>
-      <c r="L140" s="58"/>
+      <c r="D140" s="310"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="49"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="57"/>
       <c r="M140" s="58"/>
       <c r="N140" s="51"/>
       <c r="O140" s="51"/>
@@ -8473,16 +8586,16 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="52"/>
-      <c r="B141" s="281"/>
+      <c r="B141" s="296"/>
       <c r="C141" s="235"/>
-      <c r="D141" s="295"/>
-      <c r="E141" s="64"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="55"/>
-      <c r="I141" s="55"/>
+      <c r="D141" s="310"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
       <c r="J141" s="60"/>
-      <c r="K141" s="62"/>
+      <c r="K141" s="61"/>
       <c r="L141" s="58"/>
       <c r="M141" s="58"/>
       <c r="N141" s="51"/>
@@ -8504,17 +8617,17 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="52"/>
-      <c r="B142" s="281"/>
+      <c r="B142" s="296"/>
       <c r="C142" s="235"/>
-      <c r="D142" s="219"/>
-      <c r="E142" s="53"/>
+      <c r="D142" s="310"/>
+      <c r="E142" s="59"/>
       <c r="F142" s="60"/>
       <c r="G142" s="60"/>
       <c r="H142" s="60"/>
       <c r="I142" s="60"/>
       <c r="J142" s="60"/>
       <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
+      <c r="L142" s="58"/>
       <c r="M142" s="58"/>
       <c r="N142" s="51"/>
       <c r="O142" s="51"/>
@@ -8535,18 +8648,18 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="52"/>
-      <c r="B143" s="281"/>
+      <c r="B143" s="296"/>
       <c r="C143" s="235"/>
-      <c r="D143" s="296"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="55"/>
+      <c r="D143" s="310"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
       <c r="J143" s="60"/>
-      <c r="K143" s="61"/>
+      <c r="K143" s="62"/>
       <c r="L143" s="58"/>
-      <c r="M143" s="66"/>
+      <c r="M143" s="58"/>
       <c r="N143" s="51"/>
       <c r="O143" s="51"/>
       <c r="P143" s="51"/>
@@ -8566,18 +8679,18 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="52"/>
-      <c r="B144" s="281"/>
+      <c r="B144" s="296"/>
       <c r="C144" s="235"/>
-      <c r="D144" s="296"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
+      <c r="D144" s="310"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
       <c r="J144" s="60"/>
-      <c r="K144" s="61"/>
+      <c r="K144" s="62"/>
       <c r="L144" s="58"/>
-      <c r="M144" s="66"/>
+      <c r="M144" s="58"/>
       <c r="N144" s="51"/>
       <c r="O144" s="51"/>
       <c r="P144" s="51"/>
@@ -8597,18 +8710,18 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="52"/>
-      <c r="B145" s="281"/>
+      <c r="B145" s="296"/>
       <c r="C145" s="235"/>
-      <c r="D145" s="220"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="55"/>
+      <c r="D145" s="219"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
       <c r="J145" s="60"/>
       <c r="K145" s="62"/>
-      <c r="L145" s="51"/>
-      <c r="M145" s="66"/>
+      <c r="L145" s="62"/>
+      <c r="M145" s="58"/>
       <c r="N145" s="51"/>
       <c r="O145" s="51"/>
       <c r="P145" s="51"/>
@@ -8628,16 +8741,16 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="52"/>
-      <c r="B146" s="281"/>
+      <c r="B146" s="296"/>
       <c r="C146" s="235"/>
-      <c r="D146" s="297"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
+      <c r="D146" s="311"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
       <c r="J146" s="60"/>
-      <c r="K146" s="62"/>
+      <c r="K146" s="61"/>
       <c r="L146" s="58"/>
       <c r="M146" s="66"/>
       <c r="N146" s="51"/>
@@ -8659,16 +8772,16 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
-      <c r="B147" s="281"/>
+      <c r="B147" s="296"/>
       <c r="C147" s="235"/>
-      <c r="D147" s="297"/>
-      <c r="E147" s="65"/>
+      <c r="D147" s="311"/>
+      <c r="E147" s="67"/>
       <c r="F147" s="60"/>
       <c r="G147" s="60"/>
       <c r="H147" s="60"/>
       <c r="I147" s="60"/>
       <c r="J147" s="60"/>
-      <c r="K147" s="62"/>
+      <c r="K147" s="61"/>
       <c r="L147" s="58"/>
       <c r="M147" s="66"/>
       <c r="N147" s="51"/>
@@ -8690,17 +8803,17 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
-      <c r="B148" s="281"/>
+      <c r="B148" s="296"/>
       <c r="C148" s="235"/>
-      <c r="D148" s="297"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="60"/>
+      <c r="D148" s="220"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
       <c r="J148" s="60"/>
       <c r="K148" s="62"/>
-      <c r="L148" s="58"/>
+      <c r="L148" s="51"/>
       <c r="M148" s="66"/>
       <c r="N148" s="51"/>
       <c r="O148" s="51"/>
@@ -8721,18 +8834,18 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
-      <c r="B149" s="281"/>
+      <c r="B149" s="296"/>
       <c r="C149" s="235"/>
-      <c r="D149" s="297"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="55"/>
+      <c r="D149" s="312"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="60"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="60"/>
       <c r="J149" s="60"/>
       <c r="K149" s="62"/>
       <c r="L149" s="58"/>
-      <c r="M149" s="58"/>
+      <c r="M149" s="66"/>
       <c r="N149" s="51"/>
       <c r="O149" s="51"/>
       <c r="P149" s="51"/>
@@ -8752,18 +8865,18 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
-      <c r="B150" s="281"/>
+      <c r="B150" s="296"/>
       <c r="C150" s="235"/>
-      <c r="D150" s="297"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="70"/>
-      <c r="G150" s="62"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
+      <c r="D150" s="312"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="60"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
       <c r="J150" s="60"/>
       <c r="K150" s="62"/>
       <c r="L150" s="58"/>
-      <c r="M150" s="58"/>
+      <c r="M150" s="66"/>
       <c r="N150" s="51"/>
       <c r="O150" s="51"/>
       <c r="P150" s="51"/>
@@ -8783,18 +8896,18 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
-      <c r="B151" s="281"/>
+      <c r="B151" s="296"/>
       <c r="C151" s="235"/>
-      <c r="D151" s="297"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="55"/>
+      <c r="D151" s="312"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="60"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="60"/>
       <c r="J151" s="60"/>
       <c r="K151" s="62"/>
       <c r="L151" s="58"/>
-      <c r="M151" s="58"/>
+      <c r="M151" s="66"/>
       <c r="N151" s="51"/>
       <c r="O151" s="51"/>
       <c r="P151" s="51"/>
@@ -8814,14 +8927,14 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
-      <c r="B152" s="281"/>
+      <c r="B152" s="296"/>
       <c r="C152" s="235"/>
-      <c r="D152" s="297"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
+      <c r="D152" s="312"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55"/>
       <c r="J152" s="60"/>
       <c r="K152" s="62"/>
       <c r="L152" s="58"/>
@@ -8845,17 +8958,17 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
-      <c r="B153" s="281"/>
+      <c r="B153" s="296"/>
       <c r="C153" s="235"/>
-      <c r="D153" s="221"/>
+      <c r="D153" s="312"/>
       <c r="E153" s="69"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="55"/>
+      <c r="F153" s="70"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="62"/>
       <c r="J153" s="60"/>
       <c r="K153" s="62"/>
-      <c r="L153" s="62"/>
+      <c r="L153" s="58"/>
       <c r="M153" s="58"/>
       <c r="N153" s="51"/>
       <c r="O153" s="51"/>
@@ -8876,14 +8989,14 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
-      <c r="B154" s="281"/>
+      <c r="B154" s="296"/>
       <c r="C154" s="235"/>
-      <c r="D154" s="279"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
+      <c r="D154" s="312"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
       <c r="J154" s="60"/>
       <c r="K154" s="62"/>
       <c r="L154" s="58"/>
@@ -8907,11 +9020,11 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
-      <c r="B155" s="281"/>
+      <c r="B155" s="296"/>
       <c r="C155" s="235"/>
-      <c r="D155" s="279"/>
+      <c r="D155" s="312"/>
       <c r="E155" s="69"/>
-      <c r="F155" s="74"/>
+      <c r="F155" s="72"/>
       <c r="G155" s="62"/>
       <c r="H155" s="62"/>
       <c r="I155" s="62"/>
@@ -8938,17 +9051,17 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
-      <c r="B156" s="281"/>
+      <c r="B156" s="296"/>
       <c r="C156" s="235"/>
-      <c r="D156" s="279"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="66"/>
-      <c r="K156" s="66"/>
-      <c r="L156" s="58"/>
+      <c r="D156" s="221"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="55"/>
+      <c r="I156" s="55"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="62"/>
+      <c r="L156" s="62"/>
       <c r="M156" s="58"/>
       <c r="N156" s="51"/>
       <c r="O156" s="51"/>
@@ -8969,16 +9082,16 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
-      <c r="B157" s="281"/>
+      <c r="B157" s="296"/>
       <c r="C157" s="235"/>
-      <c r="D157" s="279"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="66"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="66"/>
+      <c r="D157" s="294"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
+      <c r="I157" s="62"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="62"/>
       <c r="L157" s="58"/>
       <c r="M157" s="58"/>
       <c r="N157" s="51"/>
@@ -9000,16 +9113,16 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
-      <c r="B158" s="281"/>
+      <c r="B158" s="296"/>
       <c r="C158" s="235"/>
-      <c r="D158" s="279"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="66"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="66"/>
+      <c r="D158" s="294"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="62"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="62"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
       <c r="N158" s="51"/>
@@ -9031,9 +9144,9 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
-      <c r="B159" s="281"/>
+      <c r="B159" s="296"/>
       <c r="C159" s="235"/>
-      <c r="D159" s="279"/>
+      <c r="D159" s="294"/>
       <c r="E159" s="75"/>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
@@ -9042,7 +9155,7 @@
       <c r="J159" s="66"/>
       <c r="K159" s="66"/>
       <c r="L159" s="58"/>
-      <c r="M159" s="66"/>
+      <c r="M159" s="58"/>
       <c r="N159" s="51"/>
       <c r="O159" s="51"/>
       <c r="P159" s="51"/>
@@ -9062,9 +9175,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
-      <c r="B160" s="281"/>
+      <c r="B160" s="296"/>
       <c r="C160" s="235"/>
-      <c r="D160" s="279"/>
+      <c r="D160" s="294"/>
       <c r="E160" s="75"/>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
@@ -9093,9 +9206,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
-      <c r="B161" s="281"/>
+      <c r="B161" s="296"/>
       <c r="C161" s="235"/>
-      <c r="D161" s="279"/>
+      <c r="D161" s="294"/>
       <c r="E161" s="75"/>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
@@ -9124,9 +9237,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
-      <c r="B162" s="281"/>
+      <c r="B162" s="296"/>
       <c r="C162" s="235"/>
-      <c r="D162" s="279"/>
+      <c r="D162" s="294"/>
       <c r="E162" s="75"/>
       <c r="F162" s="66"/>
       <c r="G162" s="66"/>
@@ -9135,7 +9248,7 @@
       <c r="J162" s="66"/>
       <c r="K162" s="66"/>
       <c r="L162" s="58"/>
-      <c r="M162" s="58"/>
+      <c r="M162" s="66"/>
       <c r="N162" s="51"/>
       <c r="O162" s="51"/>
       <c r="P162" s="51"/>
@@ -9155,9 +9268,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
-      <c r="B163" s="281"/>
-      <c r="C163" s="236"/>
-      <c r="D163" s="222"/>
+      <c r="B163" s="296"/>
+      <c r="C163" s="235"/>
+      <c r="D163" s="294"/>
       <c r="E163" s="75"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
@@ -9186,9 +9299,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
-      <c r="B164" s="281"/>
-      <c r="C164" s="237"/>
-      <c r="D164" s="222"/>
+      <c r="B164" s="296"/>
+      <c r="C164" s="235"/>
+      <c r="D164" s="294"/>
       <c r="E164" s="75"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
@@ -9217,9 +9330,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
-      <c r="B165" s="281"/>
-      <c r="C165" s="237"/>
-      <c r="D165" s="223"/>
+      <c r="B165" s="296"/>
+      <c r="C165" s="235"/>
+      <c r="D165" s="294"/>
       <c r="E165" s="75"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
@@ -9248,10 +9361,10 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
-      <c r="B166" s="281"/>
-      <c r="C166" s="237"/>
-      <c r="D166" s="273"/>
-      <c r="E166" s="76"/>
+      <c r="B166" s="296"/>
+      <c r="C166" s="236"/>
+      <c r="D166" s="222"/>
+      <c r="E166" s="75"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
       <c r="H166" s="66"/>
@@ -9279,10 +9392,10 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
-      <c r="B167" s="281"/>
+      <c r="B167" s="296"/>
       <c r="C167" s="237"/>
-      <c r="D167" s="273"/>
-      <c r="E167" s="76"/>
+      <c r="D167" s="222"/>
+      <c r="E167" s="75"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
       <c r="H167" s="66"/>
@@ -9310,9 +9423,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
-      <c r="B168" s="281"/>
+      <c r="B168" s="296"/>
       <c r="C168" s="237"/>
-      <c r="D168" s="224"/>
+      <c r="D168" s="223"/>
       <c r="E168" s="75"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
@@ -9341,10 +9454,10 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
-      <c r="B169" s="281"/>
+      <c r="B169" s="296"/>
       <c r="C169" s="237"/>
-      <c r="D169" s="225"/>
-      <c r="E169" s="75"/>
+      <c r="D169" s="320"/>
+      <c r="E169" s="76"/>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
       <c r="H169" s="66"/>
@@ -9372,10 +9485,10 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
-      <c r="B170" s="281"/>
+      <c r="B170" s="296"/>
       <c r="C170" s="237"/>
-      <c r="D170" s="225"/>
-      <c r="E170" s="78"/>
+      <c r="D170" s="320"/>
+      <c r="E170" s="76"/>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
       <c r="H170" s="66"/>
@@ -9403,9 +9516,9 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
-      <c r="B171" s="281"/>
+      <c r="B171" s="296"/>
       <c r="C171" s="237"/>
-      <c r="D171" s="225"/>
+      <c r="D171" s="224"/>
       <c r="E171" s="75"/>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
@@ -9415,7 +9528,7 @@
       <c r="K171" s="66"/>
       <c r="L171" s="58"/>
       <c r="M171" s="58"/>
-      <c r="N171" s="79"/>
+      <c r="N171" s="51"/>
       <c r="O171" s="51"/>
       <c r="P171" s="51"/>
       <c r="Q171" s="51"/>
@@ -9434,7 +9547,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
-      <c r="B172" s="281"/>
+      <c r="B172" s="296"/>
       <c r="C172" s="237"/>
       <c r="D172" s="225"/>
       <c r="E172" s="75"/>
@@ -9465,10 +9578,10 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
-      <c r="B173" s="281"/>
+      <c r="B173" s="296"/>
       <c r="C173" s="237"/>
       <c r="D173" s="225"/>
-      <c r="E173" s="75"/>
+      <c r="E173" s="78"/>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
       <c r="H173" s="66"/>
@@ -9496,7 +9609,7 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
-      <c r="B174" s="281"/>
+      <c r="B174" s="296"/>
       <c r="C174" s="237"/>
       <c r="D174" s="225"/>
       <c r="E174" s="75"/>
@@ -9507,8 +9620,8 @@
       <c r="J174" s="66"/>
       <c r="K174" s="66"/>
       <c r="L174" s="58"/>
-      <c r="M174" s="80"/>
-      <c r="N174" s="51"/>
+      <c r="M174" s="58"/>
+      <c r="N174" s="79"/>
       <c r="O174" s="51"/>
       <c r="P174" s="51"/>
       <c r="Q174" s="51"/>
@@ -9527,10 +9640,10 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
-      <c r="B175" s="281"/>
+      <c r="B175" s="296"/>
       <c r="C175" s="237"/>
       <c r="D175" s="225"/>
-      <c r="E175" s="78"/>
+      <c r="E175" s="75"/>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
       <c r="H175" s="66"/>
@@ -9558,10 +9671,10 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
-      <c r="B176" s="281"/>
+      <c r="B176" s="296"/>
       <c r="C176" s="237"/>
       <c r="D176" s="225"/>
-      <c r="E176" s="78"/>
+      <c r="E176" s="75"/>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
       <c r="H176" s="66"/>
@@ -9589,18 +9702,18 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
-      <c r="B177" s="281"/>
+      <c r="B177" s="296"/>
       <c r="C177" s="237"/>
       <c r="D177" s="225"/>
-      <c r="E177" s="78"/>
+      <c r="E177" s="75"/>
       <c r="F177" s="66"/>
-      <c r="G177" s="81"/>
-      <c r="H177" s="81"/>
-      <c r="I177" s="81"/>
-      <c r="J177" s="81"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="66"/>
       <c r="K177" s="66"/>
       <c r="L177" s="58"/>
-      <c r="M177" s="58"/>
+      <c r="M177" s="80"/>
       <c r="N177" s="51"/>
       <c r="O177" s="51"/>
       <c r="P177" s="51"/>
@@ -9620,10 +9733,10 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
-      <c r="B178" s="281"/>
+      <c r="B178" s="296"/>
       <c r="C178" s="237"/>
       <c r="D178" s="225"/>
-      <c r="E178" s="75"/>
+      <c r="E178" s="78"/>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
       <c r="H178" s="66"/>
@@ -9631,7 +9744,7 @@
       <c r="J178" s="66"/>
       <c r="K178" s="66"/>
       <c r="L178" s="58"/>
-      <c r="M178" s="54"/>
+      <c r="M178" s="58"/>
       <c r="N178" s="51"/>
       <c r="O178" s="51"/>
       <c r="P178" s="51"/>
@@ -9651,10 +9764,10 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
-      <c r="B179" s="281"/>
+      <c r="B179" s="296"/>
       <c r="C179" s="237"/>
       <c r="D179" s="225"/>
-      <c r="E179" s="75"/>
+      <c r="E179" s="78"/>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
       <c r="H179" s="66"/>
@@ -9682,15 +9795,15 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
-      <c r="B180" s="281"/>
+      <c r="B180" s="296"/>
       <c r="C180" s="237"/>
       <c r="D180" s="225"/>
-      <c r="E180" s="75"/>
+      <c r="E180" s="78"/>
       <c r="F180" s="66"/>
-      <c r="G180" s="66"/>
-      <c r="H180" s="66"/>
-      <c r="I180" s="66"/>
-      <c r="J180" s="66"/>
+      <c r="G180" s="81"/>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
       <c r="K180" s="66"/>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -9713,18 +9826,18 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
-      <c r="B181" s="281"/>
+      <c r="B181" s="296"/>
       <c r="C181" s="237"/>
       <c r="D181" s="225"/>
       <c r="E181" s="75"/>
       <c r="F181" s="66"/>
-      <c r="G181" s="82"/>
-      <c r="H181" s="82"/>
-      <c r="I181" s="82"/>
-      <c r="J181" s="82"/>
+      <c r="G181" s="66"/>
+      <c r="H181" s="66"/>
+      <c r="I181" s="66"/>
+      <c r="J181" s="66"/>
       <c r="K181" s="66"/>
       <c r="L181" s="58"/>
-      <c r="M181" s="58"/>
+      <c r="M181" s="54"/>
       <c r="N181" s="51"/>
       <c r="O181" s="51"/>
       <c r="P181" s="51"/>
@@ -9744,15 +9857,15 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
-      <c r="B182" s="281"/>
+      <c r="B182" s="296"/>
       <c r="C182" s="237"/>
       <c r="D182" s="225"/>
       <c r="E182" s="75"/>
       <c r="F182" s="66"/>
-      <c r="G182" s="82"/>
-      <c r="H182" s="82"/>
-      <c r="I182" s="82"/>
-      <c r="J182" s="82"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
+      <c r="J182" s="66"/>
       <c r="K182" s="66"/>
       <c r="L182" s="58"/>
       <c r="M182" s="58"/>
@@ -9775,18 +9888,18 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
-      <c r="B183" s="281"/>
+      <c r="B183" s="296"/>
       <c r="C183" s="237"/>
       <c r="D183" s="225"/>
       <c r="E183" s="75"/>
       <c r="F183" s="66"/>
-      <c r="G183" s="82"/>
-      <c r="H183" s="82"/>
-      <c r="I183" s="82"/>
-      <c r="J183" s="82"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="66"/>
+      <c r="I183" s="66"/>
+      <c r="J183" s="66"/>
       <c r="K183" s="66"/>
       <c r="L183" s="58"/>
-      <c r="M183" s="79"/>
+      <c r="M183" s="58"/>
       <c r="N183" s="51"/>
       <c r="O183" s="51"/>
       <c r="P183" s="51"/>
@@ -9805,16 +9918,16 @@
       <c r="AC183" s="3"/>
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="83"/>
-      <c r="B184" s="281"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="296"/>
       <c r="C184" s="237"/>
-      <c r="D184" s="84"/>
-      <c r="E184" s="85"/>
+      <c r="D184" s="225"/>
+      <c r="E184" s="75"/>
       <c r="F184" s="66"/>
-      <c r="G184" s="66"/>
-      <c r="H184" s="66"/>
-      <c r="I184" s="66"/>
-      <c r="J184" s="66"/>
+      <c r="G184" s="82"/>
+      <c r="H184" s="82"/>
+      <c r="I184" s="82"/>
+      <c r="J184" s="82"/>
       <c r="K184" s="66"/>
       <c r="L184" s="58"/>
       <c r="M184" s="58"/>
@@ -9836,16 +9949,16 @@
       <c r="AC184" s="3"/>
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="83"/>
-      <c r="B185" s="281"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="296"/>
       <c r="C185" s="237"/>
-      <c r="D185" s="226"/>
+      <c r="D185" s="225"/>
       <c r="E185" s="75"/>
       <c r="F185" s="66"/>
-      <c r="G185" s="66"/>
-      <c r="H185" s="66"/>
-      <c r="I185" s="66"/>
-      <c r="J185" s="66"/>
+      <c r="G185" s="82"/>
+      <c r="H185" s="82"/>
+      <c r="I185" s="82"/>
+      <c r="J185" s="82"/>
       <c r="K185" s="66"/>
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
@@ -9867,19 +9980,19 @@
       <c r="AC185" s="3"/>
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="83"/>
-      <c r="B186" s="281"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="296"/>
       <c r="C186" s="237"/>
-      <c r="D186" s="226"/>
+      <c r="D186" s="225"/>
       <c r="E186" s="75"/>
       <c r="F186" s="66"/>
-      <c r="G186" s="66"/>
-      <c r="H186" s="66"/>
-      <c r="I186" s="66"/>
-      <c r="J186" s="66"/>
+      <c r="G186" s="82"/>
+      <c r="H186" s="82"/>
+      <c r="I186" s="82"/>
+      <c r="J186" s="82"/>
       <c r="K186" s="66"/>
       <c r="L186" s="58"/>
-      <c r="M186" s="58"/>
+      <c r="M186" s="79"/>
       <c r="N186" s="51"/>
       <c r="O186" s="51"/>
       <c r="P186" s="51"/>
@@ -9899,10 +10012,10 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="83"/>
-      <c r="B187" s="281"/>
+      <c r="B187" s="296"/>
       <c r="C187" s="237"/>
-      <c r="D187" s="226"/>
-      <c r="E187" s="87"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="85"/>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
       <c r="H187" s="66"/>
@@ -9930,10 +10043,10 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
-      <c r="B188" s="281"/>
+      <c r="B188" s="296"/>
       <c r="C188" s="237"/>
       <c r="D188" s="226"/>
-      <c r="E188" s="88"/>
+      <c r="E188" s="75"/>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
       <c r="H188" s="66"/>
@@ -9961,10 +10074,10 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="83"/>
-      <c r="B189" s="281"/>
+      <c r="B189" s="296"/>
       <c r="C189" s="237"/>
       <c r="D189" s="226"/>
-      <c r="E189" s="88"/>
+      <c r="E189" s="75"/>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
       <c r="H189" s="66"/>
@@ -9992,10 +10105,10 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="83"/>
-      <c r="B190" s="281"/>
+      <c r="B190" s="296"/>
       <c r="C190" s="237"/>
       <c r="D190" s="226"/>
-      <c r="E190" s="88"/>
+      <c r="E190" s="87"/>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
       <c r="H190" s="66"/>
@@ -10023,7 +10136,7 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="83"/>
-      <c r="B191" s="281"/>
+      <c r="B191" s="296"/>
       <c r="C191" s="237"/>
       <c r="D191" s="226"/>
       <c r="E191" s="88"/>
@@ -10054,10 +10167,10 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="83"/>
-      <c r="B192" s="281"/>
+      <c r="B192" s="296"/>
       <c r="C192" s="237"/>
       <c r="D192" s="226"/>
-      <c r="E192" s="75"/>
+      <c r="E192" s="88"/>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
       <c r="H192" s="66"/>
@@ -10085,10 +10198,10 @@
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="83"/>
-      <c r="B193" s="281"/>
+      <c r="B193" s="296"/>
       <c r="C193" s="237"/>
       <c r="D193" s="226"/>
-      <c r="E193" s="75"/>
+      <c r="E193" s="88"/>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
       <c r="H193" s="66"/>
@@ -10116,10 +10229,10 @@
     </row>
     <row r="194" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
-      <c r="B194" s="281"/>
+      <c r="B194" s="296"/>
       <c r="C194" s="237"/>
       <c r="D194" s="226"/>
-      <c r="E194" s="75"/>
+      <c r="E194" s="88"/>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
       <c r="H194" s="66"/>
@@ -10147,7 +10260,7 @@
     </row>
     <row r="195" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="83"/>
-      <c r="B195" s="281"/>
+      <c r="B195" s="296"/>
       <c r="C195" s="237"/>
       <c r="D195" s="226"/>
       <c r="E195" s="75"/>
@@ -10178,10 +10291,10 @@
     </row>
     <row r="196" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="83"/>
-      <c r="B196" s="281"/>
+      <c r="B196" s="296"/>
       <c r="C196" s="237"/>
       <c r="D196" s="226"/>
-      <c r="E196" s="85"/>
+      <c r="E196" s="75"/>
       <c r="F196" s="66"/>
       <c r="G196" s="66"/>
       <c r="H196" s="66"/>
@@ -10209,10 +10322,10 @@
     </row>
     <row r="197" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="83"/>
-      <c r="B197" s="281"/>
+      <c r="B197" s="296"/>
       <c r="C197" s="237"/>
-      <c r="D197" s="227"/>
-      <c r="E197" s="89"/>
+      <c r="D197" s="226"/>
+      <c r="E197" s="75"/>
       <c r="F197" s="66"/>
       <c r="G197" s="66"/>
       <c r="H197" s="66"/>
@@ -10240,10 +10353,10 @@
     </row>
     <row r="198" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="83"/>
-      <c r="B198" s="281"/>
+      <c r="B198" s="296"/>
       <c r="C198" s="237"/>
-      <c r="D198" s="228"/>
-      <c r="E198" s="85"/>
+      <c r="D198" s="226"/>
+      <c r="E198" s="75"/>
       <c r="F198" s="66"/>
       <c r="G198" s="66"/>
       <c r="H198" s="66"/>
@@ -10271,10 +10384,10 @@
     </row>
     <row r="199" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="83"/>
-      <c r="B199" s="281"/>
+      <c r="B199" s="296"/>
       <c r="C199" s="237"/>
-      <c r="D199" s="274"/>
-      <c r="E199" s="75"/>
+      <c r="D199" s="226"/>
+      <c r="E199" s="85"/>
       <c r="F199" s="66"/>
       <c r="G199" s="66"/>
       <c r="H199" s="66"/>
@@ -10282,7 +10395,7 @@
       <c r="J199" s="66"/>
       <c r="K199" s="66"/>
       <c r="L199" s="58"/>
-      <c r="M199" s="275"/>
+      <c r="M199" s="58"/>
       <c r="N199" s="51"/>
       <c r="O199" s="51"/>
       <c r="P199" s="51"/>
@@ -10301,11 +10414,11 @@
       <c r="AC199" s="3"/>
     </row>
     <row r="200" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="52"/>
-      <c r="B200" s="281"/>
+      <c r="A200" s="83"/>
+      <c r="B200" s="296"/>
       <c r="C200" s="237"/>
-      <c r="D200" s="274"/>
-      <c r="E200" s="75"/>
+      <c r="D200" s="227"/>
+      <c r="E200" s="89"/>
       <c r="F200" s="66"/>
       <c r="G200" s="66"/>
       <c r="H200" s="66"/>
@@ -10313,7 +10426,7 @@
       <c r="J200" s="66"/>
       <c r="K200" s="66"/>
       <c r="L200" s="58"/>
-      <c r="M200" s="275"/>
+      <c r="M200" s="58"/>
       <c r="N200" s="51"/>
       <c r="O200" s="51"/>
       <c r="P200" s="51"/>
@@ -10332,11 +10445,11 @@
       <c r="AC200" s="3"/>
     </row>
     <row r="201" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="52"/>
-      <c r="B201" s="281"/>
+      <c r="A201" s="83"/>
+      <c r="B201" s="296"/>
       <c r="C201" s="237"/>
-      <c r="D201" s="274"/>
-      <c r="E201" s="87"/>
+      <c r="D201" s="228"/>
+      <c r="E201" s="85"/>
       <c r="F201" s="66"/>
       <c r="G201" s="66"/>
       <c r="H201" s="66"/>
@@ -10344,7 +10457,7 @@
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="58"/>
-      <c r="M201" s="275"/>
+      <c r="M201" s="58"/>
       <c r="N201" s="51"/>
       <c r="O201" s="51"/>
       <c r="P201" s="51"/>
@@ -10363,11 +10476,11 @@
       <c r="AC201" s="3"/>
     </row>
     <row r="202" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="52"/>
-      <c r="B202" s="281"/>
+      <c r="A202" s="83"/>
+      <c r="B202" s="296"/>
       <c r="C202" s="237"/>
-      <c r="D202" s="274"/>
-      <c r="E202" s="88"/>
+      <c r="D202" s="321"/>
+      <c r="E202" s="75"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
       <c r="H202" s="66"/>
@@ -10375,7 +10488,7 @@
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="58"/>
-      <c r="M202" s="275"/>
+      <c r="M202" s="322"/>
       <c r="N202" s="51"/>
       <c r="O202" s="51"/>
       <c r="P202" s="51"/>
@@ -10395,10 +10508,10 @@
     </row>
     <row r="203" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
-      <c r="B203" s="281"/>
+      <c r="B203" s="296"/>
       <c r="C203" s="237"/>
-      <c r="D203" s="274"/>
-      <c r="E203" s="88"/>
+      <c r="D203" s="321"/>
+      <c r="E203" s="75"/>
       <c r="F203" s="66"/>
       <c r="G203" s="66"/>
       <c r="H203" s="66"/>
@@ -10406,7 +10519,7 @@
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="58"/>
-      <c r="M203" s="275"/>
+      <c r="M203" s="322"/>
       <c r="N203" s="51"/>
       <c r="O203" s="51"/>
       <c r="P203" s="51"/>
@@ -10426,10 +10539,10 @@
     </row>
     <row r="204" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
-      <c r="B204" s="281"/>
+      <c r="B204" s="296"/>
       <c r="C204" s="237"/>
-      <c r="D204" s="274"/>
-      <c r="E204" s="88"/>
+      <c r="D204" s="321"/>
+      <c r="E204" s="87"/>
       <c r="F204" s="66"/>
       <c r="G204" s="66"/>
       <c r="H204" s="66"/>
@@ -10437,7 +10550,7 @@
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="58"/>
-      <c r="M204" s="275"/>
+      <c r="M204" s="322"/>
       <c r="N204" s="51"/>
       <c r="O204" s="51"/>
       <c r="P204" s="51"/>
@@ -10457,9 +10570,9 @@
     </row>
     <row r="205" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
-      <c r="B205" s="281"/>
+      <c r="B205" s="296"/>
       <c r="C205" s="237"/>
-      <c r="D205" s="274"/>
+      <c r="D205" s="321"/>
       <c r="E205" s="88"/>
       <c r="F205" s="66"/>
       <c r="G205" s="66"/>
@@ -10468,7 +10581,7 @@
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="58"/>
-      <c r="M205" s="275"/>
+      <c r="M205" s="322"/>
       <c r="N205" s="51"/>
       <c r="O205" s="51"/>
       <c r="P205" s="51"/>
@@ -10488,10 +10601,10 @@
     </row>
     <row r="206" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
-      <c r="B206" s="281"/>
+      <c r="B206" s="296"/>
       <c r="C206" s="237"/>
-      <c r="D206" s="274"/>
-      <c r="E206" s="75"/>
+      <c r="D206" s="321"/>
+      <c r="E206" s="88"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
       <c r="H206" s="66"/>
@@ -10499,7 +10612,7 @@
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="58"/>
-      <c r="M206" s="275"/>
+      <c r="M206" s="322"/>
       <c r="N206" s="51"/>
       <c r="O206" s="51"/>
       <c r="P206" s="51"/>
@@ -10519,10 +10632,10 @@
     </row>
     <row r="207" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
-      <c r="B207" s="281"/>
+      <c r="B207" s="296"/>
       <c r="C207" s="237"/>
-      <c r="D207" s="274"/>
-      <c r="E207" s="75"/>
+      <c r="D207" s="321"/>
+      <c r="E207" s="88"/>
       <c r="F207" s="66"/>
       <c r="G207" s="66"/>
       <c r="H207" s="66"/>
@@ -10530,7 +10643,7 @@
       <c r="J207" s="66"/>
       <c r="K207" s="66"/>
       <c r="L207" s="58"/>
-      <c r="M207" s="58"/>
+      <c r="M207" s="322"/>
       <c r="N207" s="51"/>
       <c r="O207" s="51"/>
       <c r="P207" s="51"/>
@@ -10550,10 +10663,10 @@
     </row>
     <row r="208" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
-      <c r="B208" s="281"/>
+      <c r="B208" s="296"/>
       <c r="C208" s="237"/>
-      <c r="D208" s="274"/>
-      <c r="E208" s="75"/>
+      <c r="D208" s="321"/>
+      <c r="E208" s="88"/>
       <c r="F208" s="66"/>
       <c r="G208" s="66"/>
       <c r="H208" s="66"/>
@@ -10561,7 +10674,7 @@
       <c r="J208" s="66"/>
       <c r="K208" s="66"/>
       <c r="L208" s="58"/>
-      <c r="M208" s="58"/>
+      <c r="M208" s="322"/>
       <c r="N208" s="51"/>
       <c r="O208" s="51"/>
       <c r="P208" s="51"/>
@@ -10581,9 +10694,9 @@
     </row>
     <row r="209" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
-      <c r="B209" s="283"/>
-      <c r="C209" s="238"/>
-      <c r="D209" s="274"/>
+      <c r="B209" s="296"/>
+      <c r="C209" s="237"/>
+      <c r="D209" s="321"/>
       <c r="E209" s="75"/>
       <c r="F209" s="66"/>
       <c r="G209" s="66"/>
@@ -10592,7 +10705,7 @@
       <c r="J209" s="66"/>
       <c r="K209" s="66"/>
       <c r="L209" s="58"/>
-      <c r="M209" s="58"/>
+      <c r="M209" s="322"/>
       <c r="N209" s="51"/>
       <c r="O209" s="51"/>
       <c r="P209" s="51"/>
@@ -10610,12 +10723,12 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="91"/>
-      <c r="B210" s="92"/>
-      <c r="C210" s="231"/>
-      <c r="D210" s="86"/>
-      <c r="E210" s="85"/>
+    <row r="210" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="52"/>
+      <c r="B210" s="296"/>
+      <c r="C210" s="237"/>
+      <c r="D210" s="321"/>
+      <c r="E210" s="75"/>
       <c r="F210" s="66"/>
       <c r="G210" s="66"/>
       <c r="H210" s="66"/>
@@ -10641,17 +10754,17 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="91"/>
-      <c r="B211" s="94"/>
-      <c r="C211" s="93"/>
-      <c r="D211" s="276"/>
+    <row r="211" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="52"/>
+      <c r="B211" s="296"/>
+      <c r="C211" s="237"/>
+      <c r="D211" s="321"/>
       <c r="E211" s="75"/>
       <c r="F211" s="66"/>
-      <c r="G211" s="82"/>
-      <c r="H211" s="82"/>
-      <c r="I211" s="82"/>
-      <c r="J211" s="82"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
+      <c r="I211" s="66"/>
+      <c r="J211" s="66"/>
       <c r="K211" s="66"/>
       <c r="L211" s="58"/>
       <c r="M211" s="58"/>
@@ -10672,17 +10785,17 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="91"/>
-      <c r="B212" s="90"/>
-      <c r="C212" s="95"/>
-      <c r="D212" s="276"/>
+    <row r="212" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="52"/>
+      <c r="B212" s="298"/>
+      <c r="C212" s="238"/>
+      <c r="D212" s="321"/>
       <c r="E212" s="75"/>
       <c r="F212" s="66"/>
-      <c r="G212" s="82"/>
-      <c r="H212" s="82"/>
-      <c r="I212" s="82"/>
-      <c r="J212" s="82"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="66"/>
       <c r="K212" s="66"/>
       <c r="L212" s="58"/>
       <c r="M212" s="58"/>
@@ -10705,15 +10818,15 @@
     </row>
     <row r="213" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="91"/>
-      <c r="B213" s="90"/>
-      <c r="C213" s="95"/>
-      <c r="D213" s="276"/>
-      <c r="E213" s="75"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="231"/>
+      <c r="D213" s="86"/>
+      <c r="E213" s="85"/>
       <c r="F213" s="66"/>
-      <c r="G213" s="82"/>
-      <c r="H213" s="82"/>
-      <c r="I213" s="82"/>
-      <c r="J213" s="82"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
+      <c r="J213" s="66"/>
       <c r="K213" s="66"/>
       <c r="L213" s="58"/>
       <c r="M213" s="58"/>
@@ -10736,10 +10849,10 @@
     </row>
     <row r="214" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="91"/>
-      <c r="B214" s="90"/>
-      <c r="C214" s="90"/>
-      <c r="D214" s="276"/>
-      <c r="E214" s="78"/>
+      <c r="B214" s="94"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="323"/>
+      <c r="E214" s="75"/>
       <c r="F214" s="66"/>
       <c r="G214" s="82"/>
       <c r="H214" s="82"/>
@@ -10767,10 +10880,10 @@
     </row>
     <row r="215" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="91"/>
-      <c r="B215" s="94"/>
-      <c r="C215" s="90"/>
-      <c r="D215" s="276"/>
-      <c r="E215" s="78"/>
+      <c r="B215" s="90"/>
+      <c r="C215" s="95"/>
+      <c r="D215" s="323"/>
+      <c r="E215" s="75"/>
       <c r="F215" s="66"/>
       <c r="G215" s="82"/>
       <c r="H215" s="82"/>
@@ -10798,10 +10911,10 @@
     </row>
     <row r="216" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="91"/>
-      <c r="B216" s="94"/>
-      <c r="C216" s="90"/>
-      <c r="D216" s="276"/>
-      <c r="E216" s="78"/>
+      <c r="B216" s="90"/>
+      <c r="C216" s="95"/>
+      <c r="D216" s="323"/>
+      <c r="E216" s="75"/>
       <c r="F216" s="66"/>
       <c r="G216" s="82"/>
       <c r="H216" s="82"/>
@@ -10829,10 +10942,10 @@
     </row>
     <row r="217" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="91"/>
-      <c r="B217" s="94"/>
+      <c r="B217" s="90"/>
       <c r="C217" s="90"/>
-      <c r="D217" s="276"/>
-      <c r="E217" s="75"/>
+      <c r="D217" s="323"/>
+      <c r="E217" s="78"/>
       <c r="F217" s="66"/>
       <c r="G217" s="82"/>
       <c r="H217" s="82"/>
@@ -10862,8 +10975,8 @@
       <c r="A218" s="91"/>
       <c r="B218" s="94"/>
       <c r="C218" s="90"/>
-      <c r="D218" s="276"/>
-      <c r="E218" s="75"/>
+      <c r="D218" s="323"/>
+      <c r="E218" s="78"/>
       <c r="F218" s="66"/>
       <c r="G218" s="82"/>
       <c r="H218" s="82"/>
@@ -10892,9 +11005,9 @@
     <row r="219" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="91"/>
       <c r="B219" s="94"/>
-      <c r="C219" s="94"/>
-      <c r="D219" s="276"/>
-      <c r="E219" s="75"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="323"/>
+      <c r="E219" s="78"/>
       <c r="F219" s="66"/>
       <c r="G219" s="82"/>
       <c r="H219" s="82"/>
@@ -10923,8 +11036,8 @@
     <row r="220" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="91"/>
       <c r="B220" s="94"/>
-      <c r="C220" s="94"/>
-      <c r="D220" s="96"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="323"/>
       <c r="E220" s="75"/>
       <c r="F220" s="66"/>
       <c r="G220" s="82"/>
@@ -10933,7 +11046,7 @@
       <c r="J220" s="82"/>
       <c r="K220" s="66"/>
       <c r="L220" s="58"/>
-      <c r="M220" s="66"/>
+      <c r="M220" s="58"/>
       <c r="N220" s="51"/>
       <c r="O220" s="51"/>
       <c r="P220" s="51"/>
@@ -10954,8 +11067,8 @@
     <row r="221" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="91"/>
       <c r="B221" s="94"/>
-      <c r="C221" s="94"/>
-      <c r="D221" s="96"/>
+      <c r="C221" s="90"/>
+      <c r="D221" s="323"/>
       <c r="E221" s="75"/>
       <c r="F221" s="66"/>
       <c r="G221" s="82"/>
@@ -10986,7 +11099,7 @@
       <c r="A222" s="91"/>
       <c r="B222" s="94"/>
       <c r="C222" s="94"/>
-      <c r="D222" s="96"/>
+      <c r="D222" s="323"/>
       <c r="E222" s="75"/>
       <c r="F222" s="66"/>
       <c r="G222" s="82"/>
@@ -11018,7 +11131,7 @@
       <c r="B223" s="94"/>
       <c r="C223" s="94"/>
       <c r="D223" s="96"/>
-      <c r="E223" s="91"/>
+      <c r="E223" s="75"/>
       <c r="F223" s="66"/>
       <c r="G223" s="82"/>
       <c r="H223" s="82"/>
@@ -11026,7 +11139,7 @@
       <c r="J223" s="82"/>
       <c r="K223" s="66"/>
       <c r="L223" s="58"/>
-      <c r="M223" s="58"/>
+      <c r="M223" s="66"/>
       <c r="N223" s="51"/>
       <c r="O223" s="51"/>
       <c r="P223" s="51"/>
@@ -11049,7 +11162,7 @@
       <c r="B224" s="94"/>
       <c r="C224" s="94"/>
       <c r="D224" s="96"/>
-      <c r="E224" s="97"/>
+      <c r="E224" s="75"/>
       <c r="F224" s="66"/>
       <c r="G224" s="82"/>
       <c r="H224" s="82"/>
@@ -11080,7 +11193,7 @@
       <c r="B225" s="94"/>
       <c r="C225" s="94"/>
       <c r="D225" s="96"/>
-      <c r="E225" s="97"/>
+      <c r="E225" s="75"/>
       <c r="F225" s="66"/>
       <c r="G225" s="82"/>
       <c r="H225" s="82"/>
@@ -11111,7 +11224,7 @@
       <c r="B226" s="94"/>
       <c r="C226" s="94"/>
       <c r="D226" s="96"/>
-      <c r="E226" s="97"/>
+      <c r="E226" s="91"/>
       <c r="F226" s="66"/>
       <c r="G226" s="82"/>
       <c r="H226" s="82"/>
@@ -11119,7 +11232,7 @@
       <c r="J226" s="82"/>
       <c r="K226" s="66"/>
       <c r="L226" s="58"/>
-      <c r="M226" s="66"/>
+      <c r="M226" s="58"/>
       <c r="N226" s="51"/>
       <c r="O226" s="51"/>
       <c r="P226" s="51"/>
@@ -11150,7 +11263,7 @@
       <c r="J227" s="82"/>
       <c r="K227" s="66"/>
       <c r="L227" s="58"/>
-      <c r="M227" s="66"/>
+      <c r="M227" s="58"/>
       <c r="N227" s="51"/>
       <c r="O227" s="51"/>
       <c r="P227" s="51"/>
@@ -11173,7 +11286,7 @@
       <c r="B228" s="94"/>
       <c r="C228" s="94"/>
       <c r="D228" s="96"/>
-      <c r="E228" s="98"/>
+      <c r="E228" s="97"/>
       <c r="F228" s="66"/>
       <c r="G228" s="82"/>
       <c r="H228" s="82"/>
@@ -11181,7 +11294,7 @@
       <c r="J228" s="82"/>
       <c r="K228" s="66"/>
       <c r="L228" s="58"/>
-      <c r="M228" s="66"/>
+      <c r="M228" s="58"/>
       <c r="N228" s="51"/>
       <c r="O228" s="51"/>
       <c r="P228" s="51"/>
@@ -11204,7 +11317,7 @@
       <c r="B229" s="94"/>
       <c r="C229" s="94"/>
       <c r="D229" s="96"/>
-      <c r="E229" s="98"/>
+      <c r="E229" s="97"/>
       <c r="F229" s="66"/>
       <c r="G229" s="82"/>
       <c r="H229" s="82"/>
@@ -11235,7 +11348,7 @@
       <c r="B230" s="94"/>
       <c r="C230" s="94"/>
       <c r="D230" s="96"/>
-      <c r="E230" s="98"/>
+      <c r="E230" s="97"/>
       <c r="F230" s="66"/>
       <c r="G230" s="82"/>
       <c r="H230" s="82"/>
@@ -11266,7 +11379,7 @@
       <c r="B231" s="94"/>
       <c r="C231" s="94"/>
       <c r="D231" s="96"/>
-      <c r="E231" s="97"/>
+      <c r="E231" s="98"/>
       <c r="F231" s="66"/>
       <c r="G231" s="82"/>
       <c r="H231" s="82"/>
@@ -11274,7 +11387,7 @@
       <c r="J231" s="82"/>
       <c r="K231" s="66"/>
       <c r="L231" s="58"/>
-      <c r="M231" s="58"/>
+      <c r="M231" s="66"/>
       <c r="N231" s="51"/>
       <c r="O231" s="51"/>
       <c r="P231" s="51"/>
@@ -11297,7 +11410,7 @@
       <c r="B232" s="94"/>
       <c r="C232" s="94"/>
       <c r="D232" s="96"/>
-      <c r="E232" s="97"/>
+      <c r="E232" s="98"/>
       <c r="F232" s="66"/>
       <c r="G232" s="82"/>
       <c r="H232" s="82"/>
@@ -11305,7 +11418,7 @@
       <c r="J232" s="82"/>
       <c r="K232" s="66"/>
       <c r="L232" s="58"/>
-      <c r="M232" s="58"/>
+      <c r="M232" s="66"/>
       <c r="N232" s="51"/>
       <c r="O232" s="51"/>
       <c r="P232" s="51"/>
@@ -11328,7 +11441,7 @@
       <c r="B233" s="94"/>
       <c r="C233" s="94"/>
       <c r="D233" s="96"/>
-      <c r="E233" s="97"/>
+      <c r="E233" s="98"/>
       <c r="F233" s="66"/>
       <c r="G233" s="82"/>
       <c r="H233" s="82"/>
@@ -11336,7 +11449,7 @@
       <c r="J233" s="82"/>
       <c r="K233" s="66"/>
       <c r="L233" s="58"/>
-      <c r="M233" s="58"/>
+      <c r="M233" s="66"/>
       <c r="N233" s="51"/>
       <c r="O233" s="51"/>
       <c r="P233" s="51"/>
@@ -11367,7 +11480,7 @@
       <c r="J234" s="82"/>
       <c r="K234" s="66"/>
       <c r="L234" s="58"/>
-      <c r="M234" s="66"/>
+      <c r="M234" s="58"/>
       <c r="N234" s="51"/>
       <c r="O234" s="51"/>
       <c r="P234" s="51"/>
@@ -11387,10 +11500,10 @@
     </row>
     <row r="235" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="91"/>
-      <c r="B235" s="99"/>
-      <c r="C235" s="100"/>
-      <c r="D235" s="101"/>
-      <c r="E235" s="98"/>
+      <c r="B235" s="94"/>
+      <c r="C235" s="94"/>
+      <c r="D235" s="96"/>
+      <c r="E235" s="97"/>
       <c r="F235" s="66"/>
       <c r="G235" s="82"/>
       <c r="H235" s="82"/>
@@ -11398,7 +11511,7 @@
       <c r="J235" s="82"/>
       <c r="K235" s="66"/>
       <c r="L235" s="58"/>
-      <c r="M235" s="66"/>
+      <c r="M235" s="58"/>
       <c r="N235" s="51"/>
       <c r="O235" s="51"/>
       <c r="P235" s="51"/>
@@ -11419,9 +11532,9 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="91"/>
       <c r="B236" s="94"/>
-      <c r="C236" s="102"/>
-      <c r="D236" s="78"/>
-      <c r="E236" s="103"/>
+      <c r="C236" s="94"/>
+      <c r="D236" s="96"/>
+      <c r="E236" s="97"/>
       <c r="F236" s="66"/>
       <c r="G236" s="82"/>
       <c r="H236" s="82"/>
@@ -11450,9 +11563,9 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="91"/>
       <c r="B237" s="94"/>
-      <c r="C237" s="102"/>
-      <c r="D237" s="78"/>
-      <c r="E237" s="89"/>
+      <c r="C237" s="94"/>
+      <c r="D237" s="96"/>
+      <c r="E237" s="97"/>
       <c r="F237" s="66"/>
       <c r="G237" s="82"/>
       <c r="H237" s="82"/>
@@ -11460,7 +11573,7 @@
       <c r="J237" s="82"/>
       <c r="K237" s="66"/>
       <c r="L237" s="58"/>
-      <c r="M237" s="58"/>
+      <c r="M237" s="66"/>
       <c r="N237" s="51"/>
       <c r="O237" s="51"/>
       <c r="P237" s="51"/>
@@ -11480,10 +11593,10 @@
     </row>
     <row r="238" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="91"/>
-      <c r="B238" s="94"/>
-      <c r="C238" s="102"/>
-      <c r="D238" s="78"/>
-      <c r="E238" s="75"/>
+      <c r="B238" s="99"/>
+      <c r="C238" s="100"/>
+      <c r="D238" s="101"/>
+      <c r="E238" s="98"/>
       <c r="F238" s="66"/>
       <c r="G238" s="82"/>
       <c r="H238" s="82"/>
@@ -11491,7 +11604,7 @@
       <c r="J238" s="82"/>
       <c r="K238" s="66"/>
       <c r="L238" s="58"/>
-      <c r="M238" s="58"/>
+      <c r="M238" s="66"/>
       <c r="N238" s="51"/>
       <c r="O238" s="51"/>
       <c r="P238" s="51"/>
@@ -11512,15 +11625,15 @@
     <row r="239" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="91"/>
       <c r="B239" s="94"/>
-      <c r="C239" s="78"/>
+      <c r="C239" s="102"/>
       <c r="D239" s="78"/>
-      <c r="E239" s="89"/>
+      <c r="E239" s="103"/>
       <c r="F239" s="66"/>
       <c r="G239" s="82"/>
       <c r="H239" s="82"/>
       <c r="I239" s="82"/>
       <c r="J239" s="82"/>
-      <c r="K239" s="82"/>
+      <c r="K239" s="66"/>
       <c r="L239" s="58"/>
       <c r="M239" s="58"/>
       <c r="N239" s="51"/>
@@ -11544,14 +11657,14 @@
       <c r="A240" s="91"/>
       <c r="B240" s="94"/>
       <c r="C240" s="102"/>
-      <c r="D240" s="104"/>
-      <c r="E240" s="75"/>
+      <c r="D240" s="78"/>
+      <c r="E240" s="89"/>
       <c r="F240" s="66"/>
       <c r="G240" s="82"/>
       <c r="H240" s="82"/>
       <c r="I240" s="82"/>
       <c r="J240" s="82"/>
-      <c r="K240" s="82"/>
+      <c r="K240" s="66"/>
       <c r="L240" s="58"/>
       <c r="M240" s="58"/>
       <c r="N240" s="51"/>
@@ -11575,14 +11688,14 @@
       <c r="A241" s="91"/>
       <c r="B241" s="94"/>
       <c r="C241" s="102"/>
-      <c r="D241" s="105"/>
-      <c r="E241" s="103"/>
+      <c r="D241" s="78"/>
+      <c r="E241" s="75"/>
       <c r="F241" s="66"/>
       <c r="G241" s="82"/>
       <c r="H241" s="82"/>
       <c r="I241" s="82"/>
       <c r="J241" s="82"/>
-      <c r="K241" s="82"/>
+      <c r="K241" s="66"/>
       <c r="L241" s="58"/>
       <c r="M241" s="58"/>
       <c r="N241" s="51"/>
@@ -11605,9 +11718,9 @@
     <row r="242" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="91"/>
       <c r="B242" s="94"/>
-      <c r="C242" s="102"/>
-      <c r="D242" s="105"/>
-      <c r="E242" s="75"/>
+      <c r="C242" s="78"/>
+      <c r="D242" s="78"/>
+      <c r="E242" s="89"/>
       <c r="F242" s="66"/>
       <c r="G242" s="82"/>
       <c r="H242" s="82"/>
@@ -11633,11 +11746,11 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="91"/>
       <c r="B243" s="94"/>
       <c r="C243" s="102"/>
-      <c r="D243" s="106"/>
+      <c r="D243" s="104"/>
       <c r="E243" s="75"/>
       <c r="F243" s="66"/>
       <c r="G243" s="82"/>
@@ -11667,9 +11780,9 @@
     <row r="244" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="91"/>
       <c r="B244" s="94"/>
-      <c r="C244" s="78"/>
-      <c r="D244" s="78"/>
-      <c r="E244" s="75"/>
+      <c r="C244" s="102"/>
+      <c r="D244" s="105"/>
+      <c r="E244" s="103"/>
       <c r="F244" s="66"/>
       <c r="G244" s="82"/>
       <c r="H244" s="82"/>
@@ -11698,15 +11811,15 @@
     <row r="245" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="91"/>
       <c r="B245" s="94"/>
-      <c r="C245" s="94"/>
-      <c r="D245" s="90"/>
-      <c r="E245" s="107"/>
+      <c r="C245" s="102"/>
+      <c r="D245" s="105"/>
+      <c r="E245" s="75"/>
       <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="66"/>
-      <c r="I245" s="66"/>
-      <c r="J245" s="66"/>
-      <c r="K245" s="66"/>
+      <c r="G245" s="82"/>
+      <c r="H245" s="82"/>
+      <c r="I245" s="82"/>
+      <c r="J245" s="82"/>
+      <c r="K245" s="82"/>
       <c r="L245" s="58"/>
       <c r="M245" s="58"/>
       <c r="N245" s="51"/>
@@ -11726,18 +11839,18 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="91"/>
       <c r="B246" s="94"/>
-      <c r="C246" s="94"/>
-      <c r="D246" s="90"/>
-      <c r="E246" s="108"/>
-      <c r="F246" s="109"/>
-      <c r="G246" s="109"/>
-      <c r="H246" s="109"/>
-      <c r="I246" s="109"/>
-      <c r="J246" s="109"/>
-      <c r="K246" s="66"/>
+      <c r="C246" s="102"/>
+      <c r="D246" s="106"/>
+      <c r="E246" s="75"/>
+      <c r="F246" s="66"/>
+      <c r="G246" s="82"/>
+      <c r="H246" s="82"/>
+      <c r="I246" s="82"/>
+      <c r="J246" s="82"/>
+      <c r="K246" s="82"/>
       <c r="L246" s="58"/>
       <c r="M246" s="58"/>
       <c r="N246" s="51"/>
@@ -11760,17 +11873,17 @@
     <row r="247" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="91"/>
       <c r="B247" s="94"/>
-      <c r="C247" s="94"/>
-      <c r="D247" s="90"/>
-      <c r="E247" s="108"/>
-      <c r="F247" s="109"/>
-      <c r="G247" s="109"/>
-      <c r="H247" s="109"/>
-      <c r="I247" s="109"/>
-      <c r="J247" s="109"/>
-      <c r="K247" s="66"/>
+      <c r="C247" s="78"/>
+      <c r="D247" s="78"/>
+      <c r="E247" s="75"/>
+      <c r="F247" s="66"/>
+      <c r="G247" s="82"/>
+      <c r="H247" s="82"/>
+      <c r="I247" s="82"/>
+      <c r="J247" s="82"/>
+      <c r="K247" s="82"/>
       <c r="L247" s="58"/>
-      <c r="M247" s="110"/>
+      <c r="M247" s="58"/>
       <c r="N247" s="51"/>
       <c r="O247" s="51"/>
       <c r="P247" s="51"/>
@@ -11793,15 +11906,15 @@
       <c r="B248" s="94"/>
       <c r="C248" s="94"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="108"/>
-      <c r="F248" s="109"/>
-      <c r="G248" s="109"/>
-      <c r="H248" s="109"/>
-      <c r="I248" s="109"/>
-      <c r="J248" s="109"/>
+      <c r="E248" s="107"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="66"/>
+      <c r="I248" s="66"/>
+      <c r="J248" s="66"/>
       <c r="K248" s="66"/>
       <c r="L248" s="58"/>
-      <c r="M248" s="110"/>
+      <c r="M248" s="58"/>
       <c r="N248" s="51"/>
       <c r="O248" s="51"/>
       <c r="P248" s="51"/>
@@ -11832,7 +11945,7 @@
       <c r="J249" s="109"/>
       <c r="K249" s="66"/>
       <c r="L249" s="58"/>
-      <c r="M249" s="110"/>
+      <c r="M249" s="58"/>
       <c r="N249" s="51"/>
       <c r="O249" s="51"/>
       <c r="P249" s="51"/>
@@ -11888,11 +12001,11 @@
       <c r="D251" s="90"/>
       <c r="E251" s="108"/>
       <c r="F251" s="109"/>
-      <c r="G251" s="111"/>
-      <c r="H251" s="111"/>
-      <c r="I251" s="111"/>
-      <c r="J251" s="111"/>
-      <c r="K251" s="112"/>
+      <c r="G251" s="109"/>
+      <c r="H251" s="109"/>
+      <c r="I251" s="109"/>
+      <c r="J251" s="109"/>
+      <c r="K251" s="66"/>
       <c r="L251" s="58"/>
       <c r="M251" s="110"/>
       <c r="N251" s="51"/>
@@ -11918,11 +12031,11 @@
       <c r="C252" s="94"/>
       <c r="D252" s="90"/>
       <c r="E252" s="108"/>
-      <c r="F252" s="113"/>
-      <c r="G252" s="113"/>
-      <c r="H252" s="113"/>
-      <c r="I252" s="113"/>
-      <c r="J252" s="113"/>
+      <c r="F252" s="109"/>
+      <c r="G252" s="109"/>
+      <c r="H252" s="109"/>
+      <c r="I252" s="109"/>
+      <c r="J252" s="109"/>
       <c r="K252" s="66"/>
       <c r="L252" s="58"/>
       <c r="M252" s="110"/>
@@ -11946,14 +12059,14 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="91"/>
       <c r="B253" s="94"/>
-      <c r="C253" s="90"/>
-      <c r="D253" s="114"/>
+      <c r="C253" s="94"/>
+      <c r="D253" s="90"/>
       <c r="E253" s="108"/>
-      <c r="F253" s="113"/>
-      <c r="G253" s="113"/>
-      <c r="H253" s="113"/>
-      <c r="I253" s="113"/>
-      <c r="J253" s="113"/>
+      <c r="F253" s="109"/>
+      <c r="G253" s="109"/>
+      <c r="H253" s="109"/>
+      <c r="I253" s="109"/>
+      <c r="J253" s="109"/>
       <c r="K253" s="66"/>
       <c r="L253" s="58"/>
       <c r="M253" s="110"/>
@@ -11974,18 +12087,18 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="91"/>
-      <c r="B254" s="102"/>
+      <c r="B254" s="94"/>
       <c r="C254" s="94"/>
-      <c r="D254" s="114"/>
-      <c r="E254" s="67"/>
-      <c r="F254" s="113"/>
-      <c r="G254" s="113"/>
-      <c r="H254" s="113"/>
-      <c r="I254" s="113"/>
-      <c r="J254" s="113"/>
-      <c r="K254" s="66"/>
+      <c r="D254" s="90"/>
+      <c r="E254" s="108"/>
+      <c r="F254" s="109"/>
+      <c r="G254" s="111"/>
+      <c r="H254" s="111"/>
+      <c r="I254" s="111"/>
+      <c r="J254" s="111"/>
+      <c r="K254" s="112"/>
       <c r="L254" s="58"/>
       <c r="M254" s="110"/>
       <c r="N254" s="51"/>
@@ -12007,15 +12120,15 @@
     </row>
     <row r="255" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="91"/>
-      <c r="B255" s="102"/>
+      <c r="B255" s="94"/>
       <c r="C255" s="94"/>
       <c r="D255" s="90"/>
-      <c r="E255" s="67"/>
-      <c r="F255" s="60"/>
-      <c r="G255" s="60"/>
-      <c r="H255" s="60"/>
-      <c r="I255" s="60"/>
-      <c r="J255" s="60"/>
+      <c r="E255" s="108"/>
+      <c r="F255" s="113"/>
+      <c r="G255" s="113"/>
+      <c r="H255" s="113"/>
+      <c r="I255" s="113"/>
+      <c r="J255" s="113"/>
       <c r="K255" s="66"/>
       <c r="L255" s="58"/>
       <c r="M255" s="110"/>
@@ -12038,15 +12151,15 @@
     </row>
     <row r="256" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="91"/>
-      <c r="B256" s="102"/>
-      <c r="C256" s="94"/>
-      <c r="D256" s="90"/>
-      <c r="E256" s="67"/>
-      <c r="F256" s="60"/>
-      <c r="G256" s="60"/>
-      <c r="H256" s="60"/>
-      <c r="I256" s="60"/>
-      <c r="J256" s="60"/>
+      <c r="B256" s="94"/>
+      <c r="C256" s="90"/>
+      <c r="D256" s="114"/>
+      <c r="E256" s="108"/>
+      <c r="F256" s="113"/>
+      <c r="G256" s="113"/>
+      <c r="H256" s="113"/>
+      <c r="I256" s="113"/>
+      <c r="J256" s="113"/>
       <c r="K256" s="66"/>
       <c r="L256" s="58"/>
       <c r="M256" s="110"/>
@@ -12067,17 +12180,17 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="91"/>
       <c r="B257" s="102"/>
       <c r="C257" s="94"/>
-      <c r="D257" s="90"/>
+      <c r="D257" s="114"/>
       <c r="E257" s="67"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="60"/>
-      <c r="H257" s="60"/>
-      <c r="I257" s="60"/>
-      <c r="J257" s="60"/>
+      <c r="F257" s="113"/>
+      <c r="G257" s="113"/>
+      <c r="H257" s="113"/>
+      <c r="I257" s="113"/>
+      <c r="J257" s="113"/>
       <c r="K257" s="66"/>
       <c r="L257" s="58"/>
       <c r="M257" s="110"/>
@@ -12104,12 +12217,12 @@
       <c r="C258" s="94"/>
       <c r="D258" s="90"/>
       <c r="E258" s="67"/>
-      <c r="F258" s="113"/>
-      <c r="G258" s="113"/>
-      <c r="H258" s="113"/>
-      <c r="I258" s="113"/>
-      <c r="J258" s="113"/>
-      <c r="K258" s="81"/>
+      <c r="F258" s="60"/>
+      <c r="G258" s="60"/>
+      <c r="H258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="66"/>
       <c r="L258" s="58"/>
       <c r="M258" s="110"/>
       <c r="N258" s="51"/>
@@ -12135,12 +12248,12 @@
       <c r="C259" s="94"/>
       <c r="D259" s="90"/>
       <c r="E259" s="67"/>
-      <c r="F259" s="113"/>
-      <c r="G259" s="113"/>
-      <c r="H259" s="113"/>
-      <c r="I259" s="113"/>
-      <c r="J259" s="113"/>
-      <c r="K259" s="81"/>
+      <c r="F259" s="60"/>
+      <c r="G259" s="60"/>
+      <c r="H259" s="60"/>
+      <c r="I259" s="60"/>
+      <c r="J259" s="60"/>
+      <c r="K259" s="66"/>
       <c r="L259" s="58"/>
       <c r="M259" s="110"/>
       <c r="N259" s="51"/>
@@ -12166,12 +12279,12 @@
       <c r="C260" s="94"/>
       <c r="D260" s="90"/>
       <c r="E260" s="67"/>
-      <c r="F260" s="113"/>
-      <c r="G260" s="113"/>
-      <c r="H260" s="113"/>
-      <c r="I260" s="113"/>
-      <c r="J260" s="113"/>
-      <c r="K260" s="81"/>
+      <c r="F260" s="60"/>
+      <c r="G260" s="60"/>
+      <c r="H260" s="60"/>
+      <c r="I260" s="60"/>
+      <c r="J260" s="60"/>
+      <c r="K260" s="66"/>
       <c r="L260" s="58"/>
       <c r="M260" s="110"/>
       <c r="N260" s="51"/>
@@ -12228,13 +12341,13 @@
       <c r="C262" s="94"/>
       <c r="D262" s="90"/>
       <c r="E262" s="67"/>
-      <c r="F262" s="60"/>
-      <c r="G262" s="115"/>
-      <c r="H262" s="115"/>
-      <c r="I262" s="115"/>
-      <c r="J262" s="115"/>
-      <c r="K262" s="272"/>
-      <c r="L262" s="275"/>
+      <c r="F262" s="113"/>
+      <c r="G262" s="113"/>
+      <c r="H262" s="113"/>
+      <c r="I262" s="113"/>
+      <c r="J262" s="113"/>
+      <c r="K262" s="81"/>
+      <c r="L262" s="58"/>
       <c r="M262" s="110"/>
       <c r="N262" s="51"/>
       <c r="O262" s="51"/>
@@ -12259,13 +12372,13 @@
       <c r="C263" s="94"/>
       <c r="D263" s="90"/>
       <c r="E263" s="67"/>
-      <c r="F263" s="60"/>
-      <c r="G263" s="116"/>
-      <c r="H263" s="116"/>
-      <c r="I263" s="116"/>
-      <c r="J263" s="116"/>
-      <c r="K263" s="272"/>
-      <c r="L263" s="275"/>
+      <c r="F263" s="113"/>
+      <c r="G263" s="113"/>
+      <c r="H263" s="113"/>
+      <c r="I263" s="113"/>
+      <c r="J263" s="113"/>
+      <c r="K263" s="81"/>
+      <c r="L263" s="58"/>
       <c r="M263" s="110"/>
       <c r="N263" s="51"/>
       <c r="O263" s="51"/>
@@ -12290,13 +12403,13 @@
       <c r="C264" s="94"/>
       <c r="D264" s="90"/>
       <c r="E264" s="67"/>
-      <c r="F264" s="60"/>
-      <c r="G264" s="49"/>
-      <c r="H264" s="49"/>
-      <c r="I264" s="49"/>
-      <c r="J264" s="49"/>
-      <c r="K264" s="272"/>
-      <c r="L264" s="275"/>
+      <c r="F264" s="113"/>
+      <c r="G264" s="113"/>
+      <c r="H264" s="113"/>
+      <c r="I264" s="113"/>
+      <c r="J264" s="113"/>
+      <c r="K264" s="81"/>
+      <c r="L264" s="58"/>
       <c r="M264" s="110"/>
       <c r="N264" s="51"/>
       <c r="O264" s="51"/>
@@ -12318,16 +12431,16 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="91"/>
       <c r="B265" s="102"/>
-      <c r="C265" s="117"/>
-      <c r="D265" s="117"/>
+      <c r="C265" s="94"/>
+      <c r="D265" s="90"/>
       <c r="E265" s="67"/>
-      <c r="F265" s="118"/>
-      <c r="G265" s="118"/>
-      <c r="H265" s="118"/>
-      <c r="I265" s="118"/>
-      <c r="J265" s="118"/>
-      <c r="K265" s="109"/>
-      <c r="L265" s="119"/>
+      <c r="F265" s="60"/>
+      <c r="G265" s="115"/>
+      <c r="H265" s="115"/>
+      <c r="I265" s="115"/>
+      <c r="J265" s="115"/>
+      <c r="K265" s="319"/>
+      <c r="L265" s="322"/>
       <c r="M265" s="110"/>
       <c r="N265" s="51"/>
       <c r="O265" s="51"/>
@@ -12349,16 +12462,16 @@
     <row r="266" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="91"/>
       <c r="B266" s="102"/>
-      <c r="C266" s="117"/>
-      <c r="D266" s="117"/>
+      <c r="C266" s="94"/>
+      <c r="D266" s="90"/>
       <c r="E266" s="67"/>
-      <c r="F266" s="49"/>
-      <c r="G266" s="49"/>
-      <c r="H266" s="49"/>
-      <c r="I266" s="49"/>
-      <c r="J266" s="49"/>
-      <c r="K266" s="120"/>
-      <c r="L266" s="57"/>
+      <c r="F266" s="60"/>
+      <c r="G266" s="116"/>
+      <c r="H266" s="116"/>
+      <c r="I266" s="116"/>
+      <c r="J266" s="116"/>
+      <c r="K266" s="319"/>
+      <c r="L266" s="322"/>
       <c r="M266" s="110"/>
       <c r="N266" s="51"/>
       <c r="O266" s="51"/>
@@ -12380,16 +12493,16 @@
     <row r="267" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="91"/>
       <c r="B267" s="102"/>
-      <c r="C267" s="117"/>
-      <c r="D267" s="117"/>
+      <c r="C267" s="94"/>
+      <c r="D267" s="90"/>
       <c r="E267" s="67"/>
-      <c r="F267" s="49"/>
+      <c r="F267" s="60"/>
       <c r="G267" s="49"/>
       <c r="H267" s="49"/>
       <c r="I267" s="49"/>
       <c r="J267" s="49"/>
-      <c r="K267" s="120"/>
-      <c r="L267" s="57"/>
+      <c r="K267" s="319"/>
+      <c r="L267" s="322"/>
       <c r="M267" s="110"/>
       <c r="N267" s="51"/>
       <c r="O267" s="51"/>
@@ -12414,13 +12527,13 @@
       <c r="C268" s="117"/>
       <c r="D268" s="117"/>
       <c r="E268" s="67"/>
-      <c r="F268" s="60"/>
-      <c r="G268" s="60"/>
-      <c r="H268" s="60"/>
-      <c r="I268" s="60"/>
-      <c r="J268" s="60"/>
-      <c r="K268" s="66"/>
-      <c r="L268" s="58"/>
+      <c r="F268" s="118"/>
+      <c r="G268" s="118"/>
+      <c r="H268" s="118"/>
+      <c r="I268" s="118"/>
+      <c r="J268" s="118"/>
+      <c r="K268" s="109"/>
+      <c r="L268" s="119"/>
       <c r="M268" s="110"/>
       <c r="N268" s="51"/>
       <c r="O268" s="51"/>
@@ -12445,13 +12558,13 @@
       <c r="C269" s="117"/>
       <c r="D269" s="117"/>
       <c r="E269" s="67"/>
-      <c r="F269" s="60"/>
-      <c r="G269" s="60"/>
-      <c r="H269" s="60"/>
-      <c r="I269" s="60"/>
-      <c r="J269" s="60"/>
-      <c r="K269" s="66"/>
-      <c r="L269" s="58"/>
+      <c r="F269" s="49"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="49"/>
+      <c r="I269" s="49"/>
+      <c r="J269" s="49"/>
+      <c r="K269" s="120"/>
+      <c r="L269" s="57"/>
       <c r="M269" s="110"/>
       <c r="N269" s="51"/>
       <c r="O269" s="51"/>
@@ -12476,13 +12589,13 @@
       <c r="C270" s="117"/>
       <c r="D270" s="117"/>
       <c r="E270" s="67"/>
-      <c r="F270" s="60"/>
-      <c r="G270" s="60"/>
-      <c r="H270" s="60"/>
-      <c r="I270" s="60"/>
-      <c r="J270" s="60"/>
-      <c r="K270" s="66"/>
-      <c r="L270" s="58"/>
+      <c r="F270" s="49"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="49"/>
+      <c r="I270" s="49"/>
+      <c r="J270" s="49"/>
+      <c r="K270" s="120"/>
+      <c r="L270" s="57"/>
       <c r="M270" s="110"/>
       <c r="N270" s="51"/>
       <c r="O270" s="51"/>
@@ -12504,9 +12617,9 @@
     <row r="271" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="91"/>
       <c r="B271" s="102"/>
-      <c r="C271" s="268"/>
-      <c r="D271" s="90"/>
-      <c r="E271" s="277"/>
+      <c r="C271" s="117"/>
+      <c r="D271" s="117"/>
+      <c r="E271" s="67"/>
       <c r="F271" s="60"/>
       <c r="G271" s="60"/>
       <c r="H271" s="60"/>
@@ -12535,9 +12648,9 @@
     <row r="272" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="91"/>
       <c r="B272" s="102"/>
-      <c r="C272" s="268"/>
-      <c r="D272" s="90"/>
-      <c r="E272" s="277"/>
+      <c r="C272" s="117"/>
+      <c r="D272" s="117"/>
+      <c r="E272" s="67"/>
       <c r="F272" s="60"/>
       <c r="G272" s="60"/>
       <c r="H272" s="60"/>
@@ -12566,9 +12679,9 @@
     <row r="273" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="91"/>
       <c r="B273" s="102"/>
-      <c r="C273" s="268"/>
-      <c r="D273" s="90"/>
-      <c r="E273" s="277"/>
+      <c r="C273" s="117"/>
+      <c r="D273" s="117"/>
+      <c r="E273" s="67"/>
       <c r="F273" s="60"/>
       <c r="G273" s="60"/>
       <c r="H273" s="60"/>
@@ -12597,9 +12710,9 @@
     <row r="274" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="91"/>
       <c r="B274" s="102"/>
-      <c r="C274" s="268"/>
+      <c r="C274" s="324"/>
       <c r="D274" s="90"/>
-      <c r="E274" s="67"/>
+      <c r="E274" s="325"/>
       <c r="F274" s="60"/>
       <c r="G274" s="60"/>
       <c r="H274" s="60"/>
@@ -12628,9 +12741,9 @@
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="91"/>
       <c r="B275" s="102"/>
-      <c r="C275" s="268"/>
+      <c r="C275" s="324"/>
       <c r="D275" s="90"/>
-      <c r="E275" s="67"/>
+      <c r="E275" s="325"/>
       <c r="F275" s="60"/>
       <c r="G275" s="60"/>
       <c r="H275" s="60"/>
@@ -12659,15 +12772,15 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="91"/>
       <c r="B276" s="102"/>
-      <c r="C276" s="268"/>
+      <c r="C276" s="324"/>
       <c r="D276" s="90"/>
-      <c r="E276" s="67"/>
-      <c r="F276" s="113"/>
-      <c r="G276" s="113"/>
-      <c r="H276" s="113"/>
-      <c r="I276" s="113"/>
-      <c r="J276" s="113"/>
-      <c r="K276" s="81"/>
+      <c r="E276" s="325"/>
+      <c r="F276" s="60"/>
+      <c r="G276" s="60"/>
+      <c r="H276" s="60"/>
+      <c r="I276" s="60"/>
+      <c r="J276" s="60"/>
+      <c r="K276" s="66"/>
       <c r="L276" s="58"/>
       <c r="M276" s="110"/>
       <c r="N276" s="51"/>
@@ -12690,7 +12803,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="91"/>
       <c r="B277" s="102"/>
-      <c r="C277" s="268"/>
+      <c r="C277" s="324"/>
       <c r="D277" s="90"/>
       <c r="E277" s="67"/>
       <c r="F277" s="60"/>
@@ -12721,15 +12834,15 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="91"/>
       <c r="B278" s="102"/>
-      <c r="C278" s="269"/>
-      <c r="D278" s="100"/>
+      <c r="C278" s="324"/>
+      <c r="D278" s="90"/>
       <c r="E278" s="67"/>
-      <c r="F278" s="113"/>
-      <c r="G278" s="113"/>
-      <c r="H278" s="113"/>
-      <c r="I278" s="113"/>
-      <c r="J278" s="113"/>
-      <c r="K278" s="81"/>
+      <c r="F278" s="60"/>
+      <c r="G278" s="60"/>
+      <c r="H278" s="60"/>
+      <c r="I278" s="60"/>
+      <c r="J278" s="60"/>
+      <c r="K278" s="66"/>
       <c r="L278" s="58"/>
       <c r="M278" s="110"/>
       <c r="N278" s="51"/>
@@ -12752,8 +12865,8 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="91"/>
       <c r="B279" s="102"/>
-      <c r="C279" s="269"/>
-      <c r="D279" s="121"/>
+      <c r="C279" s="324"/>
+      <c r="D279" s="90"/>
       <c r="E279" s="67"/>
       <c r="F279" s="113"/>
       <c r="G279" s="113"/>
@@ -12783,17 +12896,17 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="91"/>
       <c r="B280" s="102"/>
-      <c r="C280" s="90"/>
+      <c r="C280" s="324"/>
       <c r="D280" s="90"/>
       <c r="E280" s="67"/>
-      <c r="F280" s="122"/>
-      <c r="G280" s="122"/>
-      <c r="H280" s="122"/>
-      <c r="I280" s="122"/>
-      <c r="J280" s="122"/>
-      <c r="K280" s="120"/>
-      <c r="L280" s="57"/>
-      <c r="M280" s="80"/>
+      <c r="F280" s="60"/>
+      <c r="G280" s="60"/>
+      <c r="H280" s="60"/>
+      <c r="I280" s="60"/>
+      <c r="J280" s="60"/>
+      <c r="K280" s="66"/>
+      <c r="L280" s="58"/>
+      <c r="M280" s="110"/>
       <c r="N280" s="51"/>
       <c r="O280" s="51"/>
       <c r="P280" s="51"/>
@@ -12811,20 +12924,20 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="91"/>
       <c r="B281" s="102"/>
-      <c r="C281" s="269"/>
+      <c r="C281" s="318"/>
       <c r="D281" s="100"/>
       <c r="E281" s="67"/>
-      <c r="F281" s="60"/>
-      <c r="G281" s="60"/>
-      <c r="H281" s="60"/>
-      <c r="I281" s="60"/>
-      <c r="J281" s="60"/>
-      <c r="K281" s="66"/>
+      <c r="F281" s="113"/>
+      <c r="G281" s="113"/>
+      <c r="H281" s="113"/>
+      <c r="I281" s="113"/>
+      <c r="J281" s="113"/>
+      <c r="K281" s="81"/>
       <c r="L281" s="58"/>
-      <c r="M281" s="80"/>
+      <c r="M281" s="110"/>
       <c r="N281" s="51"/>
       <c r="O281" s="51"/>
       <c r="P281" s="51"/>
@@ -12845,17 +12958,17 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="91"/>
       <c r="B282" s="102"/>
-      <c r="C282" s="269"/>
-      <c r="D282" s="101"/>
+      <c r="C282" s="318"/>
+      <c r="D282" s="121"/>
       <c r="E282" s="67"/>
-      <c r="F282" s="60"/>
-      <c r="G282" s="60"/>
-      <c r="H282" s="60"/>
-      <c r="I282" s="60"/>
-      <c r="J282" s="60"/>
-      <c r="K282" s="66"/>
+      <c r="F282" s="113"/>
+      <c r="G282" s="113"/>
+      <c r="H282" s="113"/>
+      <c r="I282" s="113"/>
+      <c r="J282" s="113"/>
+      <c r="K282" s="81"/>
       <c r="L282" s="58"/>
-      <c r="M282" s="80"/>
+      <c r="M282" s="110"/>
       <c r="N282" s="51"/>
       <c r="O282" s="51"/>
       <c r="P282" s="51"/>
@@ -12876,16 +12989,16 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="91"/>
       <c r="B283" s="102"/>
-      <c r="C283" s="269"/>
-      <c r="D283" s="101"/>
+      <c r="C283" s="90"/>
+      <c r="D283" s="90"/>
       <c r="E283" s="67"/>
-      <c r="F283" s="60"/>
-      <c r="G283" s="60"/>
-      <c r="H283" s="60"/>
-      <c r="I283" s="60"/>
-      <c r="J283" s="60"/>
-      <c r="K283" s="66"/>
-      <c r="L283" s="58"/>
+      <c r="F283" s="122"/>
+      <c r="G283" s="122"/>
+      <c r="H283" s="122"/>
+      <c r="I283" s="122"/>
+      <c r="J283" s="122"/>
+      <c r="K283" s="120"/>
+      <c r="L283" s="57"/>
       <c r="M283" s="80"/>
       <c r="N283" s="51"/>
       <c r="O283" s="51"/>
@@ -12904,18 +13017,18 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="91"/>
       <c r="B284" s="102"/>
-      <c r="C284" s="269"/>
-      <c r="D284" s="101"/>
+      <c r="C284" s="318"/>
+      <c r="D284" s="100"/>
       <c r="E284" s="67"/>
-      <c r="F284" s="113"/>
-      <c r="G284" s="113"/>
-      <c r="H284" s="113"/>
-      <c r="I284" s="113"/>
-      <c r="J284" s="113"/>
-      <c r="K284" s="81"/>
+      <c r="F284" s="60"/>
+      <c r="G284" s="60"/>
+      <c r="H284" s="60"/>
+      <c r="I284" s="60"/>
+      <c r="J284" s="60"/>
+      <c r="K284" s="66"/>
       <c r="L284" s="58"/>
       <c r="M284" s="80"/>
       <c r="N284" s="51"/>
@@ -12938,9 +13051,9 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="91"/>
       <c r="B285" s="102"/>
-      <c r="C285" s="269"/>
+      <c r="C285" s="318"/>
       <c r="D285" s="101"/>
-      <c r="E285" s="123"/>
+      <c r="E285" s="67"/>
       <c r="F285" s="60"/>
       <c r="G285" s="60"/>
       <c r="H285" s="60"/>
@@ -12969,8 +13082,8 @@
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="91"/>
       <c r="B286" s="102"/>
-      <c r="C286" s="121"/>
-      <c r="D286" s="121"/>
+      <c r="C286" s="318"/>
+      <c r="D286" s="101"/>
       <c r="E286" s="67"/>
       <c r="F286" s="60"/>
       <c r="G286" s="60"/>
@@ -13000,15 +13113,15 @@
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="91"/>
       <c r="B287" s="102"/>
-      <c r="C287" s="94"/>
-      <c r="D287" s="94"/>
+      <c r="C287" s="318"/>
+      <c r="D287" s="101"/>
       <c r="E287" s="67"/>
-      <c r="F287" s="60"/>
-      <c r="G287" s="60"/>
-      <c r="H287" s="60"/>
-      <c r="I287" s="60"/>
-      <c r="J287" s="60"/>
-      <c r="K287" s="66"/>
+      <c r="F287" s="113"/>
+      <c r="G287" s="113"/>
+      <c r="H287" s="113"/>
+      <c r="I287" s="113"/>
+      <c r="J287" s="113"/>
+      <c r="K287" s="81"/>
       <c r="L287" s="58"/>
       <c r="M287" s="80"/>
       <c r="N287" s="51"/>
@@ -13031,9 +13144,9 @@
     <row r="288" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="91"/>
       <c r="B288" s="102"/>
-      <c r="C288" s="94"/>
-      <c r="D288" s="94"/>
-      <c r="E288" s="67"/>
+      <c r="C288" s="318"/>
+      <c r="D288" s="101"/>
+      <c r="E288" s="123"/>
       <c r="F288" s="60"/>
       <c r="G288" s="60"/>
       <c r="H288" s="60"/>
@@ -13062,15 +13175,15 @@
     <row r="289" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="91"/>
       <c r="B289" s="102"/>
-      <c r="C289" s="94"/>
-      <c r="D289" s="94"/>
+      <c r="C289" s="121"/>
+      <c r="D289" s="121"/>
       <c r="E289" s="67"/>
-      <c r="F289" s="113"/>
-      <c r="G289" s="113"/>
-      <c r="H289" s="113"/>
-      <c r="I289" s="113"/>
-      <c r="J289" s="113"/>
-      <c r="K289" s="81"/>
+      <c r="F289" s="60"/>
+      <c r="G289" s="60"/>
+      <c r="H289" s="60"/>
+      <c r="I289" s="60"/>
+      <c r="J289" s="60"/>
+      <c r="K289" s="66"/>
       <c r="L289" s="58"/>
       <c r="M289" s="80"/>
       <c r="N289" s="51"/>
@@ -13096,11 +13209,11 @@
       <c r="C290" s="94"/>
       <c r="D290" s="94"/>
       <c r="E290" s="67"/>
-      <c r="F290" s="113"/>
-      <c r="G290" s="113"/>
-      <c r="H290" s="113"/>
-      <c r="I290" s="113"/>
-      <c r="J290" s="113"/>
+      <c r="F290" s="60"/>
+      <c r="G290" s="60"/>
+      <c r="H290" s="60"/>
+      <c r="I290" s="60"/>
+      <c r="J290" s="60"/>
       <c r="K290" s="66"/>
       <c r="L290" s="58"/>
       <c r="M290" s="80"/>
@@ -13127,12 +13240,12 @@
       <c r="C291" s="94"/>
       <c r="D291" s="94"/>
       <c r="E291" s="67"/>
-      <c r="F291" s="113"/>
-      <c r="G291" s="113"/>
-      <c r="H291" s="113"/>
-      <c r="I291" s="113"/>
-      <c r="J291" s="113"/>
-      <c r="K291" s="81"/>
+      <c r="F291" s="60"/>
+      <c r="G291" s="60"/>
+      <c r="H291" s="60"/>
+      <c r="I291" s="60"/>
+      <c r="J291" s="60"/>
+      <c r="K291" s="66"/>
       <c r="L291" s="58"/>
       <c r="M291" s="80"/>
       <c r="N291" s="51"/>
@@ -13194,7 +13307,7 @@
       <c r="H293" s="113"/>
       <c r="I293" s="113"/>
       <c r="J293" s="113"/>
-      <c r="K293" s="81"/>
+      <c r="K293" s="66"/>
       <c r="L293" s="58"/>
       <c r="M293" s="80"/>
       <c r="N293" s="51"/>
@@ -13220,13 +13333,13 @@
       <c r="C294" s="94"/>
       <c r="D294" s="94"/>
       <c r="E294" s="67"/>
-      <c r="F294" s="116"/>
-      <c r="G294" s="116"/>
-      <c r="H294" s="116"/>
-      <c r="I294" s="116"/>
-      <c r="J294" s="116"/>
-      <c r="K294" s="124"/>
-      <c r="L294" s="125"/>
+      <c r="F294" s="113"/>
+      <c r="G294" s="113"/>
+      <c r="H294" s="113"/>
+      <c r="I294" s="113"/>
+      <c r="J294" s="113"/>
+      <c r="K294" s="81"/>
+      <c r="L294" s="58"/>
       <c r="M294" s="80"/>
       <c r="N294" s="51"/>
       <c r="O294" s="51"/>
@@ -13251,13 +13364,13 @@
       <c r="C295" s="94"/>
       <c r="D295" s="94"/>
       <c r="E295" s="67"/>
-      <c r="F295" s="49"/>
-      <c r="G295" s="49"/>
-      <c r="H295" s="49"/>
-      <c r="I295" s="49"/>
-      <c r="J295" s="49"/>
-      <c r="K295" s="120"/>
-      <c r="L295" s="57"/>
+      <c r="F295" s="113"/>
+      <c r="G295" s="113"/>
+      <c r="H295" s="113"/>
+      <c r="I295" s="113"/>
+      <c r="J295" s="113"/>
+      <c r="K295" s="81"/>
+      <c r="L295" s="58"/>
       <c r="M295" s="80"/>
       <c r="N295" s="51"/>
       <c r="O295" s="51"/>
@@ -13310,16 +13423,16 @@
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="91"/>
       <c r="B297" s="102"/>
-      <c r="C297" s="102"/>
-      <c r="D297" s="102"/>
+      <c r="C297" s="94"/>
+      <c r="D297" s="94"/>
       <c r="E297" s="67"/>
-      <c r="F297" s="113"/>
-      <c r="G297" s="113"/>
-      <c r="H297" s="113"/>
-      <c r="I297" s="113"/>
-      <c r="J297" s="113"/>
-      <c r="K297" s="278"/>
-      <c r="L297" s="58"/>
+      <c r="F297" s="116"/>
+      <c r="G297" s="116"/>
+      <c r="H297" s="116"/>
+      <c r="I297" s="116"/>
+      <c r="J297" s="116"/>
+      <c r="K297" s="124"/>
+      <c r="L297" s="125"/>
       <c r="M297" s="80"/>
       <c r="N297" s="51"/>
       <c r="O297" s="51"/>
@@ -13344,13 +13457,13 @@
       <c r="C298" s="94"/>
       <c r="D298" s="94"/>
       <c r="E298" s="67"/>
-      <c r="F298" s="113"/>
-      <c r="G298" s="113"/>
-      <c r="H298" s="113"/>
-      <c r="I298" s="113"/>
-      <c r="J298" s="113"/>
-      <c r="K298" s="278"/>
-      <c r="L298" s="58"/>
+      <c r="F298" s="49"/>
+      <c r="G298" s="49"/>
+      <c r="H298" s="49"/>
+      <c r="I298" s="49"/>
+      <c r="J298" s="49"/>
+      <c r="K298" s="120"/>
+      <c r="L298" s="57"/>
       <c r="M298" s="80"/>
       <c r="N298" s="51"/>
       <c r="O298" s="51"/>
@@ -13403,16 +13516,16 @@
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="91"/>
       <c r="B300" s="102"/>
-      <c r="C300" s="94"/>
-      <c r="D300" s="94"/>
+      <c r="C300" s="102"/>
+      <c r="D300" s="102"/>
       <c r="E300" s="67"/>
-      <c r="F300" s="122"/>
-      <c r="G300" s="122"/>
-      <c r="H300" s="122"/>
-      <c r="I300" s="122"/>
-      <c r="J300" s="122"/>
-      <c r="K300" s="120"/>
-      <c r="L300" s="57"/>
+      <c r="F300" s="113"/>
+      <c r="G300" s="113"/>
+      <c r="H300" s="113"/>
+      <c r="I300" s="113"/>
+      <c r="J300" s="113"/>
+      <c r="K300" s="326"/>
+      <c r="L300" s="58"/>
       <c r="M300" s="80"/>
       <c r="N300" s="51"/>
       <c r="O300" s="51"/>
@@ -13434,15 +13547,15 @@
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="91"/>
       <c r="B301" s="102"/>
-      <c r="C301" s="269"/>
-      <c r="D301" s="100"/>
+      <c r="C301" s="94"/>
+      <c r="D301" s="94"/>
       <c r="E301" s="67"/>
       <c r="F301" s="113"/>
       <c r="G301" s="113"/>
       <c r="H301" s="113"/>
       <c r="I301" s="113"/>
       <c r="J301" s="113"/>
-      <c r="K301" s="272"/>
+      <c r="K301" s="326"/>
       <c r="L301" s="58"/>
       <c r="M301" s="80"/>
       <c r="N301" s="51"/>
@@ -13465,15 +13578,15 @@
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="91"/>
       <c r="B302" s="102"/>
-      <c r="C302" s="269"/>
-      <c r="D302" s="121"/>
+      <c r="C302" s="94"/>
+      <c r="D302" s="94"/>
       <c r="E302" s="67"/>
       <c r="F302" s="113"/>
       <c r="G302" s="113"/>
       <c r="H302" s="113"/>
       <c r="I302" s="113"/>
       <c r="J302" s="113"/>
-      <c r="K302" s="272"/>
+      <c r="K302" s="81"/>
       <c r="L302" s="58"/>
       <c r="M302" s="80"/>
       <c r="N302" s="51"/>
@@ -13496,16 +13609,16 @@
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="91"/>
       <c r="B303" s="102"/>
-      <c r="C303" s="268"/>
-      <c r="D303" s="114"/>
-      <c r="E303" s="78"/>
-      <c r="F303" s="66"/>
-      <c r="G303" s="66"/>
-      <c r="H303" s="66"/>
-      <c r="I303" s="66"/>
-      <c r="J303" s="66"/>
-      <c r="K303" s="66"/>
-      <c r="L303" s="58"/>
+      <c r="C303" s="94"/>
+      <c r="D303" s="94"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="122"/>
+      <c r="G303" s="122"/>
+      <c r="H303" s="122"/>
+      <c r="I303" s="122"/>
+      <c r="J303" s="122"/>
+      <c r="K303" s="120"/>
+      <c r="L303" s="57"/>
       <c r="M303" s="80"/>
       <c r="N303" s="51"/>
       <c r="O303" s="51"/>
@@ -13527,15 +13640,15 @@
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="91"/>
       <c r="B304" s="102"/>
-      <c r="C304" s="268"/>
-      <c r="D304" s="77"/>
-      <c r="E304" s="78"/>
-      <c r="F304" s="66"/>
-      <c r="G304" s="66"/>
-      <c r="H304" s="66"/>
-      <c r="I304" s="66"/>
-      <c r="J304" s="66"/>
-      <c r="K304" s="66"/>
+      <c r="C304" s="318"/>
+      <c r="D304" s="100"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="113"/>
+      <c r="G304" s="113"/>
+      <c r="H304" s="113"/>
+      <c r="I304" s="113"/>
+      <c r="J304" s="113"/>
+      <c r="K304" s="319"/>
       <c r="L304" s="58"/>
       <c r="M304" s="80"/>
       <c r="N304" s="51"/>
@@ -13558,15 +13671,15 @@
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="91"/>
       <c r="B305" s="102"/>
-      <c r="C305" s="94"/>
-      <c r="D305" s="94"/>
-      <c r="E305" s="78"/>
-      <c r="F305" s="66"/>
-      <c r="G305" s="66"/>
-      <c r="H305" s="66"/>
-      <c r="I305" s="66"/>
-      <c r="J305" s="66"/>
-      <c r="K305" s="66"/>
+      <c r="C305" s="318"/>
+      <c r="D305" s="121"/>
+      <c r="E305" s="67"/>
+      <c r="F305" s="113"/>
+      <c r="G305" s="113"/>
+      <c r="H305" s="113"/>
+      <c r="I305" s="113"/>
+      <c r="J305" s="113"/>
+      <c r="K305" s="319"/>
       <c r="L305" s="58"/>
       <c r="M305" s="80"/>
       <c r="N305" s="51"/>
@@ -13589,8 +13702,8 @@
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="91"/>
       <c r="B306" s="102"/>
-      <c r="C306" s="269"/>
-      <c r="D306" s="100"/>
+      <c r="C306" s="324"/>
+      <c r="D306" s="114"/>
       <c r="E306" s="78"/>
       <c r="F306" s="66"/>
       <c r="G306" s="66"/>
@@ -13620,8 +13733,8 @@
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="91"/>
       <c r="B307" s="102"/>
-      <c r="C307" s="269"/>
-      <c r="D307" s="101"/>
+      <c r="C307" s="324"/>
+      <c r="D307" s="77"/>
       <c r="E307" s="78"/>
       <c r="F307" s="66"/>
       <c r="G307" s="66"/>
@@ -13651,8 +13764,8 @@
     <row r="308" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="91"/>
       <c r="B308" s="102"/>
-      <c r="C308" s="269"/>
-      <c r="D308" s="121"/>
+      <c r="C308" s="94"/>
+      <c r="D308" s="94"/>
       <c r="E308" s="78"/>
       <c r="F308" s="66"/>
       <c r="G308" s="66"/>
@@ -13679,42 +13792,42 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" s="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="126"/>
-      <c r="B309" s="127"/>
-      <c r="C309" s="128"/>
-      <c r="D309" s="128"/>
-      <c r="E309" s="108"/>
-      <c r="F309" s="129"/>
-      <c r="G309" s="129"/>
-      <c r="H309" s="129"/>
-      <c r="I309" s="129"/>
-      <c r="J309" s="129"/>
-      <c r="K309" s="130"/>
-      <c r="L309" s="131"/>
-      <c r="M309" s="132"/>
-      <c r="N309" s="54"/>
-      <c r="O309" s="54"/>
-      <c r="P309" s="54"/>
-      <c r="Q309" s="54"/>
-      <c r="R309" s="54"/>
-      <c r="S309" s="54"/>
-      <c r="T309" s="54"/>
-      <c r="U309" s="65"/>
-      <c r="V309" s="65"/>
-      <c r="W309" s="65"/>
-      <c r="X309" s="65"/>
-      <c r="Y309" s="65"/>
-      <c r="Z309" s="65"/>
-      <c r="AA309" s="65"/>
-      <c r="AB309" s="65"/>
-      <c r="AC309" s="65"/>
+    <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="91"/>
+      <c r="B309" s="102"/>
+      <c r="C309" s="318"/>
+      <c r="D309" s="100"/>
+      <c r="E309" s="78"/>
+      <c r="F309" s="66"/>
+      <c r="G309" s="66"/>
+      <c r="H309" s="66"/>
+      <c r="I309" s="66"/>
+      <c r="J309" s="66"/>
+      <c r="K309" s="66"/>
+      <c r="L309" s="58"/>
+      <c r="M309" s="80"/>
+      <c r="N309" s="51"/>
+      <c r="O309" s="51"/>
+      <c r="P309" s="51"/>
+      <c r="Q309" s="51"/>
+      <c r="R309" s="51"/>
+      <c r="S309" s="51"/>
+      <c r="T309" s="51"/>
+      <c r="U309" s="3"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
+      <c r="Y309" s="3"/>
+      <c r="Z309" s="3"/>
+      <c r="AA309" s="3"/>
+      <c r="AB309" s="3"/>
+      <c r="AC309" s="3"/>
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="97"/>
-      <c r="B310" s="117"/>
-      <c r="C310" s="117"/>
-      <c r="D310" s="117"/>
+      <c r="A310" s="91"/>
+      <c r="B310" s="102"/>
+      <c r="C310" s="318"/>
+      <c r="D310" s="101"/>
       <c r="E310" s="78"/>
       <c r="F310" s="66"/>
       <c r="G310" s="66"/>
@@ -13723,29 +13836,29 @@
       <c r="J310" s="66"/>
       <c r="K310" s="66"/>
       <c r="L310" s="58"/>
-      <c r="M310" s="58"/>
-      <c r="N310" s="58"/>
-      <c r="O310" s="58"/>
-      <c r="P310" s="58"/>
-      <c r="Q310" s="58"/>
-      <c r="R310" s="58"/>
-      <c r="S310" s="58"/>
-      <c r="T310" s="58"/>
-      <c r="U310" s="97"/>
-      <c r="V310" s="97"/>
-      <c r="W310" s="97"/>
-      <c r="X310" s="97"/>
-      <c r="Y310" s="97"/>
-      <c r="Z310" s="97"/>
-      <c r="AA310" s="97"/>
-      <c r="AB310" s="97"/>
-      <c r="AC310" s="97"/>
+      <c r="M310" s="80"/>
+      <c r="N310" s="51"/>
+      <c r="O310" s="51"/>
+      <c r="P310" s="51"/>
+      <c r="Q310" s="51"/>
+      <c r="R310" s="51"/>
+      <c r="S310" s="51"/>
+      <c r="T310" s="51"/>
+      <c r="U310" s="3"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
+      <c r="Y310" s="3"/>
+      <c r="Z310" s="3"/>
+      <c r="AA310" s="3"/>
+      <c r="AB310" s="3"/>
+      <c r="AC310" s="3"/>
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="97"/>
-      <c r="B311" s="117"/>
-      <c r="C311" s="117"/>
-      <c r="D311" s="117"/>
+      <c r="A311" s="91"/>
+      <c r="B311" s="102"/>
+      <c r="C311" s="318"/>
+      <c r="D311" s="121"/>
       <c r="E311" s="78"/>
       <c r="F311" s="66"/>
       <c r="G311" s="66"/>
@@ -13754,54 +13867,54 @@
       <c r="J311" s="66"/>
       <c r="K311" s="66"/>
       <c r="L311" s="58"/>
-      <c r="M311" s="58"/>
-      <c r="N311" s="58"/>
-      <c r="O311" s="58"/>
-      <c r="P311" s="58"/>
-      <c r="Q311" s="58"/>
-      <c r="R311" s="58"/>
-      <c r="S311" s="58"/>
-      <c r="T311" s="58"/>
-      <c r="U311" s="97"/>
-      <c r="V311" s="97"/>
-      <c r="W311" s="97"/>
-      <c r="X311" s="97"/>
-      <c r="Y311" s="97"/>
-      <c r="Z311" s="97"/>
-      <c r="AA311" s="97"/>
-      <c r="AB311" s="97"/>
-      <c r="AC311" s="97"/>
-    </row>
-    <row r="312" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="97"/>
-      <c r="B312" s="117"/>
-      <c r="C312" s="117"/>
-      <c r="D312" s="117"/>
-      <c r="E312" s="78"/>
-      <c r="F312" s="66"/>
-      <c r="G312" s="66"/>
-      <c r="H312" s="66"/>
-      <c r="I312" s="66"/>
-      <c r="J312" s="66"/>
-      <c r="K312" s="66"/>
-      <c r="L312" s="58"/>
-      <c r="M312" s="58"/>
-      <c r="N312" s="58"/>
-      <c r="O312" s="58"/>
-      <c r="P312" s="58"/>
-      <c r="Q312" s="58"/>
-      <c r="R312" s="58"/>
-      <c r="S312" s="58"/>
-      <c r="T312" s="58"/>
-      <c r="U312" s="97"/>
-      <c r="V312" s="97"/>
-      <c r="W312" s="97"/>
-      <c r="X312" s="97"/>
-      <c r="Y312" s="97"/>
-      <c r="Z312" s="97"/>
-      <c r="AA312" s="97"/>
-      <c r="AB312" s="97"/>
-      <c r="AC312" s="97"/>
+      <c r="M311" s="80"/>
+      <c r="N311" s="51"/>
+      <c r="O311" s="51"/>
+      <c r="P311" s="51"/>
+      <c r="Q311" s="51"/>
+      <c r="R311" s="51"/>
+      <c r="S311" s="51"/>
+      <c r="T311" s="51"/>
+      <c r="U311" s="3"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
+      <c r="Y311" s="3"/>
+      <c r="Z311" s="3"/>
+      <c r="AA311" s="3"/>
+      <c r="AB311" s="3"/>
+      <c r="AC311" s="3"/>
+    </row>
+    <row r="312" spans="1:29" s="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="126"/>
+      <c r="B312" s="127"/>
+      <c r="C312" s="128"/>
+      <c r="D312" s="128"/>
+      <c r="E312" s="108"/>
+      <c r="F312" s="129"/>
+      <c r="G312" s="129"/>
+      <c r="H312" s="129"/>
+      <c r="I312" s="129"/>
+      <c r="J312" s="129"/>
+      <c r="K312" s="130"/>
+      <c r="L312" s="131"/>
+      <c r="M312" s="132"/>
+      <c r="N312" s="54"/>
+      <c r="O312" s="54"/>
+      <c r="P312" s="54"/>
+      <c r="Q312" s="54"/>
+      <c r="R312" s="54"/>
+      <c r="S312" s="54"/>
+      <c r="T312" s="54"/>
+      <c r="U312" s="65"/>
+      <c r="V312" s="65"/>
+      <c r="W312" s="65"/>
+      <c r="X312" s="65"/>
+      <c r="Y312" s="65"/>
+      <c r="Z312" s="65"/>
+      <c r="AA312" s="65"/>
+      <c r="AB312" s="65"/>
+      <c r="AC312" s="65"/>
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="97"/>
@@ -13809,13 +13922,13 @@
       <c r="C313" s="117"/>
       <c r="D313" s="117"/>
       <c r="E313" s="78"/>
-      <c r="F313" s="134"/>
-      <c r="G313" s="134"/>
-      <c r="H313" s="134"/>
-      <c r="I313" s="134"/>
-      <c r="J313" s="134"/>
-      <c r="K313" s="134"/>
-      <c r="L313" s="119"/>
+      <c r="F313" s="66"/>
+      <c r="G313" s="66"/>
+      <c r="H313" s="66"/>
+      <c r="I313" s="66"/>
+      <c r="J313" s="66"/>
+      <c r="K313" s="66"/>
+      <c r="L313" s="58"/>
       <c r="M313" s="58"/>
       <c r="N313" s="58"/>
       <c r="O313" s="58"/>
@@ -13836,18 +13949,18 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="97"/>
-      <c r="B314" s="270"/>
-      <c r="C314" s="268"/>
-      <c r="D314" s="90"/>
-      <c r="E314" s="268"/>
-      <c r="F314" s="60"/>
-      <c r="G314" s="60"/>
-      <c r="H314" s="60"/>
-      <c r="I314" s="60"/>
-      <c r="J314" s="60"/>
-      <c r="K314" s="60"/>
+      <c r="B314" s="117"/>
+      <c r="C314" s="117"/>
+      <c r="D314" s="117"/>
+      <c r="E314" s="78"/>
+      <c r="F314" s="66"/>
+      <c r="G314" s="66"/>
+      <c r="H314" s="66"/>
+      <c r="I314" s="66"/>
+      <c r="J314" s="66"/>
+      <c r="K314" s="66"/>
       <c r="L314" s="58"/>
-      <c r="M314" s="110"/>
+      <c r="M314" s="58"/>
       <c r="N314" s="58"/>
       <c r="O314" s="58"/>
       <c r="P314" s="58"/>
@@ -13867,18 +13980,18 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="97"/>
-      <c r="B315" s="270"/>
-      <c r="C315" s="270"/>
-      <c r="D315" s="90"/>
-      <c r="E315" s="268"/>
-      <c r="F315" s="60"/>
-      <c r="G315" s="60"/>
-      <c r="H315" s="60"/>
-      <c r="I315" s="60"/>
-      <c r="J315" s="60"/>
-      <c r="K315" s="60"/>
+      <c r="B315" s="117"/>
+      <c r="C315" s="117"/>
+      <c r="D315" s="117"/>
+      <c r="E315" s="78"/>
+      <c r="F315" s="66"/>
+      <c r="G315" s="66"/>
+      <c r="H315" s="66"/>
+      <c r="I315" s="66"/>
+      <c r="J315" s="66"/>
+      <c r="K315" s="66"/>
       <c r="L315" s="58"/>
-      <c r="M315" s="110"/>
+      <c r="M315" s="58"/>
       <c r="N315" s="58"/>
       <c r="O315" s="58"/>
       <c r="P315" s="58"/>
@@ -13898,18 +14011,18 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="97"/>
-      <c r="B316" s="270"/>
-      <c r="C316" s="270"/>
-      <c r="D316" s="90"/>
-      <c r="E316" s="268"/>
-      <c r="F316" s="60"/>
-      <c r="G316" s="60"/>
-      <c r="H316" s="60"/>
-      <c r="I316" s="60"/>
-      <c r="J316" s="60"/>
-      <c r="K316" s="60"/>
-      <c r="L316" s="58"/>
-      <c r="M316" s="110"/>
+      <c r="B316" s="117"/>
+      <c r="C316" s="117"/>
+      <c r="D316" s="117"/>
+      <c r="E316" s="78"/>
+      <c r="F316" s="134"/>
+      <c r="G316" s="134"/>
+      <c r="H316" s="134"/>
+      <c r="I316" s="134"/>
+      <c r="J316" s="134"/>
+      <c r="K316" s="134"/>
+      <c r="L316" s="119"/>
+      <c r="M316" s="58"/>
       <c r="N316" s="58"/>
       <c r="O316" s="58"/>
       <c r="P316" s="58"/>
@@ -13929,10 +14042,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="97"/>
-      <c r="B317" s="270"/>
-      <c r="C317" s="270"/>
+      <c r="B317" s="327"/>
+      <c r="C317" s="324"/>
       <c r="D317" s="90"/>
-      <c r="E317" s="268"/>
+      <c r="E317" s="324"/>
       <c r="F317" s="60"/>
       <c r="G317" s="60"/>
       <c r="H317" s="60"/>
@@ -13960,10 +14073,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="97"/>
-      <c r="B318" s="270"/>
-      <c r="C318" s="270"/>
+      <c r="B318" s="327"/>
+      <c r="C318" s="327"/>
       <c r="D318" s="90"/>
-      <c r="E318" s="268"/>
+      <c r="E318" s="324"/>
       <c r="F318" s="60"/>
       <c r="G318" s="60"/>
       <c r="H318" s="60"/>
@@ -13991,15 +14104,15 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="97"/>
-      <c r="B319" s="270"/>
-      <c r="C319" s="270"/>
+      <c r="B319" s="327"/>
+      <c r="C319" s="327"/>
       <c r="D319" s="90"/>
-      <c r="E319" s="268"/>
-      <c r="F319" s="113"/>
-      <c r="G319" s="113"/>
-      <c r="H319" s="113"/>
-      <c r="I319" s="113"/>
-      <c r="J319" s="113"/>
+      <c r="E319" s="324"/>
+      <c r="F319" s="60"/>
+      <c r="G319" s="60"/>
+      <c r="H319" s="60"/>
+      <c r="I319" s="60"/>
+      <c r="J319" s="60"/>
       <c r="K319" s="60"/>
       <c r="L319" s="58"/>
       <c r="M319" s="110"/>
@@ -14022,10 +14135,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="97"/>
-      <c r="B320" s="270"/>
-      <c r="C320" s="270"/>
+      <c r="B320" s="327"/>
+      <c r="C320" s="327"/>
       <c r="D320" s="90"/>
-      <c r="E320" s="268"/>
+      <c r="E320" s="324"/>
       <c r="F320" s="60"/>
       <c r="G320" s="60"/>
       <c r="H320" s="60"/>
@@ -14053,10 +14166,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="97"/>
-      <c r="B321" s="270"/>
-      <c r="C321" s="270"/>
+      <c r="B321" s="327"/>
+      <c r="C321" s="327"/>
       <c r="D321" s="90"/>
-      <c r="E321" s="268"/>
+      <c r="E321" s="324"/>
       <c r="F321" s="60"/>
       <c r="G321" s="60"/>
       <c r="H321" s="60"/>
@@ -14084,18 +14197,18 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="97"/>
-      <c r="B322" s="270"/>
-      <c r="C322" s="270"/>
+      <c r="B322" s="327"/>
+      <c r="C322" s="327"/>
       <c r="D322" s="90"/>
-      <c r="E322" s="94"/>
-      <c r="F322" s="57"/>
-      <c r="G322" s="57"/>
-      <c r="H322" s="57"/>
-      <c r="I322" s="57"/>
-      <c r="J322" s="57"/>
-      <c r="K322" s="120"/>
-      <c r="L322" s="57"/>
-      <c r="M322" s="58"/>
+      <c r="E322" s="324"/>
+      <c r="F322" s="113"/>
+      <c r="G322" s="113"/>
+      <c r="H322" s="113"/>
+      <c r="I322" s="113"/>
+      <c r="J322" s="113"/>
+      <c r="K322" s="60"/>
+      <c r="L322" s="58"/>
+      <c r="M322" s="110"/>
       <c r="N322" s="58"/>
       <c r="O322" s="58"/>
       <c r="P322" s="58"/>
@@ -14115,18 +14228,18 @@
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="97"/>
-      <c r="B323" s="270"/>
-      <c r="C323" s="270"/>
+      <c r="B323" s="327"/>
+      <c r="C323" s="327"/>
       <c r="D323" s="90"/>
-      <c r="E323" s="94"/>
-      <c r="F323" s="58"/>
-      <c r="G323" s="58"/>
-      <c r="H323" s="58"/>
-      <c r="I323" s="58"/>
-      <c r="J323" s="58"/>
-      <c r="K323" s="66"/>
+      <c r="E323" s="324"/>
+      <c r="F323" s="60"/>
+      <c r="G323" s="60"/>
+      <c r="H323" s="60"/>
+      <c r="I323" s="60"/>
+      <c r="J323" s="60"/>
+      <c r="K323" s="60"/>
       <c r="L323" s="58"/>
-      <c r="M323" s="58"/>
+      <c r="M323" s="110"/>
       <c r="N323" s="58"/>
       <c r="O323" s="58"/>
       <c r="P323" s="58"/>
@@ -14146,18 +14259,18 @@
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="97"/>
-      <c r="B324" s="270"/>
-      <c r="C324" s="270"/>
-      <c r="D324" s="114"/>
-      <c r="E324" s="268"/>
-      <c r="F324" s="66"/>
-      <c r="G324" s="66"/>
-      <c r="H324" s="66"/>
-      <c r="I324" s="66"/>
-      <c r="J324" s="66"/>
-      <c r="K324" s="66"/>
+      <c r="B324" s="327"/>
+      <c r="C324" s="327"/>
+      <c r="D324" s="90"/>
+      <c r="E324" s="324"/>
+      <c r="F324" s="60"/>
+      <c r="G324" s="60"/>
+      <c r="H324" s="60"/>
+      <c r="I324" s="60"/>
+      <c r="J324" s="60"/>
+      <c r="K324" s="60"/>
       <c r="L324" s="58"/>
-      <c r="M324" s="58"/>
+      <c r="M324" s="110"/>
       <c r="N324" s="58"/>
       <c r="O324" s="58"/>
       <c r="P324" s="58"/>
@@ -14177,17 +14290,17 @@
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="97"/>
-      <c r="B325" s="270"/>
-      <c r="C325" s="270"/>
-      <c r="D325" s="135"/>
-      <c r="E325" s="268"/>
-      <c r="F325" s="58"/>
-      <c r="G325" s="58"/>
-      <c r="H325" s="58"/>
-      <c r="I325" s="58"/>
-      <c r="J325" s="58"/>
-      <c r="K325" s="66"/>
-      <c r="L325" s="58"/>
+      <c r="B325" s="327"/>
+      <c r="C325" s="327"/>
+      <c r="D325" s="90"/>
+      <c r="E325" s="94"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="57"/>
+      <c r="H325" s="57"/>
+      <c r="I325" s="57"/>
+      <c r="J325" s="57"/>
+      <c r="K325" s="120"/>
+      <c r="L325" s="57"/>
       <c r="M325" s="58"/>
       <c r="N325" s="58"/>
       <c r="O325" s="58"/>
@@ -14208,10 +14321,10 @@
     </row>
     <row r="326" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="97"/>
-      <c r="B326" s="270"/>
-      <c r="C326" s="270"/>
-      <c r="D326" s="135"/>
-      <c r="E326" s="268"/>
+      <c r="B326" s="327"/>
+      <c r="C326" s="327"/>
+      <c r="D326" s="90"/>
+      <c r="E326" s="94"/>
       <c r="F326" s="58"/>
       <c r="G326" s="58"/>
       <c r="H326" s="58"/>
@@ -14239,15 +14352,15 @@
     </row>
     <row r="327" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="97"/>
-      <c r="B327" s="270"/>
-      <c r="C327" s="268"/>
-      <c r="D327" s="77"/>
-      <c r="E327" s="268"/>
-      <c r="F327" s="58"/>
-      <c r="G327" s="58"/>
-      <c r="H327" s="58"/>
-      <c r="I327" s="58"/>
-      <c r="J327" s="58"/>
+      <c r="B327" s="327"/>
+      <c r="C327" s="327"/>
+      <c r="D327" s="114"/>
+      <c r="E327" s="324"/>
+      <c r="F327" s="66"/>
+      <c r="G327" s="66"/>
+      <c r="H327" s="66"/>
+      <c r="I327" s="66"/>
+      <c r="J327" s="66"/>
       <c r="K327" s="66"/>
       <c r="L327" s="58"/>
       <c r="M327" s="58"/>
@@ -14270,10 +14383,10 @@
     </row>
     <row r="328" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="97"/>
-      <c r="B328" s="270"/>
-      <c r="C328" s="90"/>
+      <c r="B328" s="327"/>
+      <c r="C328" s="327"/>
       <c r="D328" s="135"/>
-      <c r="E328" s="135"/>
+      <c r="E328" s="324"/>
       <c r="F328" s="58"/>
       <c r="G328" s="58"/>
       <c r="H328" s="58"/>
@@ -14301,15 +14414,15 @@
     </row>
     <row r="329" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="97"/>
-      <c r="B329" s="270"/>
-      <c r="C329" s="268"/>
-      <c r="D329" s="114"/>
-      <c r="E329" s="271"/>
-      <c r="F329" s="66"/>
-      <c r="G329" s="66"/>
-      <c r="H329" s="66"/>
-      <c r="I329" s="66"/>
-      <c r="J329" s="66"/>
+      <c r="B329" s="327"/>
+      <c r="C329" s="327"/>
+      <c r="D329" s="135"/>
+      <c r="E329" s="324"/>
+      <c r="F329" s="58"/>
+      <c r="G329" s="58"/>
+      <c r="H329" s="58"/>
+      <c r="I329" s="58"/>
+      <c r="J329" s="58"/>
       <c r="K329" s="66"/>
       <c r="L329" s="58"/>
       <c r="M329" s="58"/>
@@ -14332,15 +14445,15 @@
     </row>
     <row r="330" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="97"/>
-      <c r="B330" s="270"/>
-      <c r="C330" s="270"/>
+      <c r="B330" s="327"/>
+      <c r="C330" s="324"/>
       <c r="D330" s="77"/>
-      <c r="E330" s="271"/>
-      <c r="F330" s="66"/>
-      <c r="G330" s="66"/>
-      <c r="H330" s="66"/>
-      <c r="I330" s="66"/>
-      <c r="J330" s="66"/>
+      <c r="E330" s="324"/>
+      <c r="F330" s="58"/>
+      <c r="G330" s="58"/>
+      <c r="H330" s="58"/>
+      <c r="I330" s="58"/>
+      <c r="J330" s="58"/>
       <c r="K330" s="66"/>
       <c r="L330" s="58"/>
       <c r="M330" s="58"/>
@@ -14363,15 +14476,15 @@
     </row>
     <row r="331" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="97"/>
-      <c r="B331" s="270"/>
-      <c r="C331" s="268"/>
-      <c r="D331" s="90"/>
-      <c r="E331" s="91"/>
-      <c r="F331" s="66"/>
-      <c r="G331" s="66"/>
-      <c r="H331" s="66"/>
-      <c r="I331" s="66"/>
-      <c r="J331" s="66"/>
+      <c r="B331" s="327"/>
+      <c r="C331" s="90"/>
+      <c r="D331" s="135"/>
+      <c r="E331" s="135"/>
+      <c r="F331" s="58"/>
+      <c r="G331" s="58"/>
+      <c r="H331" s="58"/>
+      <c r="I331" s="58"/>
+      <c r="J331" s="58"/>
       <c r="K331" s="66"/>
       <c r="L331" s="58"/>
       <c r="M331" s="58"/>
@@ -14394,15 +14507,15 @@
     </row>
     <row r="332" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="97"/>
-      <c r="B332" s="270"/>
-      <c r="C332" s="94"/>
-      <c r="D332" s="94"/>
-      <c r="E332" s="97"/>
-      <c r="F332" s="58"/>
-      <c r="G332" s="58"/>
-      <c r="H332" s="58"/>
-      <c r="I332" s="58"/>
-      <c r="J332" s="58"/>
+      <c r="B332" s="327"/>
+      <c r="C332" s="324"/>
+      <c r="D332" s="114"/>
+      <c r="E332" s="328"/>
+      <c r="F332" s="66"/>
+      <c r="G332" s="66"/>
+      <c r="H332" s="66"/>
+      <c r="I332" s="66"/>
+      <c r="J332" s="66"/>
       <c r="K332" s="66"/>
       <c r="L332" s="58"/>
       <c r="M332" s="58"/>
@@ -14425,10 +14538,10 @@
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="97"/>
-      <c r="B333" s="270"/>
-      <c r="C333" s="268"/>
-      <c r="D333" s="114"/>
-      <c r="E333" s="268"/>
+      <c r="B333" s="327"/>
+      <c r="C333" s="327"/>
+      <c r="D333" s="77"/>
+      <c r="E333" s="328"/>
       <c r="F333" s="66"/>
       <c r="G333" s="66"/>
       <c r="H333" s="66"/>
@@ -14456,10 +14569,10 @@
     </row>
     <row r="334" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="97"/>
-      <c r="B334" s="270"/>
-      <c r="C334" s="270"/>
-      <c r="D334" s="135"/>
-      <c r="E334" s="268"/>
+      <c r="B334" s="327"/>
+      <c r="C334" s="324"/>
+      <c r="D334" s="90"/>
+      <c r="E334" s="91"/>
       <c r="F334" s="66"/>
       <c r="G334" s="66"/>
       <c r="H334" s="66"/>
@@ -14487,15 +14600,15 @@
     </row>
     <row r="335" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="97"/>
-      <c r="B335" s="270"/>
-      <c r="C335" s="270"/>
-      <c r="D335" s="135"/>
-      <c r="E335" s="268"/>
-      <c r="F335" s="66"/>
-      <c r="G335" s="66"/>
-      <c r="H335" s="66"/>
-      <c r="I335" s="66"/>
-      <c r="J335" s="66"/>
+      <c r="B335" s="327"/>
+      <c r="C335" s="94"/>
+      <c r="D335" s="94"/>
+      <c r="E335" s="97"/>
+      <c r="F335" s="58"/>
+      <c r="G335" s="58"/>
+      <c r="H335" s="58"/>
+      <c r="I335" s="58"/>
+      <c r="J335" s="58"/>
       <c r="K335" s="66"/>
       <c r="L335" s="58"/>
       <c r="M335" s="58"/>
@@ -14518,10 +14631,10 @@
     </row>
     <row r="336" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="97"/>
-      <c r="B336" s="270"/>
-      <c r="C336" s="270"/>
-      <c r="D336" s="135"/>
-      <c r="E336" s="268"/>
+      <c r="B336" s="327"/>
+      <c r="C336" s="324"/>
+      <c r="D336" s="114"/>
+      <c r="E336" s="324"/>
       <c r="F336" s="66"/>
       <c r="G336" s="66"/>
       <c r="H336" s="66"/>
@@ -14549,15 +14662,15 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="97"/>
-      <c r="B337" s="270"/>
-      <c r="C337" s="270"/>
+      <c r="B337" s="327"/>
+      <c r="C337" s="327"/>
       <c r="D337" s="135"/>
-      <c r="E337" s="268"/>
-      <c r="F337" s="60"/>
-      <c r="G337" s="60"/>
-      <c r="H337" s="60"/>
-      <c r="I337" s="60"/>
-      <c r="J337" s="60"/>
+      <c r="E337" s="324"/>
+      <c r="F337" s="66"/>
+      <c r="G337" s="66"/>
+      <c r="H337" s="66"/>
+      <c r="I337" s="66"/>
+      <c r="J337" s="66"/>
       <c r="K337" s="66"/>
       <c r="L337" s="58"/>
       <c r="M337" s="58"/>
@@ -14580,15 +14693,15 @@
     </row>
     <row r="338" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="97"/>
-      <c r="B338" s="270"/>
-      <c r="C338" s="270"/>
-      <c r="D338" s="77"/>
-      <c r="E338" s="268"/>
-      <c r="F338" s="60"/>
-      <c r="G338" s="60"/>
-      <c r="H338" s="60"/>
-      <c r="I338" s="60"/>
-      <c r="J338" s="60"/>
+      <c r="B338" s="327"/>
+      <c r="C338" s="327"/>
+      <c r="D338" s="135"/>
+      <c r="E338" s="324"/>
+      <c r="F338" s="66"/>
+      <c r="G338" s="66"/>
+      <c r="H338" s="66"/>
+      <c r="I338" s="66"/>
+      <c r="J338" s="66"/>
       <c r="K338" s="66"/>
       <c r="L338" s="58"/>
       <c r="M338" s="58"/>
@@ -14611,10 +14724,10 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="97"/>
-      <c r="B339" s="270"/>
-      <c r="C339" s="270"/>
-      <c r="D339" s="114"/>
-      <c r="E339" s="268"/>
+      <c r="B339" s="327"/>
+      <c r="C339" s="327"/>
+      <c r="D339" s="135"/>
+      <c r="E339" s="324"/>
       <c r="F339" s="66"/>
       <c r="G339" s="66"/>
       <c r="H339" s="66"/>
@@ -14642,15 +14755,15 @@
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="97"/>
-      <c r="B340" s="270"/>
-      <c r="C340" s="270"/>
+      <c r="B340" s="327"/>
+      <c r="C340" s="327"/>
       <c r="D340" s="135"/>
-      <c r="E340" s="268"/>
-      <c r="F340" s="58"/>
-      <c r="G340" s="58"/>
-      <c r="H340" s="58"/>
-      <c r="I340" s="58"/>
-      <c r="J340" s="58"/>
+      <c r="E340" s="324"/>
+      <c r="F340" s="60"/>
+      <c r="G340" s="60"/>
+      <c r="H340" s="60"/>
+      <c r="I340" s="60"/>
+      <c r="J340" s="60"/>
       <c r="K340" s="66"/>
       <c r="L340" s="58"/>
       <c r="M340" s="58"/>
@@ -14673,15 +14786,15 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="97"/>
-      <c r="B341" s="270"/>
-      <c r="C341" s="270"/>
-      <c r="D341" s="135"/>
-      <c r="E341" s="268"/>
-      <c r="F341" s="58"/>
-      <c r="G341" s="58"/>
-      <c r="H341" s="58"/>
-      <c r="I341" s="58"/>
-      <c r="J341" s="58"/>
+      <c r="B341" s="327"/>
+      <c r="C341" s="327"/>
+      <c r="D341" s="77"/>
+      <c r="E341" s="324"/>
+      <c r="F341" s="60"/>
+      <c r="G341" s="60"/>
+      <c r="H341" s="60"/>
+      <c r="I341" s="60"/>
+      <c r="J341" s="60"/>
       <c r="K341" s="66"/>
       <c r="L341" s="58"/>
       <c r="M341" s="58"/>
@@ -14704,15 +14817,15 @@
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="97"/>
-      <c r="B342" s="270"/>
-      <c r="C342" s="270"/>
-      <c r="D342" s="77"/>
-      <c r="E342" s="268"/>
-      <c r="F342" s="58"/>
-      <c r="G342" s="58"/>
-      <c r="H342" s="58"/>
-      <c r="I342" s="58"/>
-      <c r="J342" s="58"/>
+      <c r="B342" s="327"/>
+      <c r="C342" s="327"/>
+      <c r="D342" s="114"/>
+      <c r="E342" s="324"/>
+      <c r="F342" s="66"/>
+      <c r="G342" s="66"/>
+      <c r="H342" s="66"/>
+      <c r="I342" s="66"/>
+      <c r="J342" s="66"/>
       <c r="K342" s="66"/>
       <c r="L342" s="58"/>
       <c r="M342" s="58"/>
@@ -14735,10 +14848,10 @@
     </row>
     <row r="343" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="97"/>
-      <c r="B343" s="97"/>
-      <c r="C343" s="97"/>
-      <c r="D343" s="97"/>
-      <c r="E343" s="97"/>
+      <c r="B343" s="327"/>
+      <c r="C343" s="327"/>
+      <c r="D343" s="135"/>
+      <c r="E343" s="324"/>
       <c r="F343" s="58"/>
       <c r="G343" s="58"/>
       <c r="H343" s="58"/>
@@ -14766,10 +14879,10 @@
     </row>
     <row r="344" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="97"/>
-      <c r="B344" s="97"/>
-      <c r="C344" s="97"/>
-      <c r="D344" s="97"/>
-      <c r="E344" s="97"/>
+      <c r="B344" s="327"/>
+      <c r="C344" s="327"/>
+      <c r="D344" s="135"/>
+      <c r="E344" s="324"/>
       <c r="F344" s="58"/>
       <c r="G344" s="58"/>
       <c r="H344" s="58"/>
@@ -14797,10 +14910,10 @@
     </row>
     <row r="345" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="97"/>
-      <c r="B345" s="97"/>
-      <c r="C345" s="97"/>
-      <c r="D345" s="97"/>
-      <c r="E345" s="97"/>
+      <c r="B345" s="327"/>
+      <c r="C345" s="327"/>
+      <c r="D345" s="77"/>
+      <c r="E345" s="324"/>
       <c r="F345" s="58"/>
       <c r="G345" s="58"/>
       <c r="H345" s="58"/>
@@ -14827,10 +14940,10 @@
       <c r="AC345" s="97"/>
     </row>
     <row r="346" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="91"/>
-      <c r="B346" s="94"/>
-      <c r="C346" s="78"/>
-      <c r="D346" s="78"/>
+      <c r="A346" s="97"/>
+      <c r="B346" s="97"/>
+      <c r="C346" s="97"/>
+      <c r="D346" s="97"/>
       <c r="E346" s="97"/>
       <c r="F346" s="58"/>
       <c r="G346" s="58"/>
@@ -14839,29 +14952,29 @@
       <c r="J346" s="58"/>
       <c r="K346" s="66"/>
       <c r="L346" s="58"/>
-      <c r="M346" s="80"/>
-      <c r="N346" s="51"/>
-      <c r="O346" s="51"/>
-      <c r="P346" s="51"/>
-      <c r="Q346" s="51"/>
-      <c r="R346" s="51"/>
-      <c r="S346" s="51"/>
-      <c r="T346" s="51"/>
-      <c r="U346" s="3"/>
-      <c r="V346" s="3"/>
-      <c r="W346" s="3"/>
-      <c r="X346" s="3"/>
-      <c r="Y346" s="3"/>
-      <c r="Z346" s="3"/>
-      <c r="AA346" s="3"/>
-      <c r="AB346" s="3"/>
-      <c r="AC346" s="3"/>
+      <c r="M346" s="58"/>
+      <c r="N346" s="58"/>
+      <c r="O346" s="58"/>
+      <c r="P346" s="58"/>
+      <c r="Q346" s="58"/>
+      <c r="R346" s="58"/>
+      <c r="S346" s="58"/>
+      <c r="T346" s="58"/>
+      <c r="U346" s="97"/>
+      <c r="V346" s="97"/>
+      <c r="W346" s="97"/>
+      <c r="X346" s="97"/>
+      <c r="Y346" s="97"/>
+      <c r="Z346" s="97"/>
+      <c r="AA346" s="97"/>
+      <c r="AB346" s="97"/>
+      <c r="AC346" s="97"/>
     </row>
     <row r="347" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="91"/>
-      <c r="B347" s="94"/>
-      <c r="C347" s="78"/>
-      <c r="D347" s="78"/>
+      <c r="A347" s="97"/>
+      <c r="B347" s="97"/>
+      <c r="C347" s="97"/>
+      <c r="D347" s="97"/>
       <c r="E347" s="97"/>
       <c r="F347" s="58"/>
       <c r="G347" s="58"/>
@@ -14870,29 +14983,29 @@
       <c r="J347" s="58"/>
       <c r="K347" s="66"/>
       <c r="L347" s="58"/>
-      <c r="M347" s="80"/>
-      <c r="N347" s="51"/>
-      <c r="O347" s="51"/>
-      <c r="P347" s="51"/>
-      <c r="Q347" s="51"/>
-      <c r="R347" s="51"/>
-      <c r="S347" s="51"/>
-      <c r="T347" s="51"/>
-      <c r="U347" s="3"/>
-      <c r="V347" s="3"/>
-      <c r="W347" s="3"/>
-      <c r="X347" s="3"/>
-      <c r="Y347" s="3"/>
-      <c r="Z347" s="3"/>
-      <c r="AA347" s="3"/>
-      <c r="AB347" s="3"/>
-      <c r="AC347" s="3"/>
+      <c r="M347" s="58"/>
+      <c r="N347" s="58"/>
+      <c r="O347" s="58"/>
+      <c r="P347" s="58"/>
+      <c r="Q347" s="58"/>
+      <c r="R347" s="58"/>
+      <c r="S347" s="58"/>
+      <c r="T347" s="58"/>
+      <c r="U347" s="97"/>
+      <c r="V347" s="97"/>
+      <c r="W347" s="97"/>
+      <c r="X347" s="97"/>
+      <c r="Y347" s="97"/>
+      <c r="Z347" s="97"/>
+      <c r="AA347" s="97"/>
+      <c r="AB347" s="97"/>
+      <c r="AC347" s="97"/>
     </row>
     <row r="348" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="91"/>
-      <c r="B348" s="94"/>
-      <c r="C348" s="78"/>
-      <c r="D348" s="78"/>
+      <c r="A348" s="97"/>
+      <c r="B348" s="97"/>
+      <c r="C348" s="97"/>
+      <c r="D348" s="97"/>
       <c r="E348" s="97"/>
       <c r="F348" s="58"/>
       <c r="G348" s="58"/>
@@ -14901,23 +15014,23 @@
       <c r="J348" s="58"/>
       <c r="K348" s="66"/>
       <c r="L348" s="58"/>
-      <c r="M348" s="80"/>
-      <c r="N348" s="51"/>
-      <c r="O348" s="51"/>
-      <c r="P348" s="51"/>
-      <c r="Q348" s="51"/>
-      <c r="R348" s="51"/>
-      <c r="S348" s="51"/>
-      <c r="T348" s="51"/>
-      <c r="U348" s="3"/>
-      <c r="V348" s="3"/>
-      <c r="W348" s="3"/>
-      <c r="X348" s="3"/>
-      <c r="Y348" s="3"/>
-      <c r="Z348" s="3"/>
-      <c r="AA348" s="3"/>
-      <c r="AB348" s="3"/>
-      <c r="AC348" s="3"/>
+      <c r="M348" s="58"/>
+      <c r="N348" s="58"/>
+      <c r="O348" s="58"/>
+      <c r="P348" s="58"/>
+      <c r="Q348" s="58"/>
+      <c r="R348" s="58"/>
+      <c r="S348" s="58"/>
+      <c r="T348" s="58"/>
+      <c r="U348" s="97"/>
+      <c r="V348" s="97"/>
+      <c r="W348" s="97"/>
+      <c r="X348" s="97"/>
+      <c r="Y348" s="97"/>
+      <c r="Z348" s="97"/>
+      <c r="AA348" s="97"/>
+      <c r="AB348" s="97"/>
+      <c r="AC348" s="97"/>
     </row>
     <row r="349" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="91"/>
@@ -14953,8 +15066,8 @@
     <row r="350" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="91"/>
       <c r="B350" s="94"/>
-      <c r="C350" s="94"/>
-      <c r="D350" s="94"/>
+      <c r="C350" s="78"/>
+      <c r="D350" s="78"/>
       <c r="E350" s="97"/>
       <c r="F350" s="58"/>
       <c r="G350" s="58"/>
@@ -14984,8 +15097,8 @@
     <row r="351" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="91"/>
       <c r="B351" s="94"/>
-      <c r="C351" s="94"/>
-      <c r="D351" s="94"/>
+      <c r="C351" s="78"/>
+      <c r="D351" s="78"/>
       <c r="E351" s="97"/>
       <c r="F351" s="58"/>
       <c r="G351" s="58"/>
@@ -15015,8 +15128,8 @@
     <row r="352" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="91"/>
       <c r="B352" s="94"/>
-      <c r="C352" s="94"/>
-      <c r="D352" s="94"/>
+      <c r="C352" s="78"/>
+      <c r="D352" s="78"/>
       <c r="E352" s="97"/>
       <c r="F352" s="58"/>
       <c r="G352" s="58"/>
@@ -15106,18 +15219,18 @@
       <c r="AC354" s="3"/>
     </row>
     <row r="355" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="136"/>
-      <c r="B355" s="137"/>
-      <c r="C355" s="137"/>
-      <c r="D355" s="137"/>
-      <c r="E355" s="138"/>
-      <c r="F355" s="139"/>
-      <c r="G355" s="139"/>
-      <c r="H355" s="139"/>
-      <c r="I355" s="139"/>
-      <c r="J355" s="139"/>
-      <c r="K355" s="139"/>
-      <c r="L355" s="80"/>
+      <c r="A355" s="91"/>
+      <c r="B355" s="94"/>
+      <c r="C355" s="94"/>
+      <c r="D355" s="94"/>
+      <c r="E355" s="97"/>
+      <c r="F355" s="58"/>
+      <c r="G355" s="58"/>
+      <c r="H355" s="58"/>
+      <c r="I355" s="58"/>
+      <c r="J355" s="58"/>
+      <c r="K355" s="66"/>
+      <c r="L355" s="58"/>
       <c r="M355" s="80"/>
       <c r="N355" s="51"/>
       <c r="O355" s="51"/>
@@ -15137,18 +15250,18 @@
       <c r="AC355" s="3"/>
     </row>
     <row r="356" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="136"/>
-      <c r="B356" s="137"/>
-      <c r="C356" s="137"/>
-      <c r="D356" s="137"/>
-      <c r="E356" s="138"/>
-      <c r="F356" s="139"/>
-      <c r="G356" s="139"/>
-      <c r="H356" s="139"/>
-      <c r="I356" s="139"/>
-      <c r="J356" s="139"/>
-      <c r="K356" s="139"/>
-      <c r="L356" s="80"/>
+      <c r="A356" s="91"/>
+      <c r="B356" s="94"/>
+      <c r="C356" s="94"/>
+      <c r="D356" s="94"/>
+      <c r="E356" s="97"/>
+      <c r="F356" s="58"/>
+      <c r="G356" s="58"/>
+      <c r="H356" s="58"/>
+      <c r="I356" s="58"/>
+      <c r="J356" s="58"/>
+      <c r="K356" s="66"/>
+      <c r="L356" s="58"/>
       <c r="M356" s="80"/>
       <c r="N356" s="51"/>
       <c r="O356" s="51"/>
@@ -15168,18 +15281,18 @@
       <c r="AC356" s="3"/>
     </row>
     <row r="357" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="136"/>
-      <c r="B357" s="137"/>
-      <c r="C357" s="137"/>
-      <c r="D357" s="137"/>
-      <c r="E357" s="138"/>
-      <c r="F357" s="139"/>
-      <c r="G357" s="139"/>
-      <c r="H357" s="139"/>
-      <c r="I357" s="139"/>
-      <c r="J357" s="139"/>
-      <c r="K357" s="139"/>
-      <c r="L357" s="80"/>
+      <c r="A357" s="91"/>
+      <c r="B357" s="94"/>
+      <c r="C357" s="94"/>
+      <c r="D357" s="94"/>
+      <c r="E357" s="97"/>
+      <c r="F357" s="58"/>
+      <c r="G357" s="58"/>
+      <c r="H357" s="58"/>
+      <c r="I357" s="58"/>
+      <c r="J357" s="58"/>
+      <c r="K357" s="66"/>
+      <c r="L357" s="58"/>
       <c r="M357" s="80"/>
       <c r="N357" s="51"/>
       <c r="O357" s="51"/>
@@ -15234,12 +15347,12 @@
       <c r="B359" s="137"/>
       <c r="C359" s="137"/>
       <c r="D359" s="137"/>
-      <c r="E359" s="137"/>
-      <c r="F359" s="80"/>
-      <c r="G359" s="80"/>
-      <c r="H359" s="80"/>
-      <c r="I359" s="80"/>
-      <c r="J359" s="80"/>
+      <c r="E359" s="138"/>
+      <c r="F359" s="139"/>
+      <c r="G359" s="139"/>
+      <c r="H359" s="139"/>
+      <c r="I359" s="139"/>
+      <c r="J359" s="139"/>
       <c r="K359" s="139"/>
       <c r="L359" s="80"/>
       <c r="M359" s="80"/>
@@ -15265,12 +15378,12 @@
       <c r="B360" s="137"/>
       <c r="C360" s="137"/>
       <c r="D360" s="137"/>
-      <c r="E360" s="137"/>
-      <c r="F360" s="80"/>
-      <c r="G360" s="80"/>
-      <c r="H360" s="80"/>
-      <c r="I360" s="80"/>
-      <c r="J360" s="80"/>
+      <c r="E360" s="138"/>
+      <c r="F360" s="139"/>
+      <c r="G360" s="139"/>
+      <c r="H360" s="139"/>
+      <c r="I360" s="139"/>
+      <c r="J360" s="139"/>
       <c r="K360" s="139"/>
       <c r="L360" s="80"/>
       <c r="M360" s="80"/>
@@ -15296,12 +15409,12 @@
       <c r="B361" s="137"/>
       <c r="C361" s="137"/>
       <c r="D361" s="137"/>
-      <c r="E361" s="137"/>
-      <c r="F361" s="80"/>
-      <c r="G361" s="80"/>
-      <c r="H361" s="80"/>
-      <c r="I361" s="80"/>
-      <c r="J361" s="80"/>
+      <c r="E361" s="138"/>
+      <c r="F361" s="139"/>
+      <c r="G361" s="139"/>
+      <c r="H361" s="139"/>
+      <c r="I361" s="139"/>
+      <c r="J361" s="139"/>
       <c r="K361" s="139"/>
       <c r="L361" s="80"/>
       <c r="M361" s="80"/>
@@ -15323,97 +15436,97 @@
       <c r="AC361" s="3"/>
     </row>
     <row r="362" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="140"/>
-      <c r="B362" s="140"/>
-      <c r="C362" s="140"/>
-      <c r="D362" s="140"/>
-      <c r="E362" s="140"/>
+      <c r="A362" s="136"/>
+      <c r="B362" s="137"/>
+      <c r="C362" s="137"/>
+      <c r="D362" s="137"/>
+      <c r="E362" s="137"/>
       <c r="F362" s="80"/>
       <c r="G362" s="80"/>
       <c r="H362" s="80"/>
       <c r="I362" s="80"/>
       <c r="J362" s="80"/>
-      <c r="K362" s="80"/>
+      <c r="K362" s="139"/>
       <c r="L362" s="80"/>
       <c r="M362" s="80"/>
-      <c r="N362" s="80"/>
-      <c r="O362" s="80"/>
-      <c r="P362" s="80"/>
-      <c r="Q362" s="80"/>
-      <c r="R362" s="80"/>
-      <c r="S362" s="80"/>
-      <c r="T362" s="80"/>
-      <c r="U362" s="140"/>
-      <c r="V362" s="140"/>
-      <c r="W362" s="140"/>
-      <c r="X362" s="140"/>
-      <c r="Y362" s="140"/>
-      <c r="Z362" s="140"/>
-      <c r="AA362" s="140"/>
-      <c r="AB362" s="140"/>
-      <c r="AC362" s="140"/>
+      <c r="N362" s="51"/>
+      <c r="O362" s="51"/>
+      <c r="P362" s="51"/>
+      <c r="Q362" s="51"/>
+      <c r="R362" s="51"/>
+      <c r="S362" s="51"/>
+      <c r="T362" s="51"/>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+      <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
+      <c r="Y362" s="3"/>
+      <c r="Z362" s="3"/>
+      <c r="AA362" s="3"/>
+      <c r="AB362" s="3"/>
+      <c r="AC362" s="3"/>
     </row>
     <row r="363" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="140"/>
-      <c r="B363" s="140"/>
-      <c r="C363" s="140"/>
-      <c r="D363" s="140"/>
-      <c r="E363" s="140"/>
+      <c r="A363" s="136"/>
+      <c r="B363" s="137"/>
+      <c r="C363" s="137"/>
+      <c r="D363" s="137"/>
+      <c r="E363" s="137"/>
       <c r="F363" s="80"/>
       <c r="G363" s="80"/>
       <c r="H363" s="80"/>
       <c r="I363" s="80"/>
       <c r="J363" s="80"/>
-      <c r="K363" s="80"/>
+      <c r="K363" s="139"/>
       <c r="L363" s="80"/>
       <c r="M363" s="80"/>
-      <c r="N363" s="80"/>
-      <c r="O363" s="80"/>
-      <c r="P363" s="80"/>
-      <c r="Q363" s="80"/>
-      <c r="R363" s="80"/>
-      <c r="S363" s="80"/>
-      <c r="T363" s="80"/>
-      <c r="U363" s="140"/>
-      <c r="V363" s="140"/>
-      <c r="W363" s="140"/>
-      <c r="X363" s="140"/>
-      <c r="Y363" s="140"/>
-      <c r="Z363" s="140"/>
-      <c r="AA363" s="140"/>
-      <c r="AB363" s="140"/>
-      <c r="AC363" s="140"/>
+      <c r="N363" s="51"/>
+      <c r="O363" s="51"/>
+      <c r="P363" s="51"/>
+      <c r="Q363" s="51"/>
+      <c r="R363" s="51"/>
+      <c r="S363" s="51"/>
+      <c r="T363" s="51"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+      <c r="W363" s="3"/>
+      <c r="X363" s="3"/>
+      <c r="Y363" s="3"/>
+      <c r="Z363" s="3"/>
+      <c r="AA363" s="3"/>
+      <c r="AB363" s="3"/>
+      <c r="AC363" s="3"/>
     </row>
     <row r="364" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="140"/>
-      <c r="B364" s="140"/>
-      <c r="C364" s="140"/>
-      <c r="D364" s="140"/>
-      <c r="E364" s="140"/>
+      <c r="A364" s="136"/>
+      <c r="B364" s="137"/>
+      <c r="C364" s="137"/>
+      <c r="D364" s="137"/>
+      <c r="E364" s="137"/>
       <c r="F364" s="80"/>
       <c r="G364" s="80"/>
       <c r="H364" s="80"/>
       <c r="I364" s="80"/>
       <c r="J364" s="80"/>
-      <c r="K364" s="80"/>
+      <c r="K364" s="139"/>
       <c r="L364" s="80"/>
       <c r="M364" s="80"/>
-      <c r="N364" s="80"/>
-      <c r="O364" s="80"/>
-      <c r="P364" s="80"/>
-      <c r="Q364" s="80"/>
-      <c r="R364" s="80"/>
-      <c r="S364" s="80"/>
-      <c r="T364" s="80"/>
-      <c r="U364" s="140"/>
-      <c r="V364" s="140"/>
-      <c r="W364" s="140"/>
-      <c r="X364" s="140"/>
-      <c r="Y364" s="140"/>
-      <c r="Z364" s="140"/>
-      <c r="AA364" s="140"/>
-      <c r="AB364" s="140"/>
-      <c r="AC364" s="140"/>
+      <c r="N364" s="51"/>
+      <c r="O364" s="51"/>
+      <c r="P364" s="51"/>
+      <c r="Q364" s="51"/>
+      <c r="R364" s="51"/>
+      <c r="S364" s="51"/>
+      <c r="T364" s="51"/>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+      <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
+      <c r="Y364" s="3"/>
+      <c r="Z364" s="3"/>
+      <c r="AA364" s="3"/>
+      <c r="AB364" s="3"/>
+      <c r="AC364" s="3"/>
     </row>
     <row r="365" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="140"/>
@@ -16599,21 +16712,21 @@
       <c r="C403" s="140"/>
       <c r="D403" s="140"/>
       <c r="E403" s="140"/>
-      <c r="F403" s="140"/>
-      <c r="G403" s="140"/>
-      <c r="H403" s="140"/>
-      <c r="I403" s="140"/>
-      <c r="J403" s="140"/>
-      <c r="K403" s="140"/>
-      <c r="L403" s="140"/>
-      <c r="M403" s="140"/>
-      <c r="N403" s="140"/>
-      <c r="O403" s="140"/>
-      <c r="P403" s="140"/>
-      <c r="Q403" s="140"/>
-      <c r="R403" s="140"/>
-      <c r="S403" s="140"/>
-      <c r="T403" s="140"/>
+      <c r="F403" s="80"/>
+      <c r="G403" s="80"/>
+      <c r="H403" s="80"/>
+      <c r="I403" s="80"/>
+      <c r="J403" s="80"/>
+      <c r="K403" s="80"/>
+      <c r="L403" s="80"/>
+      <c r="M403" s="80"/>
+      <c r="N403" s="80"/>
+      <c r="O403" s="80"/>
+      <c r="P403" s="80"/>
+      <c r="Q403" s="80"/>
+      <c r="R403" s="80"/>
+      <c r="S403" s="80"/>
+      <c r="T403" s="80"/>
       <c r="U403" s="140"/>
       <c r="V403" s="140"/>
       <c r="W403" s="140"/>
@@ -16630,21 +16743,21 @@
       <c r="C404" s="140"/>
       <c r="D404" s="140"/>
       <c r="E404" s="140"/>
-      <c r="F404" s="140"/>
-      <c r="G404" s="140"/>
-      <c r="H404" s="140"/>
-      <c r="I404" s="140"/>
-      <c r="J404" s="140"/>
-      <c r="K404" s="140"/>
-      <c r="L404" s="140"/>
-      <c r="M404" s="140"/>
-      <c r="N404" s="140"/>
-      <c r="O404" s="140"/>
-      <c r="P404" s="140"/>
-      <c r="Q404" s="140"/>
-      <c r="R404" s="140"/>
-      <c r="S404" s="140"/>
-      <c r="T404" s="140"/>
+      <c r="F404" s="80"/>
+      <c r="G404" s="80"/>
+      <c r="H404" s="80"/>
+      <c r="I404" s="80"/>
+      <c r="J404" s="80"/>
+      <c r="K404" s="80"/>
+      <c r="L404" s="80"/>
+      <c r="M404" s="80"/>
+      <c r="N404" s="80"/>
+      <c r="O404" s="80"/>
+      <c r="P404" s="80"/>
+      <c r="Q404" s="80"/>
+      <c r="R404" s="80"/>
+      <c r="S404" s="80"/>
+      <c r="T404" s="80"/>
       <c r="U404" s="140"/>
       <c r="V404" s="140"/>
       <c r="W404" s="140"/>
@@ -16661,21 +16774,21 @@
       <c r="C405" s="140"/>
       <c r="D405" s="140"/>
       <c r="E405" s="140"/>
-      <c r="F405" s="140"/>
-      <c r="G405" s="140"/>
-      <c r="H405" s="140"/>
-      <c r="I405" s="140"/>
-      <c r="J405" s="140"/>
-      <c r="K405" s="140"/>
-      <c r="L405" s="140"/>
-      <c r="M405" s="140"/>
-      <c r="N405" s="140"/>
-      <c r="O405" s="140"/>
-      <c r="P405" s="140"/>
-      <c r="Q405" s="140"/>
-      <c r="R405" s="140"/>
-      <c r="S405" s="140"/>
-      <c r="T405" s="140"/>
+      <c r="F405" s="80"/>
+      <c r="G405" s="80"/>
+      <c r="H405" s="80"/>
+      <c r="I405" s="80"/>
+      <c r="J405" s="80"/>
+      <c r="K405" s="80"/>
+      <c r="L405" s="80"/>
+      <c r="M405" s="80"/>
+      <c r="N405" s="80"/>
+      <c r="O405" s="80"/>
+      <c r="P405" s="80"/>
+      <c r="Q405" s="80"/>
+      <c r="R405" s="80"/>
+      <c r="S405" s="80"/>
+      <c r="T405" s="80"/>
       <c r="U405" s="140"/>
       <c r="V405" s="140"/>
       <c r="W405" s="140"/>
@@ -16841,14 +16954,143 @@
       <c r="AB410" s="140"/>
       <c r="AC410" s="140"/>
     </row>
+    <row r="411" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="140"/>
+      <c r="B411" s="140"/>
+      <c r="C411" s="140"/>
+      <c r="D411" s="140"/>
+      <c r="E411" s="140"/>
+      <c r="F411" s="140"/>
+      <c r="G411" s="140"/>
+      <c r="H411" s="140"/>
+      <c r="I411" s="140"/>
+      <c r="J411" s="140"/>
+      <c r="K411" s="140"/>
+      <c r="L411" s="140"/>
+      <c r="M411" s="140"/>
+      <c r="N411" s="140"/>
+      <c r="O411" s="140"/>
+      <c r="P411" s="140"/>
+      <c r="Q411" s="140"/>
+      <c r="R411" s="140"/>
+      <c r="S411" s="140"/>
+      <c r="T411" s="140"/>
+      <c r="U411" s="140"/>
+      <c r="V411" s="140"/>
+      <c r="W411" s="140"/>
+      <c r="X411" s="140"/>
+      <c r="Y411" s="140"/>
+      <c r="Z411" s="140"/>
+      <c r="AA411" s="140"/>
+      <c r="AB411" s="140"/>
+      <c r="AC411" s="140"/>
+    </row>
+    <row r="412" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="140"/>
+      <c r="B412" s="140"/>
+      <c r="C412" s="140"/>
+      <c r="D412" s="140"/>
+      <c r="E412" s="140"/>
+      <c r="F412" s="140"/>
+      <c r="G412" s="140"/>
+      <c r="H412" s="140"/>
+      <c r="I412" s="140"/>
+      <c r="J412" s="140"/>
+      <c r="K412" s="140"/>
+      <c r="L412" s="140"/>
+      <c r="M412" s="140"/>
+      <c r="N412" s="140"/>
+      <c r="O412" s="140"/>
+      <c r="P412" s="140"/>
+      <c r="Q412" s="140"/>
+      <c r="R412" s="140"/>
+      <c r="S412" s="140"/>
+      <c r="T412" s="140"/>
+      <c r="U412" s="140"/>
+      <c r="V412" s="140"/>
+      <c r="W412" s="140"/>
+      <c r="X412" s="140"/>
+      <c r="Y412" s="140"/>
+      <c r="Z412" s="140"/>
+      <c r="AA412" s="140"/>
+      <c r="AB412" s="140"/>
+      <c r="AC412" s="140"/>
+    </row>
+    <row r="413" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="140"/>
+      <c r="B413" s="140"/>
+      <c r="C413" s="140"/>
+      <c r="D413" s="140"/>
+      <c r="E413" s="140"/>
+      <c r="F413" s="140"/>
+      <c r="G413" s="140"/>
+      <c r="H413" s="140"/>
+      <c r="I413" s="140"/>
+      <c r="J413" s="140"/>
+      <c r="K413" s="140"/>
+      <c r="L413" s="140"/>
+      <c r="M413" s="140"/>
+      <c r="N413" s="140"/>
+      <c r="O413" s="140"/>
+      <c r="P413" s="140"/>
+      <c r="Q413" s="140"/>
+      <c r="R413" s="140"/>
+      <c r="S413" s="140"/>
+      <c r="T413" s="140"/>
+      <c r="U413" s="140"/>
+      <c r="V413" s="140"/>
+      <c r="W413" s="140"/>
+      <c r="X413" s="140"/>
+      <c r="Y413" s="140"/>
+      <c r="Z413" s="140"/>
+      <c r="AA413" s="140"/>
+      <c r="AB413" s="140"/>
+      <c r="AC413" s="140"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D21:D48"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D61"/>
+  <mergeCells count="55">
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D50:D69"/>
+    <mergeCell ref="E336:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="B317:B345"/>
+    <mergeCell ref="C317:C330"/>
+    <mergeCell ref="E317:E324"/>
+    <mergeCell ref="E327:E330"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="E332:E333"/>
+    <mergeCell ref="C336:C345"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D202:D212"/>
+    <mergeCell ref="M202:M209"/>
+    <mergeCell ref="D214:D222"/>
+    <mergeCell ref="K265:K267"/>
+    <mergeCell ref="L265:L267"/>
+    <mergeCell ref="C274:C280"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="C284:C288"/>
+    <mergeCell ref="K300:K301"/>
+    <mergeCell ref="D157:D165"/>
+    <mergeCell ref="B16:B212"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C76:C101"/>
+    <mergeCell ref="D76:D101"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D123:D133"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D149:D155"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C24:C43"/>
+    <mergeCell ref="C45:C48"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -16856,48 +17098,14 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D154:D162"/>
-    <mergeCell ref="B16:B209"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C73:C98"/>
-    <mergeCell ref="D73:D98"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D111:D115"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D120:D130"/>
-    <mergeCell ref="D132:D141"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D146:D152"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C24:C43"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="K301:K302"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D199:D209"/>
-    <mergeCell ref="M199:M206"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="K262:K264"/>
-    <mergeCell ref="L262:L264"/>
-    <mergeCell ref="C271:C277"/>
-    <mergeCell ref="E271:E273"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C281:C285"/>
-    <mergeCell ref="K297:K298"/>
-    <mergeCell ref="E333:E338"/>
-    <mergeCell ref="E339:E342"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="B314:B342"/>
-    <mergeCell ref="C314:C327"/>
-    <mergeCell ref="E314:E321"/>
-    <mergeCell ref="E324:E327"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="C333:C342"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D21:D48"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C58:C65"/>
   </mergeCells>
-  <conditionalFormatting sqref="L8:L14 L16:L71 L73:L118 L154:L410">
+  <conditionalFormatting sqref="L8:L14 L16:L74 L76:L121 L157:L413">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -16911,7 +17119,7 @@
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L130 L132:L135 L137:L141 L143:L144 L146:L152 K245:K250 K252:K253 K290 K304:K313">
+  <conditionalFormatting sqref="L123:L133 L135:L138 L140:L144 L146:L147 L149:L155 K248:K253 K255:K256 K293 K307:K316">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -16926,7 +17134,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L301:L342 L120:L130 L132:L135 L137:L141 L143:L144 L146:L152 K245:K250 K252:K253 L154:L258 L261:L262 L265 L268:L279 K290 L281:L293 L296:L297 L299 K304:K313 L355:L358 L378:L410 L73:L118 L8:L14 L16:L71" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
+    <dataValidation type="list" allowBlank="1" sqref="L304:L345 L123:L133 L135:L138 L140:L144 L146:L147 L149:L155 K248:K253 K255:K256 L157:L261 L264:L265 L268 L271:L282 K293 L284:L296 L299:L300 L302 K307:K316 L358:L361 L381:L413 L76:L121 L8:L14 L16:L74" xr:uid="{0B9E4292-F911-4EDA-ADF8-F97B5473E471}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16957,8 +17165,11 @@
     <hyperlink ref="C1" r:id="rId23" xr:uid="{E562459A-D10D-4CAF-881C-62E7AB91D1F3}"/>
     <hyperlink ref="J51" r:id="rId24" xr:uid="{05C96C97-50AD-40D4-BFBD-CE7ADA943949}"/>
     <hyperlink ref="J61" r:id="rId25" xr:uid="{DDC9F41F-78D2-4D65-A399-2B58F69E98B0}"/>
+    <hyperlink ref="J68" r:id="rId26" xr:uid="{2401DAFC-2A4E-41B0-9B0C-7F54FA6B5AA7}"/>
+    <hyperlink ref="J64" r:id="rId27" xr:uid="{4372815D-FF1D-44E2-AF76-42F5785D743B}"/>
+    <hyperlink ref="J69" r:id="rId28" xr:uid="{899CAEEB-29C9-49B1-A322-554C7EA4A804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project Ajker Deal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89A292-28B1-493E-9231-0EAC94BE9EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B817B-B7F7-4191-9564-74EC37A9FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="258">
   <si>
     <t>PASS</t>
   </si>
@@ -919,6 +919,43 @@
   </si>
   <si>
     <t>missing toggle</t>
+  </si>
+  <si>
+    <t>Check copy paste functionality for username and password field</t>
+  </si>
+  <si>
+    <t>User will be able to copy and paste to username field and paste to password field</t>
+  </si>
+  <si>
+    <t>1. Go to ajkerdeal.com
+2. Click on login.
+3. Paste username which is already copied.
+4. Copy from username filed.</t>
+  </si>
+  <si>
+    <t>tawfiqul.abid
+****</t>
+  </si>
+  <si>
+    <t>Password Recovery</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>Product search
+Product Details</t>
+  </si>
+  <si>
+    <t>Cart Management</t>
+  </si>
+  <si>
+    <t>Add to Cart
+Update Cart
+Remove from Cart</t>
+  </si>
+  <si>
+    <t>Check Out</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1604,21 +1641,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1753,19 +1775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1" tint="0.14999847407452621"/>
       </left>
@@ -1777,21 +1786,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,12 +1911,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2468,9 +2506,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2561,15 +2596,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,7 +2633,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2640,16 +2675,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
@@ -2668,16 +2700,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2695,147 +2842,53 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3279,9 +3332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC6FFD-3B30-4AE5-AAA8-576BE8640CC4}">
   <dimension ref="A1:AC413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3303,11 +3356,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="272" t="s">
+      <c r="B1" s="309"/>
+      <c r="C1" s="270" t="s">
         <v>158</v>
       </c>
       <c r="D1" s="143" t="s">
@@ -3319,10 +3372,10 @@
       </c>
       <c r="G1" s="146"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="273" t="s">
+      <c r="I1" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="274"/>
+      <c r="J1" s="311"/>
       <c r="K1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3342,10 +3395,10 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="309" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="293"/>
+      <c r="B2" s="309"/>
       <c r="C2" s="147" t="s">
         <v>36</v>
       </c>
@@ -3363,7 +3416,7 @@
       </c>
       <c r="J2" s="178">
         <f>COUNTIF(L8:L102, "Passed")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
       <c r="N2" s="3"/>
@@ -3384,10 +3437,10 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="293"/>
+      <c r="B3" s="309"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148" t="s">
         <v>12</v>
@@ -3426,10 +3479,10 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="293"/>
+      <c r="B4" s="309"/>
       <c r="C4" s="147"/>
       <c r="D4" s="148" t="s">
         <v>15</v>
@@ -3466,17 +3519,17 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="291"/>
-      <c r="C5" s="292" t="s">
+      <c r="B5" s="307"/>
+      <c r="C5" s="308" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
       <c r="H5" s="1"/>
       <c r="I5" s="183" t="s">
         <v>3</v>
@@ -3517,7 +3570,7 @@
       </c>
       <c r="J6" s="186">
         <f>SUM(J2:J5)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" s="3"/>
@@ -3582,11 +3635,11 @@
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="288"/>
-      <c r="C8" s="199" t="s">
+      <c r="B8" s="304"/>
+      <c r="C8" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="279"/>
+      <c r="D8" s="316"/>
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
@@ -3629,9 +3682,9 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="289"/>
+      <c r="B9" s="305"/>
       <c r="C9" s="190"/>
-      <c r="D9" s="280"/>
+      <c r="D9" s="317"/>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
@@ -3674,9 +3727,9 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="289"/>
+      <c r="B10" s="305"/>
       <c r="C10" s="190"/>
-      <c r="D10" s="280"/>
+      <c r="D10" s="317"/>
       <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
@@ -3692,7 +3745,7 @@
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="201" t="s">
+      <c r="J10" s="200" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="8"/>
@@ -3719,9 +3772,9 @@
     </row>
     <row r="11" spans="1:29" s="198" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="191"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="280"/>
+      <c r="B11" s="305"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="317"/>
       <c r="E11" s="192"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
@@ -3752,11 +3805,11 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="289"/>
-      <c r="C12" s="277" t="s">
+      <c r="B12" s="305"/>
+      <c r="C12" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="280"/>
+      <c r="D12" s="317"/>
       <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3825,7 @@
       <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="201" t="s">
+      <c r="J12" s="200" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="8"/>
@@ -3801,9 +3854,9 @@
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="289"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="280"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="317"/>
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3819,7 +3872,7 @@
       <c r="I13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="201" t="s">
+      <c r="J13" s="200" t="s">
         <v>70</v>
       </c>
       <c r="K13" s="8"/>
@@ -3848,9 +3901,9 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="290"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="281"/>
+      <c r="B14" s="306"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="318"/>
       <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
@@ -3866,7 +3919,7 @@
       <c r="I14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="201" t="s">
+      <c r="J14" s="200" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="8"/>
@@ -3893,8 +3946,8 @@
     </row>
     <row r="15" spans="1:29" s="158" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="230"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="154"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
@@ -3923,16 +3976,16 @@
       <c r="AC15" s="157"/>
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202">
+      <c r="A16" s="201">
         <v>7</v>
       </c>
-      <c r="B16" s="295" t="s">
+      <c r="B16" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="313" t="s">
+      <c r="C16" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="209" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3950,7 +4003,7 @@
       <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="201" t="s">
+      <c r="J16" s="200" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="8"/>
@@ -3976,12 +4029,12 @@
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203">
+      <c r="A17" s="202">
         <v>8</v>
       </c>
-      <c r="B17" s="296"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="211"/>
+      <c r="B17" s="326"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="6" t="s">
         <v>72</v>
       </c>
@@ -3997,7 +4050,7 @@
       <c r="I17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="201" t="s">
+      <c r="J17" s="200" t="s">
         <v>75</v>
       </c>
       <c r="K17" s="16"/>
@@ -4023,12 +4076,12 @@
       <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="203">
+      <c r="A18" s="202">
         <v>9</v>
       </c>
-      <c r="B18" s="296"/>
-      <c r="C18" s="314"/>
-      <c r="D18" s="211"/>
+      <c r="B18" s="326"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="6" t="s">
         <v>76</v>
       </c>
@@ -4070,12 +4123,12 @@
       <c r="AC18" s="19"/>
     </row>
     <row r="19" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="203">
+      <c r="A19" s="202">
         <v>10</v>
       </c>
-      <c r="B19" s="296"/>
-      <c r="C19" s="314"/>
-      <c r="D19" s="211"/>
+      <c r="B19" s="326"/>
+      <c r="C19" s="321"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
@@ -4091,7 +4144,7 @@
       <c r="I19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="201" t="s">
+      <c r="J19" s="200" t="s">
         <v>83</v>
       </c>
       <c r="K19" s="21"/>
@@ -4117,12 +4170,12 @@
       <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203">
+      <c r="A20" s="202">
         <v>11</v>
       </c>
-      <c r="B20" s="296"/>
-      <c r="C20" s="314"/>
-      <c r="D20" s="211"/>
+      <c r="B20" s="326"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
@@ -4138,7 +4191,7 @@
       <c r="I20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="201"/>
+      <c r="J20" s="200"/>
       <c r="K20" s="21"/>
       <c r="L20" s="17" t="s">
         <v>31</v>
@@ -4162,12 +4215,12 @@
       <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203">
+      <c r="A21" s="202">
         <v>12</v>
       </c>
-      <c r="B21" s="296"/>
-      <c r="C21" s="314"/>
-      <c r="D21" s="275"/>
+      <c r="B21" s="326"/>
+      <c r="C21" s="321"/>
+      <c r="D21" s="312"/>
       <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
@@ -4183,7 +4236,7 @@
       <c r="I21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="201"/>
+      <c r="J21" s="200"/>
       <c r="K21" s="21"/>
       <c r="L21" s="17" t="s">
         <v>31</v>
@@ -4207,13 +4260,13 @@
       <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="1:29" s="20" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="203">
+      <c r="A22" s="202">
         <v>13</v>
       </c>
-      <c r="B22" s="296"/>
-      <c r="C22" s="315"/>
-      <c r="D22" s="275"/>
-      <c r="E22" s="239" t="s">
+      <c r="B22" s="326"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="312"/>
+      <c r="E22" s="238" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -4228,7 +4281,7 @@
       <c r="I22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="201"/>
+      <c r="J22" s="200"/>
       <c r="K22" s="21"/>
       <c r="L22" s="17" t="s">
         <v>31</v>
@@ -4251,47 +4304,47 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
     </row>
-    <row r="23" spans="1:29" s="248" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="241"/>
-      <c r="B23" s="296"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="243"/>
+    <row r="23" spans="1:29" s="247" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="240"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="312"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="242"/>
       <c r="G23" s="192"/>
       <c r="H23" s="192"/>
       <c r="I23" s="193"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="244"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="247"/>
-      <c r="W23" s="247"/>
-      <c r="X23" s="247"/>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="247"/>
-      <c r="AA23" s="247"/>
-      <c r="AB23" s="247"/>
-      <c r="AC23" s="247"/>
+      <c r="J23" s="249"/>
+      <c r="K23" s="243"/>
+      <c r="L23" s="244"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="245"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="245"/>
+      <c r="Q23" s="245"/>
+      <c r="R23" s="245"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="246"/>
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="246"/>
+      <c r="AC23" s="246"/>
     </row>
     <row r="24" spans="1:29" s="20" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="203">
+      <c r="A24" s="202">
         <v>14</v>
       </c>
-      <c r="B24" s="296"/>
-      <c r="C24" s="316" t="s">
+      <c r="B24" s="326"/>
+      <c r="C24" s="323" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="275"/>
-      <c r="E24" s="240" t="s">
+      <c r="D24" s="312"/>
+      <c r="E24" s="239" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -4306,7 +4359,7 @@
       <c r="I24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="201" t="s">
+      <c r="J24" s="200" t="s">
         <v>96</v>
       </c>
       <c r="K24" s="21"/>
@@ -4332,12 +4385,12 @@
       <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="203">
+      <c r="A25" s="202">
         <v>15</v>
       </c>
-      <c r="B25" s="296"/>
-      <c r="C25" s="314"/>
-      <c r="D25" s="275"/>
+      <c r="B25" s="326"/>
+      <c r="C25" s="321"/>
+      <c r="D25" s="312"/>
       <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
@@ -4353,7 +4406,7 @@
       <c r="I25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="251"/>
+      <c r="J25" s="250"/>
       <c r="K25" s="21"/>
       <c r="L25" s="17" t="s">
         <v>31</v>
@@ -4377,12 +4430,12 @@
       <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="203">
+      <c r="A26" s="202">
         <v>16</v>
       </c>
-      <c r="B26" s="296"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="275"/>
+      <c r="B26" s="326"/>
+      <c r="C26" s="321"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="6" t="s">
         <v>104</v>
       </c>
@@ -4398,7 +4451,7 @@
       <c r="I26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="201" t="s">
+      <c r="J26" s="200" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="21"/>
@@ -4424,12 +4477,12 @@
       <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203">
+      <c r="A27" s="202">
         <v>17</v>
       </c>
-      <c r="B27" s="296"/>
-      <c r="C27" s="314"/>
-      <c r="D27" s="275"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="321"/>
+      <c r="D27" s="312"/>
       <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
@@ -4445,7 +4498,7 @@
       <c r="I27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="201" t="s">
+      <c r="J27" s="200" t="s">
         <v>109</v>
       </c>
       <c r="K27" s="21"/>
@@ -4471,12 +4524,12 @@
       <c r="AC27" s="19"/>
     </row>
     <row r="28" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="203">
+      <c r="A28" s="202">
         <v>18</v>
       </c>
-      <c r="B28" s="296"/>
-      <c r="C28" s="314"/>
-      <c r="D28" s="275"/>
+      <c r="B28" s="326"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="312"/>
       <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
@@ -4518,12 +4571,12 @@
       <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="203">
+      <c r="A29" s="202">
         <v>19</v>
       </c>
-      <c r="B29" s="296"/>
-      <c r="C29" s="314"/>
-      <c r="D29" s="275"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="321"/>
+      <c r="D29" s="312"/>
       <c r="E29" s="6" t="s">
         <v>114</v>
       </c>
@@ -4565,12 +4618,12 @@
       <c r="AC29" s="19"/>
     </row>
     <row r="30" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="203">
+      <c r="A30" s="202">
         <v>20</v>
       </c>
-      <c r="B30" s="296"/>
-      <c r="C30" s="314"/>
-      <c r="D30" s="275"/>
+      <c r="B30" s="326"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="312"/>
       <c r="E30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4586,7 +4639,7 @@
       <c r="I30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="201"/>
+      <c r="J30" s="200"/>
       <c r="K30" s="21"/>
       <c r="L30" s="17" t="s">
         <v>31</v>
@@ -4610,12 +4663,12 @@
       <c r="AC30" s="19"/>
     </row>
     <row r="31" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="203">
+      <c r="A31" s="202">
         <v>21</v>
       </c>
-      <c r="B31" s="296"/>
-      <c r="C31" s="314"/>
-      <c r="D31" s="275"/>
+      <c r="B31" s="326"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="312"/>
       <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
@@ -4631,7 +4684,7 @@
       <c r="I31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="201"/>
+      <c r="J31" s="200"/>
       <c r="K31" s="21"/>
       <c r="L31" s="17" t="s">
         <v>31</v>
@@ -4655,12 +4708,12 @@
       <c r="AC31" s="19"/>
     </row>
     <row r="32" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="203">
+      <c r="A32" s="202">
         <v>22</v>
       </c>
-      <c r="B32" s="296"/>
-      <c r="C32" s="314"/>
-      <c r="D32" s="275"/>
+      <c r="B32" s="326"/>
+      <c r="C32" s="321"/>
+      <c r="D32" s="312"/>
       <c r="E32" s="6" t="s">
         <v>122</v>
       </c>
@@ -4702,12 +4755,12 @@
       <c r="AC32" s="19"/>
     </row>
     <row r="33" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="203">
+      <c r="A33" s="202">
         <v>23</v>
       </c>
-      <c r="B33" s="296"/>
-      <c r="C33" s="314"/>
-      <c r="D33" s="275"/>
+      <c r="B33" s="326"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="312"/>
       <c r="E33" s="6" t="s">
         <v>124</v>
       </c>
@@ -4723,7 +4776,7 @@
       <c r="I33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="201"/>
+      <c r="J33" s="200"/>
       <c r="K33" s="21"/>
       <c r="L33" s="17" t="s">
         <v>31</v>
@@ -4747,12 +4800,12 @@
       <c r="AC33" s="19"/>
     </row>
     <row r="34" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="203">
+      <c r="A34" s="202">
         <v>24</v>
       </c>
-      <c r="B34" s="296"/>
-      <c r="C34" s="314"/>
-      <c r="D34" s="275"/>
+      <c r="B34" s="326"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="312"/>
       <c r="E34" s="6" t="s">
         <v>127</v>
       </c>
@@ -4794,12 +4847,12 @@
       <c r="AC34" s="19"/>
     </row>
     <row r="35" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="203">
+      <c r="A35" s="202">
         <v>25</v>
       </c>
-      <c r="B35" s="296"/>
-      <c r="C35" s="314"/>
-      <c r="D35" s="275"/>
+      <c r="B35" s="326"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="6" t="s">
         <v>132</v>
       </c>
@@ -4815,7 +4868,7 @@
       <c r="I35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="201"/>
+      <c r="J35" s="200"/>
       <c r="K35" s="21"/>
       <c r="L35" s="17" t="s">
         <v>31</v>
@@ -4839,12 +4892,12 @@
       <c r="AC35" s="19"/>
     </row>
     <row r="36" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="203">
+      <c r="A36" s="202">
         <v>26</v>
       </c>
-      <c r="B36" s="296"/>
-      <c r="C36" s="314"/>
-      <c r="D36" s="275"/>
+      <c r="B36" s="326"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="312"/>
       <c r="E36" s="6" t="s">
         <v>135</v>
       </c>
@@ -4886,12 +4939,12 @@
       <c r="AC36" s="19"/>
     </row>
     <row r="37" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="203">
+      <c r="A37" s="202">
         <v>27</v>
       </c>
-      <c r="B37" s="296"/>
-      <c r="C37" s="314"/>
-      <c r="D37" s="275"/>
+      <c r="B37" s="326"/>
+      <c r="C37" s="321"/>
+      <c r="D37" s="312"/>
       <c r="E37" s="6" t="s">
         <v>139</v>
       </c>
@@ -4933,12 +4986,12 @@
       <c r="AC37" s="19"/>
     </row>
     <row r="38" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="203">
+      <c r="A38" s="202">
         <v>28</v>
       </c>
-      <c r="B38" s="296"/>
-      <c r="C38" s="314"/>
-      <c r="D38" s="275"/>
+      <c r="B38" s="326"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="312"/>
       <c r="E38" s="6" t="s">
         <v>151</v>
       </c>
@@ -4954,7 +5007,7 @@
       <c r="I38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="201"/>
+      <c r="J38" s="200"/>
       <c r="K38" s="21"/>
       <c r="L38" s="17" t="s">
         <v>31</v>
@@ -4978,12 +5031,12 @@
       <c r="AC38" s="19"/>
     </row>
     <row r="39" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="203">
+      <c r="A39" s="202">
         <v>29</v>
       </c>
-      <c r="B39" s="296"/>
-      <c r="C39" s="314"/>
-      <c r="D39" s="275"/>
+      <c r="B39" s="326"/>
+      <c r="C39" s="321"/>
+      <c r="D39" s="312"/>
       <c r="E39" s="6" t="s">
         <v>154</v>
       </c>
@@ -5025,12 +5078,12 @@
       <c r="AC39" s="19"/>
     </row>
     <row r="40" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="203">
+      <c r="A40" s="202">
         <v>30</v>
       </c>
-      <c r="B40" s="296"/>
-      <c r="C40" s="314"/>
-      <c r="D40" s="275"/>
+      <c r="B40" s="326"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="312"/>
       <c r="E40" s="6" t="s">
         <v>142</v>
       </c>
@@ -5046,7 +5099,7 @@
       <c r="I40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="201"/>
+      <c r="J40" s="200"/>
       <c r="K40" s="21"/>
       <c r="L40" s="17" t="s">
         <v>31</v>
@@ -5070,12 +5123,12 @@
       <c r="AC40" s="19"/>
     </row>
     <row r="41" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="203">
+      <c r="A41" s="202">
         <v>31</v>
       </c>
-      <c r="B41" s="296"/>
-      <c r="C41" s="314"/>
-      <c r="D41" s="275"/>
+      <c r="B41" s="326"/>
+      <c r="C41" s="321"/>
+      <c r="D41" s="312"/>
       <c r="E41" s="6" t="s">
         <v>148</v>
       </c>
@@ -5091,7 +5144,7 @@
       <c r="I41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="201"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="21"/>
       <c r="L41" s="17" t="s">
         <v>31</v>
@@ -5115,12 +5168,12 @@
       <c r="AC41" s="19"/>
     </row>
     <row r="42" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="203">
+      <c r="A42" s="202">
         <v>32</v>
       </c>
-      <c r="B42" s="296"/>
-      <c r="C42" s="314"/>
-      <c r="D42" s="275"/>
+      <c r="B42" s="326"/>
+      <c r="C42" s="321"/>
+      <c r="D42" s="312"/>
       <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
@@ -5136,7 +5189,7 @@
       <c r="I42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="201"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="21"/>
       <c r="L42" s="17" t="s">
         <v>31</v>
@@ -5160,12 +5213,12 @@
       <c r="AC42" s="19"/>
     </row>
     <row r="43" spans="1:29" s="20" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="203">
+      <c r="A43" s="202">
         <v>33</v>
       </c>
-      <c r="B43" s="296"/>
-      <c r="C43" s="314"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="326"/>
+      <c r="C43" s="321"/>
+      <c r="D43" s="312"/>
       <c r="E43" s="6" t="s">
         <v>165</v>
       </c>
@@ -5181,7 +5234,7 @@
       <c r="I43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J43" s="201"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="21"/>
       <c r="L43" s="17" t="s">
         <v>31</v>
@@ -5205,16 +5258,16 @@
       <c r="AC43" s="19"/>
     </row>
     <row r="44" spans="1:29" s="165" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="296"/>
-      <c r="C44" s="263"/>
-      <c r="D44" s="275"/>
+      <c r="A44" s="203"/>
+      <c r="B44" s="326"/>
+      <c r="C44" s="262"/>
+      <c r="D44" s="312"/>
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
       <c r="G44" s="159"/>
       <c r="H44" s="159"/>
       <c r="I44" s="160"/>
-      <c r="J44" s="252"/>
+      <c r="J44" s="251"/>
       <c r="K44" s="161"/>
       <c r="L44" s="162"/>
       <c r="M44" s="163"/>
@@ -5236,14 +5289,14 @@
       <c r="AC44" s="164"/>
     </row>
     <row r="45" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="205">
+      <c r="A45" s="204">
         <v>34</v>
       </c>
-      <c r="B45" s="297"/>
-      <c r="C45" s="317" t="s">
+      <c r="B45" s="326"/>
+      <c r="C45" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="275"/>
+      <c r="D45" s="312"/>
       <c r="E45" s="24" t="s">
         <v>168</v>
       </c>
@@ -5259,7 +5312,7 @@
       <c r="I45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J45" s="253"/>
+      <c r="J45" s="252"/>
       <c r="K45" s="27"/>
       <c r="L45" s="9" t="s">
         <v>31</v>
@@ -5283,12 +5336,12 @@
       <c r="AC45" s="29"/>
     </row>
     <row r="46" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="205">
+      <c r="A46" s="204">
         <v>35</v>
       </c>
-      <c r="B46" s="297"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="275"/>
+      <c r="B46" s="326"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="312"/>
       <c r="E46" s="24" t="s">
         <v>172</v>
       </c>
@@ -5328,12 +5381,12 @@
       <c r="AC46" s="29"/>
     </row>
     <row r="47" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="205">
+      <c r="A47" s="204">
         <v>36</v>
       </c>
-      <c r="B47" s="297"/>
-      <c r="C47" s="283"/>
-      <c r="D47" s="275"/>
+      <c r="B47" s="326"/>
+      <c r="C47" s="280"/>
+      <c r="D47" s="312"/>
       <c r="E47" s="24" t="s">
         <v>176</v>
       </c>
@@ -5349,7 +5402,7 @@
       <c r="I47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="201"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="27"/>
       <c r="L47" s="9" t="s">
         <v>31</v>
@@ -5373,12 +5426,12 @@
       <c r="AC47" s="29"/>
     </row>
     <row r="48" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="205">
+      <c r="A48" s="204">
         <v>37</v>
       </c>
-      <c r="B48" s="297"/>
-      <c r="C48" s="284"/>
-      <c r="D48" s="276"/>
+      <c r="B48" s="326"/>
+      <c r="C48" s="281"/>
+      <c r="D48" s="313"/>
       <c r="E48" s="32" t="s">
         <v>180</v>
       </c>
@@ -5394,7 +5447,7 @@
       <c r="I48" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J48" s="254"/>
+      <c r="J48" s="253"/>
       <c r="K48" s="27"/>
       <c r="L48" s="9" t="s">
         <v>31</v>
@@ -5418,19 +5471,19 @@
       <c r="AC48" s="29"/>
     </row>
     <row r="49" spans="1:29" s="174" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="207"/>
-      <c r="B49" s="297"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="257"/>
-      <c r="E49" s="258"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="326"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="257"/>
       <c r="F49" s="192"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="259"/>
+      <c r="G49" s="258"/>
+      <c r="H49" s="258"/>
       <c r="I49" s="193"/>
-      <c r="J49" s="260"/>
-      <c r="K49" s="261"/>
+      <c r="J49" s="259"/>
+      <c r="K49" s="260"/>
       <c r="L49" s="195"/>
-      <c r="M49" s="262"/>
+      <c r="M49" s="261"/>
       <c r="N49" s="172"/>
       <c r="O49" s="172"/>
       <c r="P49" s="172"/>
@@ -5449,14 +5502,14 @@
       <c r="AC49" s="173"/>
     </row>
     <row r="50" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="205">
+      <c r="A50" s="204">
         <v>38</v>
       </c>
-      <c r="B50" s="297"/>
-      <c r="C50" s="282" t="s">
+      <c r="B50" s="326"/>
+      <c r="C50" s="328" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="285" t="s">
+      <c r="D50" s="329" t="s">
         <v>183</v>
       </c>
       <c r="E50" s="32" t="s">
@@ -5474,7 +5527,7 @@
       <c r="I50" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="255"/>
+      <c r="J50" s="254"/>
       <c r="K50" s="27"/>
       <c r="L50" s="9" t="s">
         <v>31</v>
@@ -5498,12 +5551,12 @@
       <c r="AC50" s="29"/>
     </row>
     <row r="51" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="205">
+      <c r="A51" s="204">
         <v>39</v>
       </c>
-      <c r="B51" s="297"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="286"/>
+      <c r="B51" s="326"/>
+      <c r="C51" s="280"/>
+      <c r="D51" s="282"/>
       <c r="E51" s="24" t="s">
         <v>80</v>
       </c>
@@ -5545,12 +5598,12 @@
       <c r="AC51" s="29"/>
     </row>
     <row r="52" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="205">
+      <c r="A52" s="204">
         <v>40</v>
       </c>
-      <c r="B52" s="297"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="286"/>
+      <c r="B52" s="326"/>
+      <c r="C52" s="280"/>
+      <c r="D52" s="282"/>
       <c r="E52" s="24" t="s">
         <v>190</v>
       </c>
@@ -5566,7 +5619,7 @@
       <c r="I52" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J52" s="267" t="s">
+      <c r="J52" s="265" t="s">
         <v>193</v>
       </c>
       <c r="K52" s="27"/>
@@ -5592,12 +5645,12 @@
       <c r="AC52" s="29"/>
     </row>
     <row r="53" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="205">
+      <c r="A53" s="204">
         <v>41</v>
       </c>
-      <c r="B53" s="297"/>
-      <c r="C53" s="283"/>
-      <c r="D53" s="286"/>
+      <c r="B53" s="326"/>
+      <c r="C53" s="280"/>
+      <c r="D53" s="282"/>
       <c r="E53" s="24" t="s">
         <v>194</v>
       </c>
@@ -5613,7 +5666,7 @@
       <c r="I53" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J53" s="256"/>
+      <c r="J53" s="255"/>
       <c r="K53" s="27"/>
       <c r="L53" s="9" t="s">
         <v>31</v>
@@ -5637,12 +5690,12 @@
       <c r="AC53" s="29"/>
     </row>
     <row r="54" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="205">
+      <c r="A54" s="204">
         <v>42</v>
       </c>
-      <c r="B54" s="297"/>
-      <c r="C54" s="283"/>
-      <c r="D54" s="286"/>
+      <c r="B54" s="326"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="282"/>
       <c r="E54" s="24" t="s">
         <v>197</v>
       </c>
@@ -5658,7 +5711,7 @@
       <c r="I54" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J54" s="256"/>
+      <c r="J54" s="255"/>
       <c r="K54" s="27"/>
       <c r="L54" s="9" t="s">
         <v>31</v>
@@ -5682,12 +5735,12 @@
       <c r="AC54" s="29"/>
     </row>
     <row r="55" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="205">
+      <c r="A55" s="204">
         <v>43</v>
       </c>
-      <c r="B55" s="297"/>
-      <c r="C55" s="283"/>
-      <c r="D55" s="286"/>
+      <c r="B55" s="326"/>
+      <c r="C55" s="280"/>
+      <c r="D55" s="282"/>
       <c r="E55" s="32" t="s">
         <v>200</v>
       </c>
@@ -5729,12 +5782,12 @@
       <c r="AC55" s="29"/>
     </row>
     <row r="56" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="205">
+      <c r="A56" s="204">
         <v>44</v>
       </c>
-      <c r="B56" s="297"/>
-      <c r="C56" s="284"/>
-      <c r="D56" s="286"/>
+      <c r="B56" s="326"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="282"/>
       <c r="E56" s="24" t="s">
         <v>202</v>
       </c>
@@ -5776,19 +5829,19 @@
       <c r="AC56" s="29"/>
     </row>
     <row r="57" spans="1:29" s="174" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="207"/>
-      <c r="B57" s="297"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="286"/>
-      <c r="E57" s="268"/>
+      <c r="A57" s="206"/>
+      <c r="B57" s="326"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="266"/>
       <c r="F57" s="192"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
+      <c r="G57" s="258"/>
+      <c r="H57" s="258"/>
       <c r="I57" s="193"/>
-      <c r="J57" s="269"/>
-      <c r="K57" s="270"/>
+      <c r="J57" s="267"/>
+      <c r="K57" s="268"/>
       <c r="L57" s="195"/>
-      <c r="M57" s="262"/>
+      <c r="M57" s="261"/>
       <c r="N57" s="172"/>
       <c r="O57" s="172"/>
       <c r="P57" s="172"/>
@@ -5807,18 +5860,18 @@
       <c r="AC57" s="173"/>
     </row>
     <row r="58" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="205">
+      <c r="A58" s="204">
         <v>45</v>
       </c>
-      <c r="B58" s="297"/>
-      <c r="C58" s="282" t="s">
+      <c r="B58" s="326"/>
+      <c r="C58" s="328" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="286"/>
+      <c r="D58" s="282"/>
       <c r="E58" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="271" t="s">
+      <c r="F58" s="269" t="s">
         <v>207</v>
       </c>
       <c r="G58" s="25" t="s">
@@ -5854,12 +5907,12 @@
       <c r="AC58" s="29"/>
     </row>
     <row r="59" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="205">
+      <c r="A59" s="204">
         <v>46</v>
       </c>
-      <c r="B59" s="297"/>
-      <c r="C59" s="283"/>
-      <c r="D59" s="286"/>
+      <c r="B59" s="326"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="282"/>
       <c r="E59" s="24" t="s">
         <v>210</v>
       </c>
@@ -5899,12 +5952,12 @@
       <c r="AC59" s="29"/>
     </row>
     <row r="60" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="205">
+      <c r="A60" s="204">
         <v>47</v>
       </c>
-      <c r="B60" s="297"/>
-      <c r="C60" s="283"/>
-      <c r="D60" s="286"/>
+      <c r="B60" s="326"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="282"/>
       <c r="E60" s="24" t="s">
         <v>214</v>
       </c>
@@ -5920,7 +5973,7 @@
       <c r="I60" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J60" s="201"/>
+      <c r="J60" s="200"/>
       <c r="K60" s="25"/>
       <c r="L60" s="9" t="s">
         <v>31</v>
@@ -5944,12 +5997,12 @@
       <c r="AC60" s="29"/>
     </row>
     <row r="61" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="205">
+      <c r="A61" s="204">
         <v>48</v>
       </c>
-      <c r="B61" s="297"/>
-      <c r="C61" s="283"/>
-      <c r="D61" s="286"/>
+      <c r="B61" s="326"/>
+      <c r="C61" s="280"/>
+      <c r="D61" s="282"/>
       <c r="E61" s="32" t="s">
         <v>218</v>
       </c>
@@ -5991,12 +6044,12 @@
       <c r="AC61" s="29"/>
     </row>
     <row r="62" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="205">
+      <c r="A62" s="204">
         <v>49</v>
       </c>
-      <c r="B62" s="297"/>
-      <c r="C62" s="283"/>
-      <c r="D62" s="286"/>
+      <c r="B62" s="326"/>
+      <c r="C62" s="280"/>
+      <c r="D62" s="282"/>
       <c r="E62" s="32" t="s">
         <v>221</v>
       </c>
@@ -6012,7 +6065,7 @@
       <c r="I62" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J62" s="201"/>
+      <c r="J62" s="200"/>
       <c r="K62" s="25"/>
       <c r="L62" s="9" t="s">
         <v>31</v>
@@ -6036,12 +6089,12 @@
       <c r="AC62" s="29"/>
     </row>
     <row r="63" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="205">
+      <c r="A63" s="204">
         <v>50</v>
       </c>
-      <c r="B63" s="297"/>
-      <c r="C63" s="283"/>
-      <c r="D63" s="286"/>
+      <c r="B63" s="326"/>
+      <c r="C63" s="280"/>
+      <c r="D63" s="282"/>
       <c r="E63" s="32" t="s">
         <v>226</v>
       </c>
@@ -6081,12 +6134,12 @@
       <c r="AC63" s="29"/>
     </row>
     <row r="64" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="205">
+      <c r="A64" s="204">
         <v>51</v>
       </c>
-      <c r="B64" s="297"/>
-      <c r="C64" s="283"/>
-      <c r="D64" s="286"/>
+      <c r="B64" s="326"/>
+      <c r="C64" s="280"/>
+      <c r="D64" s="282"/>
       <c r="E64" s="32" t="s">
         <v>243</v>
       </c>
@@ -6128,12 +6181,12 @@
       <c r="AC64" s="29"/>
     </row>
     <row r="65" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="205">
+      <c r="A65" s="204">
         <v>52</v>
       </c>
-      <c r="B65" s="297"/>
-      <c r="C65" s="284"/>
-      <c r="D65" s="286"/>
+      <c r="B65" s="326"/>
+      <c r="C65" s="281"/>
+      <c r="D65" s="282"/>
       <c r="E65" s="6" t="s">
         <v>230</v>
       </c>
@@ -6173,17 +6226,17 @@
       <c r="AC65" s="29"/>
     </row>
     <row r="66" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="207"/>
-      <c r="B66" s="297"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="286"/>
+      <c r="A66" s="206"/>
+      <c r="B66" s="326"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="282"/>
       <c r="E66" s="192"/>
       <c r="F66" s="192"/>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
+      <c r="G66" s="258"/>
+      <c r="H66" s="258"/>
       <c r="I66" s="193"/>
-      <c r="J66" s="329"/>
-      <c r="K66" s="259"/>
+      <c r="J66" s="279"/>
+      <c r="K66" s="258"/>
       <c r="L66" s="195"/>
       <c r="M66" s="195"/>
       <c r="N66" s="172"/>
@@ -6204,14 +6257,14 @@
       <c r="AC66" s="173"/>
     </row>
     <row r="67" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="205">
+      <c r="A67" s="204">
         <v>53</v>
       </c>
-      <c r="B67" s="297"/>
-      <c r="C67" s="282" t="s">
+      <c r="B67" s="326"/>
+      <c r="C67" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="286"/>
+      <c r="D67" s="282"/>
       <c r="E67" s="6" t="s">
         <v>233</v>
       </c>
@@ -6251,12 +6304,12 @@
       <c r="AC67" s="29"/>
     </row>
     <row r="68" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="205">
+      <c r="A68" s="204">
         <v>54</v>
       </c>
-      <c r="B68" s="297"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="286"/>
+      <c r="B68" s="326"/>
+      <c r="C68" s="280"/>
+      <c r="D68" s="282"/>
       <c r="E68" s="6" t="s">
         <v>236</v>
       </c>
@@ -6298,12 +6351,12 @@
       <c r="AC68" s="29"/>
     </row>
     <row r="69" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="205">
+      <c r="A69" s="204">
         <v>55</v>
       </c>
-      <c r="B69" s="297"/>
-      <c r="C69" s="284"/>
-      <c r="D69" s="287"/>
+      <c r="B69" s="326"/>
+      <c r="C69" s="280"/>
+      <c r="D69" s="282"/>
       <c r="E69" s="6" t="s">
         <v>240</v>
       </c>
@@ -6345,20 +6398,32 @@
       <c r="AC69" s="29"/>
     </row>
     <row r="70" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="205">
-        <v>35</v>
-      </c>
-      <c r="B70" s="297"/>
-      <c r="C70" s="265"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="7"/>
+      <c r="A70" s="204">
+        <v>56</v>
+      </c>
+      <c r="B70" s="326"/>
+      <c r="C70" s="319"/>
+      <c r="D70" s="283"/>
+      <c r="E70" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="J70" s="26"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="9"/>
+      <c r="L70" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M70" s="9"/>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
@@ -6378,10 +6443,10 @@
       <c r="AC70" s="29"/>
     </row>
     <row r="71" spans="1:29" s="168" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="206"/>
-      <c r="B71" s="296"/>
-      <c r="C71" s="264"/>
-      <c r="D71" s="212"/>
+      <c r="A71" s="205"/>
+      <c r="B71" s="326"/>
+      <c r="C71" s="263"/>
+      <c r="D71" s="256"/>
       <c r="E71" s="166"/>
       <c r="F71" s="159"/>
       <c r="G71" s="159"/>
@@ -6409,12 +6474,14 @@
       <c r="AC71" s="157"/>
     </row>
     <row r="72" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="205">
+      <c r="A72" s="204">
         <v>36</v>
       </c>
-      <c r="B72" s="296"/>
-      <c r="C72" s="299"/>
-      <c r="D72" s="212"/>
+      <c r="B72" s="326"/>
+      <c r="C72" s="296"/>
+      <c r="D72" s="211" t="s">
+        <v>252</v>
+      </c>
       <c r="E72" s="32"/>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -6442,12 +6509,12 @@
       <c r="AC72" s="29"/>
     </row>
     <row r="73" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="205">
+      <c r="A73" s="204">
         <v>37</v>
       </c>
-      <c r="B73" s="296"/>
-      <c r="C73" s="299"/>
-      <c r="D73" s="212"/>
+      <c r="B73" s="326"/>
+      <c r="C73" s="296"/>
+      <c r="D73" s="211"/>
       <c r="E73" s="36"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -6475,12 +6542,12 @@
       <c r="AC73" s="29"/>
     </row>
     <row r="74" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="205">
+      <c r="A74" s="204">
         <v>38</v>
       </c>
-      <c r="B74" s="296"/>
-      <c r="C74" s="299"/>
-      <c r="D74" s="212"/>
+      <c r="B74" s="327"/>
+      <c r="C74" s="296"/>
+      <c r="D74" s="211"/>
       <c r="E74" s="36"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -6508,10 +6575,10 @@
       <c r="AC74" s="29"/>
     </row>
     <row r="75" spans="1:29" s="174" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="207"/>
-      <c r="B75" s="296"/>
-      <c r="C75" s="232"/>
-      <c r="D75" s="213"/>
+      <c r="A75" s="206"/>
+      <c r="B75" s="272"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="212"/>
       <c r="E75" s="169"/>
       <c r="F75" s="170"/>
       <c r="G75" s="170"/>
@@ -6539,12 +6606,16 @@
       <c r="AC75" s="173"/>
     </row>
     <row r="76" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="205">
+      <c r="A76" s="204">
         <v>39</v>
       </c>
-      <c r="B76" s="296"/>
-      <c r="C76" s="300"/>
-      <c r="D76" s="303"/>
+      <c r="B76" s="272" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="274"/>
+      <c r="D76" s="330" t="s">
+        <v>254</v>
+      </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -6572,12 +6643,12 @@
       <c r="AC76" s="29"/>
     </row>
     <row r="77" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="205">
+      <c r="A77" s="204">
         <v>40</v>
       </c>
-      <c r="B77" s="296"/>
-      <c r="C77" s="301"/>
-      <c r="D77" s="304"/>
+      <c r="B77" s="272"/>
+      <c r="C77" s="275"/>
+      <c r="D77" s="277"/>
       <c r="E77" s="32"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
@@ -6605,12 +6676,12 @@
       <c r="AC77" s="29"/>
     </row>
     <row r="78" spans="1:29" s="37" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="205">
+      <c r="A78" s="204">
         <v>41</v>
       </c>
-      <c r="B78" s="296"/>
-      <c r="C78" s="301"/>
-      <c r="D78" s="304"/>
+      <c r="B78" s="272"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="277"/>
       <c r="E78" s="32"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
@@ -6629,12 +6700,12 @@
       <c r="T78" s="28"/>
     </row>
     <row r="79" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="205">
+      <c r="A79" s="204">
         <v>42</v>
       </c>
-      <c r="B79" s="296"/>
-      <c r="C79" s="301"/>
-      <c r="D79" s="304"/>
+      <c r="B79" s="272"/>
+      <c r="C79" s="275"/>
+      <c r="D79" s="277"/>
       <c r="E79" s="32"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
@@ -6662,12 +6733,12 @@
       <c r="AC79" s="29"/>
     </row>
     <row r="80" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="205">
+      <c r="A80" s="204">
         <v>43</v>
       </c>
-      <c r="B80" s="296"/>
-      <c r="C80" s="301"/>
-      <c r="D80" s="304"/>
+      <c r="B80" s="272"/>
+      <c r="C80" s="275"/>
+      <c r="D80" s="277"/>
       <c r="E80" s="32"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -6695,12 +6766,12 @@
       <c r="AC80" s="29"/>
     </row>
     <row r="81" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="205">
+      <c r="A81" s="204">
         <v>44</v>
       </c>
-      <c r="B81" s="296"/>
-      <c r="C81" s="301"/>
-      <c r="D81" s="304"/>
+      <c r="B81" s="272"/>
+      <c r="C81" s="275"/>
+      <c r="D81" s="277"/>
       <c r="E81" s="17"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
@@ -6727,46 +6798,50 @@
       <c r="AB81" s="29"/>
       <c r="AC81" s="29"/>
     </row>
-    <row r="82" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="205">
+    <row r="82" spans="1:29" s="174" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="206">
         <v>45</v>
       </c>
-      <c r="B82" s="296"/>
-      <c r="C82" s="301"/>
-      <c r="D82" s="304"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-      <c r="AC82" s="29"/>
+      <c r="B82" s="331"/>
+      <c r="C82" s="332"/>
+      <c r="D82" s="333"/>
+      <c r="E82" s="257"/>
+      <c r="F82" s="258"/>
+      <c r="G82" s="258"/>
+      <c r="H82" s="258"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="258"/>
+      <c r="K82" s="258"/>
+      <c r="L82" s="195"/>
+      <c r="M82" s="261"/>
+      <c r="N82" s="172"/>
+      <c r="O82" s="172"/>
+      <c r="P82" s="172"/>
+      <c r="Q82" s="172"/>
+      <c r="R82" s="172"/>
+      <c r="S82" s="172"/>
+      <c r="T82" s="172"/>
+      <c r="U82" s="173"/>
+      <c r="V82" s="173"/>
+      <c r="W82" s="173"/>
+      <c r="X82" s="173"/>
+      <c r="Y82" s="173"/>
+      <c r="Z82" s="173"/>
+      <c r="AA82" s="173"/>
+      <c r="AB82" s="173"/>
+      <c r="AC82" s="173"/>
     </row>
     <row r="83" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="205">
+      <c r="A83" s="204">
         <v>46</v>
       </c>
-      <c r="B83" s="296"/>
-      <c r="C83" s="301"/>
-      <c r="D83" s="304"/>
+      <c r="B83" s="272" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="275"/>
+      <c r="D83" s="334" t="s">
+        <v>256</v>
+      </c>
       <c r="E83" s="32"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
@@ -6794,12 +6869,12 @@
       <c r="AC83" s="29"/>
     </row>
     <row r="84" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="205">
+      <c r="A84" s="204">
         <v>47</v>
       </c>
-      <c r="B84" s="296"/>
-      <c r="C84" s="301"/>
-      <c r="D84" s="304"/>
+      <c r="B84" s="272"/>
+      <c r="C84" s="275"/>
+      <c r="D84" s="277"/>
       <c r="E84" s="32"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -6827,12 +6902,12 @@
       <c r="AC84" s="29"/>
     </row>
     <row r="85" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="205">
+      <c r="A85" s="204">
         <v>48</v>
       </c>
-      <c r="B85" s="296"/>
-      <c r="C85" s="301"/>
-      <c r="D85" s="304"/>
+      <c r="B85" s="272"/>
+      <c r="C85" s="275"/>
+      <c r="D85" s="277"/>
       <c r="E85" s="32"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -6860,12 +6935,12 @@
       <c r="AC85" s="29"/>
     </row>
     <row r="86" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="205">
+      <c r="A86" s="204">
         <v>49</v>
       </c>
-      <c r="B86" s="296"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="304"/>
+      <c r="B86" s="272"/>
+      <c r="C86" s="275"/>
+      <c r="D86" s="277"/>
       <c r="E86" s="24"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -6893,12 +6968,12 @@
       <c r="AC86" s="29"/>
     </row>
     <row r="87" spans="1:29" s="30" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="205">
+      <c r="A87" s="204">
         <v>50</v>
       </c>
-      <c r="B87" s="296"/>
-      <c r="C87" s="301"/>
-      <c r="D87" s="304"/>
+      <c r="B87" s="272"/>
+      <c r="C87" s="275"/>
+      <c r="D87" s="277"/>
       <c r="E87" s="32"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
@@ -6926,12 +7001,12 @@
       <c r="AC87" s="29"/>
     </row>
     <row r="88" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="205">
+      <c r="A88" s="204">
         <v>51</v>
       </c>
-      <c r="B88" s="296"/>
-      <c r="C88" s="301"/>
-      <c r="D88" s="304"/>
+      <c r="B88" s="272"/>
+      <c r="C88" s="275"/>
+      <c r="D88" s="277"/>
       <c r="E88" s="32"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
@@ -6958,46 +7033,48 @@
       <c r="AB88" s="29"/>
       <c r="AC88" s="29"/>
     </row>
-    <row r="89" spans="1:29" s="30" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="205">
+    <row r="89" spans="1:29" s="174" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="206">
         <v>52</v>
       </c>
-      <c r="B89" s="296"/>
-      <c r="C89" s="301"/>
-      <c r="D89" s="304"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="29"/>
-      <c r="AB89" s="29"/>
-      <c r="AC89" s="29"/>
+      <c r="B89" s="331"/>
+      <c r="C89" s="332"/>
+      <c r="D89" s="333"/>
+      <c r="E89" s="257"/>
+      <c r="F89" s="258"/>
+      <c r="G89" s="258"/>
+      <c r="H89" s="258"/>
+      <c r="I89" s="193"/>
+      <c r="J89" s="258"/>
+      <c r="K89" s="258"/>
+      <c r="L89" s="195"/>
+      <c r="M89" s="261"/>
+      <c r="N89" s="172"/>
+      <c r="O89" s="172"/>
+      <c r="P89" s="172"/>
+      <c r="Q89" s="172"/>
+      <c r="R89" s="172"/>
+      <c r="S89" s="172"/>
+      <c r="T89" s="172"/>
+      <c r="U89" s="173"/>
+      <c r="V89" s="173"/>
+      <c r="W89" s="173"/>
+      <c r="X89" s="173"/>
+      <c r="Y89" s="173"/>
+      <c r="Z89" s="173"/>
+      <c r="AA89" s="173"/>
+      <c r="AB89" s="173"/>
+      <c r="AC89" s="173"/>
     </row>
     <row r="90" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="205">
+      <c r="A90" s="204">
         <v>53</v>
       </c>
-      <c r="B90" s="296"/>
-      <c r="C90" s="301"/>
-      <c r="D90" s="304"/>
+      <c r="B90" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="275"/>
+      <c r="D90" s="277"/>
       <c r="E90" s="32"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -7025,12 +7102,12 @@
       <c r="AC90" s="29"/>
     </row>
     <row r="91" spans="1:29" s="30" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="205">
+      <c r="A91" s="204">
         <v>54</v>
       </c>
-      <c r="B91" s="296"/>
-      <c r="C91" s="301"/>
-      <c r="D91" s="304"/>
+      <c r="B91" s="272"/>
+      <c r="C91" s="275"/>
+      <c r="D91" s="277"/>
       <c r="E91" s="32"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -7058,12 +7135,12 @@
       <c r="AC91" s="29"/>
     </row>
     <row r="92" spans="1:29" s="30" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="205">
+      <c r="A92" s="204">
         <v>55</v>
       </c>
-      <c r="B92" s="296"/>
-      <c r="C92" s="301"/>
-      <c r="D92" s="304"/>
+      <c r="B92" s="272"/>
+      <c r="C92" s="275"/>
+      <c r="D92" s="277"/>
       <c r="E92" s="32"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -7091,12 +7168,12 @@
       <c r="AC92" s="29"/>
     </row>
     <row r="93" spans="1:29" s="30" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="205">
+      <c r="A93" s="204">
         <v>56</v>
       </c>
-      <c r="B93" s="296"/>
-      <c r="C93" s="301"/>
-      <c r="D93" s="304"/>
+      <c r="B93" s="272"/>
+      <c r="C93" s="275"/>
+      <c r="D93" s="277"/>
       <c r="E93" s="32"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
@@ -7124,12 +7201,12 @@
       <c r="AC93" s="29"/>
     </row>
     <row r="94" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="205">
+      <c r="A94" s="204">
         <v>57</v>
       </c>
-      <c r="B94" s="296"/>
-      <c r="C94" s="301"/>
-      <c r="D94" s="304"/>
+      <c r="B94" s="272"/>
+      <c r="C94" s="275"/>
+      <c r="D94" s="277"/>
       <c r="E94" s="32"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -7157,12 +7234,12 @@
       <c r="AC94" s="29"/>
     </row>
     <row r="95" spans="1:29" s="30" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="205">
+      <c r="A95" s="204">
         <v>58</v>
       </c>
-      <c r="B95" s="296"/>
-      <c r="C95" s="301"/>
-      <c r="D95" s="304"/>
+      <c r="B95" s="272"/>
+      <c r="C95" s="275"/>
+      <c r="D95" s="277"/>
       <c r="E95" s="32"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -7190,10 +7267,10 @@
       <c r="AC95" s="29"/>
     </row>
     <row r="96" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="205"/>
-      <c r="B96" s="296"/>
-      <c r="C96" s="301"/>
-      <c r="D96" s="304"/>
+      <c r="A96" s="204"/>
+      <c r="B96" s="272"/>
+      <c r="C96" s="275"/>
+      <c r="D96" s="277"/>
       <c r="E96" s="32"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -7221,10 +7298,10 @@
       <c r="AC96" s="29"/>
     </row>
     <row r="97" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="205"/>
-      <c r="B97" s="296"/>
-      <c r="C97" s="301"/>
-      <c r="D97" s="304"/>
+      <c r="A97" s="204"/>
+      <c r="B97" s="272"/>
+      <c r="C97" s="275"/>
+      <c r="D97" s="277"/>
       <c r="E97" s="32"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -7252,10 +7329,10 @@
       <c r="AC97" s="29"/>
     </row>
     <row r="98" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="205"/>
-      <c r="B98" s="296"/>
-      <c r="C98" s="301"/>
-      <c r="D98" s="304"/>
+      <c r="A98" s="204"/>
+      <c r="B98" s="272"/>
+      <c r="C98" s="275"/>
+      <c r="D98" s="277"/>
       <c r="E98" s="32"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -7283,10 +7360,10 @@
       <c r="AC98" s="29"/>
     </row>
     <row r="99" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="205"/>
-      <c r="B99" s="296"/>
-      <c r="C99" s="301"/>
-      <c r="D99" s="304"/>
+      <c r="A99" s="204"/>
+      <c r="B99" s="272"/>
+      <c r="C99" s="275"/>
+      <c r="D99" s="277"/>
       <c r="E99" s="32"/>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
@@ -7314,10 +7391,10 @@
       <c r="AC99" s="29"/>
     </row>
     <row r="100" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="205"/>
-      <c r="B100" s="296"/>
-      <c r="C100" s="301"/>
-      <c r="D100" s="304"/>
+      <c r="A100" s="204"/>
+      <c r="B100" s="272"/>
+      <c r="C100" s="275"/>
+      <c r="D100" s="277"/>
       <c r="E100" s="32"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
@@ -7345,10 +7422,10 @@
       <c r="AC100" s="29"/>
     </row>
     <row r="101" spans="1:29" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="205"/>
-      <c r="B101" s="296"/>
-      <c r="C101" s="302"/>
-      <c r="D101" s="305"/>
+      <c r="A101" s="204"/>
+      <c r="B101" s="272"/>
+      <c r="C101" s="276"/>
+      <c r="D101" s="278"/>
       <c r="E101" s="32"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -7376,10 +7453,10 @@
       <c r="AC101" s="29"/>
     </row>
     <row r="102" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="208"/>
-      <c r="B102" s="296"/>
-      <c r="C102" s="233"/>
-      <c r="D102" s="214"/>
+      <c r="A102" s="207"/>
+      <c r="B102" s="272"/>
+      <c r="C102" s="232"/>
+      <c r="D102" s="213"/>
       <c r="E102" s="40"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
@@ -7407,10 +7484,10 @@
       <c r="AC102" s="14"/>
     </row>
     <row r="103" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="205"/>
-      <c r="B103" s="296"/>
-      <c r="C103" s="306"/>
-      <c r="D103" s="307"/>
+      <c r="A103" s="204"/>
+      <c r="B103" s="272"/>
+      <c r="C103" s="297"/>
+      <c r="D103" s="298"/>
       <c r="E103" s="32"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -7438,10 +7515,10 @@
       <c r="AC103" s="29"/>
     </row>
     <row r="104" spans="1:29" s="30" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="205"/>
-      <c r="B104" s="296"/>
-      <c r="C104" s="306"/>
-      <c r="D104" s="307"/>
+      <c r="A104" s="204"/>
+      <c r="B104" s="272"/>
+      <c r="C104" s="297"/>
+      <c r="D104" s="298"/>
       <c r="E104" s="32"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -7469,10 +7546,10 @@
       <c r="AC104" s="29"/>
     </row>
     <row r="105" spans="1:29" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="205"/>
-      <c r="B105" s="296"/>
-      <c r="C105" s="306"/>
-      <c r="D105" s="307"/>
+      <c r="A105" s="204"/>
+      <c r="B105" s="272"/>
+      <c r="C105" s="297"/>
+      <c r="D105" s="298"/>
       <c r="E105" s="25"/>
       <c r="F105" s="15"/>
       <c r="G105" s="25"/>
@@ -7500,10 +7577,10 @@
       <c r="AC105" s="29"/>
     </row>
     <row r="106" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="205"/>
-      <c r="B106" s="296"/>
-      <c r="C106" s="306"/>
-      <c r="D106" s="307"/>
+      <c r="A106" s="204"/>
+      <c r="B106" s="272"/>
+      <c r="C106" s="297"/>
+      <c r="D106" s="298"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
@@ -7531,10 +7608,10 @@
       <c r="AC106" s="29"/>
     </row>
     <row r="107" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="205"/>
-      <c r="B107" s="296"/>
-      <c r="C107" s="306"/>
-      <c r="D107" s="215"/>
+      <c r="A107" s="204"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="297"/>
+      <c r="D107" s="214"/>
       <c r="E107" s="42"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
@@ -7562,10 +7639,10 @@
       <c r="AC107" s="29"/>
     </row>
     <row r="108" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="209"/>
-      <c r="B108" s="296"/>
-      <c r="C108" s="234"/>
-      <c r="D108" s="215"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="272"/>
+      <c r="C108" s="233"/>
+      <c r="D108" s="214"/>
       <c r="E108" s="42"/>
       <c r="F108" s="15"/>
       <c r="G108" s="25"/>
@@ -7593,10 +7670,10 @@
       <c r="AC108" s="29"/>
     </row>
     <row r="109" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="209"/>
-      <c r="B109" s="296"/>
-      <c r="C109" s="234"/>
-      <c r="D109" s="215"/>
+      <c r="A109" s="208"/>
+      <c r="B109" s="272"/>
+      <c r="C109" s="233"/>
+      <c r="D109" s="214"/>
       <c r="E109" s="43"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
@@ -7624,10 +7701,10 @@
       <c r="AC109" s="29"/>
     </row>
     <row r="110" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="209"/>
-      <c r="B110" s="296"/>
-      <c r="C110" s="234"/>
-      <c r="D110" s="215"/>
+      <c r="A110" s="208"/>
+      <c r="B110" s="272"/>
+      <c r="C110" s="233"/>
+      <c r="D110" s="214"/>
       <c r="E110" s="43"/>
       <c r="F110" s="15"/>
       <c r="G110" s="25"/>
@@ -7655,10 +7732,10 @@
       <c r="AC110" s="29"/>
     </row>
     <row r="111" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="209"/>
-      <c r="B111" s="296"/>
-      <c r="C111" s="234"/>
-      <c r="D111" s="215"/>
+      <c r="A111" s="208"/>
+      <c r="B111" s="272"/>
+      <c r="C111" s="233"/>
+      <c r="D111" s="214"/>
       <c r="E111" s="43"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
@@ -7686,10 +7763,10 @@
       <c r="AC111" s="29"/>
     </row>
     <row r="112" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="209"/>
-      <c r="B112" s="296"/>
-      <c r="C112" s="234"/>
-      <c r="D112" s="215"/>
+      <c r="A112" s="208"/>
+      <c r="B112" s="272"/>
+      <c r="C112" s="233"/>
+      <c r="D112" s="214"/>
       <c r="E112" s="43"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
@@ -7717,10 +7794,10 @@
       <c r="AC112" s="29"/>
     </row>
     <row r="113" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="209"/>
-      <c r="B113" s="296"/>
-      <c r="C113" s="234"/>
-      <c r="D113" s="216"/>
+      <c r="A113" s="208"/>
+      <c r="B113" s="272"/>
+      <c r="C113" s="233"/>
+      <c r="D113" s="215"/>
       <c r="E113" s="43"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
@@ -7748,10 +7825,10 @@
       <c r="AC113" s="29"/>
     </row>
     <row r="114" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="209"/>
-      <c r="B114" s="296"/>
-      <c r="C114" s="234"/>
-      <c r="D114" s="308"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="272"/>
+      <c r="C114" s="233"/>
+      <c r="D114" s="299"/>
       <c r="E114" s="43"/>
       <c r="F114" s="15"/>
       <c r="G114" s="25"/>
@@ -7779,10 +7856,10 @@
       <c r="AC114" s="29"/>
     </row>
     <row r="115" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="209"/>
-      <c r="B115" s="296"/>
-      <c r="C115" s="234"/>
-      <c r="D115" s="308"/>
+      <c r="A115" s="208"/>
+      <c r="B115" s="272"/>
+      <c r="C115" s="233"/>
+      <c r="D115" s="299"/>
       <c r="E115" s="43"/>
       <c r="F115" s="25"/>
       <c r="G115" s="25"/>
@@ -7810,10 +7887,10 @@
       <c r="AC115" s="29"/>
     </row>
     <row r="116" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="209"/>
-      <c r="B116" s="296"/>
-      <c r="C116" s="234"/>
-      <c r="D116" s="308"/>
+      <c r="A116" s="208"/>
+      <c r="B116" s="272"/>
+      <c r="C116" s="233"/>
+      <c r="D116" s="299"/>
       <c r="E116" s="44"/>
       <c r="F116" s="6"/>
       <c r="G116" s="25"/>
@@ -7841,10 +7918,10 @@
       <c r="AC116" s="29"/>
     </row>
     <row r="117" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="209"/>
-      <c r="B117" s="296"/>
-      <c r="C117" s="234"/>
-      <c r="D117" s="308"/>
+      <c r="A117" s="208"/>
+      <c r="B117" s="272"/>
+      <c r="C117" s="233"/>
+      <c r="D117" s="299"/>
       <c r="E117" s="44"/>
       <c r="F117" s="6"/>
       <c r="G117" s="25"/>
@@ -7872,10 +7949,10 @@
       <c r="AC117" s="29"/>
     </row>
     <row r="118" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="209"/>
-      <c r="B118" s="296"/>
-      <c r="C118" s="234"/>
-      <c r="D118" s="308"/>
+      <c r="A118" s="208"/>
+      <c r="B118" s="272"/>
+      <c r="C118" s="233"/>
+      <c r="D118" s="299"/>
       <c r="E118" s="44"/>
       <c r="F118" s="6"/>
       <c r="G118" s="25"/>
@@ -7903,10 +7980,10 @@
       <c r="AC118" s="29"/>
     </row>
     <row r="119" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="209"/>
-      <c r="B119" s="296"/>
-      <c r="C119" s="234"/>
-      <c r="D119" s="217"/>
+      <c r="A119" s="208"/>
+      <c r="B119" s="272"/>
+      <c r="C119" s="233"/>
+      <c r="D119" s="216"/>
       <c r="E119" s="45"/>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -7934,10 +8011,10 @@
       <c r="AC119" s="29"/>
     </row>
     <row r="120" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="209"/>
-      <c r="B120" s="296"/>
-      <c r="C120" s="234"/>
-      <c r="D120" s="308"/>
+      <c r="A120" s="208"/>
+      <c r="B120" s="272"/>
+      <c r="C120" s="233"/>
+      <c r="D120" s="299"/>
       <c r="E120" s="42"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
@@ -7965,10 +8042,10 @@
       <c r="AC120" s="29"/>
     </row>
     <row r="121" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="209"/>
-      <c r="B121" s="296"/>
-      <c r="C121" s="234"/>
-      <c r="D121" s="308"/>
+      <c r="A121" s="208"/>
+      <c r="B121" s="272"/>
+      <c r="C121" s="233"/>
+      <c r="D121" s="299"/>
       <c r="E121" s="42"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
@@ -7996,10 +8073,10 @@
       <c r="AC121" s="29"/>
     </row>
     <row r="122" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="209"/>
-      <c r="B122" s="296"/>
-      <c r="C122" s="234"/>
-      <c r="D122" s="218"/>
+      <c r="A122" s="208"/>
+      <c r="B122" s="272"/>
+      <c r="C122" s="233"/>
+      <c r="D122" s="217"/>
       <c r="E122" s="43"/>
       <c r="F122" s="25"/>
       <c r="G122" s="25"/>
@@ -8027,10 +8104,10 @@
       <c r="AC122" s="29"/>
     </row>
     <row r="123" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="209"/>
-      <c r="B123" s="296"/>
-      <c r="C123" s="234"/>
-      <c r="D123" s="309"/>
+      <c r="A123" s="208"/>
+      <c r="B123" s="272"/>
+      <c r="C123" s="233"/>
+      <c r="D123" s="300"/>
       <c r="E123" s="43"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
@@ -8058,10 +8135,10 @@
       <c r="AC123" s="29"/>
     </row>
     <row r="124" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="209"/>
-      <c r="B124" s="296"/>
-      <c r="C124" s="234"/>
-      <c r="D124" s="309"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="272"/>
+      <c r="C124" s="233"/>
+      <c r="D124" s="300"/>
       <c r="E124" s="43"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
@@ -8089,10 +8166,10 @@
       <c r="AC124" s="29"/>
     </row>
     <row r="125" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="209"/>
-      <c r="B125" s="296"/>
-      <c r="C125" s="234"/>
-      <c r="D125" s="309"/>
+      <c r="A125" s="208"/>
+      <c r="B125" s="272"/>
+      <c r="C125" s="233"/>
+      <c r="D125" s="300"/>
       <c r="E125" s="44"/>
       <c r="F125" s="6"/>
       <c r="G125" s="25"/>
@@ -8120,10 +8197,10 @@
       <c r="AC125" s="29"/>
     </row>
     <row r="126" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="209"/>
-      <c r="B126" s="296"/>
-      <c r="C126" s="234"/>
-      <c r="D126" s="309"/>
+      <c r="A126" s="208"/>
+      <c r="B126" s="272"/>
+      <c r="C126" s="233"/>
+      <c r="D126" s="300"/>
       <c r="E126" s="42"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
@@ -8151,10 +8228,10 @@
       <c r="AC126" s="29"/>
     </row>
     <row r="127" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="209"/>
-      <c r="B127" s="296"/>
-      <c r="C127" s="234"/>
-      <c r="D127" s="309"/>
+      <c r="A127" s="208"/>
+      <c r="B127" s="272"/>
+      <c r="C127" s="233"/>
+      <c r="D127" s="300"/>
       <c r="E127" s="42"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
@@ -8182,10 +8259,10 @@
       <c r="AC127" s="29"/>
     </row>
     <row r="128" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="209"/>
-      <c r="B128" s="296"/>
-      <c r="C128" s="234"/>
-      <c r="D128" s="309"/>
+      <c r="A128" s="208"/>
+      <c r="B128" s="272"/>
+      <c r="C128" s="233"/>
+      <c r="D128" s="300"/>
       <c r="E128" s="43"/>
       <c r="F128" s="25"/>
       <c r="G128" s="25"/>
@@ -8213,10 +8290,10 @@
       <c r="AC128" s="29"/>
     </row>
     <row r="129" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="209"/>
-      <c r="B129" s="296"/>
-      <c r="C129" s="234"/>
-      <c r="D129" s="309"/>
+      <c r="A129" s="208"/>
+      <c r="B129" s="272"/>
+      <c r="C129" s="233"/>
+      <c r="D129" s="300"/>
       <c r="E129" s="43"/>
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
@@ -8244,10 +8321,10 @@
       <c r="AC129" s="29"/>
     </row>
     <row r="130" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="209"/>
-      <c r="B130" s="296"/>
-      <c r="C130" s="234"/>
-      <c r="D130" s="309"/>
+      <c r="A130" s="208"/>
+      <c r="B130" s="272"/>
+      <c r="C130" s="233"/>
+      <c r="D130" s="300"/>
       <c r="E130" s="43"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
@@ -8275,10 +8352,10 @@
       <c r="AC130" s="29"/>
     </row>
     <row r="131" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="209"/>
-      <c r="B131" s="296"/>
-      <c r="C131" s="234"/>
-      <c r="D131" s="309"/>
+      <c r="A131" s="208"/>
+      <c r="B131" s="272"/>
+      <c r="C131" s="233"/>
+      <c r="D131" s="300"/>
       <c r="E131" s="44"/>
       <c r="F131" s="6"/>
       <c r="G131" s="25"/>
@@ -8306,10 +8383,10 @@
       <c r="AC131" s="29"/>
     </row>
     <row r="132" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="209"/>
-      <c r="B132" s="296"/>
-      <c r="C132" s="234"/>
-      <c r="D132" s="309"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="272"/>
+      <c r="C132" s="233"/>
+      <c r="D132" s="300"/>
       <c r="E132" s="45"/>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -8337,10 +8414,10 @@
       <c r="AC132" s="29"/>
     </row>
     <row r="133" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="209"/>
-      <c r="B133" s="296"/>
-      <c r="C133" s="234"/>
-      <c r="D133" s="309"/>
+      <c r="A133" s="208"/>
+      <c r="B133" s="272"/>
+      <c r="C133" s="233"/>
+      <c r="D133" s="300"/>
       <c r="E133" s="42"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
@@ -8368,10 +8445,10 @@
       <c r="AC133" s="29"/>
     </row>
     <row r="134" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="209"/>
-      <c r="B134" s="296"/>
-      <c r="C134" s="234"/>
-      <c r="D134" s="218"/>
+      <c r="A134" s="208"/>
+      <c r="B134" s="272"/>
+      <c r="C134" s="233"/>
+      <c r="D134" s="217"/>
       <c r="E134" s="42"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
@@ -8399,10 +8476,10 @@
       <c r="AC134" s="29"/>
     </row>
     <row r="135" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="209"/>
-      <c r="B135" s="296"/>
-      <c r="C135" s="234"/>
-      <c r="D135" s="310"/>
+      <c r="A135" s="208"/>
+      <c r="B135" s="272"/>
+      <c r="C135" s="233"/>
+      <c r="D135" s="301"/>
       <c r="E135" s="43"/>
       <c r="F135" s="25"/>
       <c r="G135" s="25"/>
@@ -8430,10 +8507,10 @@
       <c r="AC135" s="29"/>
     </row>
     <row r="136" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="209"/>
-      <c r="B136" s="296"/>
-      <c r="C136" s="234"/>
-      <c r="D136" s="310"/>
+      <c r="A136" s="208"/>
+      <c r="B136" s="272"/>
+      <c r="C136" s="233"/>
+      <c r="D136" s="301"/>
       <c r="E136" s="43"/>
       <c r="F136" s="25"/>
       <c r="G136" s="25"/>
@@ -8461,10 +8538,10 @@
       <c r="AC136" s="29"/>
     </row>
     <row r="137" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="209"/>
-      <c r="B137" s="296"/>
-      <c r="C137" s="234"/>
-      <c r="D137" s="310"/>
+      <c r="A137" s="208"/>
+      <c r="B137" s="272"/>
+      <c r="C137" s="233"/>
+      <c r="D137" s="301"/>
       <c r="E137" s="43"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25"/>
@@ -8492,10 +8569,10 @@
       <c r="AC137" s="29"/>
     </row>
     <row r="138" spans="1:29" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="209"/>
-      <c r="B138" s="296"/>
-      <c r="C138" s="234"/>
-      <c r="D138" s="310"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="272"/>
+      <c r="C138" s="233"/>
+      <c r="D138" s="301"/>
       <c r="E138" s="44"/>
       <c r="F138" s="6"/>
       <c r="G138" s="25"/>
@@ -8524,9 +8601,9 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47"/>
-      <c r="B139" s="296"/>
-      <c r="C139" s="235"/>
-      <c r="D139" s="310"/>
+      <c r="B139" s="272"/>
+      <c r="C139" s="234"/>
+      <c r="D139" s="301"/>
       <c r="E139" s="48"/>
       <c r="F139" s="49"/>
       <c r="G139" s="49"/>
@@ -8555,9 +8632,9 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
-      <c r="B140" s="296"/>
-      <c r="C140" s="235"/>
-      <c r="D140" s="310"/>
+      <c r="B140" s="272"/>
+      <c r="C140" s="234"/>
+      <c r="D140" s="301"/>
       <c r="E140" s="53"/>
       <c r="F140" s="54"/>
       <c r="G140" s="55"/>
@@ -8586,9 +8663,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="52"/>
-      <c r="B141" s="296"/>
-      <c r="C141" s="235"/>
-      <c r="D141" s="310"/>
+      <c r="B141" s="272"/>
+      <c r="C141" s="234"/>
+      <c r="D141" s="301"/>
       <c r="E141" s="59"/>
       <c r="F141" s="60"/>
       <c r="G141" s="60"/>
@@ -8617,9 +8694,9 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="52"/>
-      <c r="B142" s="296"/>
-      <c r="C142" s="235"/>
-      <c r="D142" s="310"/>
+      <c r="B142" s="272"/>
+      <c r="C142" s="234"/>
+      <c r="D142" s="301"/>
       <c r="E142" s="59"/>
       <c r="F142" s="60"/>
       <c r="G142" s="60"/>
@@ -8648,9 +8725,9 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="52"/>
-      <c r="B143" s="296"/>
-      <c r="C143" s="235"/>
-      <c r="D143" s="310"/>
+      <c r="B143" s="272"/>
+      <c r="C143" s="234"/>
+      <c r="D143" s="301"/>
       <c r="E143" s="63"/>
       <c r="F143" s="60"/>
       <c r="G143" s="60"/>
@@ -8679,9 +8756,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="52"/>
-      <c r="B144" s="296"/>
-      <c r="C144" s="235"/>
-      <c r="D144" s="310"/>
+      <c r="B144" s="272"/>
+      <c r="C144" s="234"/>
+      <c r="D144" s="301"/>
       <c r="E144" s="64"/>
       <c r="F144" s="54"/>
       <c r="G144" s="55"/>
@@ -8710,9 +8787,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="52"/>
-      <c r="B145" s="296"/>
-      <c r="C145" s="235"/>
-      <c r="D145" s="219"/>
+      <c r="B145" s="272"/>
+      <c r="C145" s="234"/>
+      <c r="D145" s="218"/>
       <c r="E145" s="53"/>
       <c r="F145" s="60"/>
       <c r="G145" s="60"/>
@@ -8741,9 +8818,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="52"/>
-      <c r="B146" s="296"/>
-      <c r="C146" s="235"/>
-      <c r="D146" s="311"/>
+      <c r="B146" s="272"/>
+      <c r="C146" s="234"/>
+      <c r="D146" s="302"/>
       <c r="E146" s="65"/>
       <c r="F146" s="54"/>
       <c r="G146" s="55"/>
@@ -8772,9 +8849,9 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
-      <c r="B147" s="296"/>
-      <c r="C147" s="235"/>
-      <c r="D147" s="311"/>
+      <c r="B147" s="272"/>
+      <c r="C147" s="234"/>
+      <c r="D147" s="302"/>
       <c r="E147" s="67"/>
       <c r="F147" s="60"/>
       <c r="G147" s="60"/>
@@ -8803,9 +8880,9 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
-      <c r="B148" s="296"/>
-      <c r="C148" s="235"/>
-      <c r="D148" s="220"/>
+      <c r="B148" s="272"/>
+      <c r="C148" s="234"/>
+      <c r="D148" s="219"/>
       <c r="E148" s="68"/>
       <c r="F148" s="54"/>
       <c r="G148" s="55"/>
@@ -8834,9 +8911,9 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
-      <c r="B149" s="296"/>
-      <c r="C149" s="235"/>
-      <c r="D149" s="312"/>
+      <c r="B149" s="272"/>
+      <c r="C149" s="234"/>
+      <c r="D149" s="303"/>
       <c r="E149" s="67"/>
       <c r="F149" s="60"/>
       <c r="G149" s="60"/>
@@ -8865,9 +8942,9 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
-      <c r="B150" s="296"/>
-      <c r="C150" s="235"/>
-      <c r="D150" s="312"/>
+      <c r="B150" s="272"/>
+      <c r="C150" s="234"/>
+      <c r="D150" s="303"/>
       <c r="E150" s="65"/>
       <c r="F150" s="60"/>
       <c r="G150" s="60"/>
@@ -8896,9 +8973,9 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
-      <c r="B151" s="296"/>
-      <c r="C151" s="235"/>
-      <c r="D151" s="312"/>
+      <c r="B151" s="272"/>
+      <c r="C151" s="234"/>
+      <c r="D151" s="303"/>
       <c r="E151" s="67"/>
       <c r="F151" s="60"/>
       <c r="G151" s="60"/>
@@ -8927,9 +9004,9 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
-      <c r="B152" s="296"/>
-      <c r="C152" s="235"/>
-      <c r="D152" s="312"/>
+      <c r="B152" s="272"/>
+      <c r="C152" s="234"/>
+      <c r="D152" s="303"/>
       <c r="E152" s="65"/>
       <c r="F152" s="54"/>
       <c r="G152" s="55"/>
@@ -8958,9 +9035,9 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
-      <c r="B153" s="296"/>
-      <c r="C153" s="235"/>
-      <c r="D153" s="312"/>
+      <c r="B153" s="272"/>
+      <c r="C153" s="234"/>
+      <c r="D153" s="303"/>
       <c r="E153" s="69"/>
       <c r="F153" s="70"/>
       <c r="G153" s="62"/>
@@ -8989,9 +9066,9 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
-      <c r="B154" s="296"/>
-      <c r="C154" s="235"/>
-      <c r="D154" s="312"/>
+      <c r="B154" s="272"/>
+      <c r="C154" s="234"/>
+      <c r="D154" s="303"/>
       <c r="E154" s="65"/>
       <c r="F154" s="71"/>
       <c r="G154" s="55"/>
@@ -9020,9 +9097,9 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
-      <c r="B155" s="296"/>
-      <c r="C155" s="235"/>
-      <c r="D155" s="312"/>
+      <c r="B155" s="272"/>
+      <c r="C155" s="234"/>
+      <c r="D155" s="303"/>
       <c r="E155" s="69"/>
       <c r="F155" s="72"/>
       <c r="G155" s="62"/>
@@ -9051,9 +9128,9 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
-      <c r="B156" s="296"/>
-      <c r="C156" s="235"/>
-      <c r="D156" s="221"/>
+      <c r="B156" s="272"/>
+      <c r="C156" s="234"/>
+      <c r="D156" s="220"/>
       <c r="E156" s="69"/>
       <c r="F156" s="54"/>
       <c r="G156" s="55"/>
@@ -9082,9 +9159,9 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
-      <c r="B157" s="296"/>
-      <c r="C157" s="235"/>
-      <c r="D157" s="294"/>
+      <c r="B157" s="272"/>
+      <c r="C157" s="234"/>
+      <c r="D157" s="295"/>
       <c r="E157" s="73"/>
       <c r="F157" s="74"/>
       <c r="G157" s="62"/>
@@ -9113,9 +9190,9 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
-      <c r="B158" s="296"/>
-      <c r="C158" s="235"/>
-      <c r="D158" s="294"/>
+      <c r="B158" s="272"/>
+      <c r="C158" s="234"/>
+      <c r="D158" s="295"/>
       <c r="E158" s="69"/>
       <c r="F158" s="74"/>
       <c r="G158" s="62"/>
@@ -9144,9 +9221,9 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
-      <c r="B159" s="296"/>
-      <c r="C159" s="235"/>
-      <c r="D159" s="294"/>
+      <c r="B159" s="272"/>
+      <c r="C159" s="234"/>
+      <c r="D159" s="295"/>
       <c r="E159" s="75"/>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
@@ -9175,9 +9252,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
-      <c r="B160" s="296"/>
-      <c r="C160" s="235"/>
-      <c r="D160" s="294"/>
+      <c r="B160" s="272"/>
+      <c r="C160" s="234"/>
+      <c r="D160" s="295"/>
       <c r="E160" s="75"/>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
@@ -9206,9 +9283,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
-      <c r="B161" s="296"/>
-      <c r="C161" s="235"/>
-      <c r="D161" s="294"/>
+      <c r="B161" s="272"/>
+      <c r="C161" s="234"/>
+      <c r="D161" s="295"/>
       <c r="E161" s="75"/>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
@@ -9237,9 +9314,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
-      <c r="B162" s="296"/>
-      <c r="C162" s="235"/>
-      <c r="D162" s="294"/>
+      <c r="B162" s="272"/>
+      <c r="C162" s="234"/>
+      <c r="D162" s="295"/>
       <c r="E162" s="75"/>
       <c r="F162" s="66"/>
       <c r="G162" s="66"/>
@@ -9268,9 +9345,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
-      <c r="B163" s="296"/>
-      <c r="C163" s="235"/>
-      <c r="D163" s="294"/>
+      <c r="B163" s="272"/>
+      <c r="C163" s="234"/>
+      <c r="D163" s="295"/>
       <c r="E163" s="75"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
@@ -9299,9 +9376,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
-      <c r="B164" s="296"/>
-      <c r="C164" s="235"/>
-      <c r="D164" s="294"/>
+      <c r="B164" s="272"/>
+      <c r="C164" s="234"/>
+      <c r="D164" s="295"/>
       <c r="E164" s="75"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
@@ -9330,9 +9407,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
-      <c r="B165" s="296"/>
-      <c r="C165" s="235"/>
-      <c r="D165" s="294"/>
+      <c r="B165" s="272"/>
+      <c r="C165" s="234"/>
+      <c r="D165" s="295"/>
       <c r="E165" s="75"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
@@ -9361,9 +9438,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
-      <c r="B166" s="296"/>
-      <c r="C166" s="236"/>
-      <c r="D166" s="222"/>
+      <c r="B166" s="272"/>
+      <c r="C166" s="235"/>
+      <c r="D166" s="221"/>
       <c r="E166" s="75"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
@@ -9392,9 +9469,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
-      <c r="B167" s="296"/>
-      <c r="C167" s="237"/>
-      <c r="D167" s="222"/>
+      <c r="B167" s="272"/>
+      <c r="C167" s="236"/>
+      <c r="D167" s="221"/>
       <c r="E167" s="75"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
@@ -9423,9 +9500,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
-      <c r="B168" s="296"/>
-      <c r="C168" s="237"/>
-      <c r="D168" s="223"/>
+      <c r="B168" s="272"/>
+      <c r="C168" s="236"/>
+      <c r="D168" s="222"/>
       <c r="E168" s="75"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
@@ -9454,9 +9531,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
-      <c r="B169" s="296"/>
-      <c r="C169" s="237"/>
-      <c r="D169" s="320"/>
+      <c r="B169" s="272"/>
+      <c r="C169" s="236"/>
+      <c r="D169" s="289"/>
       <c r="E169" s="76"/>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
@@ -9485,9 +9562,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
-      <c r="B170" s="296"/>
-      <c r="C170" s="237"/>
-      <c r="D170" s="320"/>
+      <c r="B170" s="272"/>
+      <c r="C170" s="236"/>
+      <c r="D170" s="289"/>
       <c r="E170" s="76"/>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
@@ -9516,9 +9593,9 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
-      <c r="B171" s="296"/>
-      <c r="C171" s="237"/>
-      <c r="D171" s="224"/>
+      <c r="B171" s="272"/>
+      <c r="C171" s="236"/>
+      <c r="D171" s="223"/>
       <c r="E171" s="75"/>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
@@ -9547,9 +9624,9 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
-      <c r="B172" s="296"/>
-      <c r="C172" s="237"/>
-      <c r="D172" s="225"/>
+      <c r="B172" s="272"/>
+      <c r="C172" s="236"/>
+      <c r="D172" s="224"/>
       <c r="E172" s="75"/>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
@@ -9578,9 +9655,9 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
-      <c r="B173" s="296"/>
-      <c r="C173" s="237"/>
-      <c r="D173" s="225"/>
+      <c r="B173" s="272"/>
+      <c r="C173" s="236"/>
+      <c r="D173" s="224"/>
       <c r="E173" s="78"/>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
@@ -9609,9 +9686,9 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
-      <c r="B174" s="296"/>
-      <c r="C174" s="237"/>
-      <c r="D174" s="225"/>
+      <c r="B174" s="272"/>
+      <c r="C174" s="236"/>
+      <c r="D174" s="224"/>
       <c r="E174" s="75"/>
       <c r="F174" s="66"/>
       <c r="G174" s="66"/>
@@ -9640,9 +9717,9 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
-      <c r="B175" s="296"/>
-      <c r="C175" s="237"/>
-      <c r="D175" s="225"/>
+      <c r="B175" s="272"/>
+      <c r="C175" s="236"/>
+      <c r="D175" s="224"/>
       <c r="E175" s="75"/>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
@@ -9671,9 +9748,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
-      <c r="B176" s="296"/>
-      <c r="C176" s="237"/>
-      <c r="D176" s="225"/>
+      <c r="B176" s="272"/>
+      <c r="C176" s="236"/>
+      <c r="D176" s="224"/>
       <c r="E176" s="75"/>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
@@ -9702,9 +9779,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
-      <c r="B177" s="296"/>
-      <c r="C177" s="237"/>
-      <c r="D177" s="225"/>
+      <c r="B177" s="272"/>
+      <c r="C177" s="236"/>
+      <c r="D177" s="224"/>
       <c r="E177" s="75"/>
       <c r="F177" s="66"/>
       <c r="G177" s="66"/>
@@ -9733,9 +9810,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
-      <c r="B178" s="296"/>
-      <c r="C178" s="237"/>
-      <c r="D178" s="225"/>
+      <c r="B178" s="272"/>
+      <c r="C178" s="236"/>
+      <c r="D178" s="224"/>
       <c r="E178" s="78"/>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
@@ -9764,9 +9841,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
-      <c r="B179" s="296"/>
-      <c r="C179" s="237"/>
-      <c r="D179" s="225"/>
+      <c r="B179" s="272"/>
+      <c r="C179" s="236"/>
+      <c r="D179" s="224"/>
       <c r="E179" s="78"/>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
@@ -9795,9 +9872,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
-      <c r="B180" s="296"/>
-      <c r="C180" s="237"/>
-      <c r="D180" s="225"/>
+      <c r="B180" s="272"/>
+      <c r="C180" s="236"/>
+      <c r="D180" s="224"/>
       <c r="E180" s="78"/>
       <c r="F180" s="66"/>
       <c r="G180" s="81"/>
@@ -9826,9 +9903,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
-      <c r="B181" s="296"/>
-      <c r="C181" s="237"/>
-      <c r="D181" s="225"/>
+      <c r="B181" s="272"/>
+      <c r="C181" s="236"/>
+      <c r="D181" s="224"/>
       <c r="E181" s="75"/>
       <c r="F181" s="66"/>
       <c r="G181" s="66"/>
@@ -9857,9 +9934,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
-      <c r="B182" s="296"/>
-      <c r="C182" s="237"/>
-      <c r="D182" s="225"/>
+      <c r="B182" s="272"/>
+      <c r="C182" s="236"/>
+      <c r="D182" s="224"/>
       <c r="E182" s="75"/>
       <c r="F182" s="66"/>
       <c r="G182" s="66"/>
@@ -9888,9 +9965,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
-      <c r="B183" s="296"/>
-      <c r="C183" s="237"/>
-      <c r="D183" s="225"/>
+      <c r="B183" s="272"/>
+      <c r="C183" s="236"/>
+      <c r="D183" s="224"/>
       <c r="E183" s="75"/>
       <c r="F183" s="66"/>
       <c r="G183" s="66"/>
@@ -9919,9 +9996,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
-      <c r="B184" s="296"/>
-      <c r="C184" s="237"/>
-      <c r="D184" s="225"/>
+      <c r="B184" s="272"/>
+      <c r="C184" s="236"/>
+      <c r="D184" s="224"/>
       <c r="E184" s="75"/>
       <c r="F184" s="66"/>
       <c r="G184" s="82"/>
@@ -9950,9 +10027,9 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
-      <c r="B185" s="296"/>
-      <c r="C185" s="237"/>
-      <c r="D185" s="225"/>
+      <c r="B185" s="272"/>
+      <c r="C185" s="236"/>
+      <c r="D185" s="224"/>
       <c r="E185" s="75"/>
       <c r="F185" s="66"/>
       <c r="G185" s="82"/>
@@ -9981,9 +10058,9 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="52"/>
-      <c r="B186" s="296"/>
-      <c r="C186" s="237"/>
-      <c r="D186" s="225"/>
+      <c r="B186" s="272"/>
+      <c r="C186" s="236"/>
+      <c r="D186" s="224"/>
       <c r="E186" s="75"/>
       <c r="F186" s="66"/>
       <c r="G186" s="82"/>
@@ -10012,8 +10089,8 @@
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="83"/>
-      <c r="B187" s="296"/>
-      <c r="C187" s="237"/>
+      <c r="B187" s="272"/>
+      <c r="C187" s="236"/>
       <c r="D187" s="84"/>
       <c r="E187" s="85"/>
       <c r="F187" s="66"/>
@@ -10043,9 +10120,9 @@
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
-      <c r="B188" s="296"/>
-      <c r="C188" s="237"/>
-      <c r="D188" s="226"/>
+      <c r="B188" s="272"/>
+      <c r="C188" s="236"/>
+      <c r="D188" s="225"/>
       <c r="E188" s="75"/>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
@@ -10074,9 +10151,9 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="83"/>
-      <c r="B189" s="296"/>
-      <c r="C189" s="237"/>
-      <c r="D189" s="226"/>
+      <c r="B189" s="272"/>
+      <c r="C189" s="236"/>
+      <c r="D189" s="225"/>
       <c r="E189" s="75"/>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
@@ -10105,9 +10182,9 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="83"/>
-      <c r="B190" s="296"/>
-      <c r="C190" s="237"/>
-      <c r="D190" s="226"/>
+      <c r="B190" s="272"/>
+      <c r="C190" s="236"/>
+      <c r="D190" s="225"/>
       <c r="E190" s="87"/>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
@@ -10136,9 +10213,9 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="83"/>
-      <c r="B191" s="296"/>
-      <c r="C191" s="237"/>
-      <c r="D191" s="226"/>
+      <c r="B191" s="272"/>
+      <c r="C191" s="236"/>
+      <c r="D191" s="225"/>
       <c r="E191" s="88"/>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
@@ -10167,9 +10244,9 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="83"/>
-      <c r="B192" s="296"/>
-      <c r="C192" s="237"/>
-      <c r="D192" s="226"/>
+      <c r="B192" s="272"/>
+      <c r="C192" s="236"/>
+      <c r="D192" s="225"/>
       <c r="E192" s="88"/>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
@@ -10198,9 +10275,9 @@
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="83"/>
-      <c r="B193" s="296"/>
-      <c r="C193" s="237"/>
-      <c r="D193" s="226"/>
+      <c r="B193" s="272"/>
+      <c r="C193" s="236"/>
+      <c r="D193" s="225"/>
       <c r="E193" s="88"/>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
@@ -10229,9 +10306,9 @@
     </row>
     <row r="194" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
-      <c r="B194" s="296"/>
-      <c r="C194" s="237"/>
-      <c r="D194" s="226"/>
+      <c r="B194" s="272"/>
+      <c r="C194" s="236"/>
+      <c r="D194" s="225"/>
       <c r="E194" s="88"/>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
@@ -10260,9 +10337,9 @@
     </row>
     <row r="195" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="83"/>
-      <c r="B195" s="296"/>
-      <c r="C195" s="237"/>
-      <c r="D195" s="226"/>
+      <c r="B195" s="272"/>
+      <c r="C195" s="236"/>
+      <c r="D195" s="225"/>
       <c r="E195" s="75"/>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
@@ -10291,9 +10368,9 @@
     </row>
     <row r="196" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="83"/>
-      <c r="B196" s="296"/>
-      <c r="C196" s="237"/>
-      <c r="D196" s="226"/>
+      <c r="B196" s="272"/>
+      <c r="C196" s="236"/>
+      <c r="D196" s="225"/>
       <c r="E196" s="75"/>
       <c r="F196" s="66"/>
       <c r="G196" s="66"/>
@@ -10322,9 +10399,9 @@
     </row>
     <row r="197" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="83"/>
-      <c r="B197" s="296"/>
-      <c r="C197" s="237"/>
-      <c r="D197" s="226"/>
+      <c r="B197" s="272"/>
+      <c r="C197" s="236"/>
+      <c r="D197" s="225"/>
       <c r="E197" s="75"/>
       <c r="F197" s="66"/>
       <c r="G197" s="66"/>
@@ -10353,9 +10430,9 @@
     </row>
     <row r="198" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="83"/>
-      <c r="B198" s="296"/>
-      <c r="C198" s="237"/>
-      <c r="D198" s="226"/>
+      <c r="B198" s="272"/>
+      <c r="C198" s="236"/>
+      <c r="D198" s="225"/>
       <c r="E198" s="75"/>
       <c r="F198" s="66"/>
       <c r="G198" s="66"/>
@@ -10384,9 +10461,9 @@
     </row>
     <row r="199" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="83"/>
-      <c r="B199" s="296"/>
-      <c r="C199" s="237"/>
-      <c r="D199" s="226"/>
+      <c r="B199" s="272"/>
+      <c r="C199" s="236"/>
+      <c r="D199" s="225"/>
       <c r="E199" s="85"/>
       <c r="F199" s="66"/>
       <c r="G199" s="66"/>
@@ -10415,9 +10492,9 @@
     </row>
     <row r="200" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="83"/>
-      <c r="B200" s="296"/>
-      <c r="C200" s="237"/>
-      <c r="D200" s="227"/>
+      <c r="B200" s="272"/>
+      <c r="C200" s="236"/>
+      <c r="D200" s="226"/>
       <c r="E200" s="89"/>
       <c r="F200" s="66"/>
       <c r="G200" s="66"/>
@@ -10446,9 +10523,9 @@
     </row>
     <row r="201" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="83"/>
-      <c r="B201" s="296"/>
-      <c r="C201" s="237"/>
-      <c r="D201" s="228"/>
+      <c r="B201" s="272"/>
+      <c r="C201" s="236"/>
+      <c r="D201" s="227"/>
       <c r="E201" s="85"/>
       <c r="F201" s="66"/>
       <c r="G201" s="66"/>
@@ -10477,9 +10554,9 @@
     </row>
     <row r="202" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="83"/>
-      <c r="B202" s="296"/>
-      <c r="C202" s="237"/>
-      <c r="D202" s="321"/>
+      <c r="B202" s="272"/>
+      <c r="C202" s="236"/>
+      <c r="D202" s="290"/>
       <c r="E202" s="75"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
@@ -10488,7 +10565,7 @@
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="58"/>
-      <c r="M202" s="322"/>
+      <c r="M202" s="291"/>
       <c r="N202" s="51"/>
       <c r="O202" s="51"/>
       <c r="P202" s="51"/>
@@ -10508,9 +10585,9 @@
     </row>
     <row r="203" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
-      <c r="B203" s="296"/>
-      <c r="C203" s="237"/>
-      <c r="D203" s="321"/>
+      <c r="B203" s="272"/>
+      <c r="C203" s="236"/>
+      <c r="D203" s="290"/>
       <c r="E203" s="75"/>
       <c r="F203" s="66"/>
       <c r="G203" s="66"/>
@@ -10519,7 +10596,7 @@
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="58"/>
-      <c r="M203" s="322"/>
+      <c r="M203" s="291"/>
       <c r="N203" s="51"/>
       <c r="O203" s="51"/>
       <c r="P203" s="51"/>
@@ -10539,9 +10616,9 @@
     </row>
     <row r="204" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
-      <c r="B204" s="296"/>
-      <c r="C204" s="237"/>
-      <c r="D204" s="321"/>
+      <c r="B204" s="272"/>
+      <c r="C204" s="236"/>
+      <c r="D204" s="290"/>
       <c r="E204" s="87"/>
       <c r="F204" s="66"/>
       <c r="G204" s="66"/>
@@ -10550,7 +10627,7 @@
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="58"/>
-      <c r="M204" s="322"/>
+      <c r="M204" s="291"/>
       <c r="N204" s="51"/>
       <c r="O204" s="51"/>
       <c r="P204" s="51"/>
@@ -10570,9 +10647,9 @@
     </row>
     <row r="205" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
-      <c r="B205" s="296"/>
-      <c r="C205" s="237"/>
-      <c r="D205" s="321"/>
+      <c r="B205" s="272"/>
+      <c r="C205" s="236"/>
+      <c r="D205" s="290"/>
       <c r="E205" s="88"/>
       <c r="F205" s="66"/>
       <c r="G205" s="66"/>
@@ -10581,7 +10658,7 @@
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="58"/>
-      <c r="M205" s="322"/>
+      <c r="M205" s="291"/>
       <c r="N205" s="51"/>
       <c r="O205" s="51"/>
       <c r="P205" s="51"/>
@@ -10601,9 +10678,9 @@
     </row>
     <row r="206" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
-      <c r="B206" s="296"/>
-      <c r="C206" s="237"/>
-      <c r="D206" s="321"/>
+      <c r="B206" s="272"/>
+      <c r="C206" s="236"/>
+      <c r="D206" s="290"/>
       <c r="E206" s="88"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
@@ -10612,7 +10689,7 @@
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="58"/>
-      <c r="M206" s="322"/>
+      <c r="M206" s="291"/>
       <c r="N206" s="51"/>
       <c r="O206" s="51"/>
       <c r="P206" s="51"/>
@@ -10632,9 +10709,9 @@
     </row>
     <row r="207" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
-      <c r="B207" s="296"/>
-      <c r="C207" s="237"/>
-      <c r="D207" s="321"/>
+      <c r="B207" s="272"/>
+      <c r="C207" s="236"/>
+      <c r="D207" s="290"/>
       <c r="E207" s="88"/>
       <c r="F207" s="66"/>
       <c r="G207" s="66"/>
@@ -10643,7 +10720,7 @@
       <c r="J207" s="66"/>
       <c r="K207" s="66"/>
       <c r="L207" s="58"/>
-      <c r="M207" s="322"/>
+      <c r="M207" s="291"/>
       <c r="N207" s="51"/>
       <c r="O207" s="51"/>
       <c r="P207" s="51"/>
@@ -10663,9 +10740,9 @@
     </row>
     <row r="208" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
-      <c r="B208" s="296"/>
-      <c r="C208" s="237"/>
-      <c r="D208" s="321"/>
+      <c r="B208" s="272"/>
+      <c r="C208" s="236"/>
+      <c r="D208" s="290"/>
       <c r="E208" s="88"/>
       <c r="F208" s="66"/>
       <c r="G208" s="66"/>
@@ -10674,7 +10751,7 @@
       <c r="J208" s="66"/>
       <c r="K208" s="66"/>
       <c r="L208" s="58"/>
-      <c r="M208" s="322"/>
+      <c r="M208" s="291"/>
       <c r="N208" s="51"/>
       <c r="O208" s="51"/>
       <c r="P208" s="51"/>
@@ -10694,9 +10771,9 @@
     </row>
     <row r="209" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
-      <c r="B209" s="296"/>
-      <c r="C209" s="237"/>
-      <c r="D209" s="321"/>
+      <c r="B209" s="272"/>
+      <c r="C209" s="236"/>
+      <c r="D209" s="290"/>
       <c r="E209" s="75"/>
       <c r="F209" s="66"/>
       <c r="G209" s="66"/>
@@ -10705,7 +10782,7 @@
       <c r="J209" s="66"/>
       <c r="K209" s="66"/>
       <c r="L209" s="58"/>
-      <c r="M209" s="322"/>
+      <c r="M209" s="291"/>
       <c r="N209" s="51"/>
       <c r="O209" s="51"/>
       <c r="P209" s="51"/>
@@ -10725,9 +10802,9 @@
     </row>
     <row r="210" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="52"/>
-      <c r="B210" s="296"/>
-      <c r="C210" s="237"/>
-      <c r="D210" s="321"/>
+      <c r="B210" s="272"/>
+      <c r="C210" s="236"/>
+      <c r="D210" s="290"/>
       <c r="E210" s="75"/>
       <c r="F210" s="66"/>
       <c r="G210" s="66"/>
@@ -10756,9 +10833,9 @@
     </row>
     <row r="211" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="52"/>
-      <c r="B211" s="296"/>
-      <c r="C211" s="237"/>
-      <c r="D211" s="321"/>
+      <c r="B211" s="272"/>
+      <c r="C211" s="236"/>
+      <c r="D211" s="290"/>
       <c r="E211" s="75"/>
       <c r="F211" s="66"/>
       <c r="G211" s="66"/>
@@ -10787,9 +10864,9 @@
     </row>
     <row r="212" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="52"/>
-      <c r="B212" s="298"/>
-      <c r="C212" s="238"/>
-      <c r="D212" s="321"/>
+      <c r="B212" s="273"/>
+      <c r="C212" s="237"/>
+      <c r="D212" s="290"/>
       <c r="E212" s="75"/>
       <c r="F212" s="66"/>
       <c r="G212" s="66"/>
@@ -10819,7 +10896,7 @@
     <row r="213" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="91"/>
       <c r="B213" s="92"/>
-      <c r="C213" s="231"/>
+      <c r="C213" s="230"/>
       <c r="D213" s="86"/>
       <c r="E213" s="85"/>
       <c r="F213" s="66"/>
@@ -10851,7 +10928,7 @@
       <c r="A214" s="91"/>
       <c r="B214" s="94"/>
       <c r="C214" s="93"/>
-      <c r="D214" s="323"/>
+      <c r="D214" s="292"/>
       <c r="E214" s="75"/>
       <c r="F214" s="66"/>
       <c r="G214" s="82"/>
@@ -10882,7 +10959,7 @@
       <c r="A215" s="91"/>
       <c r="B215" s="90"/>
       <c r="C215" s="95"/>
-      <c r="D215" s="323"/>
+      <c r="D215" s="292"/>
       <c r="E215" s="75"/>
       <c r="F215" s="66"/>
       <c r="G215" s="82"/>
@@ -10913,7 +10990,7 @@
       <c r="A216" s="91"/>
       <c r="B216" s="90"/>
       <c r="C216" s="95"/>
-      <c r="D216" s="323"/>
+      <c r="D216" s="292"/>
       <c r="E216" s="75"/>
       <c r="F216" s="66"/>
       <c r="G216" s="82"/>
@@ -10944,7 +11021,7 @@
       <c r="A217" s="91"/>
       <c r="B217" s="90"/>
       <c r="C217" s="90"/>
-      <c r="D217" s="323"/>
+      <c r="D217" s="292"/>
       <c r="E217" s="78"/>
       <c r="F217" s="66"/>
       <c r="G217" s="82"/>
@@ -10975,7 +11052,7 @@
       <c r="A218" s="91"/>
       <c r="B218" s="94"/>
       <c r="C218" s="90"/>
-      <c r="D218" s="323"/>
+      <c r="D218" s="292"/>
       <c r="E218" s="78"/>
       <c r="F218" s="66"/>
       <c r="G218" s="82"/>
@@ -11006,7 +11083,7 @@
       <c r="A219" s="91"/>
       <c r="B219" s="94"/>
       <c r="C219" s="90"/>
-      <c r="D219" s="323"/>
+      <c r="D219" s="292"/>
       <c r="E219" s="78"/>
       <c r="F219" s="66"/>
       <c r="G219" s="82"/>
@@ -11037,7 +11114,7 @@
       <c r="A220" s="91"/>
       <c r="B220" s="94"/>
       <c r="C220" s="90"/>
-      <c r="D220" s="323"/>
+      <c r="D220" s="292"/>
       <c r="E220" s="75"/>
       <c r="F220" s="66"/>
       <c r="G220" s="82"/>
@@ -11068,7 +11145,7 @@
       <c r="A221" s="91"/>
       <c r="B221" s="94"/>
       <c r="C221" s="90"/>
-      <c r="D221" s="323"/>
+      <c r="D221" s="292"/>
       <c r="E221" s="75"/>
       <c r="F221" s="66"/>
       <c r="G221" s="82"/>
@@ -11099,7 +11176,7 @@
       <c r="A222" s="91"/>
       <c r="B222" s="94"/>
       <c r="C222" s="94"/>
-      <c r="D222" s="323"/>
+      <c r="D222" s="292"/>
       <c r="E222" s="75"/>
       <c r="F222" s="66"/>
       <c r="G222" s="82"/>
@@ -12439,8 +12516,8 @@
       <c r="H265" s="115"/>
       <c r="I265" s="115"/>
       <c r="J265" s="115"/>
-      <c r="K265" s="319"/>
-      <c r="L265" s="322"/>
+      <c r="K265" s="288"/>
+      <c r="L265" s="291"/>
       <c r="M265" s="110"/>
       <c r="N265" s="51"/>
       <c r="O265" s="51"/>
@@ -12470,8 +12547,8 @@
       <c r="H266" s="116"/>
       <c r="I266" s="116"/>
       <c r="J266" s="116"/>
-      <c r="K266" s="319"/>
-      <c r="L266" s="322"/>
+      <c r="K266" s="288"/>
+      <c r="L266" s="291"/>
       <c r="M266" s="110"/>
       <c r="N266" s="51"/>
       <c r="O266" s="51"/>
@@ -12501,8 +12578,8 @@
       <c r="H267" s="49"/>
       <c r="I267" s="49"/>
       <c r="J267" s="49"/>
-      <c r="K267" s="319"/>
-      <c r="L267" s="322"/>
+      <c r="K267" s="288"/>
+      <c r="L267" s="291"/>
       <c r="M267" s="110"/>
       <c r="N267" s="51"/>
       <c r="O267" s="51"/>
@@ -12710,9 +12787,9 @@
     <row r="274" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="91"/>
       <c r="B274" s="102"/>
-      <c r="C274" s="324"/>
+      <c r="C274" s="284"/>
       <c r="D274" s="90"/>
-      <c r="E274" s="325"/>
+      <c r="E274" s="293"/>
       <c r="F274" s="60"/>
       <c r="G274" s="60"/>
       <c r="H274" s="60"/>
@@ -12741,9 +12818,9 @@
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="91"/>
       <c r="B275" s="102"/>
-      <c r="C275" s="324"/>
+      <c r="C275" s="284"/>
       <c r="D275" s="90"/>
-      <c r="E275" s="325"/>
+      <c r="E275" s="293"/>
       <c r="F275" s="60"/>
       <c r="G275" s="60"/>
       <c r="H275" s="60"/>
@@ -12772,9 +12849,9 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="91"/>
       <c r="B276" s="102"/>
-      <c r="C276" s="324"/>
+      <c r="C276" s="284"/>
       <c r="D276" s="90"/>
-      <c r="E276" s="325"/>
+      <c r="E276" s="293"/>
       <c r="F276" s="60"/>
       <c r="G276" s="60"/>
       <c r="H276" s="60"/>
@@ -12803,7 +12880,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="91"/>
       <c r="B277" s="102"/>
-      <c r="C277" s="324"/>
+      <c r="C277" s="284"/>
       <c r="D277" s="90"/>
       <c r="E277" s="67"/>
       <c r="F277" s="60"/>
@@ -12834,7 +12911,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="91"/>
       <c r="B278" s="102"/>
-      <c r="C278" s="324"/>
+      <c r="C278" s="284"/>
       <c r="D278" s="90"/>
       <c r="E278" s="67"/>
       <c r="F278" s="60"/>
@@ -12865,7 +12942,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="91"/>
       <c r="B279" s="102"/>
-      <c r="C279" s="324"/>
+      <c r="C279" s="284"/>
       <c r="D279" s="90"/>
       <c r="E279" s="67"/>
       <c r="F279" s="113"/>
@@ -12896,7 +12973,7 @@
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="91"/>
       <c r="B280" s="102"/>
-      <c r="C280" s="324"/>
+      <c r="C280" s="284"/>
       <c r="D280" s="90"/>
       <c r="E280" s="67"/>
       <c r="F280" s="60"/>
@@ -12927,7 +13004,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="91"/>
       <c r="B281" s="102"/>
-      <c r="C281" s="318"/>
+      <c r="C281" s="285"/>
       <c r="D281" s="100"/>
       <c r="E281" s="67"/>
       <c r="F281" s="113"/>
@@ -12958,7 +13035,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="91"/>
       <c r="B282" s="102"/>
-      <c r="C282" s="318"/>
+      <c r="C282" s="285"/>
       <c r="D282" s="121"/>
       <c r="E282" s="67"/>
       <c r="F282" s="113"/>
@@ -13020,7 +13097,7 @@
     <row r="284" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="91"/>
       <c r="B284" s="102"/>
-      <c r="C284" s="318"/>
+      <c r="C284" s="285"/>
       <c r="D284" s="100"/>
       <c r="E284" s="67"/>
       <c r="F284" s="60"/>
@@ -13051,7 +13128,7 @@
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="91"/>
       <c r="B285" s="102"/>
-      <c r="C285" s="318"/>
+      <c r="C285" s="285"/>
       <c r="D285" s="101"/>
       <c r="E285" s="67"/>
       <c r="F285" s="60"/>
@@ -13082,7 +13159,7 @@
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="91"/>
       <c r="B286" s="102"/>
-      <c r="C286" s="318"/>
+      <c r="C286" s="285"/>
       <c r="D286" s="101"/>
       <c r="E286" s="67"/>
       <c r="F286" s="60"/>
@@ -13113,7 +13190,7 @@
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="91"/>
       <c r="B287" s="102"/>
-      <c r="C287" s="318"/>
+      <c r="C287" s="285"/>
       <c r="D287" s="101"/>
       <c r="E287" s="67"/>
       <c r="F287" s="113"/>
@@ -13144,7 +13221,7 @@
     <row r="288" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="91"/>
       <c r="B288" s="102"/>
-      <c r="C288" s="318"/>
+      <c r="C288" s="285"/>
       <c r="D288" s="101"/>
       <c r="E288" s="123"/>
       <c r="F288" s="60"/>
@@ -13524,7 +13601,7 @@
       <c r="H300" s="113"/>
       <c r="I300" s="113"/>
       <c r="J300" s="113"/>
-      <c r="K300" s="326"/>
+      <c r="K300" s="294"/>
       <c r="L300" s="58"/>
       <c r="M300" s="80"/>
       <c r="N300" s="51"/>
@@ -13555,7 +13632,7 @@
       <c r="H301" s="113"/>
       <c r="I301" s="113"/>
       <c r="J301" s="113"/>
-      <c r="K301" s="326"/>
+      <c r="K301" s="294"/>
       <c r="L301" s="58"/>
       <c r="M301" s="80"/>
       <c r="N301" s="51"/>
@@ -13640,7 +13717,7 @@
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="91"/>
       <c r="B304" s="102"/>
-      <c r="C304" s="318"/>
+      <c r="C304" s="285"/>
       <c r="D304" s="100"/>
       <c r="E304" s="67"/>
       <c r="F304" s="113"/>
@@ -13648,7 +13725,7 @@
       <c r="H304" s="113"/>
       <c r="I304" s="113"/>
       <c r="J304" s="113"/>
-      <c r="K304" s="319"/>
+      <c r="K304" s="288"/>
       <c r="L304" s="58"/>
       <c r="M304" s="80"/>
       <c r="N304" s="51"/>
@@ -13671,7 +13748,7 @@
     <row r="305" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="91"/>
       <c r="B305" s="102"/>
-      <c r="C305" s="318"/>
+      <c r="C305" s="285"/>
       <c r="D305" s="121"/>
       <c r="E305" s="67"/>
       <c r="F305" s="113"/>
@@ -13679,7 +13756,7 @@
       <c r="H305" s="113"/>
       <c r="I305" s="113"/>
       <c r="J305" s="113"/>
-      <c r="K305" s="319"/>
+      <c r="K305" s="288"/>
       <c r="L305" s="58"/>
       <c r="M305" s="80"/>
       <c r="N305" s="51"/>
@@ -13702,7 +13779,7 @@
     <row r="306" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="91"/>
       <c r="B306" s="102"/>
-      <c r="C306" s="324"/>
+      <c r="C306" s="284"/>
       <c r="D306" s="114"/>
       <c r="E306" s="78"/>
       <c r="F306" s="66"/>
@@ -13733,7 +13810,7 @@
     <row r="307" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="91"/>
       <c r="B307" s="102"/>
-      <c r="C307" s="324"/>
+      <c r="C307" s="284"/>
       <c r="D307" s="77"/>
       <c r="E307" s="78"/>
       <c r="F307" s="66"/>
@@ -13795,7 +13872,7 @@
     <row r="309" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="91"/>
       <c r="B309" s="102"/>
-      <c r="C309" s="318"/>
+      <c r="C309" s="285"/>
       <c r="D309" s="100"/>
       <c r="E309" s="78"/>
       <c r="F309" s="66"/>
@@ -13826,7 +13903,7 @@
     <row r="310" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="91"/>
       <c r="B310" s="102"/>
-      <c r="C310" s="318"/>
+      <c r="C310" s="285"/>
       <c r="D310" s="101"/>
       <c r="E310" s="78"/>
       <c r="F310" s="66"/>
@@ -13857,7 +13934,7 @@
     <row r="311" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="91"/>
       <c r="B311" s="102"/>
-      <c r="C311" s="318"/>
+      <c r="C311" s="285"/>
       <c r="D311" s="121"/>
       <c r="E311" s="78"/>
       <c r="F311" s="66"/>
@@ -14042,10 +14119,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="97"/>
-      <c r="B317" s="327"/>
-      <c r="C317" s="324"/>
+      <c r="B317" s="286"/>
+      <c r="C317" s="284"/>
       <c r="D317" s="90"/>
-      <c r="E317" s="324"/>
+      <c r="E317" s="284"/>
       <c r="F317" s="60"/>
       <c r="G317" s="60"/>
       <c r="H317" s="60"/>
@@ -14073,10 +14150,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="97"/>
-      <c r="B318" s="327"/>
-      <c r="C318" s="327"/>
+      <c r="B318" s="286"/>
+      <c r="C318" s="286"/>
       <c r="D318" s="90"/>
-      <c r="E318" s="324"/>
+      <c r="E318" s="284"/>
       <c r="F318" s="60"/>
       <c r="G318" s="60"/>
       <c r="H318" s="60"/>
@@ -14104,10 +14181,10 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="97"/>
-      <c r="B319" s="327"/>
-      <c r="C319" s="327"/>
+      <c r="B319" s="286"/>
+      <c r="C319" s="286"/>
       <c r="D319" s="90"/>
-      <c r="E319" s="324"/>
+      <c r="E319" s="284"/>
       <c r="F319" s="60"/>
       <c r="G319" s="60"/>
       <c r="H319" s="60"/>
@@ -14135,10 +14212,10 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="97"/>
-      <c r="B320" s="327"/>
-      <c r="C320" s="327"/>
+      <c r="B320" s="286"/>
+      <c r="C320" s="286"/>
       <c r="D320" s="90"/>
-      <c r="E320" s="324"/>
+      <c r="E320" s="284"/>
       <c r="F320" s="60"/>
       <c r="G320" s="60"/>
       <c r="H320" s="60"/>
@@ -14166,10 +14243,10 @@
     </row>
     <row r="321" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="97"/>
-      <c r="B321" s="327"/>
-      <c r="C321" s="327"/>
+      <c r="B321" s="286"/>
+      <c r="C321" s="286"/>
       <c r="D321" s="90"/>
-      <c r="E321" s="324"/>
+      <c r="E321" s="284"/>
       <c r="F321" s="60"/>
       <c r="G321" s="60"/>
       <c r="H321" s="60"/>
@@ -14197,10 +14274,10 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="97"/>
-      <c r="B322" s="327"/>
-      <c r="C322" s="327"/>
+      <c r="B322" s="286"/>
+      <c r="C322" s="286"/>
       <c r="D322" s="90"/>
-      <c r="E322" s="324"/>
+      <c r="E322" s="284"/>
       <c r="F322" s="113"/>
       <c r="G322" s="113"/>
       <c r="H322" s="113"/>
@@ -14228,10 +14305,10 @@
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="97"/>
-      <c r="B323" s="327"/>
-      <c r="C323" s="327"/>
+      <c r="B323" s="286"/>
+      <c r="C323" s="286"/>
       <c r="D323" s="90"/>
-      <c r="E323" s="324"/>
+      <c r="E323" s="284"/>
       <c r="F323" s="60"/>
       <c r="G323" s="60"/>
       <c r="H323" s="60"/>
@@ -14259,10 +14336,10 @@
     </row>
     <row r="324" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="97"/>
-      <c r="B324" s="327"/>
-      <c r="C324" s="327"/>
+      <c r="B324" s="286"/>
+      <c r="C324" s="286"/>
       <c r="D324" s="90"/>
-      <c r="E324" s="324"/>
+      <c r="E324" s="284"/>
       <c r="F324" s="60"/>
       <c r="G324" s="60"/>
       <c r="H324" s="60"/>
@@ -14290,8 +14367,8 @@
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="97"/>
-      <c r="B325" s="327"/>
-      <c r="C325" s="327"/>
+      <c r="B325" s="286"/>
+      <c r="C325" s="286"/>
       <c r="D325" s="90"/>
       <c r="E325" s="94"/>
       <c r="F325" s="57"/>
@@ -14321,8 +14398,8 @@
     </row>
     <row r="326" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="97"/>
-      <c r="B326" s="327"/>
-      <c r="C326" s="327"/>
+      <c r="B326" s="286"/>
+      <c r="C326" s="286"/>
       <c r="D326" s="90"/>
       <c r="E326" s="94"/>
       <c r="F326" s="58"/>
@@ -14352,10 +14429,10 @@
     </row>
     <row r="327" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="97"/>
-      <c r="B327" s="327"/>
-      <c r="C327" s="327"/>
+      <c r="B327" s="286"/>
+      <c r="C327" s="286"/>
       <c r="D327" s="114"/>
-      <c r="E327" s="324"/>
+      <c r="E327" s="284"/>
       <c r="F327" s="66"/>
       <c r="G327" s="66"/>
       <c r="H327" s="66"/>
@@ -14383,10 +14460,10 @@
     </row>
     <row r="328" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="97"/>
-      <c r="B328" s="327"/>
-      <c r="C328" s="327"/>
+      <c r="B328" s="286"/>
+      <c r="C328" s="286"/>
       <c r="D328" s="135"/>
-      <c r="E328" s="324"/>
+      <c r="E328" s="284"/>
       <c r="F328" s="58"/>
       <c r="G328" s="58"/>
       <c r="H328" s="58"/>
@@ -14414,10 +14491,10 @@
     </row>
     <row r="329" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="97"/>
-      <c r="B329" s="327"/>
-      <c r="C329" s="327"/>
+      <c r="B329" s="286"/>
+      <c r="C329" s="286"/>
       <c r="D329" s="135"/>
-      <c r="E329" s="324"/>
+      <c r="E329" s="284"/>
       <c r="F329" s="58"/>
       <c r="G329" s="58"/>
       <c r="H329" s="58"/>
@@ -14445,10 +14522,10 @@
     </row>
     <row r="330" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="97"/>
-      <c r="B330" s="327"/>
-      <c r="C330" s="324"/>
+      <c r="B330" s="286"/>
+      <c r="C330" s="284"/>
       <c r="D330" s="77"/>
-      <c r="E330" s="324"/>
+      <c r="E330" s="284"/>
       <c r="F330" s="58"/>
       <c r="G330" s="58"/>
       <c r="H330" s="58"/>
@@ -14476,7 +14553,7 @@
     </row>
     <row r="331" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="97"/>
-      <c r="B331" s="327"/>
+      <c r="B331" s="286"/>
       <c r="C331" s="90"/>
       <c r="D331" s="135"/>
       <c r="E331" s="135"/>
@@ -14507,10 +14584,10 @@
     </row>
     <row r="332" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="97"/>
-      <c r="B332" s="327"/>
-      <c r="C332" s="324"/>
+      <c r="B332" s="286"/>
+      <c r="C332" s="284"/>
       <c r="D332" s="114"/>
-      <c r="E332" s="328"/>
+      <c r="E332" s="287"/>
       <c r="F332" s="66"/>
       <c r="G332" s="66"/>
       <c r="H332" s="66"/>
@@ -14538,10 +14615,10 @@
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="97"/>
-      <c r="B333" s="327"/>
-      <c r="C333" s="327"/>
+      <c r="B333" s="286"/>
+      <c r="C333" s="286"/>
       <c r="D333" s="77"/>
-      <c r="E333" s="328"/>
+      <c r="E333" s="287"/>
       <c r="F333" s="66"/>
       <c r="G333" s="66"/>
       <c r="H333" s="66"/>
@@ -14569,8 +14646,8 @@
     </row>
     <row r="334" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="97"/>
-      <c r="B334" s="327"/>
-      <c r="C334" s="324"/>
+      <c r="B334" s="286"/>
+      <c r="C334" s="284"/>
       <c r="D334" s="90"/>
       <c r="E334" s="91"/>
       <c r="F334" s="66"/>
@@ -14600,7 +14677,7 @@
     </row>
     <row r="335" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="97"/>
-      <c r="B335" s="327"/>
+      <c r="B335" s="286"/>
       <c r="C335" s="94"/>
       <c r="D335" s="94"/>
       <c r="E335" s="97"/>
@@ -14631,10 +14708,10 @@
     </row>
     <row r="336" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="97"/>
-      <c r="B336" s="327"/>
-      <c r="C336" s="324"/>
+      <c r="B336" s="286"/>
+      <c r="C336" s="284"/>
       <c r="D336" s="114"/>
-      <c r="E336" s="324"/>
+      <c r="E336" s="284"/>
       <c r="F336" s="66"/>
       <c r="G336" s="66"/>
       <c r="H336" s="66"/>
@@ -14662,10 +14739,10 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="97"/>
-      <c r="B337" s="327"/>
-      <c r="C337" s="327"/>
+      <c r="B337" s="286"/>
+      <c r="C337" s="286"/>
       <c r="D337" s="135"/>
-      <c r="E337" s="324"/>
+      <c r="E337" s="284"/>
       <c r="F337" s="66"/>
       <c r="G337" s="66"/>
       <c r="H337" s="66"/>
@@ -14693,10 +14770,10 @@
     </row>
     <row r="338" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="97"/>
-      <c r="B338" s="327"/>
-      <c r="C338" s="327"/>
+      <c r="B338" s="286"/>
+      <c r="C338" s="286"/>
       <c r="D338" s="135"/>
-      <c r="E338" s="324"/>
+      <c r="E338" s="284"/>
       <c r="F338" s="66"/>
       <c r="G338" s="66"/>
       <c r="H338" s="66"/>
@@ -14724,10 +14801,10 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="97"/>
-      <c r="B339" s="327"/>
-      <c r="C339" s="327"/>
+      <c r="B339" s="286"/>
+      <c r="C339" s="286"/>
       <c r="D339" s="135"/>
-      <c r="E339" s="324"/>
+      <c r="E339" s="284"/>
       <c r="F339" s="66"/>
       <c r="G339" s="66"/>
       <c r="H339" s="66"/>
@@ -14755,10 +14832,10 @@
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="97"/>
-      <c r="B340" s="327"/>
-      <c r="C340" s="327"/>
+      <c r="B340" s="286"/>
+      <c r="C340" s="286"/>
       <c r="D340" s="135"/>
-      <c r="E340" s="324"/>
+      <c r="E340" s="284"/>
       <c r="F340" s="60"/>
       <c r="G340" s="60"/>
       <c r="H340" s="60"/>
@@ -14786,10 +14863,10 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="97"/>
-      <c r="B341" s="327"/>
-      <c r="C341" s="327"/>
+      <c r="B341" s="286"/>
+      <c r="C341" s="286"/>
       <c r="D341" s="77"/>
-      <c r="E341" s="324"/>
+      <c r="E341" s="284"/>
       <c r="F341" s="60"/>
       <c r="G341" s="60"/>
       <c r="H341" s="60"/>
@@ -14817,10 +14894,10 @@
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="97"/>
-      <c r="B342" s="327"/>
-      <c r="C342" s="327"/>
+      <c r="B342" s="286"/>
+      <c r="C342" s="286"/>
       <c r="D342" s="114"/>
-      <c r="E342" s="324"/>
+      <c r="E342" s="284"/>
       <c r="F342" s="66"/>
       <c r="G342" s="66"/>
       <c r="H342" s="66"/>
@@ -14848,10 +14925,10 @@
     </row>
     <row r="343" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="97"/>
-      <c r="B343" s="327"/>
-      <c r="C343" s="327"/>
+      <c r="B343" s="286"/>
+      <c r="C343" s="286"/>
       <c r="D343" s="135"/>
-      <c r="E343" s="324"/>
+      <c r="E343" s="284"/>
       <c r="F343" s="58"/>
       <c r="G343" s="58"/>
       <c r="H343" s="58"/>
@@ -14879,10 +14956,10 @@
     </row>
     <row r="344" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="97"/>
-      <c r="B344" s="327"/>
-      <c r="C344" s="327"/>
+      <c r="B344" s="286"/>
+      <c r="C344" s="286"/>
       <c r="D344" s="135"/>
-      <c r="E344" s="324"/>
+      <c r="E344" s="284"/>
       <c r="F344" s="58"/>
       <c r="G344" s="58"/>
       <c r="H344" s="58"/>
@@ -14910,10 +14987,10 @@
     </row>
     <row r="345" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="97"/>
-      <c r="B345" s="327"/>
-      <c r="C345" s="327"/>
+      <c r="B345" s="286"/>
+      <c r="C345" s="286"/>
       <c r="D345" s="77"/>
-      <c r="E345" s="324"/>
+      <c r="E345" s="284"/>
       <c r="F345" s="58"/>
       <c r="G345" s="58"/>
       <c r="H345" s="58"/>
@@ -17048,38 +17125,23 @@
       <c r="AC413" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D50:D69"/>
-    <mergeCell ref="E336:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="C309:C311"/>
-    <mergeCell ref="B317:B345"/>
-    <mergeCell ref="C317:C330"/>
-    <mergeCell ref="E317:E324"/>
-    <mergeCell ref="E327:E330"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="E332:E333"/>
-    <mergeCell ref="C336:C345"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D202:D212"/>
-    <mergeCell ref="M202:M209"/>
-    <mergeCell ref="D214:D222"/>
-    <mergeCell ref="K265:K267"/>
-    <mergeCell ref="L265:L267"/>
-    <mergeCell ref="C274:C280"/>
-    <mergeCell ref="E274:E276"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="C284:C288"/>
-    <mergeCell ref="K300:K301"/>
-    <mergeCell ref="D157:D165"/>
-    <mergeCell ref="B16:B212"/>
+  <mergeCells count="53">
+    <mergeCell ref="B16:B74"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D21:D48"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C76:C101"/>
-    <mergeCell ref="D76:D101"/>
     <mergeCell ref="C103:C107"/>
     <mergeCell ref="D103:D106"/>
     <mergeCell ref="D114:D118"/>
@@ -17091,19 +17153,32 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C24:C43"/>
     <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D21:D48"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="C50:C56"/>
     <mergeCell ref="C58:C65"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D202:D212"/>
+    <mergeCell ref="M202:M209"/>
+    <mergeCell ref="D214:D222"/>
+    <mergeCell ref="K265:K267"/>
+    <mergeCell ref="L265:L267"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="K300:K301"/>
+    <mergeCell ref="B317:B345"/>
+    <mergeCell ref="C317:C330"/>
+    <mergeCell ref="E317:E324"/>
+    <mergeCell ref="E327:E330"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="E332:E333"/>
+    <mergeCell ref="C336:C345"/>
+    <mergeCell ref="E336:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="C274:C280"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="C284:C288"/>
+    <mergeCell ref="D157:D165"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L14 L16:L74 L76:L121 L157:L413">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
